--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -8999,7 +8999,11 @@
 ·【OP】通过OP官方桥，转到OP：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00145</t>
         </is>
       </c>
-      <c r="D111" s="38" t="n"/>
+      <c r="D111" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E111" s="38" t="n"/>
       <c r="F111" s="38" t="n"/>
       <c r="G111" s="22" t="n"/>
@@ -13144,7 +13148,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.058ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001942</t>
         </is>
       </c>
-      <c r="D164" s="38" t="n"/>
+      <c r="D164" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E164" s="38" t="n"/>
       <c r="F164" s="38" t="n"/>
       <c r="G164" s="22" t="n"/>

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1023,7 +1023,11 @@
       <c r="I4" s="38" t="n"/>
       <c r="J4" s="38" t="n"/>
       <c r="K4" s="22" t="n"/>
-      <c r="L4" s="39" t="n"/>
+      <c r="L4" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M4" s="38" t="n"/>
       <c r="N4" s="38" t="n"/>
       <c r="P4" s="24" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1025,7 +1025,7 @@
       <c r="K4" s="22" t="n"/>
       <c r="L4" s="39" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="M4" s="38" t="n"/>
@@ -1073,7 +1073,8 @@
         <is>
           <t>·小狐狸交易失败，点击【拒绝交易】
 ·小狐狸交易失败，点击【拒绝交易】，gas fee预估0.008176
-·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次</t>
+·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次
+·orb 成功</t>
         </is>
       </c>
       <c r="Y4" s="23" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -851,11 +851,15 @@
       <c r="G2" s="22" t="n"/>
       <c r="H2" s="39" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I2" s="38" t="n"/>
-      <c r="J2" s="38" t="n"/>
+      <c r="J2" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K2" s="22" t="n"/>
       <c r="L2" s="39" t="n"/>
       <c r="M2" s="38" t="n"/>
@@ -877,7 +881,11 @@
 ·√</t>
         </is>
       </c>
-      <c r="S2" s="37" t="n"/>
+      <c r="S2" s="37" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T2" s="37" t="inlineStr">
         <is>
           <t>·√
@@ -903,7 +911,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0476
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 79.834 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 73.9187 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 73.9187 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0231；</t>
         </is>
       </c>
       <c r="W2" s="24" t="inlineStr">
@@ -941,11 +950,15 @@
       <c r="G3" s="22" t="n"/>
       <c r="H3" s="39" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="I3" s="38" t="n"/>
-      <c r="J3" s="38" t="n"/>
+      <c r="J3" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K3" s="22" t="n"/>
       <c r="L3" s="39" t="n"/>
       <c r="M3" s="38" t="n"/>
@@ -968,7 +981,8 @@
       </c>
       <c r="S3" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="U3" s="22" t="inlineStr">
@@ -985,7 +999,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.014 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；</t>
         </is>
       </c>
       <c r="W3" s="24" t="inlineStr">
@@ -1019,9 +1034,17 @@
       <c r="E4" s="38" t="n"/>
       <c r="F4" s="38" t="n"/>
       <c r="G4" s="22" t="n"/>
-      <c r="H4" s="39" t="n"/>
+      <c r="H4" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I4" s="38" t="n"/>
-      <c r="J4" s="38" t="n"/>
+      <c r="J4" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K4" s="22" t="n"/>
       <c r="L4" s="39" t="inlineStr">
         <is>
@@ -1044,6 +1067,7 @@
       <c r="S4" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -1066,7 +1090,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.04
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
-· OP clipper 任务完</t>
+· OP clipper 任务完
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；</t>
         </is>
       </c>
       <c r="W4" s="24" t="inlineStr">
@@ -1101,9 +1126,17 @@
       <c r="E5" s="38" t="n"/>
       <c r="F5" s="38" t="n"/>
       <c r="G5" s="22" t="n"/>
-      <c r="H5" s="39" t="n"/>
+      <c r="H5" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I5" s="38" t="n"/>
-      <c r="J5" s="38" t="n"/>
+      <c r="J5" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K5" s="22" t="n"/>
       <c r="L5" s="39" t="n"/>
       <c r="M5" s="38" t="n"/>
@@ -1125,6 +1158,7 @@
       <c r="S5" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1132,7 +1166,10 @@
         <is>
           <t>·OP clipper 任务完成；小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0117 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.91 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.91 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W5" s="24" t="inlineStr">
@@ -1165,9 +1202,17 @@
       <c r="E6" s="38" t="n"/>
       <c r="F6" s="38" t="n"/>
       <c r="G6" s="22" t="n"/>
-      <c r="H6" s="39" t="n"/>
+      <c r="H6" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I6" s="22" t="n"/>
-      <c r="J6" s="38" t="n"/>
+      <c r="J6" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K6" s="22" t="n"/>
       <c r="L6" s="39" t="n"/>
       <c r="N6" s="38" t="n"/>
@@ -1182,6 +1227,11 @@
         </is>
       </c>
       <c r="R6" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S6" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -1201,7 +1251,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0275；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.4 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.4 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
         </is>
       </c>
       <c r="W6" s="24" t="inlineStr">
@@ -1234,7 +1285,11 @@
       <c r="E7" s="38" t="n"/>
       <c r="F7" s="38" t="n"/>
       <c r="G7" s="22" t="n"/>
-      <c r="H7" s="39" t="n"/>
+      <c r="H7" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I7" s="38" t="n"/>
       <c r="J7" s="38" t="n"/>
       <c r="K7" s="22" t="n"/>
@@ -1268,7 +1323,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0093 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.78 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.78 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W7" s="23" t="inlineStr">
@@ -1300,9 +1356,17 @@
       <c r="E8" s="38" t="n"/>
       <c r="F8" s="38" t="n"/>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="39" t="n"/>
+      <c r="H8" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I8" s="38" t="n"/>
-      <c r="J8" s="38" t="n"/>
+      <c r="J8" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K8" s="22" t="n"/>
       <c r="L8" s="39" t="n"/>
       <c r="M8" s="38" t="n"/>
@@ -1328,6 +1392,11 @@
 ·√</t>
         </is>
       </c>
+      <c r="T8" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="U8" s="23" t="inlineStr">
         <is>
           <t>·√</t>
@@ -1338,7 +1407,8 @@
           <t>·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.691 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.691 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01</t>
         </is>
       </c>
       <c r="W8" s="24" t="inlineStr">
@@ -1373,9 +1443,17 @@
       <c r="E9" s="38" t="n"/>
       <c r="F9" s="38" t="n"/>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="39" t="n"/>
+      <c r="H9" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I9" s="38" t="n"/>
-      <c r="J9" s="38" t="n"/>
+      <c r="J9" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K9" s="22" t="n"/>
       <c r="L9" s="39" t="n"/>
       <c r="M9" s="38" t="n"/>
@@ -1392,6 +1470,7 @@
         <is>
           <t>·√
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1412,7 +1491,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功
 ·OP zipswap 任
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.5025 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.5025 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0094；</t>
         </is>
       </c>
       <c r="W9" s="24" t="inlineStr">
@@ -1454,9 +1534,17 @@
       <c r="E10" s="38" t="n"/>
       <c r="F10" s="38" t="n"/>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="39" t="n"/>
+      <c r="H10" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I10" s="38" t="n"/>
-      <c r="J10" s="38" t="n"/>
+      <c r="J10" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K10" s="22" t="n"/>
       <c r="L10" s="39" t="n"/>
       <c r="M10" s="38" t="n"/>
@@ -1479,6 +1567,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T10" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="U10" s="23" t="inlineStr">
@@ -1495,7 +1588,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是29.72；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.015；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.743 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.743 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.8926</t>
         </is>
       </c>
       <c r="W10" s="24" t="inlineStr">
@@ -1576,7 +1670,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.736 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 16.4001
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.837 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.837 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W11" s="42" t="inlineStr">
@@ -1612,8 +1707,17 @@
       <c r="E12" s="38" t="n"/>
       <c r="F12" s="38" t="n"/>
       <c r="G12" s="22" t="n"/>
-      <c r="H12" s="39" t="n"/>
+      <c r="H12" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I12" s="38" t="n"/>
+      <c r="J12" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K12" s="22" t="n"/>
       <c r="L12" s="39" t="n"/>
       <c r="M12" s="38" t="n"/>
@@ -1629,6 +1733,11 @@
         </is>
       </c>
       <c r="S12" s="22" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="T12" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -1645,7 +1754,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.83 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.83 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0063</t>
         </is>
       </c>
       <c r="W12" s="24" t="inlineStr">
@@ -1682,8 +1792,17 @@
       <c r="E13" s="38" t="n"/>
       <c r="F13" s="38" t="n"/>
       <c r="G13" s="22" t="n"/>
+      <c r="H13" s="23" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I13" s="38" t="n"/>
-      <c r="J13" s="38" t="n"/>
+      <c r="J13" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="39" t="n"/>
       <c r="M13" s="38" t="n"/>
@@ -1705,6 +1824,7 @@
       <c r="T13" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1718,7 +1838,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 39.085
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.021
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.4 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.4 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01</t>
         </is>
       </c>
       <c r="W13" s="42" t="inlineStr">
@@ -1759,9 +1880,17 @@
       <c r="E14" s="38" t="n"/>
       <c r="F14" s="38" t="n"/>
       <c r="G14" s="22" t="n"/>
-      <c r="H14" s="39" t="n"/>
+      <c r="H14" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I14" s="38" t="n"/>
-      <c r="J14" s="38" t="n"/>
+      <c r="J14" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L14" s="39" t="n"/>
       <c r="M14" s="38" t="n"/>
       <c r="P14" s="24" t="inlineStr">
@@ -1772,7 +1901,8 @@
       </c>
       <c r="R14" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S14" s="23" t="inlineStr">
@@ -1788,7 +1918,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.024 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.024 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0066；</t>
         </is>
       </c>
       <c r="W14" s="24" t="inlineStr">
@@ -1826,9 +1957,17 @@
       <c r="E15" s="38" t="n"/>
       <c r="F15" s="38" t="n"/>
       <c r="G15" s="22" t="n"/>
-      <c r="H15" s="39" t="n"/>
+      <c r="H15" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I15" s="38" t="n"/>
-      <c r="J15" s="38" t="n"/>
+      <c r="J15" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="39" t="n"/>
       <c r="M15" s="38" t="n"/>
@@ -1847,6 +1986,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T15" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="U15" s="23" t="inlineStr">
@@ -1861,7 +2005,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是38.143；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.025；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.025；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
         </is>
       </c>
       <c r="W15" s="24" t="inlineStr">
@@ -1898,7 +2043,11 @@
       <c r="E16" s="38" t="n"/>
       <c r="F16" s="38" t="n"/>
       <c r="G16" s="22" t="n"/>
-      <c r="H16" s="39" t="n"/>
+      <c r="H16" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I16" s="38" t="n"/>
       <c r="J16" s="38" t="n"/>
       <c r="K16" s="22" t="n"/>
@@ -1978,7 +2127,11 @@
       <c r="E17" s="38" t="n"/>
       <c r="F17" s="38" t="n"/>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="39" t="n"/>
+      <c r="H17" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I17" s="38" t="n"/>
       <c r="J17" s="38" t="n"/>
       <c r="K17" s="22" t="n"/>
@@ -2050,7 +2203,11 @@
       <c r="E18" s="38" t="n"/>
       <c r="F18" s="38" t="n"/>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="39" t="n"/>
+      <c r="H18" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I18" s="38" t="n"/>
       <c r="J18" s="38" t="n"/>
       <c r="L18" s="39" t="n"/>
@@ -2124,7 +2281,11 @@
       <c r="E19" s="38" t="n"/>
       <c r="F19" s="38" t="n"/>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="39" t="n"/>
+      <c r="H19" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I19" s="38" t="n"/>
       <c r="J19" s="38" t="n"/>
       <c r="K19" s="22" t="n"/>
@@ -2189,7 +2350,11 @@
       <c r="E20" s="38" t="n"/>
       <c r="F20" s="38" t="n"/>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="39" t="n"/>
+      <c r="H20" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I20" s="38" t="n"/>
       <c r="J20" s="38" t="n"/>
       <c r="K20" s="22" t="n"/>
@@ -2296,7 +2461,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.198 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.3 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.3 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W21" s="24" t="inlineStr">
@@ -2333,9 +2499,17 @@
       <c r="E22" s="38" t="n"/>
       <c r="F22" s="38" t="n"/>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="39" t="n"/>
+      <c r="H22" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I22" s="38" t="n"/>
-      <c r="J22" s="38" t="n"/>
+      <c r="J22" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="39" t="n"/>
       <c r="M22" s="38" t="n"/>
@@ -2347,7 +2521,8 @@
       </c>
       <c r="R22" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T22" s="24" t="inlineStr">
@@ -2363,7 +2538,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.7 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.7 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0074；</t>
         </is>
       </c>
       <c r="W22" s="24" t="inlineStr">
@@ -2400,9 +2576,17 @@
       <c r="E23" s="38" t="n"/>
       <c r="F23" s="38" t="n"/>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="39" t="n"/>
+      <c r="H23" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I23" s="38" t="n"/>
-      <c r="J23" s="38" t="n"/>
+      <c r="J23" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="39" t="n"/>
       <c r="M23" s="38" t="n"/>
@@ -2418,7 +2602,8 @@
       </c>
       <c r="R23" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S23" s="37" t="inlineStr">
@@ -2440,7 +2625,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.026；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.41 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.41 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；</t>
         </is>
       </c>
       <c r="W23" s="24" t="inlineStr">
@@ -2478,9 +2664,17 @@
       <c r="E24" s="38" t="n"/>
       <c r="F24" s="38" t="n"/>
       <c r="G24" s="22" t="n"/>
-      <c r="H24" s="39" t="n"/>
+      <c r="H24" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I24" s="38" t="n"/>
-      <c r="J24" s="38" t="n"/>
+      <c r="J24" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="39" t="n"/>
       <c r="M24" s="38" t="n"/>
@@ -2492,7 +2686,8 @@
       </c>
       <c r="S24" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T24" s="24" t="inlineStr">
@@ -2508,7 +2703,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 33.12
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.868 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.868 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.369；</t>
         </is>
       </c>
       <c r="W24" s="24" t="inlineStr">
@@ -2545,9 +2741,17 @@
       <c r="E25" s="38" t="n"/>
       <c r="F25" s="38" t="n"/>
       <c r="G25" s="22" t="n"/>
-      <c r="H25" s="39" t="n"/>
+      <c r="H25" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I25" s="38" t="n"/>
-      <c r="J25" s="38" t="n"/>
+      <c r="J25" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="39" t="n"/>
       <c r="M25" s="38" t="n"/>
@@ -2568,7 +2772,8 @@
       </c>
       <c r="S25" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T25" s="24" t="inlineStr">
@@ -2589,7 +2794,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.4698
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0194；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0389 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 54.515 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 54.515 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0104；</t>
         </is>
       </c>
       <c r="W25" s="42" t="inlineStr">
@@ -2628,9 +2835,17 @@
       <c r="E26" s="38" t="n"/>
       <c r="F26" s="38" t="n"/>
       <c r="G26" s="22" t="n"/>
-      <c r="H26" s="39" t="n"/>
+      <c r="H26" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I26" s="38" t="n"/>
-      <c r="J26" s="38" t="n"/>
+      <c r="J26" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="39" t="n"/>
       <c r="M26" s="38" t="n"/>
@@ -2652,7 +2867,8 @@
       </c>
       <c r="S26" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V26" s="24" t="inlineStr">
@@ -2665,7 +2881,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：22.597；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.011；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0115 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.144 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.144 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0076；</t>
         </is>
       </c>
       <c r="W26" s="42" t="inlineStr">
@@ -2735,7 +2952,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.512；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.216 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.216 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W27" s="24" t="inlineStr">
@@ -2773,7 +2991,11 @@
       <c r="E28" s="38" t="n"/>
       <c r="F28" s="38" t="n"/>
       <c r="G28" s="22" t="n"/>
-      <c r="H28" s="39" t="n"/>
+      <c r="H28" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I28" s="38" t="n"/>
       <c r="J28" s="38" t="n"/>
       <c r="L28" s="39" t="n"/>
@@ -2844,9 +3066,17 @@
       <c r="E29" s="38" t="n"/>
       <c r="F29" s="38" t="n"/>
       <c r="G29" s="22" t="n"/>
-      <c r="H29" s="39" t="n"/>
+      <c r="H29" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I29" s="38" t="n"/>
-      <c r="J29" s="38" t="n"/>
+      <c r="J29" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="39" t="n"/>
       <c r="M29" s="38" t="n"/>
@@ -2868,7 +3098,8 @@
       </c>
       <c r="S29" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V29" s="24" t="inlineStr">
@@ -2885,7 +3116,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.015；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.1752 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.1752 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.671；</t>
         </is>
       </c>
       <c r="W29" s="24" t="inlineStr">
@@ -2965,7 +3197,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 25.7961
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.0983 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.0983 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W30" s="24" t="inlineStr">
@@ -3035,7 +3268,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0131
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0079 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.1684 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.1684 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W31" s="24" t="inlineStr">
@@ -3072,9 +3306,17 @@
       <c r="E32" s="38" t="n"/>
       <c r="F32" s="38" t="n"/>
       <c r="G32" s="22" t="n"/>
-      <c r="H32" s="39" t="n"/>
+      <c r="H32" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I32" s="38" t="n"/>
-      <c r="J32" s="38" t="n"/>
+      <c r="J32" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="39" t="n"/>
       <c r="M32" s="38" t="n"/>
@@ -3095,7 +3337,8 @@
       </c>
       <c r="S32" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="U32" s="23" t="inlineStr">
@@ -3114,7 +3357,8 @@
 · matcha 还是换钱失败
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0233；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.473 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
         </is>
       </c>
       <c r="W32" s="24" t="inlineStr">
@@ -3151,9 +3395,17 @@
       <c r="D33" s="38" t="n"/>
       <c r="E33" s="38" t="n"/>
       <c r="F33" s="38" t="n"/>
-      <c r="H33" s="39" t="n"/>
+      <c r="H33" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I33" s="38" t="n"/>
-      <c r="J33" s="38" t="n"/>
+      <c r="J33" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="L33" s="39" t="n"/>
       <c r="M33" s="38" t="n"/>
       <c r="N33" s="38" t="n"/>
@@ -3174,7 +3426,8 @@
       </c>
       <c r="S33" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T33" s="24" t="inlineStr">
@@ -3200,7 +3453,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.1507；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.35 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.35 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是1.255；</t>
         </is>
       </c>
       <c r="W33" s="42" t="inlineStr">
@@ -3286,7 +3540,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.78 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W34" s="24" t="inlineStr">
@@ -3323,9 +3578,17 @@
       <c r="E35" s="38" t="n"/>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="22" t="n"/>
-      <c r="H35" s="39" t="n"/>
+      <c r="H35" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I35" s="38" t="n"/>
-      <c r="J35" s="38" t="n"/>
+      <c r="J35" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L35" s="39" t="n"/>
       <c r="M35" s="38" t="n"/>
       <c r="N35" s="38" t="n"/>
@@ -3350,7 +3613,8 @@
       </c>
       <c r="S35" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V35" s="24" t="inlineStr">
@@ -3364,7 +3628,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.7295；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.023 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.3055 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.3055 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0153；</t>
         </is>
       </c>
       <c r="W35" s="42" t="inlineStr">
@@ -3403,9 +3668,17 @@
       <c r="E36" s="38" t="n"/>
       <c r="F36" s="38" t="n"/>
       <c r="G36" s="22" t="n"/>
-      <c r="H36" s="39" t="n"/>
+      <c r="H36" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I36" s="38" t="n"/>
-      <c r="J36" s="38" t="n"/>
+      <c r="J36" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="39" t="n"/>
       <c r="M36" s="38" t="n"/>
@@ -3421,6 +3694,7 @@
       <c r="S36" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -3441,7 +3715,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.49 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.0108
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0269；
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；</t>
         </is>
       </c>
       <c r="W36" s="42" t="inlineStr">
@@ -3505,7 +3780,8 @@
           <t>·OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.025；小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，USD Coin 换 Ethereum 金额 37.193
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.02
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W37" s="24" t="inlineStr">
@@ -3541,9 +3817,17 @@
       <c r="E38" s="38" t="n"/>
       <c r="F38" s="38" t="n"/>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="39" t="n"/>
+      <c r="H38" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I38" s="38" t="n"/>
-      <c r="J38" s="38" t="n"/>
+      <c r="J38" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L38" s="39" t="n"/>
       <c r="M38" s="38" t="n"/>
       <c r="P38" s="24" t="inlineStr">
@@ -3555,6 +3839,7 @@
       <c r="S38" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -3574,7 +3859,8 @@
 · matcha 还是换钱失败
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是3.64；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.781 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.781 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0046；</t>
         </is>
       </c>
       <c r="W38" s="24" t="inlineStr">
@@ -3639,7 +3925,8 @@
           <t>·OP showme 任务完成；小狐狸签名成功
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.017</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.017
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W39" s="24" t="inlineStr">
@@ -3720,7 +4007,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 35.07
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.019
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.944 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W40" s="42" t="inlineStr">
@@ -3758,9 +4046,17 @@
       <c r="E41" s="38" t="n"/>
       <c r="F41" s="38" t="n"/>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="39" t="n"/>
+      <c r="H41" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I41" s="38" t="n"/>
-      <c r="J41" s="38" t="n"/>
+      <c r="J41" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="39" t="n"/>
       <c r="M41" s="38" t="n"/>
@@ -3775,7 +4071,8 @@
       </c>
       <c r="S41" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T41" s="24" t="inlineStr">
@@ -3795,7 +4092,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，USD Coin 换 Ethereum 金额 35.14
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0242
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.2561 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0057 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0057 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0258；</t>
         </is>
       </c>
       <c r="W41" s="24" t="inlineStr">
@@ -3871,7 +4169,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0251；
 ·fox_confirm_OP()小狐狸点击【
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0122 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.11 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.11 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W42" s="24" t="inlineStr">
@@ -3912,9 +4211,17 @@
       <c r="E43" s="38" t="n"/>
       <c r="F43" s="38" t="n"/>
       <c r="G43" s="22" t="n"/>
-      <c r="H43" s="39" t="n"/>
+      <c r="H43" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I43" s="38" t="n"/>
-      <c r="J43" s="38" t="n"/>
+      <c r="J43" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K43" s="22" t="n"/>
       <c r="L43" s="39" t="n"/>
       <c r="M43" s="38" t="n"/>
@@ -3926,6 +4233,7 @@
       <c r="S43" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -3934,7 +4242,8 @@
           <t>·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是14.9；
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0326；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0197；</t>
         </is>
       </c>
       <c r="W43" s="24" t="inlineStr">
@@ -3971,9 +4280,17 @@
       <c r="E44" s="38" t="n"/>
       <c r="F44" s="38" t="n"/>
       <c r="G44" s="22" t="n"/>
-      <c r="H44" s="39" t="n"/>
+      <c r="H44" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I44" s="38" t="n"/>
-      <c r="J44" s="38" t="n"/>
+      <c r="J44" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="39" t="n"/>
       <c r="M44" s="38" t="n"/>
@@ -3991,6 +4308,7 @@
       <c r="S44" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -4012,7 +4330,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，USD Coin 换 Ethereum 金额 35.14
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.016；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.62 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.62 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W44" s="24" t="inlineStr">
@@ -4051,9 +4370,17 @@
       <c r="E45" s="38" t="n"/>
       <c r="F45" s="38" t="n"/>
       <c r="G45" s="22" t="n"/>
-      <c r="H45" s="39" t="n"/>
+      <c r="H45" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I45" s="38" t="n"/>
-      <c r="J45" s="38" t="n"/>
+      <c r="J45" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="39" t="n"/>
       <c r="M45" s="38" t="n"/>
@@ -4073,7 +4400,8 @@
       </c>
       <c r="S45" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V45" s="24" t="inlineStr">
@@ -4087,7 +4415,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.939 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：23.32；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.15 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.15 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
         </is>
       </c>
       <c r="W45" s="42" t="inlineStr">
@@ -4162,7 +4491,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.22 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.22 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W46" s="24" t="inlineStr">
@@ -4229,7 +4559,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.7413
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0157 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.39 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.39 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W47" s="24" t="inlineStr">
@@ -4266,9 +4597,17 @@
       <c r="E48" s="38" t="n"/>
       <c r="F48" s="38" t="n"/>
       <c r="G48" s="22" t="n"/>
-      <c r="H48" s="39" t="n"/>
+      <c r="H48" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I48" s="38" t="n"/>
-      <c r="J48" s="38" t="n"/>
+      <c r="J48" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="39" t="n"/>
       <c r="M48" s="38" t="n"/>
@@ -4284,7 +4623,8 @@
       </c>
       <c r="S48" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T48" s="24" t="inlineStr">
@@ -4304,7 +4644,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.028 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.015；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；</t>
         </is>
       </c>
       <c r="W48" s="24" t="inlineStr">
@@ -4342,9 +4683,17 @@
       <c r="E49" s="38" t="n"/>
       <c r="F49" s="38" t="n"/>
       <c r="G49" s="22" t="n"/>
-      <c r="H49" s="39" t="n"/>
+      <c r="H49" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I49" s="38" t="n"/>
-      <c r="J49" s="38" t="n"/>
+      <c r="J49" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="39" t="n"/>
       <c r="M49" s="38" t="n"/>
@@ -4363,6 +4712,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S49" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T49" s="24" t="inlineStr">
@@ -4391,7 +4745,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.03；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.03；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 42.478 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 42.478 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；</t>
         </is>
       </c>
       <c r="W49" s="24" t="inlineStr">
@@ -4430,9 +4785,17 @@
       <c r="E50" s="38" t="n"/>
       <c r="F50" s="38" t="n"/>
       <c r="G50" s="22" t="n"/>
-      <c r="H50" s="39" t="n"/>
+      <c r="H50" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I50" s="38" t="n"/>
-      <c r="J50" s="38" t="n"/>
+      <c r="J50" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="39" t="n"/>
       <c r="M50" s="38" t="n"/>
@@ -4453,7 +4816,8 @@
       </c>
       <c r="S50" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T50" s="24" t="inlineStr">
@@ -4472,7 +4836,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 35.69
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0257；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0358 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 55.88 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 55.88 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0205；</t>
         </is>
       </c>
       <c r="W50" s="24" t="inlineStr">
@@ -4511,9 +4876,17 @@
       <c r="E51" s="38" t="n"/>
       <c r="F51" s="38" t="n"/>
       <c r="G51" s="22" t="n"/>
-      <c r="H51" s="39" t="n"/>
+      <c r="H51" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I51" s="38" t="n"/>
-      <c r="J51" s="38" t="n"/>
+      <c r="J51" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="39" t="n"/>
       <c r="M51" s="38" t="n"/>
@@ -4535,6 +4908,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S51" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T51" s="24" t="inlineStr">
@@ -4563,7 +4941,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 33.07
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0193
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0163 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.74 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.74 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0137；</t>
         </is>
       </c>
       <c r="W51" s="24" t="inlineStr">
@@ -4601,9 +4980,17 @@
       <c r="E52" s="38" t="n"/>
       <c r="F52" s="38" t="n"/>
       <c r="G52" s="22" t="n"/>
-      <c r="H52" s="39" t="n"/>
+      <c r="H52" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I52" s="38" t="n"/>
-      <c r="J52" s="38" t="n"/>
+      <c r="J52" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="38" t="n"/>
       <c r="M52" s="38" t="n"/>
@@ -4625,7 +5012,8 @@
       </c>
       <c r="S52" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T52" s="24" t="inlineStr">
@@ -4645,7 +5033,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：33.77；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.13；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
-·ZK zigzag 任务完成；zigzag 点击【卖】</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
         </is>
       </c>
       <c r="W52" s="24" t="inlineStr">
@@ -4684,7 +5073,11 @@
       <c r="E53" s="38" t="n"/>
       <c r="F53" s="38" t="n"/>
       <c r="G53" s="22" t="n"/>
-      <c r="H53" s="39" t="n"/>
+      <c r="H53" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I53" s="38" t="n"/>
       <c r="J53" s="38" t="n"/>
       <c r="K53" s="22" t="n"/>
@@ -4769,9 +5162,17 @@
       <c r="E54" s="38" t="n"/>
       <c r="F54" s="38" t="n"/>
       <c r="G54" s="22" t="n"/>
-      <c r="H54" s="39" t="n"/>
+      <c r="H54" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I54" s="38" t="n"/>
-      <c r="J54" s="38" t="n"/>
+      <c r="J54" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="39" t="n"/>
       <c r="M54" s="38" t="n"/>
@@ -4796,6 +5197,7 @@
       <c r="S54" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -4809,7 +5211,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·小狐狸确认成功，但 matcha 还是换钱失败小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.01；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W54" s="24" t="inlineStr">
@@ -4846,9 +5249,17 @@
       <c r="E55" s="38" t="n"/>
       <c r="F55" s="38" t="n"/>
       <c r="G55" s="22" t="n"/>
-      <c r="H55" s="39" t="n"/>
+      <c r="H55" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I55" s="38" t="n"/>
-      <c r="J55" s="38" t="n"/>
+      <c r="J55" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="39" t="n"/>
       <c r="M55" s="38" t="n"/>
@@ -4863,7 +5274,8 @@
       </c>
       <c r="S55" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T55" s="24" t="inlineStr">
@@ -4884,7 +5296,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.03
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.016；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0107 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.187 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.187 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
         </is>
       </c>
       <c r="W55" s="24" t="inlineStr">
@@ -4961,7 +5374,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0121；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0087 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.41 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.41 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W56" s="24" t="inlineStr">
@@ -5000,9 +5414,17 @@
       <c r="E57" s="38" t="n"/>
       <c r="F57" s="38" t="n"/>
       <c r="G57" s="22" t="n"/>
-      <c r="H57" s="39" t="n"/>
+      <c r="H57" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I57" s="38" t="n"/>
-      <c r="J57" s="38" t="n"/>
+      <c r="J57" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="39" t="n"/>
       <c r="M57" s="38" t="n"/>
@@ -5027,7 +5449,8 @@
       </c>
       <c r="S57" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T57" s="24" t="inlineStr">
@@ -5048,7 +5471,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 29.08
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0168 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.39 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.39 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0063；</t>
         </is>
       </c>
       <c r="W57" s="24" t="inlineStr">
@@ -5085,9 +5509,17 @@
       <c r="E58" s="38" t="n"/>
       <c r="F58" s="38" t="n"/>
       <c r="G58" s="22" t="n"/>
-      <c r="H58" s="39" t="n"/>
+      <c r="H58" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I58" s="38" t="n"/>
-      <c r="J58" s="38" t="n"/>
+      <c r="J58" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="39" t="n"/>
       <c r="M58" s="38" t="n"/>
@@ -5108,7 +5540,8 @@
       </c>
       <c r="S58" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T58" s="24" t="inlineStr">
@@ -5129,7 +5562,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 30.4905
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.018
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.11 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；</t>
         </is>
       </c>
       <c r="W58" s="42" t="inlineStr">
@@ -5205,7 +5639,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0128；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.521 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.521 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W59" s="24" t="inlineStr">
@@ -5244,9 +5679,17 @@
       <c r="E60" s="38" t="n"/>
       <c r="F60" s="38" t="n"/>
       <c r="G60" s="22" t="n"/>
-      <c r="H60" s="39" t="n"/>
+      <c r="H60" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I60" s="38" t="n"/>
-      <c r="J60" s="38" t="n"/>
+      <c r="J60" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="39" t="n"/>
       <c r="M60" s="38" t="n"/>
@@ -5261,7 +5704,8 @@
       </c>
       <c r="S60" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T60" s="24" t="inlineStr">
@@ -5280,7 +5724,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0191 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.756 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.756 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0054；</t>
         </is>
       </c>
       <c r="W60" s="24" t="inlineStr">
@@ -5317,9 +5762,17 @@
       <c r="E61" s="38" t="n"/>
       <c r="F61" s="38" t="n"/>
       <c r="G61" s="22" t="n"/>
-      <c r="H61" s="39" t="n"/>
+      <c r="H61" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I61" s="38" t="n"/>
-      <c r="J61" s="38" t="n"/>
+      <c r="J61" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="39" t="n"/>
       <c r="M61" s="38" t="n"/>
@@ -5332,7 +5785,8 @@
       </c>
       <c r="S61" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T61" s="24" t="inlineStr">
@@ -5352,7 +5806,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0119
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0061 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.685 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.685 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；</t>
         </is>
       </c>
       <c r="W61" s="24" t="inlineStr">
@@ -5391,9 +5846,17 @@
       <c r="E62" s="38" t="n"/>
       <c r="F62" s="38" t="n"/>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="39" t="n"/>
+      <c r="H62" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I62" s="38" t="n"/>
-      <c r="J62" s="38" t="n"/>
+      <c r="J62" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="39" t="n"/>
       <c r="M62" s="38" t="n"/>
@@ -5409,6 +5872,7 @@
       <c r="S62" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -5426,7 +5890,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0086 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.03 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.03 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.003；</t>
         </is>
       </c>
       <c r="W62" s="24" t="inlineStr">
@@ -5464,9 +5929,17 @@
       <c r="E63" s="38" t="n"/>
       <c r="F63" s="38" t="n"/>
       <c r="G63" s="22" t="n"/>
-      <c r="H63" s="39" t="n"/>
+      <c r="H63" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I63" s="38" t="n"/>
-      <c r="J63" s="38" t="n"/>
+      <c r="J63" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="39" t="n"/>
       <c r="M63" s="38" t="n"/>
@@ -5482,6 +5955,7 @@
       <c r="S63" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -5501,7 +5975,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 29.25
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0232
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.6676 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.6676 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；</t>
         </is>
       </c>
       <c r="W63" s="24" t="inlineStr">
@@ -5538,9 +6013,17 @@
       <c r="D64" s="38" t="n"/>
       <c r="E64" s="38" t="n"/>
       <c r="F64" s="38" t="n"/>
-      <c r="H64" s="39" t="n"/>
+      <c r="H64" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I64" s="38" t="n"/>
-      <c r="J64" s="38" t="n"/>
+      <c r="J64" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L64" s="39" t="n"/>
       <c r="M64" s="38" t="n"/>
       <c r="N64" s="38" t="n"/>
@@ -5551,6 +6034,11 @@
 ·√
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S64" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T64" s="24" t="inlineStr">
@@ -5577,7 +6065,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.49
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.1882 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.1882 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0117；</t>
         </is>
       </c>
       <c r="W64" s="42" t="inlineStr">
@@ -5615,9 +6104,17 @@
       <c r="E65" s="38" t="n"/>
       <c r="F65" s="38" t="n"/>
       <c r="G65" s="22" t="n"/>
-      <c r="H65" s="39" t="n"/>
+      <c r="H65" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I65" s="38" t="n"/>
-      <c r="J65" s="38" t="n"/>
+      <c r="J65" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="39" t="n"/>
       <c r="M65" s="38" t="n"/>
@@ -5633,6 +6130,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S65" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V65" s="24" t="inlineStr">
@@ -5643,7 +6145,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.67；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0061 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0063 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0063 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.021；</t>
         </is>
       </c>
       <c r="W65" s="24" t="inlineStr">
@@ -5679,9 +6182,17 @@
       <c r="E66" s="38" t="n"/>
       <c r="F66" s="38" t="n"/>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="39" t="n"/>
+      <c r="H66" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I66" s="38" t="n"/>
-      <c r="J66" s="38" t="n"/>
+      <c r="J66" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="39" t="n"/>
       <c r="M66" s="38" t="n"/>
@@ -5693,6 +6204,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S66" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T66" s="24" t="inlineStr">
@@ -5718,7 +6234,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 23.2668
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.91 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.91 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0074；</t>
         </is>
       </c>
       <c r="W66" s="24" t="inlineStr">
@@ -5756,9 +6273,17 @@
       <c r="E67" s="38" t="n"/>
       <c r="F67" s="38" t="n"/>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="39" t="n"/>
+      <c r="H67" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I67" s="38" t="n"/>
-      <c r="J67" s="38" t="n"/>
+      <c r="J67" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="39" t="n"/>
       <c r="M67" s="38" t="n"/>
@@ -5775,6 +6300,11 @@
           <t>·√</t>
         </is>
       </c>
+      <c r="S67" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T67" s="24" t="inlineStr">
         <is>
           <t>·√
@@ -5791,7 +6321,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 33.9147
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0267 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0267 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；</t>
         </is>
       </c>
       <c r="W67" s="24" t="inlineStr">
@@ -5830,9 +6361,17 @@
       <c r="E68" s="38" t="n"/>
       <c r="F68" s="38" t="n"/>
       <c r="G68" s="22" t="n"/>
-      <c r="H68" s="39" t="n"/>
+      <c r="H68" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I68" s="38" t="n"/>
-      <c r="J68" s="38" t="n"/>
+      <c r="J68" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="39" t="n"/>
       <c r="M68" s="38" t="n"/>
@@ -5848,7 +6387,8 @@
       </c>
       <c r="S68" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T68" s="24" t="inlineStr">
@@ -5865,7 +6405,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.04
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.033
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.034 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 65.7005 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 65.7005 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0196；</t>
         </is>
       </c>
       <c r="W68" s="24" t="inlineStr">
@@ -5902,9 +6443,17 @@
       <c r="E69" s="38" t="n"/>
       <c r="F69" s="38" t="n"/>
       <c r="G69" s="22" t="n"/>
-      <c r="H69" s="39" t="n"/>
+      <c r="H69" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I69" s="38" t="n"/>
-      <c r="J69" s="38" t="n"/>
+      <c r="J69" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="39" t="n"/>
       <c r="M69" s="38" t="n"/>
@@ -5923,7 +6472,8 @@
       </c>
       <c r="S69" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V69" s="24" t="inlineStr">
@@ -5937,7 +6487,8 @@
 · matcha 还是换钱失败
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.421；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0159 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.14 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.14 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0066；</t>
         </is>
       </c>
       <c r="W69" s="24" t="inlineStr">
@@ -5975,9 +6526,17 @@
       <c r="E70" s="38" t="n"/>
       <c r="F70" s="38" t="n"/>
       <c r="G70" s="22" t="n"/>
-      <c r="H70" s="39" t="n"/>
+      <c r="H70" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I70" s="38" t="n"/>
-      <c r="J70" s="38" t="n"/>
+      <c r="J70" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K70" s="22" t="n"/>
       <c r="L70" s="39" t="n"/>
       <c r="M70" s="38" t="n"/>
@@ -5989,7 +6548,8 @@
       </c>
       <c r="S70" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V70" s="24" t="inlineStr">
@@ -6010,7 +6570,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0227 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.341 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.341 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0054；</t>
         </is>
       </c>
       <c r="W70" s="24" t="inlineStr">
@@ -6078,7 +6639,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0179
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 11.507
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.07 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.07 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W71" s="24" t="inlineStr">
@@ -6113,9 +6675,17 @@
       <c r="E72" s="38" t="n"/>
       <c r="F72" s="38" t="n"/>
       <c r="G72" s="22" t="n"/>
-      <c r="H72" s="39" t="n"/>
+      <c r="H72" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I72" s="38" t="n"/>
-      <c r="J72" s="38" t="n"/>
+      <c r="J72" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="39" t="n"/>
       <c r="M72" s="38" t="n"/>
@@ -6130,6 +6700,11 @@
         </is>
       </c>
       <c r="R72" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S72" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -6145,7 +6720,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.021 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.7987 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.7987 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0088；</t>
         </is>
       </c>
       <c r="W72" s="24" t="inlineStr">
@@ -6226,7 +6802,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.27 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.025
 · matcha 还是换钱失败
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是24.642；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是24.642；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W73" s="24" t="inlineStr">
@@ -6265,9 +6842,17 @@
       <c r="E74" s="38" t="n"/>
       <c r="F74" s="38" t="n"/>
       <c r="G74" s="22" t="n"/>
-      <c r="H74" s="38" t="n"/>
+      <c r="H74" s="38" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I74" s="38" t="n"/>
-      <c r="J74" s="38" t="n"/>
+      <c r="J74" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="39" t="n"/>
       <c r="M74" s="38" t="n"/>
@@ -6288,7 +6873,8 @@
       </c>
       <c r="S74" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T74" s="24" t="inlineStr">
@@ -6307,7 +6893,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.03
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.027；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.5972 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0244；</t>
         </is>
       </c>
       <c r="W74" s="24" t="inlineStr">
@@ -6378,7 +6965,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：16.79；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.28 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.28 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W75" s="24" t="inlineStr">
@@ -6414,9 +7002,17 @@
       <c r="E76" s="38" t="n"/>
       <c r="F76" s="38" t="n"/>
       <c r="G76" s="22" t="n"/>
-      <c r="H76" s="39" t="n"/>
+      <c r="H76" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I76" s="38" t="n"/>
-      <c r="J76" s="38" t="n"/>
+      <c r="J76" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="39" t="n"/>
       <c r="M76" s="38" t="n"/>
@@ -6433,6 +7029,7 @@
       <c r="S76" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -6451,7 +7048,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是23.108；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.137 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.137 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0136；</t>
         </is>
       </c>
       <c r="W76" s="24" t="inlineStr">
@@ -6488,9 +7086,17 @@
       <c r="E77" s="38" t="n"/>
       <c r="F77" s="38" t="n"/>
       <c r="G77" s="22" t="n"/>
-      <c r="H77" s="39" t="n"/>
+      <c r="H77" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I77" s="38" t="n"/>
-      <c r="J77" s="38" t="n"/>
+      <c r="J77" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K77" s="22" t="n"/>
       <c r="L77" s="39" t="n"/>
       <c r="M77" s="38" t="n"/>
@@ -6505,6 +7111,11 @@
         </is>
       </c>
       <c r="R77" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S77" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -6528,7 +7139,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.04
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.036；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0359 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 58.0689 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 58.0689 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0147；</t>
         </is>
       </c>
       <c r="W77" s="42" t="inlineStr">
@@ -6602,7 +7214,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0127
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.36；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.463 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.463 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W78" s="42" t="inlineStr">
@@ -6639,9 +7252,17 @@
       <c r="E79" s="38" t="n"/>
       <c r="F79" s="38" t="n"/>
       <c r="G79" s="22" t="n"/>
-      <c r="H79" s="39" t="n"/>
+      <c r="H79" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I79" s="38" t="n"/>
-      <c r="J79" s="38" t="n"/>
+      <c r="J79" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="39" t="n"/>
       <c r="M79" s="38" t="n"/>
@@ -6660,6 +7281,11 @@
           <t>·√</t>
         </is>
       </c>
+      <c r="S79" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T79" s="24" t="inlineStr">
         <is>
           <t>·√
@@ -6679,7 +7305,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 45.4813
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0417 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 62.3119 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 62.3119 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.016；</t>
         </is>
       </c>
       <c r="W79" s="24" t="inlineStr">
@@ -6717,9 +7344,17 @@
       <c r="E80" s="38" t="n"/>
       <c r="F80" s="38" t="n"/>
       <c r="G80" s="22" t="n"/>
-      <c r="H80" s="39" t="n"/>
+      <c r="H80" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I80" s="38" t="n"/>
-      <c r="J80" s="38" t="n"/>
+      <c r="J80" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L80" s="39" t="n"/>
       <c r="M80" s="38" t="n"/>
       <c r="N80" s="38" t="n"/>
@@ -6736,6 +7371,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S80" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T80" s="24" t="inlineStr">
@@ -6756,7 +7396,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.019；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 16.072
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.55 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.55 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W80" s="42" t="inlineStr">
@@ -6793,9 +7434,17 @@
       <c r="E81" s="38" t="n"/>
       <c r="F81" s="38" t="n"/>
       <c r="G81" s="22" t="n"/>
-      <c r="H81" s="39" t="n"/>
+      <c r="H81" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I81" s="38" t="n"/>
-      <c r="J81" s="38" t="n"/>
+      <c r="J81" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="39" t="n"/>
       <c r="M81" s="38" t="n"/>
@@ -6813,6 +7462,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S81" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T81" s="24" t="inlineStr">
@@ -6829,7 +7483,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 20.341
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.3863；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.4732 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.4732 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0147；</t>
         </is>
       </c>
       <c r="W81" s="24" t="inlineStr">
@@ -6867,9 +7522,17 @@
       <c r="E82" s="38" t="n"/>
       <c r="F82" s="38" t="n"/>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="39" t="n"/>
+      <c r="H82" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I82" s="38" t="n"/>
-      <c r="J82" s="38" t="n"/>
+      <c r="J82" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K82" s="22" t="n"/>
       <c r="L82" s="39" t="n"/>
       <c r="M82" s="38" t="n"/>
@@ -6885,7 +7548,8 @@
       </c>
       <c r="S82" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T82" s="24" t="inlineStr">
@@ -6904,7 +7568,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 25.884
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0139
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.225 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0054 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0054 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0168；</t>
         </is>
       </c>
       <c r="W82" s="42" t="inlineStr">
@@ -6977,7 +7642,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 13.4701
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是11.25；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.915 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.915 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W83" s="24" t="inlineStr">
@@ -7015,9 +7681,17 @@
       <c r="E84" s="38" t="n"/>
       <c r="F84" s="38" t="n"/>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="39" t="n"/>
+      <c r="H84" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I84" s="38" t="n"/>
-      <c r="J84" s="38" t="n"/>
+      <c r="J84" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="39" t="n"/>
       <c r="M84" s="38" t="n"/>
@@ -7030,7 +7704,8 @@
       </c>
       <c r="S84" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T84" s="24" t="inlineStr">
@@ -7044,7 +7719,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.028 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.018
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
         </is>
       </c>
       <c r="W84" s="24" t="inlineStr">
@@ -7080,9 +7756,17 @@
       <c r="E85" s="38" t="n"/>
       <c r="F85" s="38" t="n"/>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="39" t="n"/>
+      <c r="H85" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I85" s="38" t="n"/>
-      <c r="J85" s="38" t="n"/>
+      <c r="J85" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="39" t="n"/>
       <c r="M85" s="38" t="n"/>
@@ -7099,6 +7783,11 @@
 ·√</t>
         </is>
       </c>
+      <c r="S85" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T85" s="24" t="inlineStr">
         <is>
           <t>·√
@@ -7112,7 +7801,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.025；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 24.8
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.008；</t>
         </is>
       </c>
       <c r="W85" s="24" t="inlineStr">
@@ -7191,7 +7881,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.013；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.192 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.192 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W86" s="24" t="inlineStr">
@@ -7229,9 +7920,17 @@
       <c r="E87" s="38" t="n"/>
       <c r="F87" s="38" t="n"/>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="39" t="n"/>
+      <c r="H87" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I87" s="38" t="n"/>
-      <c r="J87" s="38" t="n"/>
+      <c r="J87" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="39" t="n"/>
       <c r="M87" s="38" t="n"/>
@@ -7246,7 +7945,8 @@
       </c>
       <c r="S87" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T87" s="24" t="inlineStr">
@@ -7264,7 +7964,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0213
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是22.64；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.9927 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.9927 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；</t>
         </is>
       </c>
       <c r="W87" s="42" t="inlineStr">
@@ -7301,9 +8002,17 @@
       <c r="E88" s="38" t="n"/>
       <c r="F88" s="38" t="n"/>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="39" t="n"/>
+      <c r="H88" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I88" s="38" t="n"/>
-      <c r="J88" s="38" t="n"/>
+      <c r="J88" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="39" t="n"/>
       <c r="M88" s="38" t="n"/>
@@ -7318,7 +8027,8 @@
       </c>
       <c r="S88" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T88" s="24" t="inlineStr">
@@ -7336,7 +8046,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 49.7229 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0403
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0323；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.4082 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.4082 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0314；</t>
         </is>
       </c>
       <c r="W88" s="42" t="inlineStr">
@@ -7409,7 +8120,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.6208 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0166 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0122 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.66 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.66 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W89" s="24" t="inlineStr">
@@ -7446,7 +8158,11 @@
       <c r="E90" s="38" t="n"/>
       <c r="F90" s="38" t="n"/>
       <c r="G90" s="22" t="n"/>
-      <c r="H90" s="39" t="n"/>
+      <c r="H90" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I90" s="38" t="n"/>
       <c r="J90" s="38" t="n"/>
       <c r="K90" s="22" t="n"/>
@@ -7516,9 +8232,17 @@
       <c r="E91" s="38" t="n"/>
       <c r="F91" s="38" t="n"/>
       <c r="G91" s="22" t="n"/>
-      <c r="H91" s="39" t="n"/>
+      <c r="H91" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I91" s="38" t="n"/>
-      <c r="J91" s="38" t="n"/>
+      <c r="J91" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="39" t="n"/>
       <c r="M91" s="38" t="n"/>
@@ -7534,7 +8258,8 @@
       </c>
       <c r="S91" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T91" s="24" t="inlineStr">
@@ -7554,7 +8279,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0106
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0183；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.8 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.8 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.7535；</t>
         </is>
       </c>
       <c r="W91" s="24" t="inlineStr">
@@ -7589,9 +8315,17 @@
       <c r="D92" s="38" t="n"/>
       <c r="E92" s="38" t="n"/>
       <c r="F92" s="38" t="n"/>
-      <c r="H92" s="39" t="n"/>
+      <c r="H92" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I92" s="38" t="n"/>
-      <c r="J92" s="38" t="n"/>
+      <c r="J92" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="39" t="n"/>
       <c r="M92" s="38" t="n"/>
@@ -7606,7 +8340,8 @@
       </c>
       <c r="S92" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T92" s="24" t="inlineStr">
@@ -7640,7 +8375,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.37；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0161 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.048 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.048 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；</t>
         </is>
       </c>
       <c r="W92" s="24" t="inlineStr">
@@ -7679,9 +8415,17 @@
       <c r="E93" s="38" t="n"/>
       <c r="F93" s="38" t="n"/>
       <c r="G93" s="22" t="n"/>
-      <c r="H93" s="39" t="n"/>
+      <c r="H93" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I93" s="38" t="n"/>
-      <c r="J93" s="38" t="n"/>
+      <c r="J93" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L93" s="39" t="n"/>
       <c r="M93" s="38" t="n"/>
       <c r="N93" s="38" t="n"/>
@@ -7699,7 +8443,8 @@
       </c>
       <c r="S93" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V93" s="24" t="inlineStr">
@@ -7710,7 +8455,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.04 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.029；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：24.0756；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：24.0756；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0197；</t>
         </is>
       </c>
       <c r="W93" s="45" t="inlineStr">
@@ -7748,9 +8494,17 @@
       <c r="E94" s="38" t="n"/>
       <c r="F94" s="38" t="n"/>
       <c r="G94" s="22" t="n"/>
-      <c r="H94" s="39" t="n"/>
+      <c r="H94" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I94" s="38" t="n"/>
-      <c r="J94" s="38" t="n"/>
+      <c r="J94" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="39" t="n"/>
       <c r="M94" s="38" t="n"/>
@@ -7767,7 +8521,8 @@
       </c>
       <c r="S94" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T94" s="24" t="inlineStr">
@@ -7779,7 +8534,8 @@
         <is>
           <t>·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.016；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 15.83
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0084；</t>
         </is>
       </c>
       <c r="W94" s="24" t="inlineStr">
@@ -7813,7 +8569,11 @@
       <c r="E95" s="38" t="n"/>
       <c r="F95" s="38" t="n"/>
       <c r="G95" s="22" t="n"/>
-      <c r="H95" s="39" t="n"/>
+      <c r="H95" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I95" s="38" t="n"/>
       <c r="J95" s="38" t="n"/>
       <c r="K95" s="22" t="n"/>
@@ -7886,7 +8646,11 @@
       <c r="E96" s="38" t="n"/>
       <c r="F96" s="38" t="n"/>
       <c r="G96" s="22" t="n"/>
-      <c r="H96" s="39" t="n"/>
+      <c r="H96" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I96" s="38" t="n"/>
       <c r="J96" s="38" t="n"/>
       <c r="K96" s="22" t="n"/>
@@ -7952,9 +8716,17 @@
       <c r="E97" s="38" t="n"/>
       <c r="F97" s="38" t="n"/>
       <c r="G97" s="22" t="n"/>
-      <c r="H97" s="39" t="n"/>
+      <c r="H97" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I97" s="38" t="n"/>
-      <c r="J97" s="38" t="n"/>
+      <c r="J97" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="39" t="n"/>
       <c r="M97" s="38" t="n"/>
@@ -7974,7 +8746,8 @@
       </c>
       <c r="S97" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V97" s="24" t="inlineStr">
@@ -7986,7 +8759,8 @@
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0238；
 · matcha 还是换钱失败
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0048；</t>
         </is>
       </c>
       <c r="W97" s="24" t="inlineStr">
@@ -8026,9 +8800,17 @@
       <c r="E98" s="38" t="n"/>
       <c r="F98" s="38" t="n"/>
       <c r="G98" s="22" t="n"/>
-      <c r="H98" s="39" t="n"/>
+      <c r="H98" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I98" s="38" t="n"/>
-      <c r="J98" s="38" t="n"/>
+      <c r="J98" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="L98" s="39" t="n"/>
       <c r="M98" s="38" t="n"/>
       <c r="N98" s="38" t="n"/>
@@ -8040,6 +8822,11 @@
         </is>
       </c>
       <c r="R98" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S98" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -8059,7 +8846,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.033 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 43.855 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.041
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：33.249；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：33.249；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0136；</t>
         </is>
       </c>
       <c r="W98" s="42" t="inlineStr">
@@ -8098,9 +8886,17 @@
       <c r="E99" s="38" t="n"/>
       <c r="F99" s="38" t="n"/>
       <c r="G99" s="22" t="n"/>
-      <c r="H99" s="39" t="n"/>
+      <c r="H99" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I99" s="38" t="n"/>
-      <c r="J99" s="38" t="n"/>
+      <c r="J99" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="39" t="n"/>
       <c r="M99" s="38" t="n"/>
@@ -8121,7 +8917,8 @@
       </c>
       <c r="S99" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T99" s="24" t="inlineStr">
@@ -8138,7 +8935,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 33.75
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0241；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0185 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.085 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.085 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；</t>
         </is>
       </c>
       <c r="W99" s="24" t="inlineStr">
@@ -8179,9 +8977,17 @@
       <c r="D100" s="38" t="n"/>
       <c r="E100" s="38" t="n"/>
       <c r="F100" s="38" t="n"/>
-      <c r="H100" s="39" t="n"/>
+      <c r="H100" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I100" s="38" t="n"/>
-      <c r="J100" s="38" t="n"/>
+      <c r="J100" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="39" t="n"/>
       <c r="M100" s="38" t="n"/>
@@ -8203,7 +9009,8 @@
       </c>
       <c r="T100" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V100" s="24" t="inlineStr">
@@ -8216,7 +9023,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 38.57
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 52.199 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 52.199 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015</t>
         </is>
       </c>
       <c r="W100" s="24" t="inlineStr">
@@ -8250,9 +9058,17 @@
       <c r="E101" s="38" t="n"/>
       <c r="F101" s="38" t="n"/>
       <c r="G101" s="22" t="n"/>
-      <c r="H101" s="39" t="n"/>
+      <c r="H101" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I101" s="38" t="n"/>
-      <c r="J101" s="38" t="n"/>
+      <c r="J101" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="39" t="n"/>
       <c r="M101" s="38" t="n"/>
@@ -8265,6 +9081,11 @@
         </is>
       </c>
       <c r="R101" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S101" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -8285,7 +9106,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0049 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.801 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0197；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0197；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W101" s="24" t="inlineStr">
@@ -8317,9 +9139,17 @@
       <c r="E102" s="38" t="n"/>
       <c r="F102" s="38" t="n"/>
       <c r="G102" s="22" t="n"/>
-      <c r="H102" s="39" t="n"/>
+      <c r="H102" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I102" s="38" t="n"/>
-      <c r="J102" s="38" t="n"/>
+      <c r="J102" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="39" t="n"/>
       <c r="M102" s="38" t="n"/>
@@ -8337,7 +9167,8 @@
       </c>
       <c r="R102" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T102" s="24" t="inlineStr">
@@ -8358,7 +9189,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0306
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：23.503；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.94 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.94 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
         </is>
       </c>
       <c r="W102" s="24" t="inlineStr">
@@ -8394,9 +9226,17 @@
       <c r="E103" s="38" t="n"/>
       <c r="F103" s="38" t="n"/>
       <c r="G103" s="22" t="n"/>
-      <c r="H103" s="39" t="n"/>
+      <c r="H103" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I103" s="38" t="n"/>
-      <c r="J103" s="38" t="n"/>
+      <c r="J103" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="39" t="n"/>
       <c r="M103" s="38" t="n"/>
@@ -8423,7 +9263,8 @@
       </c>
       <c r="T103" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V103" s="24" t="inlineStr">
@@ -8438,7 +9279,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.022
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.7789 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.7789 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007</t>
         </is>
       </c>
       <c r="W103" s="24" t="inlineStr">
@@ -8472,9 +9314,17 @@
       <c r="E104" s="38" t="n"/>
       <c r="F104" s="38" t="n"/>
       <c r="G104" s="22" t="n"/>
-      <c r="H104" s="39" t="n"/>
+      <c r="H104" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I104" s="38" t="n"/>
-      <c r="J104" s="38" t="n"/>
+      <c r="J104" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="39" t="n"/>
       <c r="M104" s="38" t="n"/>
@@ -8491,6 +9341,11 @@
 ·√哈
 √
 ·√</t>
+        </is>
+      </c>
+      <c r="T104" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V104" s="24" t="inlineStr">
@@ -8512,7 +9367,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1077 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1077 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
         </is>
       </c>
       <c r="W104" s="24" t="inlineStr">
@@ -8545,9 +9402,17 @@
       <c r="E105" s="38" t="n"/>
       <c r="F105" s="38" t="n"/>
       <c r="G105" s="22" t="n"/>
-      <c r="H105" s="39" t="n"/>
+      <c r="H105" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I105" s="38" t="n"/>
-      <c r="J105" s="38" t="n"/>
+      <c r="J105" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="39" t="n"/>
       <c r="M105" s="38" t="n"/>
@@ -8561,6 +9426,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R105" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S105" s="24" t="inlineStr">
@@ -8586,7 +9456,8 @@
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是22.05；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.009；</t>
         </is>
       </c>
       <c r="W105" s="24" t="inlineStr">
@@ -8622,9 +9493,17 @@
       <c r="E106" s="38" t="n"/>
       <c r="F106" s="38" t="n"/>
       <c r="G106" s="22" t="n"/>
-      <c r="H106" s="39" t="n"/>
+      <c r="H106" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I106" s="38" t="n"/>
-      <c r="J106" s="38" t="n"/>
+      <c r="J106" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="39" t="n"/>
       <c r="M106" s="38" t="n"/>
@@ -8643,6 +9522,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R106" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S106" s="24" t="inlineStr">
@@ -8666,7 +9550,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 19.97
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.93 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.93 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；</t>
         </is>
       </c>
       <c r="W106" s="24" t="inlineStr">
@@ -8701,9 +9586,17 @@
       <c r="E107" s="38" t="n"/>
       <c r="F107" s="38" t="n"/>
       <c r="G107" s="22" t="n"/>
-      <c r="H107" s="39" t="n"/>
+      <c r="H107" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I107" s="38" t="n"/>
-      <c r="J107" s="38" t="n"/>
+      <c r="J107" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="39" t="n"/>
       <c r="M107" s="38" t="n"/>
@@ -8726,7 +9619,8 @@
       </c>
       <c r="S107" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T107" s="24" t="inlineStr">
@@ -8749,7 +9643,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 14.815
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0084；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0084；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.015；</t>
         </is>
       </c>
       <c r="W107" s="24" t="inlineStr">
@@ -8784,9 +9680,17 @@
       <c r="E108" s="38" t="n"/>
       <c r="F108" s="38" t="n"/>
       <c r="G108" s="22" t="n"/>
-      <c r="H108" s="39" t="n"/>
+      <c r="H108" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I108" s="38" t="n"/>
-      <c r="J108" s="38" t="n"/>
+      <c r="J108" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="39" t="n"/>
       <c r="M108" s="38" t="n"/>
@@ -8811,7 +9715,8 @@
       </c>
       <c r="T108" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V108" s="24" t="inlineStr">
@@ -8824,7 +9729,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.024
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0146；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0146；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0046</t>
         </is>
       </c>
       <c r="W108" s="24" t="inlineStr">
@@ -8858,9 +9764,17 @@
       <c r="E109" s="38" t="n"/>
       <c r="F109" s="38" t="n"/>
       <c r="G109" s="22" t="n"/>
-      <c r="H109" s="39" t="n"/>
+      <c r="H109" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I109" s="38" t="n"/>
-      <c r="J109" s="38" t="n"/>
+      <c r="J109" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="39" t="n"/>
       <c r="M109" s="38" t="n"/>
@@ -8883,6 +9797,11 @@
         </is>
       </c>
       <c r="S109" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="T109" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -8901,7 +9820,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·小狐狸签名失败
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0094</t>
         </is>
       </c>
       <c r="W109" s="24" t="inlineStr">
@@ -8937,9 +9857,17 @@
       <c r="E110" s="38" t="n"/>
       <c r="F110" s="38" t="n"/>
       <c r="G110" s="22" t="n"/>
-      <c r="H110" s="39" t="n"/>
+      <c r="H110" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I110" s="38" t="n"/>
-      <c r="J110" s="38" t="n"/>
+      <c r="J110" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="39" t="n"/>
       <c r="M110" s="38" t="n"/>
@@ -8952,6 +9880,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R110" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T110" s="24" t="inlineStr">
@@ -8971,7 +9904,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.023
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.014
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.105 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.105 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0078；</t>
         </is>
       </c>
       <c r="W110" s="24" t="inlineStr">
@@ -9012,9 +9946,17 @@
       <c r="E111" s="38" t="n"/>
       <c r="F111" s="38" t="n"/>
       <c r="G111" s="22" t="n"/>
-      <c r="H111" s="39" t="n"/>
+      <c r="H111" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I111" s="38" t="n"/>
-      <c r="J111" s="38" t="n"/>
+      <c r="J111" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="39" t="n"/>
       <c r="M111" s="38" t="n"/>
@@ -9030,6 +9972,11 @@
 √</t>
         </is>
       </c>
+      <c r="S111" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T111" s="24" t="inlineStr">
         <is>
           <t>·√
@@ -9049,7 +9996,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.695 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.024
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0037；</t>
         </is>
       </c>
       <c r="W111" s="24" t="inlineStr">
@@ -9087,9 +10035,17 @@
       <c r="E112" s="38" t="n"/>
       <c r="F112" s="38" t="n"/>
       <c r="G112" s="46" t="n"/>
-      <c r="H112" s="39" t="n"/>
+      <c r="H112" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I112" s="38" t="n"/>
-      <c r="J112" s="38" t="n"/>
+      <c r="J112" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K112" s="22" t="n"/>
       <c r="L112" s="39" t="n"/>
       <c r="M112" s="38" t="n"/>
@@ -9106,6 +10062,11 @@
         </is>
       </c>
       <c r="R112" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S112" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -9131,7 +10092,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 54.4973 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；</t>
         </is>
       </c>
       <c r="W112" s="24" t="inlineStr">
@@ -9169,9 +10131,17 @@
       <c r="E113" s="38" t="n"/>
       <c r="F113" s="38" t="n"/>
       <c r="G113" s="46" t="n"/>
-      <c r="H113" s="39" t="n"/>
+      <c r="H113" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I113" s="38" t="n"/>
-      <c r="J113" s="38" t="n"/>
+      <c r="J113" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="39" t="n"/>
       <c r="M113" s="38" t="n"/>
@@ -9196,7 +10166,8 @@
       </c>
       <c r="S113" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T113" s="24" t="inlineStr">
@@ -9217,7 +10188,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 30.07
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.015；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.35 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0052 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0052 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.026；</t>
         </is>
       </c>
       <c r="W113" s="24" t="inlineStr">
@@ -9254,9 +10226,17 @@
       <c r="E114" s="38" t="n"/>
       <c r="F114" s="38" t="n"/>
       <c r="G114" s="46" t="n"/>
-      <c r="H114" s="39" t="n"/>
+      <c r="H114" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I114" s="38" t="n"/>
-      <c r="J114" s="38" t="n"/>
+      <c r="J114" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="39" t="n"/>
       <c r="M114" s="38" t="n"/>
@@ -9271,6 +10251,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R114" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S114" s="23" t="inlineStr">
@@ -9296,7 +10281,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0308
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.028
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.2 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0064 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0064 去兑换 USDC小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；</t>
         </is>
       </c>
       <c r="W114" s="24" t="inlineStr">
@@ -9332,9 +10318,17 @@
       <c r="E115" s="38" t="n"/>
       <c r="F115" s="38" t="n"/>
       <c r="G115" s="22" t="n"/>
-      <c r="H115" s="39" t="n"/>
+      <c r="H115" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I115" s="38" t="n"/>
-      <c r="J115" s="38" t="n"/>
+      <c r="J115" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="39" t="n"/>
       <c r="M115" s="38" t="n"/>
@@ -9359,6 +10353,7 @@
       <c r="T115" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -9374,7 +10369,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.03
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 37.2232
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 38.47 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 38.47 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0112</t>
         </is>
       </c>
       <c r="W115" s="24" t="inlineStr">
@@ -9412,8 +10408,17 @@
       <c r="E116" s="38" t="n"/>
       <c r="F116" s="38" t="n"/>
       <c r="G116" s="22" t="n"/>
-      <c r="H116" s="39" t="n"/>
+      <c r="H116" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I116" s="38" t="n"/>
+      <c r="J116" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="39" t="n"/>
       <c r="M116" s="38" t="n"/>
@@ -9428,6 +10433,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R116" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S116" s="23" t="inlineStr">
@@ -9455,7 +10465,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0231
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0037；</t>
         </is>
       </c>
       <c r="W116" s="24" t="inlineStr">
@@ -9495,8 +10506,17 @@
       <c r="E117" s="38" t="n"/>
       <c r="F117" s="38" t="n"/>
       <c r="G117" s="22" t="n"/>
-      <c r="H117" s="39" t="n"/>
+      <c r="H117" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I117" s="38" t="n"/>
+      <c r="J117" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="39" t="n"/>
       <c r="M117" s="38" t="n"/>
@@ -9518,6 +10538,11 @@
         </is>
       </c>
       <c r="R117" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S117" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -9541,7 +10566,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0363
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0288；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.95 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.95 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.011；</t>
         </is>
       </c>
       <c r="W117" s="24" t="inlineStr">
@@ -9577,9 +10603,17 @@
       <c r="E118" s="38" t="n"/>
       <c r="F118" s="38" t="n"/>
       <c r="G118" s="22" t="n"/>
-      <c r="H118" s="39" t="n"/>
+      <c r="H118" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I118" s="38" t="n"/>
-      <c r="J118" s="38" t="n"/>
+      <c r="J118" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="39" t="n"/>
       <c r="M118" s="38" t="n"/>
@@ -9593,6 +10627,11 @@
         <is>
           <t>·√哈
 ·√哈</t>
+        </is>
+      </c>
+      <c r="R118" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S118" s="24" t="inlineStr">
@@ -9614,7 +10653,8 @@
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0198；
 · matcha 还是换钱失败
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0171</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0171
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0179；</t>
         </is>
       </c>
       <c r="W118" s="24" t="inlineStr">
@@ -9651,8 +10691,17 @@
       <c r="E119" s="38" t="n"/>
       <c r="F119" s="38" t="n"/>
       <c r="G119" s="22" t="n"/>
-      <c r="H119" s="39" t="n"/>
+      <c r="H119" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I119" s="38" t="n"/>
+      <c r="J119" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="39" t="n"/>
       <c r="M119" s="38" t="n"/>
@@ -9681,7 +10730,8 @@
       </c>
       <c r="T119" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V119" s="24" t="inlineStr">
@@ -9692,7 +10742,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.31 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0257
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.015；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1889 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1889 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.018</t>
         </is>
       </c>
       <c r="W119" s="24" t="inlineStr">
@@ -9727,9 +10778,17 @@
       <c r="E120" s="38" t="n"/>
       <c r="F120" s="38" t="n"/>
       <c r="G120" s="22" t="n"/>
-      <c r="H120" s="39" t="n"/>
+      <c r="H120" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I120" s="38" t="n"/>
-      <c r="J120" s="38" t="n"/>
+      <c r="J120" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K120" s="22" t="n"/>
       <c r="L120" s="39" t="n"/>
       <c r="M120" s="38" t="n"/>
@@ -9751,7 +10810,8 @@
       </c>
       <c r="T120" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V120" s="24" t="inlineStr">
@@ -9767,7 +10827,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.342 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0022 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0022 去兑换 USDC小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0129</t>
         </is>
       </c>
       <c r="W120" s="24" t="inlineStr">
@@ -9804,9 +10865,17 @@
       <c r="E121" s="38" t="n"/>
       <c r="F121" s="38" t="n"/>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="39" t="n"/>
+      <c r="H121" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I121" s="38" t="n"/>
-      <c r="J121" s="38" t="n"/>
+      <c r="J121" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K121" s="22" t="n"/>
       <c r="L121" s="39" t="n"/>
       <c r="M121" s="38" t="n"/>
@@ -9823,6 +10892,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S121" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T121" s="24" t="inlineStr">
@@ -9841,7 +10915,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.2126 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0154
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.25 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.002；</t>
         </is>
       </c>
       <c r="W121" s="24" t="inlineStr">
@@ -9874,9 +10949,17 @@
       <c r="E122" s="38" t="n"/>
       <c r="F122" s="38" t="n"/>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="39" t="n"/>
+      <c r="H122" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I122" s="38" t="n"/>
-      <c r="J122" s="38" t="n"/>
+      <c r="J122" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K122" s="22" t="n"/>
       <c r="L122" s="39" t="n"/>
       <c r="M122" s="38" t="n"/>
@@ -9894,7 +10977,8 @@
       </c>
       <c r="S122" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="U122" s="23" t="inlineStr">
@@ -9909,6 +10993,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.032 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；</t>
         </is>
       </c>
@@ -9944,9 +11030,17 @@
       <c r="E123" s="38" t="n"/>
       <c r="F123" s="38" t="n"/>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="39" t="n"/>
+      <c r="H123" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I123" s="38" t="n"/>
-      <c r="J123" s="38" t="n"/>
+      <c r="J123" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K123" s="22" t="n"/>
       <c r="L123" s="39" t="n"/>
       <c r="M123" s="38" t="n"/>
@@ -9960,6 +11054,11 @@
 √</t>
         </is>
       </c>
+      <c r="R123" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="S123" s="23" t="inlineStr">
         <is>
           <t>·√</t>
@@ -9980,7 +11079,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.025 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0228 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；</t>
         </is>
       </c>
       <c r="W123" s="24" t="inlineStr">
@@ -10017,9 +11117,17 @@
       <c r="E124" s="38" t="n"/>
       <c r="F124" s="38" t="n"/>
       <c r="G124" s="22" t="n"/>
-      <c r="H124" s="39" t="n"/>
+      <c r="H124" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I124" s="38" t="n"/>
-      <c r="J124" s="38" t="n"/>
+      <c r="J124" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K124" s="22" t="n"/>
       <c r="L124" s="39" t="n"/>
       <c r="M124" s="38" t="n"/>
@@ -10041,7 +11149,8 @@
       </c>
       <c r="T124" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V124" s="24" t="inlineStr">
@@ -10056,7 +11165,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.11 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0152；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0152；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0049</t>
         </is>
       </c>
       <c r="W124" s="24" t="inlineStr">
@@ -10093,9 +11203,17 @@
       <c r="E125" s="38" t="n"/>
       <c r="F125" s="38" t="n"/>
       <c r="G125" s="22" t="n"/>
-      <c r="H125" s="39" t="n"/>
+      <c r="H125" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I125" s="38" t="n"/>
-      <c r="J125" s="38" t="n"/>
+      <c r="J125" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K125" s="22" t="n"/>
       <c r="L125" s="39" t="n"/>
       <c r="M125" s="38" t="n"/>
@@ -10112,6 +11230,11 @@
         </is>
       </c>
       <c r="R125" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S125" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -10136,7 +11259,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.033
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0248；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.195 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.195 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0047；</t>
         </is>
       </c>
       <c r="W125" s="24" t="inlineStr">
@@ -10172,9 +11296,17 @@
       <c r="E126" s="38" t="n"/>
       <c r="F126" s="38" t="n"/>
       <c r="G126" s="22" t="n"/>
-      <c r="H126" s="39" t="n"/>
+      <c r="H126" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I126" s="38" t="n"/>
-      <c r="J126" s="38" t="n"/>
+      <c r="J126" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K126" s="22" t="n"/>
       <c r="L126" s="39" t="n"/>
       <c r="M126" s="38" t="n"/>
@@ -10193,7 +11325,8 @@
       </c>
       <c r="S126" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T126" s="24" t="inlineStr">
@@ -10222,7 +11355,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.4953 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.4953 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
         </is>
       </c>
       <c r="W126" s="24" t="inlineStr">
@@ -10263,9 +11397,17 @@
       <c r="E127" s="38" t="n"/>
       <c r="F127" s="38" t="n"/>
       <c r="G127" s="22" t="n"/>
-      <c r="H127" s="39" t="n"/>
+      <c r="H127" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I127" s="38" t="n"/>
-      <c r="J127" s="38" t="n"/>
+      <c r="J127" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K127" s="22" t="n"/>
       <c r="L127" s="39" t="n"/>
       <c r="M127" s="38" t="n"/>
@@ -10283,6 +11425,7 @@
       <c r="T127" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -10297,7 +11440,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.035
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 34.7929
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0213</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0213
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007</t>
         </is>
       </c>
       <c r="W127" s="24" t="inlineStr">
@@ -10334,9 +11478,17 @@
       <c r="E128" s="38" t="n"/>
       <c r="F128" s="38" t="n"/>
       <c r="G128" s="22" t="n"/>
-      <c r="H128" s="39" t="n"/>
+      <c r="H128" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I128" s="38" t="n"/>
-      <c r="J128" s="38" t="n"/>
+      <c r="J128" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K128" s="22" t="n"/>
       <c r="L128" s="39" t="n"/>
       <c r="M128" s="38" t="n"/>
@@ -10351,6 +11503,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S128" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T128" s="24" t="inlineStr">
@@ -10389,7 +11546,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.713
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.0519 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.63 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.63 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0251；</t>
         </is>
       </c>
       <c r="W128" s="24" t="inlineStr">
@@ -10427,9 +11585,17 @@
       <c r="E129" s="38" t="n"/>
       <c r="F129" s="38" t="n"/>
       <c r="G129" s="22" t="n"/>
-      <c r="H129" s="39" t="n"/>
+      <c r="H129" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I129" s="38" t="n"/>
-      <c r="J129" s="38" t="n"/>
+      <c r="J129" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K129" s="22" t="n"/>
       <c r="L129" s="39" t="n"/>
       <c r="M129" s="38" t="n"/>
@@ -10453,7 +11619,8 @@
       </c>
       <c r="T129" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V129" s="24" t="inlineStr">
@@ -10467,7 +11634,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.03；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 29.954
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.576 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.576 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013</t>
         </is>
       </c>
       <c r="W129" s="24" t="inlineStr">
@@ -10504,9 +11672,17 @@
       <c r="E130" s="38" t="n"/>
       <c r="F130" s="38" t="n"/>
       <c r="G130" s="22" t="n"/>
-      <c r="H130" s="39" t="n"/>
+      <c r="H130" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I130" s="38" t="n"/>
-      <c r="J130" s="38" t="n"/>
+      <c r="J130" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K130" s="22" t="n"/>
       <c r="L130" s="39" t="n"/>
       <c r="M130" s="38" t="n"/>
@@ -10520,6 +11696,11 @@
 ·√哈
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R130" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S130" s="24" t="inlineStr">
@@ -10546,7 +11727,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 31.144
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.22 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.3 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.3 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0219；</t>
         </is>
       </c>
       <c r="W130" s="24" t="inlineStr">
@@ -10581,9 +11763,17 @@
       <c r="E131" s="38" t="n"/>
       <c r="F131" s="38" t="n"/>
       <c r="G131" s="22" t="n"/>
-      <c r="H131" s="39" t="n"/>
+      <c r="H131" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I131" s="38" t="n"/>
-      <c r="J131" s="38" t="n"/>
+      <c r="J131" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K131" s="22" t="n"/>
       <c r="L131" s="39" t="n"/>
       <c r="M131" s="38" t="n"/>
@@ -10602,6 +11792,7 @@
       <c r="R131" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -10625,7 +11816,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.509；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0187；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0128 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.923 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.923 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0043；</t>
         </is>
       </c>
       <c r="W131" s="24" t="inlineStr">
@@ -10661,8 +11853,17 @@
       <c r="E132" s="38" t="n"/>
       <c r="F132" s="38" t="n"/>
       <c r="G132" s="22" t="n"/>
-      <c r="H132" s="39" t="n"/>
+      <c r="H132" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I132" s="38" t="n"/>
+      <c r="J132" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K132" s="22" t="n"/>
       <c r="L132" s="39" t="n"/>
       <c r="M132" s="38" t="n"/>
@@ -10677,6 +11878,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R132" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V132" s="24" t="inlineStr">
@@ -10699,7 +11905,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.489 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.489 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
         </is>
       </c>
       <c r="W132" s="24" t="inlineStr">
@@ -10737,9 +11945,17 @@
       <c r="E133" s="38" t="n"/>
       <c r="F133" s="38" t="n"/>
       <c r="G133" s="22" t="n"/>
-      <c r="H133" s="39" t="n"/>
+      <c r="H133" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I133" s="38" t="n"/>
-      <c r="J133" s="38" t="n"/>
+      <c r="J133" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K133" s="22" t="n"/>
       <c r="L133" s="39" t="n"/>
       <c r="M133" s="38" t="n"/>
@@ -10753,6 +11969,11 @@
 ·√哈
 ·√哈
 ·√</t>
+        </is>
+      </c>
+      <c r="R133" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S133" s="23" t="inlineStr">
@@ -10775,7 +11996,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0258；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.989 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.989 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.01；</t>
         </is>
       </c>
       <c r="W133" s="24" t="inlineStr">
@@ -10813,7 +12035,11 @@
       <c r="E134" s="38" t="n"/>
       <c r="F134" s="38" t="n"/>
       <c r="G134" s="22" t="n"/>
-      <c r="H134" s="39" t="n"/>
+      <c r="H134" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="I134" s="38" t="n"/>
       <c r="J134" s="38" t="n"/>
       <c r="K134" s="22" t="n"/>
@@ -10861,7 +12087,120 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.4 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0038 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0038 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
         </is>
       </c>
       <c r="W134" s="24" t="inlineStr">
@@ -10896,8 +12235,17 @@
       <c r="E135" s="38" t="n"/>
       <c r="F135" s="38" t="n"/>
       <c r="G135" s="22" t="n"/>
-      <c r="H135" s="39" t="n"/>
+      <c r="H135" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I135" s="38" t="n"/>
+      <c r="J135" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K135" s="22" t="n"/>
       <c r="L135" s="39" t="n"/>
       <c r="M135" s="38" t="n"/>
@@ -10920,6 +12268,7 @@
       <c r="T135" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -10940,7 +12289,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.034
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.028
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.8445 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.8 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.8 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.011</t>
         </is>
       </c>
       <c r="W135" s="24" t="inlineStr">
@@ -10979,9 +12329,17 @@
       <c r="E136" s="38" t="n"/>
       <c r="F136" s="38" t="n"/>
       <c r="G136" s="22" t="n"/>
-      <c r="H136" s="39" t="n"/>
+      <c r="H136" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I136" s="38" t="n"/>
-      <c r="J136" s="38" t="n"/>
+      <c r="J136" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K136" s="22" t="n"/>
       <c r="L136" s="39" t="n"/>
       <c r="M136" s="38" t="n"/>
@@ -11006,7 +12364,8 @@
       </c>
       <c r="T136" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V136" s="24" t="inlineStr">
@@ -11021,7 +12380,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 25.964
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0138；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0118 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.735 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.735 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
         </is>
       </c>
       <c r="W136" s="24" t="inlineStr">
@@ -11060,9 +12420,17 @@
       <c r="E137" s="38" t="n"/>
       <c r="F137" s="38" t="n"/>
       <c r="G137" s="22" t="n"/>
-      <c r="H137" s="39" t="n"/>
+      <c r="H137" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I137" s="38" t="n"/>
-      <c r="J137" s="38" t="n"/>
+      <c r="J137" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K137" s="22" t="n"/>
       <c r="L137" s="39" t="n"/>
       <c r="M137" s="38" t="n"/>
@@ -11080,6 +12448,7 @@
       <c r="S137" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -11099,7 +12468,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.033
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.855 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.855 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
         </is>
       </c>
       <c r="W137" s="24" t="inlineStr">
@@ -11138,9 +12509,17 @@
       <c r="E138" s="38" t="n"/>
       <c r="F138" s="38" t="n"/>
       <c r="G138" s="22" t="n"/>
-      <c r="H138" s="39" t="n"/>
+      <c r="H138" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I138" s="38" t="n"/>
-      <c r="J138" s="38" t="n"/>
+      <c r="J138" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K138" s="22" t="n"/>
       <c r="L138" s="39" t="n"/>
       <c r="M138" s="38" t="n"/>
@@ -11155,6 +12534,11 @@
         </is>
       </c>
       <c r="R138" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="S138" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -11176,7 +12560,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.03
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0156；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.5273 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.7517 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.7517 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0192；</t>
         </is>
       </c>
       <c r="W138" s="24" t="inlineStr">
@@ -11213,9 +12598,17 @@
       <c r="E139" s="38" t="n"/>
       <c r="F139" s="38" t="n"/>
       <c r="G139" s="22" t="n"/>
-      <c r="H139" s="39" t="n"/>
+      <c r="H139" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I139" s="38" t="n"/>
-      <c r="J139" s="38" t="n"/>
+      <c r="J139" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K139" s="22" t="n"/>
       <c r="L139" s="39" t="n"/>
       <c r="M139" s="38" t="n"/>
@@ -11240,7 +12633,8 @@
       </c>
       <c r="T139" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V139" s="24" t="inlineStr">
@@ -11255,7 +12649,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：31.7353；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.51 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0047 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0047 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0234</t>
         </is>
       </c>
       <c r="W139" s="24" t="inlineStr">
@@ -11291,9 +12687,17 @@
       <c r="E140" s="38" t="n"/>
       <c r="F140" s="38" t="n"/>
       <c r="G140" s="22" t="n"/>
-      <c r="H140" s="39" t="n"/>
+      <c r="H140" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I140" s="38" t="n"/>
-      <c r="J140" s="38" t="n"/>
+      <c r="J140" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K140" s="22" t="n"/>
       <c r="L140" s="39" t="n"/>
       <c r="M140" s="38" t="n"/>
@@ -11315,7 +12719,8 @@
       </c>
       <c r="T140" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V140" s="24" t="inlineStr">
@@ -11327,7 +12732,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.036；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.026
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 36.9533 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 36.9533 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.009</t>
         </is>
       </c>
       <c r="W140" s="24" t="inlineStr">
@@ -11368,9 +12774,17 @@
       <c r="E141" s="38" t="n"/>
       <c r="F141" s="38" t="n"/>
       <c r="G141" s="22" t="n"/>
-      <c r="H141" s="39" t="n"/>
+      <c r="H141" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I141" s="38" t="n"/>
-      <c r="J141" s="38" t="n"/>
+      <c r="J141" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K141" s="22" t="n"/>
       <c r="L141" s="39" t="n"/>
       <c r="M141" s="38" t="n"/>
@@ -11395,6 +12809,7 @@
       <c r="T141" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -11414,7 +12829,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0078 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.57 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.9518；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0074</t>
         </is>
       </c>
       <c r="W141" s="24" t="inlineStr">
@@ -11451,9 +12868,17 @@
       <c r="E142" s="38" t="n"/>
       <c r="F142" s="38" t="n"/>
       <c r="G142" s="22" t="n"/>
-      <c r="H142" s="39" t="n"/>
+      <c r="H142" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I142" s="38" t="n"/>
-      <c r="J142" s="38" t="n"/>
+      <c r="J142" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K142" s="22" t="n"/>
       <c r="L142" s="39" t="n"/>
       <c r="M142" s="38" t="n"/>
@@ -11474,6 +12899,7 @@
       <c r="R142" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -11497,7 +12923,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.02 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.02 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0054；</t>
         </is>
       </c>
       <c r="W142" s="24" t="inlineStr">
@@ -11533,9 +12961,17 @@
       <c r="E143" s="38" t="n"/>
       <c r="F143" s="38" t="n"/>
       <c r="G143" s="22" t="n"/>
-      <c r="H143" s="39" t="n"/>
+      <c r="H143" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I143" s="38" t="n"/>
-      <c r="J143" s="38" t="n"/>
+      <c r="J143" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K143" s="22" t="n"/>
       <c r="L143" s="39" t="n"/>
       <c r="M143" s="38" t="n"/>
@@ -11546,6 +12982,11 @@
 ·√
 √
 ·√</t>
+        </is>
+      </c>
+      <c r="R143" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S143" s="23" t="inlineStr">
@@ -11575,7 +13016,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.9075 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.9774
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0243；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.523 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.523 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.026；</t>
         </is>
       </c>
       <c r="W143" s="24" t="inlineStr">
@@ -11613,9 +13056,17 @@
       <c r="E144" s="38" t="n"/>
       <c r="F144" s="38" t="n"/>
       <c r="G144" s="22" t="n"/>
-      <c r="H144" s="39" t="n"/>
+      <c r="H144" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I144" s="38" t="n"/>
-      <c r="J144" s="38" t="n"/>
+      <c r="J144" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K144" s="22" t="n"/>
       <c r="L144" s="39" t="n"/>
       <c r="M144" s="38" t="n"/>
@@ -11637,6 +13088,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S144" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T144" s="24" t="inlineStr">
@@ -11654,7 +13110,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.0249
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：27.467；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.017；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.69 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.69 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W144" s="24" t="inlineStr">
@@ -11687,9 +13144,17 @@
       <c r="E145" s="38" t="n"/>
       <c r="F145" s="38" t="n"/>
       <c r="G145" s="22" t="n"/>
-      <c r="H145" s="39" t="n"/>
+      <c r="H145" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I145" s="38" t="n"/>
-      <c r="J145" s="38" t="n"/>
+      <c r="J145" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K145" s="22" t="n"/>
       <c r="L145" s="39" t="n"/>
       <c r="M145" s="38" t="n"/>
@@ -11711,6 +13176,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T145" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V145" s="24" t="inlineStr">
@@ -11721,7 +13191,8 @@
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.035；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.026；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.067 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.067 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0247</t>
         </is>
       </c>
       <c r="W145" s="24" t="inlineStr">
@@ -11758,9 +13229,17 @@
       <c r="E146" s="38" t="n"/>
       <c r="F146" s="38" t="n"/>
       <c r="G146" s="22" t="n"/>
-      <c r="H146" s="39" t="n"/>
+      <c r="H146" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I146" s="38" t="n"/>
-      <c r="J146" s="38" t="n"/>
+      <c r="J146" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K146" s="22" t="n"/>
       <c r="L146" s="39" t="n"/>
       <c r="M146" s="38" t="n"/>
@@ -11771,6 +13250,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T146" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V146" s="24" t="inlineStr">
@@ -11791,7 +13275,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.079 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.079 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
         </is>
       </c>
       <c r="W146" s="24" t="inlineStr">
@@ -11828,8 +13313,17 @@
       <c r="E147" s="38" t="n"/>
       <c r="F147" s="38" t="n"/>
       <c r="G147" s="22" t="n"/>
-      <c r="H147" s="39" t="n"/>
+      <c r="H147" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I147" s="38" t="n"/>
+      <c r="J147" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K147" s="22" t="n"/>
       <c r="L147" s="39" t="n"/>
       <c r="M147" s="38" t="n"/>
@@ -11854,6 +13348,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T147" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V147" s="24" t="inlineStr">
@@ -11870,7 +13369,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.025；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0147；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0155 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.865 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.865 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.006</t>
         </is>
       </c>
       <c r="W147" s="24" t="inlineStr">
@@ -11905,9 +13405,17 @@
       <c r="E148" s="38" t="n"/>
       <c r="F148" s="38" t="n"/>
       <c r="G148" s="22" t="n"/>
-      <c r="H148" s="39" t="n"/>
+      <c r="H148" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I148" s="38" t="n"/>
-      <c r="J148" s="38" t="n"/>
+      <c r="J148" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K148" s="22" t="n"/>
       <c r="L148" s="39" t="n"/>
       <c r="M148" s="38" t="n"/>
@@ -11918,6 +13426,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S148" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T148" s="24" t="inlineStr">
@@ -11934,7 +13447,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0178
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0046 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.69 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.69 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
         </is>
       </c>
       <c r="W148" s="24" t="inlineStr">
@@ -11967,9 +13481,17 @@
       <c r="E149" s="38" t="n"/>
       <c r="F149" s="38" t="n"/>
       <c r="G149" s="22" t="n"/>
-      <c r="H149" s="39" t="n"/>
+      <c r="H149" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I149" s="38" t="n"/>
-      <c r="J149" s="38" t="n"/>
+      <c r="J149" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K149" s="22" t="n"/>
       <c r="L149" s="39" t="n"/>
       <c r="M149" s="38" t="n"/>
@@ -11987,6 +13509,7 @@
       <c r="S149" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -12009,7 +13532,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是36.1425；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.02；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.024 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.86 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.86 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0129；</t>
         </is>
       </c>
       <c r="W149" s="24" t="inlineStr">
@@ -12048,9 +13572,17 @@
       <c r="E150" s="38" t="n"/>
       <c r="F150" s="38" t="n"/>
       <c r="G150" s="22" t="n"/>
-      <c r="H150" s="39" t="n"/>
+      <c r="H150" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I150" s="38" t="n"/>
-      <c r="J150" s="38" t="n"/>
+      <c r="J150" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K150" s="22" t="n"/>
       <c r="L150" s="39" t="n"/>
       <c r="M150" s="38" t="n"/>
@@ -12062,7 +13594,8 @@
       </c>
       <c r="R150" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T150" s="24" t="inlineStr">
@@ -12083,7 +13616,8 @@
 ·ARB showme 任务完成；小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.016；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.026</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.026
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；</t>
         </is>
       </c>
       <c r="W150" s="24" t="inlineStr">
@@ -12119,9 +13653,17 @@
       <c r="E151" s="38" t="n"/>
       <c r="F151" s="38" t="n"/>
       <c r="G151" s="22" t="n"/>
-      <c r="H151" s="39" t="n"/>
+      <c r="H151" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I151" s="38" t="n"/>
-      <c r="J151" s="38" t="n"/>
+      <c r="J151" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K151" s="22" t="n"/>
       <c r="L151" s="39" t="n"/>
       <c r="M151" s="38" t="n"/>
@@ -12141,7 +13683,8 @@
       </c>
       <c r="S151" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V151" s="24" t="inlineStr">
@@ -12164,7 +13707,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.2645 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.2645 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
         </is>
       </c>
       <c r="W151" s="24" t="inlineStr">
@@ -12198,9 +13742,17 @@
       <c r="E152" s="38" t="n"/>
       <c r="F152" s="38" t="n"/>
       <c r="G152" s="22" t="n"/>
-      <c r="H152" s="39" t="n"/>
+      <c r="H152" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I152" s="38" t="n"/>
-      <c r="J152" s="38" t="n"/>
+      <c r="J152" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K152" s="22" t="n"/>
       <c r="L152" s="39" t="n"/>
       <c r="M152" s="38" t="n"/>
@@ -12219,6 +13771,7 @@
       <c r="R152" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -12249,7 +13802,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.445 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；</t>
         </is>
       </c>
       <c r="W152" s="24" t="inlineStr">
@@ -12285,9 +13839,17 @@
       <c r="E153" s="38" t="n"/>
       <c r="F153" s="38" t="n"/>
       <c r="G153" s="22" t="n"/>
-      <c r="H153" s="39" t="n"/>
+      <c r="H153" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I153" s="38" t="n"/>
-      <c r="J153" s="38" t="n"/>
+      <c r="J153" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K153" s="22" t="n"/>
       <c r="L153" s="39" t="n"/>
       <c r="M153" s="38" t="n"/>
@@ -12307,6 +13869,7 @@
       <c r="S153" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√</t>
         </is>
@@ -12332,7 +13895,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.015；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0178 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.4361 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.4361 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0065；</t>
         </is>
       </c>
       <c r="W153" s="24" t="inlineStr">
@@ -12369,9 +13933,17 @@
       <c r="E154" s="38" t="n"/>
       <c r="F154" s="38" t="n"/>
       <c r="G154" s="22" t="n"/>
-      <c r="H154" s="39" t="n"/>
+      <c r="H154" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I154" s="38" t="n"/>
-      <c r="J154" s="38" t="n"/>
+      <c r="J154" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K154" s="22" t="n"/>
       <c r="L154" s="39" t="n"/>
       <c r="M154" s="38" t="n"/>
@@ -12396,7 +13968,8 @@
       </c>
       <c r="S154" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T154" s="24" t="inlineStr">
@@ -12425,7 +13998,8 @@
 ·ZK zigzag 任务完成
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0154
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.8223 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0222；</t>
         </is>
       </c>
       <c r="W154" s="24" t="inlineStr">
@@ -12461,8 +14035,17 @@
       <c r="E155" s="38" t="n"/>
       <c r="F155" s="38" t="n"/>
       <c r="G155" s="22" t="n"/>
-      <c r="H155" s="39" t="n"/>
+      <c r="H155" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I155" s="38" t="n"/>
+      <c r="J155" s="23" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K155" s="22" t="n"/>
       <c r="L155" s="39" t="n"/>
       <c r="M155" s="38" t="n"/>
@@ -12487,6 +14070,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T155" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V155" s="24" t="inlineStr">
@@ -12502,7 +14090,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0071 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.4582 去兑换 ETH小狐狸签名成功
-· OP clipper 任务完成；</t>
+· OP clipper 任务完成；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.014</t>
         </is>
       </c>
       <c r="W155" s="24" t="inlineStr">
@@ -12539,9 +14128,17 @@
       <c r="E156" s="38" t="n"/>
       <c r="F156" s="38" t="n"/>
       <c r="G156" s="22" t="n"/>
-      <c r="H156" s="39" t="n"/>
+      <c r="H156" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I156" s="38" t="n"/>
-      <c r="J156" s="38" t="n"/>
+      <c r="J156" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K156" s="22" t="n"/>
       <c r="L156" s="39" t="n"/>
       <c r="M156" s="38" t="n"/>
@@ -12565,7 +14162,8 @@
       </c>
       <c r="S156" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T156" s="24" t="inlineStr">
@@ -12589,7 +14187,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.027 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0262 去兑换 USDC小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0148；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0148；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；</t>
         </is>
       </c>
       <c r="W156" s="24" t="inlineStr">
@@ -12626,9 +14225,17 @@
       <c r="E157" s="38" t="n"/>
       <c r="F157" s="38" t="n"/>
       <c r="G157" s="22" t="n"/>
-      <c r="H157" s="39" t="n"/>
+      <c r="H157" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I157" s="38" t="n"/>
-      <c r="J157" s="38" t="n"/>
+      <c r="J157" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K157" s="22" t="n"/>
       <c r="L157" s="39" t="n"/>
       <c r="M157" s="38" t="n"/>
@@ -12648,7 +14255,8 @@
       </c>
       <c r="R157" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S157" s="24" t="inlineStr">
@@ -12670,7 +14278,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是3.98；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0185；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.37 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.1807 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.1807 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0186；</t>
         </is>
       </c>
       <c r="W157" s="24" t="inlineStr">
@@ -12705,9 +14314,17 @@
       <c r="E158" s="38" t="n"/>
       <c r="F158" s="38" t="n"/>
       <c r="G158" s="22" t="n"/>
-      <c r="H158" s="39" t="n"/>
+      <c r="H158" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I158" s="38" t="n"/>
-      <c r="J158" s="38" t="n"/>
+      <c r="J158" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K158" s="22" t="n"/>
       <c r="L158" s="39" t="n"/>
       <c r="M158" s="38" t="n"/>
@@ -12726,7 +14343,8 @@
       </c>
       <c r="T158" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V158" s="24" t="inlineStr">
@@ -12736,7 +14354,8 @@
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 19.812
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0066</t>
         </is>
       </c>
       <c r="W158" s="24" t="inlineStr">
@@ -12772,9 +14391,17 @@
       <c r="E159" s="38" t="n"/>
       <c r="F159" s="38" t="n"/>
       <c r="G159" s="22" t="n"/>
-      <c r="H159" s="39" t="n"/>
+      <c r="H159" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I159" s="38" t="n"/>
-      <c r="J159" s="38" t="n"/>
+      <c r="J159" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K159" s="22" t="n"/>
       <c r="L159" s="39" t="n"/>
       <c r="M159" s="38" t="n"/>
@@ -12795,7 +14422,8 @@
       </c>
       <c r="S159" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T159" s="24" t="inlineStr">
@@ -12817,7 +14445,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是41.0773；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.029；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.475 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；</t>
         </is>
       </c>
       <c r="W159" s="24" t="inlineStr">
@@ -12852,9 +14481,17 @@
       <c r="E160" s="38" t="n"/>
       <c r="F160" s="38" t="n"/>
       <c r="G160" s="22" t="n"/>
-      <c r="H160" s="39" t="n"/>
+      <c r="H160" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I160" s="38" t="n"/>
-      <c r="J160" s="38" t="n"/>
+      <c r="J160" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K160" s="22" t="n"/>
       <c r="L160" s="39" t="n"/>
       <c r="M160" s="38" t="n"/>
@@ -12872,7 +14509,8 @@
       </c>
       <c r="R160" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S160" s="23" t="inlineStr">
@@ -12894,7 +14532,10 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.834 去兑换 ETH小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；</t>
         </is>
       </c>
       <c r="W160" s="24" t="inlineStr">
@@ -12929,9 +14570,17 @@
       <c r="E161" s="38" t="n"/>
       <c r="F161" s="38" t="n"/>
       <c r="G161" s="22" t="n"/>
-      <c r="H161" s="39" t="n"/>
+      <c r="H161" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I161" s="38" t="n"/>
-      <c r="J161" s="38" t="n"/>
+      <c r="J161" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K161" s="22" t="n"/>
       <c r="L161" s="39" t="n"/>
       <c r="M161" s="38" t="n"/>
@@ -12948,6 +14597,7 @@
       <c r="T161" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -12971,7 +14621,11 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0182 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.885 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.885 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023</t>
         </is>
       </c>
       <c r="W161" s="24" t="inlineStr">
@@ -13007,9 +14661,17 @@
       <c r="E162" s="38" t="n"/>
       <c r="F162" s="38" t="n"/>
       <c r="G162" s="22" t="n"/>
-      <c r="H162" s="39" t="n"/>
+      <c r="H162" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I162" s="38" t="n"/>
-      <c r="J162" s="38" t="n"/>
+      <c r="J162" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K162" s="22" t="n"/>
       <c r="L162" s="39" t="n"/>
       <c r="M162" s="38" t="n"/>
@@ -13029,6 +14691,7 @@
       <c r="T162" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -13040,7 +14703,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.371；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0071 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.18 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.18 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.005</t>
         </is>
       </c>
       <c r="W162" s="24" t="inlineStr">
@@ -13076,9 +14740,17 @@
       <c r="E163" s="38" t="n"/>
       <c r="F163" s="38" t="n"/>
       <c r="G163" s="22" t="n"/>
-      <c r="H163" s="39" t="n"/>
+      <c r="H163" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I163" s="38" t="n"/>
-      <c r="J163" s="38" t="n"/>
+      <c r="J163" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K163" s="22" t="n"/>
       <c r="L163" s="39" t="n"/>
       <c r="M163" s="38" t="n"/>
@@ -13098,7 +14770,8 @@
       </c>
       <c r="R163" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T163" s="24" t="inlineStr">
@@ -13122,7 +14795,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.163 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.018；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.6 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.6 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.019；</t>
         </is>
       </c>
       <c r="W163" s="24" t="inlineStr">
@@ -13161,9 +14835,17 @@
       <c r="E164" s="38" t="n"/>
       <c r="F164" s="38" t="n"/>
       <c r="G164" s="22" t="n"/>
-      <c r="H164" s="39" t="n"/>
+      <c r="H164" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I164" s="38" t="n"/>
-      <c r="J164" s="38" t="n"/>
+      <c r="J164" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K164" s="22" t="n"/>
       <c r="L164" s="39" t="n"/>
       <c r="M164" s="38" t="n"/>
@@ -13176,7 +14858,8 @@
       </c>
       <c r="S164" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T164" s="24" t="inlineStr">
@@ -13189,7 +14872,9 @@
           <t>· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.0；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.03
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.4289 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.4289 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；</t>
         </is>
       </c>
       <c r="W164" s="24" t="inlineStr">
@@ -13224,9 +14909,17 @@
       <c r="E165" s="38" t="n"/>
       <c r="F165" s="38" t="n"/>
       <c r="G165" s="22" t="n"/>
-      <c r="H165" s="39" t="n"/>
+      <c r="H165" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I165" s="38" t="n"/>
-      <c r="J165" s="38" t="n"/>
+      <c r="J165" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K165" s="22" t="n"/>
       <c r="L165" s="39" t="n"/>
       <c r="M165" s="38" t="n"/>
@@ -13242,7 +14935,8 @@
       </c>
       <c r="R165" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S165" s="24" t="inlineStr">
@@ -13269,7 +14963,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.023；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0157；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.78 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0044 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0044 去兑换 USDC小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0154；</t>
         </is>
       </c>
       <c r="W165" s="24" t="inlineStr">
@@ -13304,9 +14999,17 @@
       <c r="E166" s="38" t="n"/>
       <c r="F166" s="38" t="n"/>
       <c r="G166" s="22" t="n"/>
-      <c r="H166" s="39" t="n"/>
+      <c r="H166" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I166" s="38" t="n"/>
-      <c r="J166" s="38" t="n"/>
+      <c r="J166" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K166" s="22" t="n"/>
       <c r="L166" s="39" t="n"/>
       <c r="M166" s="38" t="n"/>
@@ -13322,6 +15025,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T166" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V166" s="24" t="inlineStr">
@@ -13342,7 +15050,12 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0059 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.4332 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.4332 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0025</t>
         </is>
       </c>
       <c r="W166" s="24" t="inlineStr">
@@ -13375,9 +15088,17 @@
       <c r="E167" s="38" t="n"/>
       <c r="F167" s="38" t="n"/>
       <c r="G167" s="22" t="n"/>
-      <c r="H167" s="39" t="n"/>
+      <c r="H167" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I167" s="38" t="n"/>
-      <c r="J167" s="38" t="n"/>
+      <c r="J167" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K167" s="22" t="n"/>
       <c r="L167" s="39" t="n"/>
       <c r="M167" s="38" t="n"/>
@@ -13402,7 +15123,8 @@
       </c>
       <c r="T167" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V167" s="24" t="inlineStr">
@@ -13419,7 +15141,8 @@
 ·小狐狸签名失败
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0084；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.83 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.83 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013</t>
         </is>
       </c>
       <c r="W167" s="24" t="inlineStr">
@@ -13451,9 +15174,17 @@
       <c r="E168" s="38" t="n"/>
       <c r="F168" s="38" t="n"/>
       <c r="G168" s="22" t="n"/>
-      <c r="H168" s="39" t="n"/>
+      <c r="H168" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I168" s="38" t="n"/>
-      <c r="J168" s="38" t="n"/>
+      <c r="J168" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K168" s="22" t="n"/>
       <c r="L168" s="39" t="n"/>
       <c r="M168" s="38" t="n"/>
@@ -13468,6 +15199,11 @@
 ·√</t>
         </is>
       </c>
+      <c r="R168" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="T168" s="24" t="inlineStr">
         <is>
           <t>·√
@@ -13486,7 +15222,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0223 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.91 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.91 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0065；</t>
         </is>
       </c>
       <c r="W168" s="24" t="inlineStr">
@@ -13521,9 +15258,17 @@
       <c r="E169" s="38" t="n"/>
       <c r="F169" s="38" t="n"/>
       <c r="G169" s="22" t="n"/>
-      <c r="H169" s="39" t="n"/>
+      <c r="H169" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I169" s="38" t="n"/>
-      <c r="J169" s="38" t="n"/>
+      <c r="J169" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K169" s="22" t="n"/>
       <c r="L169" s="39" t="n"/>
       <c r="M169" s="38" t="n"/>
@@ -13533,6 +15278,11 @@
 √
 √
 √</t>
+        </is>
+      </c>
+      <c r="R169" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S169" s="23" t="inlineStr">
@@ -13556,7 +15306,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.686 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.3741 去兑换 ETH小狐狸签名成功
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.023</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.023
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0196；</t>
         </is>
       </c>
       <c r="W169" s="24" t="inlineStr">
@@ -13589,9 +15340,17 @@
       <c r="E170" s="38" t="n"/>
       <c r="F170" s="38" t="n"/>
       <c r="G170" s="22" t="n"/>
-      <c r="H170" s="39" t="n"/>
+      <c r="H170" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I170" s="38" t="n"/>
-      <c r="J170" s="38" t="n"/>
+      <c r="J170" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K170" s="22" t="n"/>
       <c r="L170" s="39" t="n"/>
       <c r="M170" s="38" t="n"/>
@@ -13612,7 +15371,8 @@
       </c>
       <c r="R170" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S170" s="23" t="inlineStr">
@@ -13650,7 +15410,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 36.51
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0311 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 50.1682 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 50.1682 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；</t>
         </is>
       </c>
       <c r="W170" s="24" t="inlineStr">
@@ -13686,9 +15447,17 @@
       <c r="E171" s="38" t="n"/>
       <c r="F171" s="38" t="n"/>
       <c r="G171" s="22" t="n"/>
-      <c r="H171" s="39" t="n"/>
+      <c r="H171" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I171" s="38" t="n"/>
-      <c r="J171" s="38" t="n"/>
+      <c r="J171" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K171" s="22" t="n"/>
       <c r="L171" s="39" t="n"/>
       <c r="M171" s="38" t="n"/>
@@ -13705,6 +15474,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R171" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S171" s="23" t="inlineStr">
@@ -13736,7 +15510,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.72 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.016；</t>
         </is>
       </c>
       <c r="W171" s="24" t="inlineStr">
@@ -13772,9 +15548,17 @@
       <c r="E172" s="38" t="n"/>
       <c r="F172" s="38" t="n"/>
       <c r="G172" s="22" t="n"/>
-      <c r="H172" s="39" t="n"/>
+      <c r="H172" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I172" s="38" t="n"/>
-      <c r="J172" s="38" t="n"/>
+      <c r="J172" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K172" s="22" t="n"/>
       <c r="L172" s="39" t="n"/>
       <c r="M172" s="38" t="n"/>
@@ -13790,6 +15574,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R172" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T172" s="24" t="inlineStr">
@@ -13811,7 +15600,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 19.878
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0062 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 11.3682 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 11.3682 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
         </is>
       </c>
       <c r="W172" s="24" t="inlineStr">
@@ -13845,9 +15635,17 @@
       <c r="E173" s="38" t="n"/>
       <c r="F173" s="38" t="n"/>
       <c r="G173" s="22" t="n"/>
-      <c r="H173" s="39" t="n"/>
+      <c r="H173" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I173" s="38" t="n"/>
-      <c r="J173" s="38" t="n"/>
+      <c r="J173" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K173" s="22" t="n"/>
       <c r="L173" s="39" t="n"/>
       <c r="M173" s="38" t="n"/>
@@ -13861,6 +15659,11 @@
 √
 √
 ·√</t>
+        </is>
+      </c>
+      <c r="R173" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S173" s="23" t="inlineStr">
@@ -13887,7 +15690,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 38.612 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.035
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0296；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.72 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.72 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0289；</t>
         </is>
       </c>
       <c r="W173" s="24" t="inlineStr">
@@ -13926,9 +15730,17 @@
       <c r="E174" s="38" t="n"/>
       <c r="F174" s="38" t="n"/>
       <c r="G174" s="22" t="n"/>
-      <c r="H174" s="39" t="n"/>
+      <c r="H174" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I174" s="38" t="n"/>
-      <c r="J174" s="38" t="n"/>
+      <c r="J174" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K174" s="22" t="n"/>
       <c r="L174" s="39" t="n"/>
       <c r="M174" s="38" t="n"/>
@@ -13946,7 +15758,8 @@
       </c>
       <c r="R174" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T174" s="24" t="inlineStr">
@@ -13967,7 +15780,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.036；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.027
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 40.67 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 40.67 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
         </is>
       </c>
       <c r="W174" s="24" t="inlineStr">
@@ -14004,9 +15818,17 @@
       <c r="E175" s="38" t="n"/>
       <c r="F175" s="38" t="n"/>
       <c r="G175" s="22" t="n"/>
-      <c r="H175" s="39" t="n"/>
+      <c r="H175" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I175" s="38" t="n"/>
-      <c r="J175" s="38" t="n"/>
+      <c r="J175" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K175" s="22" t="n"/>
       <c r="L175" s="39" t="n"/>
       <c r="M175" s="38" t="n"/>
@@ -14019,7 +15841,8 @@
       </c>
       <c r="R175" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S175" s="23" t="inlineStr">
@@ -14041,7 +15864,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.008 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.866 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+· matcha 还是换钱失败
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；</t>
         </is>
       </c>
       <c r="W175" s="24" t="inlineStr">
@@ -14075,9 +15900,17 @@
       <c r="E176" s="38" t="n"/>
       <c r="F176" s="38" t="n"/>
       <c r="G176" s="22" t="n"/>
-      <c r="H176" s="39" t="n"/>
+      <c r="H176" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I176" s="38" t="n"/>
-      <c r="J176" s="38" t="n"/>
+      <c r="J176" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K176" s="22" t="n"/>
       <c r="L176" s="39" t="n"/>
       <c r="M176" s="38" t="n"/>
@@ -14089,7 +15922,8 @@
       </c>
       <c r="R176" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S176" s="23" t="inlineStr">
@@ -14102,7 +15936,8 @@
           <t>·zigzag 点击【卖】成功，本次：0.04 ETH 去兑换 USDC
 ·zigzag 点击【买】成功，本次：用 100% USDC余额去兑换 ETH
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.553；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.553；
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；</t>
         </is>
       </c>
       <c r="W176" s="24" t="inlineStr">
@@ -14136,9 +15971,17 @@
       <c r="E177" s="38" t="n"/>
       <c r="F177" s="38" t="n"/>
       <c r="G177" s="22" t="n"/>
-      <c r="H177" s="39" t="n"/>
+      <c r="H177" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I177" s="38" t="n"/>
-      <c r="J177" s="38" t="n"/>
+      <c r="J177" s="38" t="inlineStr">
+        <is>
+          <t>ETH</t>
+        </is>
+      </c>
       <c r="K177" s="22" t="n"/>
       <c r="L177" s="39" t="n"/>
       <c r="M177" s="38" t="n"/>
@@ -14151,6 +15994,11 @@
 ·√
 √
 ·√</t>
+        </is>
+      </c>
+      <c r="R177" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S177" s="23" t="inlineStr">
@@ -14177,7 +16025,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.2095 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 33.2575
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.441 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.441 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：50.302；</t>
         </is>
       </c>
       <c r="W177" s="24" t="inlineStr">
@@ -14215,9 +16064,17 @@
       <c r="E178" s="38" t="n"/>
       <c r="F178" s="38" t="n"/>
       <c r="G178" s="22" t="n"/>
-      <c r="H178" s="39" t="n"/>
+      <c r="H178" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I178" s="38" t="n"/>
-      <c r="J178" s="38" t="n"/>
+      <c r="J178" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K178" s="22" t="n"/>
       <c r="L178" s="39" t="n"/>
       <c r="M178" s="38" t="n"/>
@@ -14241,7 +16098,8 @@
       </c>
       <c r="T178" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V178" s="24" t="inlineStr">
@@ -14255,7 +16113,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0141；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0147 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0147 去兑换 USDC小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0032</t>
         </is>
       </c>
       <c r="W178" s="24" t="inlineStr">
@@ -14289,9 +16148,17 @@
       <c r="E179" s="38" t="n"/>
       <c r="F179" s="38" t="n"/>
       <c r="G179" s="22" t="n"/>
-      <c r="H179" s="39" t="n"/>
+      <c r="H179" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I179" s="38" t="n"/>
-      <c r="J179" s="38" t="n"/>
+      <c r="J179" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K179" s="22" t="n"/>
       <c r="L179" s="39" t="n"/>
       <c r="M179" s="38" t="n"/>
@@ -14311,6 +16178,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="T179" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="V179" s="24" t="inlineStr">
@@ -14324,7 +16196,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.034；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0255；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.204 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.204 去兑换 ETH小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023</t>
         </is>
       </c>
       <c r="W179" s="24" t="inlineStr">
@@ -14361,9 +16234,17 @@
       <c r="E180" s="38" t="n"/>
       <c r="F180" s="38" t="n"/>
       <c r="G180" s="22" t="n"/>
-      <c r="H180" s="39" t="n"/>
+      <c r="H180" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I180" s="38" t="n"/>
-      <c r="J180" s="38" t="n"/>
+      <c r="J180" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K180" s="22" t="n"/>
       <c r="L180" s="39" t="n"/>
       <c r="M180" s="38" t="n"/>
@@ -14388,7 +16269,8 @@
       </c>
       <c r="T180" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V180" s="24" t="inlineStr">
@@ -14405,7 +16287,8 @@
 · matcha 还是换钱失败
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：25.27；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0185</t>
         </is>
       </c>
       <c r="W180" s="24" t="inlineStr">
@@ -14440,9 +16323,17 @@
       <c r="E181" s="38" t="n"/>
       <c r="F181" s="38" t="n"/>
       <c r="G181" s="22" t="n"/>
-      <c r="H181" s="39" t="n"/>
+      <c r="H181" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I181" s="38" t="n"/>
-      <c r="J181" s="38" t="n"/>
+      <c r="J181" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K181" s="22" t="n"/>
       <c r="L181" s="39" t="n"/>
       <c r="M181" s="38" t="n"/>
@@ -14456,6 +16347,11 @@
 √
 √
 ·√</t>
+        </is>
+      </c>
+      <c r="R181" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S181" s="24" t="inlineStr">
@@ -14482,7 +16378,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.793 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.03
 · OP clipper 任务完成；小狐狸签
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.224 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.224 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；</t>
         </is>
       </c>
       <c r="W181" s="24" t="inlineStr">
@@ -14519,9 +16416,17 @@
       <c r="E182" s="38" t="n"/>
       <c r="F182" s="38" t="n"/>
       <c r="G182" s="22" t="n"/>
-      <c r="H182" s="39" t="n"/>
+      <c r="H182" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I182" s="38" t="n"/>
-      <c r="J182" s="38" t="n"/>
+      <c r="J182" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K182" s="22" t="n"/>
       <c r="L182" s="39" t="n"/>
       <c r="M182" s="38" t="n"/>
@@ -14543,6 +16448,11 @@
         </is>
       </c>
       <c r="S182" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="T182" s="23" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -14558,7 +16468,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是16.148；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0121 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.506 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.506 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
         </is>
       </c>
       <c r="W182" s="24" t="inlineStr">
@@ -14594,9 +16506,17 @@
       <c r="E183" s="38" t="n"/>
       <c r="F183" s="38" t="n"/>
       <c r="G183" s="22" t="n"/>
-      <c r="H183" s="39" t="n"/>
+      <c r="H183" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I183" s="38" t="n"/>
-      <c r="J183" s="38" t="n"/>
+      <c r="J183" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K183" s="22" t="n"/>
       <c r="L183" s="39" t="n"/>
       <c r="M183" s="38" t="n"/>
@@ -14615,6 +16535,7 @@
       <c r="R183" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -14636,7 +16557,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 49.3449 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0419；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 48.5342
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.618 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.618 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.032；</t>
         </is>
       </c>
       <c r="W183" s="24" t="inlineStr">
@@ -14672,9 +16594,17 @@
       <c r="E184" s="38" t="n"/>
       <c r="F184" s="38" t="n"/>
       <c r="G184" s="22" t="n"/>
-      <c r="H184" s="39" t="n"/>
+      <c r="H184" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I184" s="38" t="n"/>
-      <c r="J184" s="38" t="n"/>
+      <c r="J184" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K184" s="22" t="n"/>
       <c r="L184" s="39" t="n"/>
       <c r="M184" s="38" t="n"/>
@@ -14693,6 +16623,7 @@
       <c r="R184" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -14721,7 +16652,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0199；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0138 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.911 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.911 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0054；</t>
         </is>
       </c>
       <c r="W184" s="24" t="inlineStr">
@@ -14758,9 +16690,17 @@
       <c r="E185" s="38" t="n"/>
       <c r="F185" s="38" t="n"/>
       <c r="G185" s="22" t="n"/>
-      <c r="H185" s="39" t="n"/>
+      <c r="H185" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I185" s="38" t="n"/>
-      <c r="J185" s="38" t="n"/>
+      <c r="J185" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K185" s="22" t="n"/>
       <c r="L185" s="39" t="n"/>
       <c r="M185" s="38" t="n"/>
@@ -14776,6 +16716,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R185" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T185" s="24" t="inlineStr">
@@ -14796,7 +16741,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 75% 余额去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.008 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.057 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.057 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0067；</t>
         </is>
       </c>
       <c r="W185" s="24" t="inlineStr">
@@ -14832,9 +16778,17 @@
       <c r="E186" s="38" t="n"/>
       <c r="F186" s="38" t="n"/>
       <c r="G186" s="22" t="n"/>
-      <c r="H186" s="39" t="n"/>
+      <c r="H186" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I186" s="22" t="n"/>
-      <c r="J186" s="38" t="n"/>
+      <c r="J186" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K186" s="22" t="n"/>
       <c r="L186" s="39" t="n"/>
       <c r="N186" s="38" t="n"/>
@@ -14853,7 +16807,8 @@
       </c>
       <c r="R186" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T186" s="24" t="inlineStr">
@@ -14883,7 +16838,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.839；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0234 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.522 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.522 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
         </is>
       </c>
       <c r="W186" s="24" t="inlineStr">
@@ -14922,9 +16879,17 @@
       <c r="E187" s="38" t="n"/>
       <c r="F187" s="38" t="n"/>
       <c r="G187" s="22" t="n"/>
-      <c r="H187" s="39" t="n"/>
+      <c r="H187" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I187" s="39" t="n"/>
-      <c r="J187" s="38" t="n"/>
+      <c r="J187" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K187" s="22" t="n"/>
       <c r="L187" s="39" t="n"/>
       <c r="M187" s="39" t="n"/>
@@ -14945,7 +16910,8 @@
       </c>
       <c r="T187" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V187" s="24" t="inlineStr">
@@ -14953,7 +16919,10 @@
           <t>·OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；小狐狸签名成功
 ·ARB showme 任务完成；小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.0417
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.031；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.031；
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0036</t>
         </is>
       </c>
       <c r="W187" s="24" t="inlineStr">
@@ -14988,9 +16957,17 @@
       <c r="E188" s="38" t="n"/>
       <c r="F188" s="38" t="n"/>
       <c r="G188" s="22" t="n"/>
-      <c r="H188" s="39" t="n"/>
+      <c r="H188" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I188" s="38" t="n"/>
-      <c r="J188" s="38" t="n"/>
+      <c r="J188" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K188" s="22" t="n"/>
       <c r="L188" s="39" t="n"/>
       <c r="M188" s="38" t="n"/>
@@ -15002,6 +16979,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S188" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T188" s="24" t="inlineStr">
@@ -15021,7 +17003,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0115 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
         </is>
       </c>
       <c r="W188" s="24" t="inlineStr">
@@ -15057,9 +17040,17 @@
       <c r="E189" s="38" t="n"/>
       <c r="F189" s="38" t="n"/>
       <c r="G189" s="22" t="n"/>
-      <c r="H189" s="39" t="n"/>
+      <c r="H189" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I189" s="38" t="n"/>
-      <c r="J189" s="38" t="n"/>
+      <c r="J189" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K189" s="22" t="n"/>
       <c r="L189" s="39" t="n"/>
       <c r="M189" s="38" t="n"/>
@@ -15081,6 +17072,7 @@
       <c r="R189" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15100,7 +17092,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.03；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.641 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0029 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0029 去兑换 USDC小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；</t>
         </is>
       </c>
       <c r="W189" s="24" t="inlineStr">
@@ -15135,9 +17129,17 @@
       <c r="E190" s="38" t="n"/>
       <c r="F190" s="38" t="n"/>
       <c r="G190" s="22" t="n"/>
-      <c r="H190" s="39" t="n"/>
+      <c r="H190" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I190" s="38" t="n"/>
-      <c r="J190" s="38" t="n"/>
+      <c r="J190" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K190" s="22" t="n"/>
       <c r="L190" s="39" t="n"/>
       <c r="M190" s="38" t="n"/>
@@ -15158,7 +17160,8 @@
       </c>
       <c r="T190" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V190" s="24" t="inlineStr">
@@ -15166,7 +17169,8 @@
           <t>·OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0133；小狐狸签名成功
 ·ARB showme 任务完成；小狐狸签名成功
 ·OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0134</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0134
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0035</t>
         </is>
       </c>
       <c r="W190" s="24" t="inlineStr">
@@ -15200,9 +17204,17 @@
       <c r="E191" s="38" t="n"/>
       <c r="F191" s="38" t="n"/>
       <c r="G191" s="22" t="n"/>
-      <c r="H191" s="39" t="n"/>
+      <c r="H191" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I191" s="38" t="n"/>
-      <c r="J191" s="38" t="n"/>
+      <c r="J191" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K191" s="22" t="n"/>
       <c r="L191" s="39" t="n"/>
       <c r="M191" s="38" t="n"/>
@@ -15226,6 +17238,7 @@
       <c r="S191" s="24" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15247,7 +17260,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：44.91；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0292；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 43.72 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 43.72 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；</t>
         </is>
       </c>
       <c r="W191" s="24" t="inlineStr">
@@ -15285,9 +17299,17 @@
       <c r="E192" s="38" t="n"/>
       <c r="F192" s="38" t="n"/>
       <c r="G192" s="22" t="n"/>
-      <c r="H192" s="39" t="n"/>
+      <c r="H192" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I192" s="38" t="n"/>
-      <c r="J192" s="38" t="n"/>
+      <c r="J192" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K192" s="22" t="n"/>
       <c r="L192" s="39" t="n"/>
       <c r="M192" s="38" t="n"/>
@@ -15318,7 +17340,8 @@
       </c>
       <c r="T192" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V192" s="24" t="inlineStr">
@@ -15334,7 +17357,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.95 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.012</t>
         </is>
       </c>
       <c r="W192" s="24" t="inlineStr">
@@ -15370,9 +17394,17 @@
       <c r="E193" s="38" t="n"/>
       <c r="F193" s="38" t="n"/>
       <c r="G193" s="22" t="n"/>
-      <c r="H193" s="39" t="n"/>
+      <c r="H193" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I193" s="38" t="n"/>
-      <c r="J193" s="38" t="n"/>
+      <c r="J193" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K193" s="22" t="n"/>
       <c r="L193" s="39" t="n"/>
       <c r="M193" s="38" t="n"/>
@@ -15403,7 +17435,8 @@
       </c>
       <c r="T193" s="24" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V193" s="24" t="inlineStr">
@@ -15416,7 +17449,10 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：23.18；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0077 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.21 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.21 去兑换 ETH小狐狸签名成功
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
         </is>
       </c>
       <c r="W193" s="24" t="inlineStr">
@@ -15453,9 +17489,17 @@
       <c r="E194" s="38" t="n"/>
       <c r="F194" s="38" t="n"/>
       <c r="G194" s="22" t="n"/>
-      <c r="H194" s="39" t="n"/>
+      <c r="H194" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I194" s="38" t="n"/>
-      <c r="J194" s="38" t="n"/>
+      <c r="J194" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K194" s="22" t="n"/>
       <c r="L194" s="39" t="n"/>
       <c r="M194" s="38" t="n"/>
@@ -15473,7 +17517,8 @@
       </c>
       <c r="R194" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T194" s="24" t="inlineStr">
@@ -15492,7 +17537,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.027；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.017
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.06 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.06 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0053；</t>
         </is>
       </c>
       <c r="W194" s="24" t="inlineStr">
@@ -15530,9 +17576,17 @@
       <c r="E195" s="38" t="n"/>
       <c r="F195" s="38" t="n"/>
       <c r="G195" s="22" t="n"/>
-      <c r="H195" s="39" t="n"/>
+      <c r="H195" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I195" s="38" t="n"/>
-      <c r="J195" s="38" t="n"/>
+      <c r="J195" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K195" s="22" t="n"/>
       <c r="L195" s="39" t="n"/>
       <c r="M195" s="38" t="n"/>
@@ -15552,7 +17606,8 @@
       </c>
       <c r="R195" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="S195" s="23" t="inlineStr">
@@ -15576,7 +17631,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.5443
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.0227；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.4 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；</t>
         </is>
       </c>
       <c r="W195" s="24" t="inlineStr">
@@ -15611,9 +17667,17 @@
       <c r="E196" s="38" t="n"/>
       <c r="F196" s="38" t="n"/>
       <c r="G196" s="22" t="n"/>
-      <c r="H196" s="39" t="n"/>
+      <c r="H196" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I196" s="38" t="n"/>
-      <c r="J196" s="38" t="n"/>
+      <c r="J196" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K196" s="22" t="n"/>
       <c r="L196" s="39" t="n"/>
       <c r="M196" s="38" t="n"/>
@@ -15636,6 +17700,11 @@
           <t>·√</t>
         </is>
       </c>
+      <c r="S196" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="U196" s="23" t="inlineStr">
         <is>
           <t>·√</t>
@@ -15655,7 +17724,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.9114 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.9114 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；</t>
         </is>
       </c>
       <c r="W196" s="24" t="inlineStr">
@@ -15692,9 +17762,17 @@
       <c r="E197" s="38" t="n"/>
       <c r="F197" s="38" t="n"/>
       <c r="G197" s="22" t="n"/>
-      <c r="H197" s="39" t="n"/>
+      <c r="H197" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I197" s="38" t="n"/>
-      <c r="J197" s="38" t="n"/>
+      <c r="J197" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K197" s="22" t="n"/>
       <c r="L197" s="39" t="n"/>
       <c r="M197" s="38" t="n"/>
@@ -15707,6 +17785,11 @@
 √
 ·√
 ·√</t>
+        </is>
+      </c>
+      <c r="R197" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="S197" s="24" t="inlineStr">
@@ -15732,7 +17815,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.901 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0291；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.67 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.67 去兑换 ETH小狐狸签名成功
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0323；</t>
         </is>
       </c>
       <c r="W197" s="24" t="inlineStr">
@@ -15766,9 +17850,17 @@
       <c r="E198" s="38" t="n"/>
       <c r="F198" s="38" t="n"/>
       <c r="G198" s="22" t="n"/>
-      <c r="H198" s="39" t="n"/>
+      <c r="H198" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I198" s="38" t="n"/>
-      <c r="J198" s="38" t="n"/>
+      <c r="J198" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K198" s="22" t="n"/>
       <c r="L198" s="39" t="n"/>
       <c r="M198" s="38" t="n"/>
@@ -15791,6 +17883,11 @@
         <is>
           <t>·√
 ·√</t>
+        </is>
+      </c>
+      <c r="S198" s="23" t="inlineStr">
+        <is>
+          <t>·√</t>
         </is>
       </c>
       <c r="T198" s="24" t="inlineStr">
@@ -15809,7 +17906,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.016
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.2722 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0019 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0019 去兑换 USDC小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0164；</t>
         </is>
       </c>
       <c r="W198" s="24" t="inlineStr">
@@ -15844,9 +17942,17 @@
       <c r="E199" s="38" t="n"/>
       <c r="F199" s="38" t="n"/>
       <c r="G199" s="22" t="n"/>
-      <c r="H199" s="39" t="n"/>
+      <c r="H199" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I199" s="38" t="n"/>
-      <c r="J199" s="38" t="n"/>
+      <c r="J199" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K199" s="22" t="n"/>
       <c r="L199" s="39" t="n"/>
       <c r="M199" s="38" t="n"/>
@@ -15870,7 +17976,8 @@
       </c>
       <c r="S199" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="V199" s="24" t="inlineStr">
@@ -15880,7 +17987,8 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.041 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.04 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0086；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0216；</t>
         </is>
       </c>
       <c r="W199" s="24" t="inlineStr">
@@ -15915,9 +18023,17 @@
       <c r="E200" s="38" t="n"/>
       <c r="F200" s="38" t="n"/>
       <c r="G200" s="22" t="n"/>
-      <c r="H200" s="39" t="n"/>
+      <c r="H200" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="I200" s="38" t="n"/>
-      <c r="J200" s="38" t="n"/>
+      <c r="J200" s="38" t="inlineStr">
+        <is>
+          <t>USDC</t>
+        </is>
+      </c>
       <c r="K200" s="22" t="n"/>
       <c r="L200" s="39" t="n"/>
       <c r="M200" s="38" t="n"/>
@@ -15941,7 +18057,8 @@
       </c>
       <c r="S200" s="23" t="inlineStr">
         <is>
-          <t>·√</t>
+          <t>·√
+·√</t>
         </is>
       </c>
       <c r="T200" s="24" t="inlineStr">
@@ -15962,7 +18079,8 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 45.3596
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：7.928；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.497 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.497 去兑换 ETH小狐狸签名成功
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.018；</t>
         </is>
       </c>
       <c r="W200" s="24" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -857,7 +857,11 @@
       <c r="I2" s="38" t="n"/>
       <c r="J2" s="38" t="n"/>
       <c r="K2" s="22" t="n"/>
-      <c r="L2" s="39" t="n"/>
+      <c r="L2" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M2" s="38" t="n"/>
       <c r="N2" s="38" t="n"/>
       <c r="O2" s="37" t="n"/>
@@ -912,7 +916,8 @@
 ·小狐狸交易失败，点击【拒绝交易】，gas fee预估0.010839
 ·小狐狸交易失败，点击【拒绝交易】，gas fee预估0.008882
 · 小狐狸交易成功
-·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本</t>
+·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本
+·orb 成功</t>
         </is>
       </c>
       <c r="Y2" s="23" t="inlineStr">
@@ -947,7 +952,11 @@
       <c r="I3" s="38" t="n"/>
       <c r="J3" s="38" t="n"/>
       <c r="K3" s="22" t="n"/>
-      <c r="L3" s="39" t="n"/>
+      <c r="L3" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M3" s="38" t="n"/>
       <c r="N3" s="38" t="n"/>
       <c r="P3" s="24" t="inlineStr">
@@ -1105,7 +1114,11 @@
       <c r="I5" s="38" t="n"/>
       <c r="J5" s="38" t="n"/>
       <c r="K5" s="22" t="n"/>
-      <c r="L5" s="39" t="n"/>
+      <c r="L5" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M5" s="38" t="n"/>
       <c r="N5" s="38" t="n"/>
       <c r="P5" s="24" t="inlineStr">
@@ -1169,7 +1182,11 @@
       <c r="I6" s="22" t="n"/>
       <c r="J6" s="38" t="n"/>
       <c r="K6" s="22" t="n"/>
-      <c r="L6" s="39" t="n"/>
+      <c r="L6" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="N6" s="38" t="n"/>
       <c r="P6" s="24" t="inlineStr">
         <is>
@@ -1207,7 +1224,8 @@
       <c r="W6" s="24" t="inlineStr">
         <is>
           <t>·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0196, orb 显示 withholding fee 手续费是：
-·【成功】通过orb，资</t>
+·【成功】通过orb，资
+·orb 成功</t>
         </is>
       </c>
       <c r="Y6" s="23" t="inlineStr">
@@ -1238,7 +1256,11 @@
       <c r="I7" s="38" t="n"/>
       <c r="J7" s="38" t="n"/>
       <c r="K7" s="22" t="n"/>
-      <c r="L7" s="39" t="n"/>
+      <c r="L7" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M7" s="38" t="n"/>
       <c r="N7" s="38" t="n"/>
       <c r="P7" s="24" t="inlineStr">
@@ -1304,7 +1326,11 @@
       <c r="I8" s="38" t="n"/>
       <c r="J8" s="38" t="n"/>
       <c r="K8" s="22" t="n"/>
-      <c r="L8" s="39" t="n"/>
+      <c r="L8" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M8" s="38" t="n"/>
       <c r="N8" s="38" t="n"/>
       <c r="P8" s="24" t="inlineStr">
@@ -1346,7 +1372,8 @@
           <t>·考虑重新交易orb，小狐狸交易失败，点击【拒绝交易】，
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·小狐
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y8" s="23" t="inlineStr">
@@ -1377,7 +1404,11 @@
       <c r="I9" s="38" t="n"/>
       <c r="J9" s="38" t="n"/>
       <c r="K9" s="22" t="n"/>
-      <c r="L9" s="39" t="n"/>
+      <c r="L9" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M9" s="38" t="n"/>
       <c r="N9" s="38" t="n"/>
       <c r="P9" s="24" t="inlineStr">
@@ -1423,7 +1454,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 · 小狐狸交易成功
 ·小狐狸点击确认后，orb失败，还是没有转过去
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y9" s="23" t="inlineStr">
@@ -1458,7 +1490,11 @@
       <c r="I10" s="38" t="n"/>
       <c r="J10" s="38" t="n"/>
       <c r="K10" s="22" t="n"/>
-      <c r="L10" s="39" t="n"/>
+      <c r="L10" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M10" s="38" t="n"/>
       <c r="N10" s="38" t="n"/>
       <c r="P10" s="37" t="inlineStr">
@@ -1506,7 +1542,8 @@
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资</t>
+·【成功】通过orb，资
+·orb 成功</t>
         </is>
       </c>
       <c r="Y10" s="23" t="inlineStr">
@@ -1536,7 +1573,11 @@
       <c r="I11" s="38" t="n"/>
       <c r="J11" s="38" t="n"/>
       <c r="K11" s="22" t="n"/>
-      <c r="L11" s="39" t="n"/>
+      <c r="L11" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M11" s="38" t="n"/>
       <c r="N11" s="38" t="n"/>
       <c r="O11" s="37" t="inlineStr">
@@ -1615,7 +1656,11 @@
       <c r="H12" s="39" t="n"/>
       <c r="I12" s="38" t="n"/>
       <c r="K12" s="22" t="n"/>
-      <c r="L12" s="39" t="n"/>
+      <c r="L12" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M12" s="38" t="n"/>
       <c r="N12" s="38" t="n"/>
       <c r="P12" s="24" t="inlineStr">
@@ -1655,7 +1700,8 @@
 ·小狐狸点击确认后，bungee 失败，还是没有转过去
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0238  小狐狸交易成功
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
-· 小狐狸交易成功</t>
+· 小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y12" s="23" t="inlineStr">
@@ -1685,7 +1731,11 @@
       <c r="I13" s="38" t="n"/>
       <c r="J13" s="38" t="n"/>
       <c r="K13" s="22" t="n"/>
-      <c r="L13" s="39" t="n"/>
+      <c r="L13" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M13" s="38" t="n"/>
       <c r="N13" s="38" t="n"/>
       <c r="P13" s="37" t="inlineStr">
@@ -1732,7 +1782,8 @@
 ·小狐狸交易失败，点击【拒绝交易】
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0218, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0218, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y13" s="23" t="inlineStr">
@@ -1762,7 +1813,11 @@
       <c r="H14" s="39" t="n"/>
       <c r="I14" s="38" t="n"/>
       <c r="J14" s="38" t="n"/>
-      <c r="L14" s="39" t="n"/>
+      <c r="L14" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M14" s="38" t="n"/>
       <c r="P14" s="24" t="inlineStr">
         <is>
@@ -1830,7 +1885,11 @@
       <c r="I15" s="38" t="n"/>
       <c r="J15" s="38" t="n"/>
       <c r="K15" s="22" t="n"/>
-      <c r="L15" s="39" t="n"/>
+      <c r="L15" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M15" s="38" t="n"/>
       <c r="P15" s="24" t="inlineStr">
         <is>
@@ -1871,7 +1930,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0321  小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.002  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.026, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.026, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y15" s="23" t="inlineStr">
@@ -1902,7 +1962,11 @@
       <c r="I16" s="38" t="n"/>
       <c r="J16" s="38" t="n"/>
       <c r="K16" s="22" t="n"/>
-      <c r="L16" s="39" t="n"/>
+      <c r="L16" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M16" s="38" t="n"/>
       <c r="P16" s="24" t="inlineStr">
         <is>
@@ -1951,7 +2015,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·小狐狸点击确认后，orb失败，还是没有转过去
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0144, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0144, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y16" s="23" t="inlineStr">
@@ -1982,7 +2047,11 @@
       <c r="I17" s="38" t="n"/>
       <c r="J17" s="38" t="n"/>
       <c r="K17" s="22" t="n"/>
-      <c r="L17" s="39" t="n"/>
+      <c r="L17" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M17" s="38" t="n"/>
       <c r="P17" s="37" t="inlineStr">
         <is>
@@ -2053,7 +2122,11 @@
       <c r="H18" s="39" t="n"/>
       <c r="I18" s="38" t="n"/>
       <c r="J18" s="38" t="n"/>
-      <c r="L18" s="39" t="n"/>
+      <c r="L18" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M18" s="38" t="n"/>
       <c r="N18" s="38" t="n"/>
       <c r="P18" s="37" t="inlineStr">
@@ -2128,7 +2201,11 @@
       <c r="I19" s="38" t="n"/>
       <c r="J19" s="38" t="n"/>
       <c r="K19" s="22" t="n"/>
-      <c r="L19" s="39" t="n"/>
+      <c r="L19" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M19" s="38" t="n"/>
       <c r="N19" s="38" t="n"/>
       <c r="P19" s="24" t="inlineStr">
@@ -2162,7 +2239,8 @@
 · 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0088, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0088, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y19" s="23" t="inlineStr">
@@ -2193,7 +2271,11 @@
       <c r="I20" s="38" t="n"/>
       <c r="J20" s="38" t="n"/>
       <c r="K20" s="22" t="n"/>
-      <c r="L20" s="39" t="n"/>
+      <c r="L20" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M20" s="38" t="n"/>
       <c r="P20" s="24" t="inlineStr">
         <is>
@@ -2228,7 +2310,8 @@
           <t>·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：0.0423, orb 显示 withholding fee 手续费是：0.00065 ETH  小狐狸交易成功
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.03  小狐狸交易成功
 · 小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y20" s="23" t="inlineStr">
@@ -2259,7 +2342,11 @@
       <c r="I21" s="38" t="n"/>
       <c r="J21" s="38" t="n"/>
       <c r="K21" s="22" t="n"/>
-      <c r="L21" s="39" t="n"/>
+      <c r="L21" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M21" s="38" t="n"/>
       <c r="P21" s="24" t="inlineStr">
         <is>
@@ -2337,7 +2424,11 @@
       <c r="I22" s="38" t="n"/>
       <c r="J22" s="38" t="n"/>
       <c r="K22" s="22" t="n"/>
-      <c r="L22" s="39" t="n"/>
+      <c r="L22" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M22" s="38" t="n"/>
       <c r="P22" s="24" t="inlineStr">
         <is>
@@ -2373,7 +2464,8 @@
 ·小狐狸交易失败，点击【拒绝交易】，gas fee预估0.007081
 · 小狐狸交易成功
 · 小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y22" s="23" t="inlineStr">
@@ -2404,7 +2496,11 @@
       <c r="I23" s="38" t="n"/>
       <c r="J23" s="38" t="n"/>
       <c r="K23" s="22" t="n"/>
-      <c r="L23" s="39" t="n"/>
+      <c r="L23" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M23" s="38" t="n"/>
       <c r="P23" s="24" t="inlineStr">
         <is>
@@ -2451,7 +2547,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.03  小狐狸交易成功
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.004  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.02, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.02, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y23" s="23" t="inlineStr">
@@ -2482,7 +2579,11 @@
       <c r="I24" s="38" t="n"/>
       <c r="J24" s="38" t="n"/>
       <c r="K24" s="22" t="n"/>
-      <c r="L24" s="39" t="n"/>
+      <c r="L24" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M24" s="38" t="n"/>
       <c r="P24" s="24" t="inlineStr">
         <is>
@@ -2549,7 +2650,11 @@
       <c r="I25" s="38" t="n"/>
       <c r="J25" s="38" t="n"/>
       <c r="K25" s="22" t="n"/>
-      <c r="L25" s="39" t="n"/>
+      <c r="L25" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M25" s="38" t="n"/>
       <c r="P25" s="37" t="inlineStr">
         <is>
@@ -2601,7 +2706,8 @@
 · 小狐狸交易成功
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·小狐狸点击确认后，orb失败，还是没有转过去
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.034, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.034, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y25" s="23" t="inlineStr">
@@ -2632,7 +2738,11 @@
       <c r="I26" s="38" t="n"/>
       <c r="J26" s="38" t="n"/>
       <c r="K26" s="22" t="n"/>
-      <c r="L26" s="39" t="n"/>
+      <c r="L26" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M26" s="38" t="n"/>
       <c r="N26" s="38" t="n"/>
       <c r="P26" s="37" t="inlineStr">
@@ -2675,7 +2785,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.013, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.013, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y26" s="23" t="inlineStr">
@@ -2706,7 +2817,11 @@
       <c r="I27" s="38" t="n"/>
       <c r="J27" s="38" t="n"/>
       <c r="K27" s="22" t="n"/>
-      <c r="L27" s="39" t="n"/>
+      <c r="L27" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M27" s="38" t="n"/>
       <c r="P27" s="24" t="inlineStr">
         <is>
@@ -2776,7 +2891,11 @@
       <c r="H28" s="39" t="n"/>
       <c r="I28" s="38" t="n"/>
       <c r="J28" s="38" t="n"/>
-      <c r="L28" s="39" t="n"/>
+      <c r="L28" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M28" s="38" t="n"/>
       <c r="N28" s="38" t="n"/>
       <c r="P28" s="37" t="inlineStr">
@@ -2817,7 +2936,8 @@
 · 小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.003  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y28" s="23" t="inlineStr">
@@ -2848,7 +2968,11 @@
       <c r="I29" s="38" t="n"/>
       <c r="J29" s="38" t="n"/>
       <c r="K29" s="22" t="n"/>
-      <c r="L29" s="39" t="n"/>
+      <c r="L29" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M29" s="38" t="n"/>
       <c r="P29" s="24" t="inlineStr">
         <is>
@@ -2928,7 +3052,11 @@
       <c r="I30" s="38" t="n"/>
       <c r="J30" s="38" t="n"/>
       <c r="K30" s="44" t="n"/>
-      <c r="L30" s="39" t="n"/>
+      <c r="L30" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M30" s="38" t="n"/>
       <c r="N30" s="38" t="n"/>
       <c r="P30" s="24" t="inlineStr">
@@ -2976,7 +3104,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.03  小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.00204  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y30" s="23" t="inlineStr">
@@ -3007,7 +3136,11 @@
       <c r="I31" s="38" t="n"/>
       <c r="J31" s="38" t="n"/>
       <c r="K31" s="22" t="n"/>
-      <c r="L31" s="39" t="n"/>
+      <c r="L31" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M31" s="38" t="n"/>
       <c r="P31" s="24" t="inlineStr">
         <is>
@@ -3076,7 +3209,11 @@
       <c r="I32" s="38" t="n"/>
       <c r="J32" s="38" t="n"/>
       <c r="K32" s="22" t="n"/>
-      <c r="L32" s="39" t="n"/>
+      <c r="L32" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M32" s="38" t="n"/>
       <c r="N32" s="38" t="n"/>
       <c r="P32" s="24" t="inlineStr">
@@ -3125,7 +3262,8 @@
 · 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y32" s="23" t="inlineStr">
@@ -3154,7 +3292,11 @@
       <c r="H33" s="39" t="n"/>
       <c r="I33" s="38" t="n"/>
       <c r="J33" s="38" t="n"/>
-      <c r="L33" s="39" t="n"/>
+      <c r="L33" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M33" s="38" t="n"/>
       <c r="N33" s="38" t="n"/>
       <c r="P33" s="37" t="inlineStr">
@@ -3244,7 +3386,11 @@
       <c r="I34" s="38" t="n"/>
       <c r="J34" s="38" t="n"/>
       <c r="K34" s="22" t="n"/>
-      <c r="L34" s="39" t="n"/>
+      <c r="L34" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M34" s="38" t="n"/>
       <c r="P34" s="24" t="inlineStr">
         <is>
@@ -3326,7 +3472,11 @@
       <c r="H35" s="39" t="n"/>
       <c r="I35" s="38" t="n"/>
       <c r="J35" s="38" t="n"/>
-      <c r="L35" s="39" t="n"/>
+      <c r="L35" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M35" s="38" t="n"/>
       <c r="N35" s="38" t="n"/>
       <c r="O35" s="37" t="inlineStr">
@@ -3376,7 +3526,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0236, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0236, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y35" s="23" t="inlineStr">
@@ -3407,7 +3558,11 @@
       <c r="I36" s="38" t="n"/>
       <c r="J36" s="38" t="n"/>
       <c r="K36" s="22" t="n"/>
-      <c r="L36" s="39" t="n"/>
+      <c r="L36" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M36" s="38" t="n"/>
       <c r="N36" s="38" t="n"/>
       <c r="P36" s="37" t="inlineStr">
@@ -3483,7 +3638,11 @@
       <c r="I37" s="38" t="n"/>
       <c r="J37" s="38" t="n"/>
       <c r="K37" s="22" t="n"/>
-      <c r="L37" s="39" t="n"/>
+      <c r="L37" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M37" s="38" t="n"/>
       <c r="R37" s="23" t="inlineStr">
         <is>
@@ -3544,7 +3703,11 @@
       <c r="H38" s="39" t="n"/>
       <c r="I38" s="38" t="n"/>
       <c r="J38" s="38" t="n"/>
-      <c r="L38" s="39" t="n"/>
+      <c r="L38" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M38" s="38" t="n"/>
       <c r="P38" s="24" t="inlineStr">
         <is>
@@ -3586,7 +3749,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0241  小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0084, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0084, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y38" s="23" t="inlineStr">
@@ -3617,7 +3781,11 @@
       <c r="I39" s="38" t="n"/>
       <c r="J39" s="38" t="n"/>
       <c r="K39" s="22" t="n"/>
-      <c r="L39" s="39" t="n"/>
+      <c r="L39" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M39" s="38" t="n"/>
       <c r="S39" s="23" t="inlineStr">
         <is>
@@ -3680,7 +3848,11 @@
       <c r="I40" s="38" t="n"/>
       <c r="J40" s="38" t="n"/>
       <c r="K40" s="22" t="n"/>
-      <c r="L40" s="39" t="n"/>
+      <c r="L40" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M40" s="38" t="n"/>
       <c r="N40" s="38" t="n"/>
       <c r="P40" s="37" t="inlineStr">
@@ -3762,7 +3934,11 @@
       <c r="I41" s="38" t="n"/>
       <c r="J41" s="38" t="n"/>
       <c r="K41" s="22" t="n"/>
-      <c r="L41" s="39" t="n"/>
+      <c r="L41" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M41" s="38" t="n"/>
       <c r="N41" s="38" t="n"/>
       <c r="P41" s="24" t="inlineStr">
@@ -3837,7 +4013,11 @@
       <c r="I42" s="38" t="n"/>
       <c r="J42" s="38" t="n"/>
       <c r="K42" s="22" t="n"/>
-      <c r="L42" s="39" t="n"/>
+      <c r="L42" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M42" s="38" t="n"/>
       <c r="N42" s="38" t="n"/>
       <c r="P42" s="24" t="inlineStr">
@@ -3916,7 +4096,11 @@
       <c r="I43" s="38" t="n"/>
       <c r="J43" s="38" t="n"/>
       <c r="K43" s="22" t="n"/>
-      <c r="L43" s="39" t="n"/>
+      <c r="L43" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M43" s="38" t="n"/>
       <c r="R43" s="23" t="inlineStr">
         <is>
@@ -3975,7 +4159,11 @@
       <c r="I44" s="38" t="n"/>
       <c r="J44" s="38" t="n"/>
       <c r="K44" s="22" t="n"/>
-      <c r="L44" s="39" t="n"/>
+      <c r="L44" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M44" s="38" t="n"/>
       <c r="N44" s="38" t="n"/>
       <c r="P44" s="24" t="inlineStr">
@@ -4024,7 +4212,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.003  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y44" s="23" t="inlineStr">
@@ -4055,7 +4244,11 @@
       <c r="I45" s="38" t="n"/>
       <c r="J45" s="38" t="n"/>
       <c r="K45" s="22" t="n"/>
-      <c r="L45" s="39" t="n"/>
+      <c r="L45" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M45" s="38" t="n"/>
       <c r="P45" s="37" t="inlineStr">
         <is>
@@ -4098,7 +4291,8 @@
 ·小狐狸交易失败，点击【拒绝交易】
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.013, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.013, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y45" s="23" t="inlineStr">
@@ -4129,7 +4323,11 @@
       <c r="I46" s="38" t="n"/>
       <c r="J46" s="38" t="n"/>
       <c r="K46" s="22" t="n"/>
-      <c r="L46" s="39" t="n"/>
+      <c r="L46" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M46" s="38" t="n"/>
       <c r="P46" s="24" t="inlineStr">
         <is>
@@ -4203,7 +4401,11 @@
       <c r="I47" s="38" t="n"/>
       <c r="J47" s="38" t="n"/>
       <c r="K47" s="22" t="n"/>
-      <c r="L47" s="39" t="n"/>
+      <c r="L47" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M47" s="38" t="n"/>
       <c r="P47" s="24" t="inlineStr">
         <is>
@@ -4240,7 +4442,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.005, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.005, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y47" s="23" t="inlineStr">
@@ -4270,7 +4473,11 @@
       <c r="I48" s="38" t="n"/>
       <c r="J48" s="38" t="n"/>
       <c r="K48" s="22" t="n"/>
-      <c r="L48" s="39" t="n"/>
+      <c r="L48" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M48" s="38" t="n"/>
       <c r="P48" s="24" t="inlineStr">
         <is>
@@ -4315,7 +4522,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.005  小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0192, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0192, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y48" s="23" t="inlineStr">
@@ -4346,7 +4554,11 @@
       <c r="I49" s="38" t="n"/>
       <c r="J49" s="38" t="n"/>
       <c r="K49" s="22" t="n"/>
-      <c r="L49" s="39" t="n"/>
+      <c r="L49" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M49" s="38" t="n"/>
       <c r="N49" s="38" t="n"/>
       <c r="P49" s="24" t="inlineStr">
@@ -4403,7 +4615,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0241, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0241, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y49" s="23" t="inlineStr">
@@ -4434,7 +4647,11 @@
       <c r="I50" s="38" t="n"/>
       <c r="J50" s="38" t="n"/>
       <c r="K50" s="22" t="n"/>
-      <c r="L50" s="39" t="n"/>
+      <c r="L50" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M50" s="38" t="n"/>
       <c r="N50" s="38" t="n"/>
       <c r="P50" s="24" t="inlineStr">
@@ -4484,7 +4701,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.002324  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·小狐狸点击确认后，orb失败，还是没有转过去
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0203, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0203, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y50" s="23" t="inlineStr">
@@ -4515,7 +4733,11 @@
       <c r="I51" s="38" t="n"/>
       <c r="J51" s="38" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="39" t="n"/>
+      <c r="L51" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M51" s="38" t="n"/>
       <c r="N51" s="38" t="n"/>
       <c r="O51" s="24" t="inlineStr">
@@ -4574,7 +4796,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0186, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0186, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y51" s="23" t="inlineStr">
@@ -4605,7 +4828,11 @@
       <c r="I52" s="38" t="n"/>
       <c r="J52" s="38" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="38" t="n"/>
+      <c r="L52" s="38" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M52" s="38" t="n"/>
       <c r="N52" s="38" t="n"/>
       <c r="P52" s="24" t="inlineStr">
@@ -4657,7 +4884,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y52" s="23" t="inlineStr">
@@ -4688,7 +4916,11 @@
       <c r="I53" s="38" t="n"/>
       <c r="J53" s="38" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="39" t="n"/>
+      <c r="L53" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M53" s="38" t="n"/>
       <c r="N53" s="38" t="n"/>
       <c r="P53" s="24" t="inlineStr">
@@ -4773,7 +5005,11 @@
       <c r="I54" s="38" t="n"/>
       <c r="J54" s="38" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="39" t="n"/>
+      <c r="L54" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M54" s="38" t="n"/>
       <c r="N54" s="38" t="n"/>
       <c r="O54" s="24" t="inlineStr">
@@ -4850,7 +5086,11 @@
       <c r="I55" s="38" t="n"/>
       <c r="J55" s="38" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="39" t="n"/>
+      <c r="L55" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M55" s="38" t="n"/>
       <c r="N55" s="38" t="n"/>
       <c r="P55" s="24" t="inlineStr">
@@ -4897,7 +5137,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.011, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.011, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y55" s="23" t="inlineStr">
@@ -4928,7 +5169,11 @@
       <c r="I56" s="38" t="n"/>
       <c r="J56" s="38" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="39" t="n"/>
+      <c r="L56" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M56" s="38" t="n"/>
       <c r="N56" s="38" t="n"/>
       <c r="P56" s="24" t="inlineStr">
@@ -5004,7 +5249,11 @@
       <c r="I57" s="38" t="n"/>
       <c r="J57" s="38" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="39" t="n"/>
+      <c r="L57" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M57" s="38" t="n"/>
       <c r="N57" s="38" t="n"/>
       <c r="O57" s="24" t="inlineStr">
@@ -5058,7 +5307,8 @@
 · 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y57" s="23" t="inlineStr">
@@ -5089,7 +5339,11 @@
       <c r="I58" s="38" t="n"/>
       <c r="J58" s="38" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="39" t="n"/>
+      <c r="L58" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M58" s="38" t="n"/>
       <c r="N58" s="38" t="n"/>
       <c r="P58" s="37" t="inlineStr">
@@ -5170,7 +5424,11 @@
       <c r="I59" s="38" t="n"/>
       <c r="J59" s="38" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="39" t="n"/>
+      <c r="L59" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M59" s="38" t="n"/>
       <c r="N59" s="38" t="n"/>
       <c r="P59" s="24" t="inlineStr">
@@ -5248,7 +5506,11 @@
       <c r="I60" s="38" t="n"/>
       <c r="J60" s="38" t="n"/>
       <c r="K60" s="22" t="n"/>
-      <c r="L60" s="39" t="n"/>
+      <c r="L60" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M60" s="38" t="n"/>
       <c r="P60" s="24" t="inlineStr">
         <is>
@@ -5290,7 +5552,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0035  小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.003  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y60" s="23" t="inlineStr">
@@ -5321,7 +5584,11 @@
       <c r="I61" s="38" t="n"/>
       <c r="J61" s="38" t="n"/>
       <c r="K61" s="22" t="n"/>
-      <c r="L61" s="39" t="n"/>
+      <c r="L61" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M61" s="38" t="n"/>
       <c r="N61" s="38" t="n"/>
       <c r="P61" s="24" t="inlineStr">
@@ -5395,7 +5662,11 @@
       <c r="I62" s="38" t="n"/>
       <c r="J62" s="38" t="n"/>
       <c r="K62" s="22" t="n"/>
-      <c r="L62" s="39" t="n"/>
+      <c r="L62" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M62" s="38" t="n"/>
       <c r="N62" s="38" t="n"/>
       <c r="P62" s="24" t="inlineStr">
@@ -5468,7 +5739,11 @@
       <c r="I63" s="38" t="n"/>
       <c r="J63" s="38" t="n"/>
       <c r="K63" s="22" t="n"/>
-      <c r="L63" s="39" t="n"/>
+      <c r="L63" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M63" s="38" t="n"/>
       <c r="N63" s="38" t="n"/>
       <c r="P63" s="24" t="inlineStr">
@@ -5541,7 +5816,11 @@
       <c r="H64" s="39" t="n"/>
       <c r="I64" s="38" t="n"/>
       <c r="J64" s="38" t="n"/>
-      <c r="L64" s="39" t="n"/>
+      <c r="L64" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M64" s="38" t="n"/>
       <c r="N64" s="38" t="n"/>
       <c r="P64" s="37" t="inlineStr">
@@ -5588,7 +5867,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.019, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.019, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y64" s="23" t="inlineStr">
@@ -5619,7 +5899,11 @@
       <c r="I65" s="38" t="n"/>
       <c r="J65" s="38" t="n"/>
       <c r="K65" s="22" t="n"/>
-      <c r="L65" s="39" t="n"/>
+      <c r="L65" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M65" s="38" t="n"/>
       <c r="P65" s="24" t="inlineStr">
         <is>
@@ -5683,7 +5967,11 @@
       <c r="I66" s="38" t="n"/>
       <c r="J66" s="38" t="n"/>
       <c r="K66" s="22" t="n"/>
-      <c r="L66" s="39" t="n"/>
+      <c r="L66" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M66" s="38" t="n"/>
       <c r="N66" s="38" t="n"/>
       <c r="P66" s="24" t="inlineStr">
@@ -5729,7 +6017,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y66" s="23" t="inlineStr">
@@ -5760,7 +6049,11 @@
       <c r="I67" s="38" t="n"/>
       <c r="J67" s="38" t="n"/>
       <c r="K67" s="22" t="n"/>
-      <c r="L67" s="39" t="n"/>
+      <c r="L67" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M67" s="38" t="n"/>
       <c r="N67" s="38" t="n"/>
       <c r="P67" s="24" t="inlineStr">
@@ -5803,7 +6096,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y67" s="23" t="inlineStr">
@@ -5834,7 +6128,11 @@
       <c r="I68" s="38" t="n"/>
       <c r="J68" s="38" t="n"/>
       <c r="K68" s="22" t="n"/>
-      <c r="L68" s="39" t="n"/>
+      <c r="L68" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M68" s="38" t="n"/>
       <c r="N68" s="38" t="n"/>
       <c r="P68" s="24" t="inlineStr">
@@ -5875,7 +6173,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.003  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y68" s="23" t="inlineStr">
@@ -5906,7 +6205,11 @@
       <c r="I69" s="38" t="n"/>
       <c r="J69" s="38" t="n"/>
       <c r="K69" s="22" t="n"/>
-      <c r="L69" s="39" t="n"/>
+      <c r="L69" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M69" s="38" t="n"/>
       <c r="P69" s="24" t="inlineStr">
         <is>
@@ -5948,7 +6251,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y69" s="23" t="inlineStr">
@@ -5979,7 +6283,11 @@
       <c r="I70" s="38" t="n"/>
       <c r="J70" s="38" t="n"/>
       <c r="K70" s="22" t="n"/>
-      <c r="L70" s="39" t="n"/>
+      <c r="L70" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M70" s="38" t="n"/>
       <c r="P70" s="24" t="inlineStr">
         <is>
@@ -6050,7 +6358,11 @@
       <c r="I71" s="38" t="n"/>
       <c r="J71" s="38" t="n"/>
       <c r="K71" s="22" t="n"/>
-      <c r="L71" s="39" t="n"/>
+      <c r="L71" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M71" s="38" t="n"/>
       <c r="N71" s="38" t="n"/>
       <c r="P71" s="37" t="inlineStr">
@@ -6117,7 +6429,11 @@
       <c r="I72" s="38" t="n"/>
       <c r="J72" s="38" t="n"/>
       <c r="K72" s="22" t="n"/>
-      <c r="L72" s="39" t="n"/>
+      <c r="L72" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M72" s="38" t="n"/>
       <c r="P72" s="24" t="inlineStr">
         <is>
@@ -6188,7 +6504,11 @@
       <c r="I73" s="38" t="n"/>
       <c r="J73" s="38" t="n"/>
       <c r="K73" s="22" t="n"/>
-      <c r="L73" s="39" t="n"/>
+      <c r="L73" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M73" s="38" t="n"/>
       <c r="N73" s="38" t="n"/>
       <c r="P73" s="24" t="inlineStr">
@@ -6238,7 +6558,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y73" s="23" t="inlineStr">
@@ -6269,7 +6590,11 @@
       <c r="I74" s="38" t="n"/>
       <c r="J74" s="38" t="n"/>
       <c r="K74" s="22" t="n"/>
-      <c r="L74" s="39" t="n"/>
+      <c r="L74" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M74" s="38" t="n"/>
       <c r="N74" s="38" t="n"/>
       <c r="P74" s="24" t="inlineStr">
@@ -6348,7 +6673,11 @@
       <c r="I75" s="38" t="n"/>
       <c r="J75" s="38" t="n"/>
       <c r="K75" s="22" t="n"/>
-      <c r="L75" s="39" t="n"/>
+      <c r="L75" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M75" s="38" t="n"/>
       <c r="N75" s="38" t="n"/>
       <c r="P75" s="24" t="inlineStr">
@@ -6418,7 +6747,11 @@
       <c r="I76" s="38" t="n"/>
       <c r="J76" s="38" t="n"/>
       <c r="K76" s="22" t="n"/>
-      <c r="L76" s="39" t="n"/>
+      <c r="L76" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M76" s="38" t="n"/>
       <c r="N76" s="38" t="n"/>
       <c r="P76" s="24" t="inlineStr">
@@ -6461,7 +6794,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y76" s="23" t="inlineStr">
@@ -6492,7 +6826,11 @@
       <c r="I77" s="38" t="n"/>
       <c r="J77" s="38" t="n"/>
       <c r="K77" s="22" t="n"/>
-      <c r="L77" s="39" t="n"/>
+      <c r="L77" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M77" s="38" t="n"/>
       <c r="N77" s="38" t="n"/>
       <c r="P77" s="37" t="inlineStr">
@@ -6539,7 +6877,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.004  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y77" s="23" t="inlineStr">
@@ -6569,7 +6908,11 @@
       <c r="H78" s="39" t="n"/>
       <c r="I78" s="38" t="n"/>
       <c r="J78" s="38" t="n"/>
-      <c r="L78" s="39" t="n"/>
+      <c r="L78" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M78" s="38" t="n"/>
       <c r="N78" s="38" t="n"/>
       <c r="P78" s="37" t="inlineStr">
@@ -6643,7 +6986,11 @@
       <c r="I79" s="38" t="n"/>
       <c r="J79" s="38" t="n"/>
       <c r="K79" s="22" t="n"/>
-      <c r="L79" s="39" t="n"/>
+      <c r="L79" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M79" s="38" t="n"/>
       <c r="N79" s="38" t="n"/>
       <c r="P79" s="24" t="inlineStr">
@@ -6690,7 +7037,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y79" s="23" t="inlineStr">
@@ -6720,7 +7068,11 @@
       <c r="H80" s="39" t="n"/>
       <c r="I80" s="38" t="n"/>
       <c r="J80" s="38" t="n"/>
-      <c r="L80" s="39" t="n"/>
+      <c r="L80" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M80" s="38" t="n"/>
       <c r="N80" s="38" t="n"/>
       <c r="P80" s="37" t="inlineStr">
@@ -6797,7 +7149,11 @@
       <c r="I81" s="38" t="n"/>
       <c r="J81" s="38" t="n"/>
       <c r="K81" s="22" t="n"/>
-      <c r="L81" s="39" t="n"/>
+      <c r="L81" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M81" s="38" t="n"/>
       <c r="N81" s="38" t="n"/>
       <c r="P81" s="24" t="inlineStr">
@@ -6871,7 +7227,11 @@
       <c r="I82" s="38" t="n"/>
       <c r="J82" s="38" t="n"/>
       <c r="K82" s="22" t="n"/>
-      <c r="L82" s="39" t="n"/>
+      <c r="L82" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M82" s="38" t="n"/>
       <c r="N82" s="38" t="n"/>
       <c r="P82" s="37" t="inlineStr">
@@ -6944,7 +7304,11 @@
       <c r="I83" s="38" t="n"/>
       <c r="J83" s="38" t="n"/>
       <c r="K83" s="22" t="n"/>
-      <c r="L83" s="39" t="n"/>
+      <c r="L83" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M83" s="38" t="n"/>
       <c r="N83" s="38" t="n"/>
       <c r="P83" s="24" t="inlineStr">
@@ -7019,7 +7383,11 @@
       <c r="I84" s="38" t="n"/>
       <c r="J84" s="38" t="n"/>
       <c r="K84" s="22" t="n"/>
-      <c r="L84" s="39" t="n"/>
+      <c r="L84" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M84" s="38" t="n"/>
       <c r="N84" s="38" t="n"/>
       <c r="P84" s="24" t="inlineStr">
@@ -7053,7 +7421,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.004  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y84" s="23" t="inlineStr">
@@ -7084,7 +7453,11 @@
       <c r="I85" s="38" t="n"/>
       <c r="J85" s="38" t="n"/>
       <c r="K85" s="22" t="n"/>
-      <c r="L85" s="39" t="n"/>
+      <c r="L85" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M85" s="38" t="n"/>
       <c r="N85" s="38" t="n"/>
       <c r="P85" s="24" t="inlineStr">
@@ -7153,7 +7526,11 @@
       <c r="I86" s="38" t="n"/>
       <c r="J86" s="38" t="n"/>
       <c r="K86" s="22" t="n"/>
-      <c r="L86" s="39" t="n"/>
+      <c r="L86" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M86" s="38" t="n"/>
       <c r="N86" s="38" t="n"/>
       <c r="P86" s="24" t="inlineStr">
@@ -7233,7 +7610,11 @@
       <c r="I87" s="38" t="n"/>
       <c r="J87" s="38" t="n"/>
       <c r="K87" s="22" t="n"/>
-      <c r="L87" s="39" t="n"/>
+      <c r="L87" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M87" s="38" t="n"/>
       <c r="N87" s="38" t="n"/>
       <c r="P87" s="37" t="inlineStr">
@@ -7305,7 +7686,11 @@
       <c r="I88" s="38" t="n"/>
       <c r="J88" s="38" t="n"/>
       <c r="K88" s="22" t="n"/>
-      <c r="L88" s="39" t="n"/>
+      <c r="L88" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M88" s="38" t="n"/>
       <c r="N88" s="38" t="n"/>
       <c r="P88" s="37" t="inlineStr">
@@ -7380,7 +7765,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="38" t="inlineStr">
         <is>
-          <t>·1</t>
+          <t>×</t>
         </is>
       </c>
       <c r="M89" s="38" t="n"/>
@@ -7450,7 +7835,11 @@
       <c r="I90" s="38" t="n"/>
       <c r="J90" s="38" t="n"/>
       <c r="K90" s="22" t="n"/>
-      <c r="L90" s="39" t="n"/>
+      <c r="L90" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M90" s="38" t="n"/>
       <c r="N90" s="38" t="n"/>
       <c r="P90" s="37" t="inlineStr">
@@ -7520,7 +7909,11 @@
       <c r="I91" s="38" t="n"/>
       <c r="J91" s="38" t="n"/>
       <c r="K91" s="22" t="n"/>
-      <c r="L91" s="39" t="n"/>
+      <c r="L91" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M91" s="38" t="n"/>
       <c r="N91" s="38" t="n"/>
       <c r="P91" s="37" t="inlineStr">
@@ -7593,7 +7986,11 @@
       <c r="I92" s="38" t="n"/>
       <c r="J92" s="38" t="n"/>
       <c r="K92" s="22" t="n"/>
-      <c r="L92" s="39" t="n"/>
+      <c r="L92" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M92" s="38" t="n"/>
       <c r="N92" s="38" t="n"/>
       <c r="P92" s="24" t="inlineStr">
@@ -7652,7 +8049,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.017, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y92" s="23" t="inlineStr">
@@ -7682,7 +8080,11 @@
       <c r="H93" s="39" t="n"/>
       <c r="I93" s="38" t="n"/>
       <c r="J93" s="38" t="n"/>
-      <c r="L93" s="39" t="n"/>
+      <c r="L93" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M93" s="38" t="n"/>
       <c r="N93" s="38" t="n"/>
       <c r="P93" s="37" t="inlineStr">
@@ -7752,7 +8154,11 @@
       <c r="I94" s="38" t="n"/>
       <c r="J94" s="38" t="n"/>
       <c r="K94" s="22" t="n"/>
-      <c r="L94" s="39" t="n"/>
+      <c r="L94" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M94" s="38" t="n"/>
       <c r="N94" s="38" t="n"/>
       <c r="P94" s="24" t="inlineStr">
@@ -7817,7 +8223,11 @@
       <c r="I95" s="38" t="n"/>
       <c r="J95" s="38" t="n"/>
       <c r="K95" s="22" t="n"/>
-      <c r="L95" s="39" t="n"/>
+      <c r="L95" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M95" s="38" t="n"/>
       <c r="N95" s="38" t="n"/>
       <c r="P95" s="24" t="inlineStr">
@@ -7890,7 +8300,11 @@
       <c r="I96" s="38" t="n"/>
       <c r="J96" s="38" t="n"/>
       <c r="K96" s="22" t="n"/>
-      <c r="L96" s="39" t="n"/>
+      <c r="L96" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M96" s="38" t="n"/>
       <c r="N96" s="38" t="n"/>
       <c r="P96" s="37" t="inlineStr">
@@ -7956,7 +8370,11 @@
       <c r="I97" s="38" t="n"/>
       <c r="J97" s="38" t="n"/>
       <c r="K97" s="22" t="n"/>
-      <c r="L97" s="39" t="n"/>
+      <c r="L97" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M97" s="38" t="n"/>
       <c r="N97" s="38" t="n"/>
       <c r="P97" s="24" t="inlineStr">
@@ -8029,7 +8447,11 @@
       <c r="H98" s="39" t="n"/>
       <c r="I98" s="38" t="n"/>
       <c r="J98" s="38" t="n"/>
-      <c r="L98" s="39" t="n"/>
+      <c r="L98" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M98" s="38" t="n"/>
       <c r="N98" s="38" t="n"/>
       <c r="P98" s="37" t="inlineStr">
@@ -8070,7 +8492,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y98" s="23" t="inlineStr">
@@ -8102,7 +8525,11 @@
       <c r="I99" s="38" t="n"/>
       <c r="J99" s="38" t="n"/>
       <c r="K99" s="22" t="n"/>
-      <c r="L99" s="39" t="n"/>
+      <c r="L99" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M99" s="38" t="n"/>
       <c r="N99" s="38" t="n"/>
       <c r="P99" s="24" t="inlineStr">
@@ -8151,7 +8578,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0205, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0205, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y99" s="23" t="inlineStr">
@@ -8183,7 +8611,11 @@
       <c r="I100" s="38" t="n"/>
       <c r="J100" s="38" t="n"/>
       <c r="K100" s="22" t="n"/>
-      <c r="L100" s="39" t="n"/>
+      <c r="L100" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M100" s="38" t="n"/>
       <c r="N100" s="38" t="n"/>
       <c r="P100" s="24" t="inlineStr">
@@ -8225,7 +8657,8 @@
 · 小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0027  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·小狐狸点击确认后，orb失败，还是没有转过去</t>
+·小狐狸点击确认后，orb失败，还是没有转过去
+·orb 成功</t>
         </is>
       </c>
       <c r="Y100" s="23" t="inlineStr">
@@ -8254,7 +8687,11 @@
       <c r="I101" s="38" t="n"/>
       <c r="J101" s="38" t="n"/>
       <c r="K101" s="22" t="n"/>
-      <c r="L101" s="39" t="n"/>
+      <c r="L101" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M101" s="38" t="n"/>
       <c r="P101" s="37" t="inlineStr">
         <is>
@@ -8292,7 +8729,8 @@
         <is>
           <t>·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.003  小狐狸交易成功
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
-· 小狐狸交易成功</t>
+· 小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y101" s="23" t="inlineStr">
@@ -8321,7 +8759,11 @@
       <c r="I102" s="38" t="n"/>
       <c r="J102" s="38" t="n"/>
       <c r="K102" s="22" t="n"/>
-      <c r="L102" s="39" t="n"/>
+      <c r="L102" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M102" s="38" t="n"/>
       <c r="N102" s="38" t="n"/>
       <c r="P102" s="24" t="inlineStr">
@@ -8398,7 +8840,11 @@
       <c r="I103" s="38" t="n"/>
       <c r="J103" s="38" t="n"/>
       <c r="K103" s="22" t="n"/>
-      <c r="L103" s="39" t="n"/>
+      <c r="L103" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M103" s="38" t="n"/>
       <c r="N103" s="38" t="n"/>
       <c r="O103" s="24" t="inlineStr">
@@ -8447,7 +8893,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.00273  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y103" s="23" t="inlineStr">
@@ -8476,7 +8923,11 @@
       <c r="I104" s="38" t="n"/>
       <c r="J104" s="38" t="n"/>
       <c r="K104" s="22" t="n"/>
-      <c r="L104" s="39" t="n"/>
+      <c r="L104" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M104" s="38" t="n"/>
       <c r="N104" s="38" t="n"/>
       <c r="O104" s="24" t="inlineStr">
@@ -8549,7 +9000,11 @@
       <c r="I105" s="38" t="n"/>
       <c r="J105" s="38" t="n"/>
       <c r="K105" s="22" t="n"/>
-      <c r="L105" s="39" t="n"/>
+      <c r="L105" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M105" s="38" t="n"/>
       <c r="N105" s="38" t="n"/>
       <c r="P105" s="37" t="inlineStr">
@@ -8626,7 +9081,11 @@
       <c r="I106" s="38" t="n"/>
       <c r="J106" s="38" t="n"/>
       <c r="K106" s="22" t="n"/>
-      <c r="L106" s="39" t="n"/>
+      <c r="L106" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M106" s="38" t="n"/>
       <c r="N106" s="38" t="n"/>
       <c r="O106" s="24" t="inlineStr">
@@ -8705,7 +9164,11 @@
       <c r="I107" s="38" t="n"/>
       <c r="J107" s="38" t="n"/>
       <c r="K107" s="22" t="n"/>
-      <c r="L107" s="39" t="n"/>
+      <c r="L107" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M107" s="38" t="n"/>
       <c r="N107" s="38" t="n"/>
       <c r="O107" s="24" t="inlineStr">
@@ -8788,7 +9251,11 @@
       <c r="I108" s="38" t="n"/>
       <c r="J108" s="38" t="n"/>
       <c r="K108" s="22" t="n"/>
-      <c r="L108" s="39" t="n"/>
+      <c r="L108" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M108" s="38" t="n"/>
       <c r="N108" s="38" t="n"/>
       <c r="O108" s="24" t="inlineStr">
@@ -8862,7 +9329,11 @@
       <c r="I109" s="38" t="n"/>
       <c r="J109" s="38" t="n"/>
       <c r="K109" s="22" t="n"/>
-      <c r="L109" s="39" t="n"/>
+      <c r="L109" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M109" s="38" t="n"/>
       <c r="N109" s="38" t="n"/>
       <c r="O109" s="24" t="inlineStr">
@@ -8912,7 +9383,8 @@
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·小狐狸点击确认后，orb失败，还是没有转过去
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y109" s="23" t="inlineStr">
@@ -8941,7 +9413,11 @@
       <c r="I110" s="38" t="n"/>
       <c r="J110" s="38" t="n"/>
       <c r="K110" s="22" t="n"/>
-      <c r="L110" s="39" t="n"/>
+      <c r="L110" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M110" s="38" t="n"/>
       <c r="N110" s="38" t="n"/>
       <c r="P110" s="24" t="inlineStr">
@@ -8982,7 +9458,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0095, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0095, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y110" s="23" t="inlineStr">
@@ -9016,7 +9493,11 @@
       <c r="I111" s="38" t="n"/>
       <c r="J111" s="38" t="n"/>
       <c r="K111" s="22" t="n"/>
-      <c r="L111" s="39" t="n"/>
+      <c r="L111" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M111" s="38" t="n"/>
       <c r="N111" s="38" t="n"/>
       <c r="O111" s="24" t="inlineStr">
@@ -9091,7 +9572,11 @@
       <c r="I112" s="38" t="n"/>
       <c r="J112" s="38" t="n"/>
       <c r="K112" s="22" t="n"/>
-      <c r="L112" s="39" t="n"/>
+      <c r="L112" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M112" s="38" t="n"/>
       <c r="N112" s="38" t="n"/>
       <c r="P112" s="24" t="inlineStr">
@@ -9143,7 +9628,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y112" s="23" t="inlineStr">
@@ -9173,7 +9659,11 @@
       <c r="I113" s="38" t="n"/>
       <c r="J113" s="38" t="n"/>
       <c r="K113" s="22" t="n"/>
-      <c r="L113" s="39" t="n"/>
+      <c r="L113" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M113" s="38" t="n"/>
       <c r="N113" s="38" t="n"/>
       <c r="P113" s="24" t="inlineStr">
@@ -9258,7 +9748,11 @@
       <c r="I114" s="38" t="n"/>
       <c r="J114" s="38" t="n"/>
       <c r="K114" s="22" t="n"/>
-      <c r="L114" s="39" t="n"/>
+      <c r="L114" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M114" s="38" t="n"/>
       <c r="N114" s="38" t="n"/>
       <c r="P114" s="24" t="inlineStr">
@@ -9336,7 +9830,11 @@
       <c r="I115" s="38" t="n"/>
       <c r="J115" s="38" t="n"/>
       <c r="K115" s="22" t="n"/>
-      <c r="L115" s="39" t="n"/>
+      <c r="L115" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M115" s="38" t="n"/>
       <c r="N115" s="38" t="n"/>
       <c r="P115" s="24" t="inlineStr">
@@ -9386,7 +9884,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y115" s="23" t="inlineStr">
@@ -9415,7 +9914,11 @@
       <c r="H116" s="39" t="n"/>
       <c r="I116" s="38" t="n"/>
       <c r="K116" s="22" t="n"/>
-      <c r="L116" s="39" t="n"/>
+      <c r="L116" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M116" s="38" t="n"/>
       <c r="N116" s="38" t="n"/>
       <c r="P116" s="24" t="inlineStr">
@@ -9498,7 +10001,11 @@
       <c r="H117" s="39" t="n"/>
       <c r="I117" s="38" t="n"/>
       <c r="K117" s="22" t="n"/>
-      <c r="L117" s="39" t="n"/>
+      <c r="L117" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M117" s="38" t="n"/>
       <c r="N117" s="38" t="n"/>
       <c r="O117" s="24" t="inlineStr">
@@ -9551,7 +10058,8 @@
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.021, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.021, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y117" s="23" t="inlineStr">
@@ -9581,7 +10089,11 @@
       <c r="I118" s="38" t="n"/>
       <c r="J118" s="38" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="39" t="n"/>
+      <c r="L118" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M118" s="38" t="n"/>
       <c r="N118" s="38" t="n"/>
       <c r="O118" s="24" t="inlineStr">
@@ -9654,7 +10166,11 @@
       <c r="H119" s="39" t="n"/>
       <c r="I119" s="38" t="n"/>
       <c r="K119" s="22" t="n"/>
-      <c r="L119" s="39" t="n"/>
+      <c r="L119" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M119" s="38" t="n"/>
       <c r="N119" s="38" t="n"/>
       <c r="O119" s="24" t="inlineStr">
@@ -9731,7 +10247,11 @@
       <c r="I120" s="38" t="n"/>
       <c r="J120" s="38" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="39" t="n"/>
+      <c r="L120" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M120" s="38" t="n"/>
       <c r="N120" s="38" t="n"/>
       <c r="P120" s="24" t="inlineStr">
@@ -9808,7 +10328,11 @@
       <c r="I121" s="38" t="n"/>
       <c r="J121" s="38" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="39" t="n"/>
+      <c r="L121" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M121" s="38" t="n"/>
       <c r="O121" s="24" t="inlineStr">
         <is>
@@ -9848,7 +10372,8 @@
         <is>
           <t>·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.002  小狐狸交易成功
-·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y121" s="23" t="inlineStr">
@@ -9878,7 +10403,11 @@
       <c r="I122" s="38" t="n"/>
       <c r="J122" s="38" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="39" t="n"/>
+      <c r="L122" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M122" s="38" t="n"/>
       <c r="O122" s="24" t="inlineStr">
         <is>
@@ -9918,7 +10447,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0068  小狐狸交易成功
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0033  小狐狸交易成功
-·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y122" s="23" t="inlineStr">
@@ -9948,7 +10478,11 @@
       <c r="I123" s="38" t="n"/>
       <c r="J123" s="38" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="39" t="n"/>
+      <c r="L123" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M123" s="38" t="n"/>
       <c r="N123" s="38" t="n"/>
       <c r="P123" s="37" t="inlineStr">
@@ -10021,7 +10555,11 @@
       <c r="I124" s="38" t="n"/>
       <c r="J124" s="38" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="39" t="n"/>
+      <c r="L124" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M124" s="38" t="n"/>
       <c r="N124" s="38" t="n"/>
       <c r="P124" s="24" t="inlineStr">
@@ -10097,7 +10635,11 @@
       <c r="I125" s="38" t="n"/>
       <c r="J125" s="38" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="39" t="n"/>
+      <c r="L125" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M125" s="38" t="n"/>
       <c r="N125" s="38" t="n"/>
       <c r="P125" s="37" t="inlineStr">
@@ -10176,7 +10718,11 @@
       <c r="I126" s="38" t="n"/>
       <c r="J126" s="38" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="39" t="n"/>
+      <c r="L126" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M126" s="38" t="n"/>
       <c r="N126" s="38" t="n"/>
       <c r="P126" s="24" t="inlineStr">
@@ -10267,7 +10813,11 @@
       <c r="I127" s="38" t="n"/>
       <c r="J127" s="38" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="39" t="n"/>
+      <c r="L127" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M127" s="38" t="n"/>
       <c r="N127" s="38" t="n"/>
       <c r="P127" s="24" t="inlineStr">
@@ -10308,7 +10858,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.018, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.018, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y127" s="23" t="inlineStr">
@@ -10338,7 +10889,11 @@
       <c r="I128" s="38" t="n"/>
       <c r="J128" s="38" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="39" t="n"/>
+      <c r="L128" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M128" s="38" t="n"/>
       <c r="N128" s="38" t="n"/>
       <c r="P128" s="24" t="inlineStr">
@@ -10431,7 +10986,11 @@
       <c r="I129" s="38" t="n"/>
       <c r="J129" s="38" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="39" t="n"/>
+      <c r="L129" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M129" s="38" t="n"/>
       <c r="N129" s="38" t="n"/>
       <c r="P129" s="24" t="inlineStr">
@@ -10478,7 +11037,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0027  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y129" s="23" t="inlineStr">
@@ -10508,7 +11068,11 @@
       <c r="I130" s="38" t="n"/>
       <c r="J130" s="38" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="39" t="n"/>
+      <c r="L130" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M130" s="38" t="n"/>
       <c r="N130" s="38" t="n"/>
       <c r="P130" s="37" t="inlineStr">
@@ -10585,7 +11149,11 @@
       <c r="I131" s="38" t="n"/>
       <c r="J131" s="38" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="39" t="n"/>
+      <c r="L131" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M131" s="38" t="n"/>
       <c r="N131" s="38" t="n"/>
       <c r="P131" s="37" t="inlineStr">
@@ -10664,7 +11232,11 @@
       <c r="H132" s="39" t="n"/>
       <c r="I132" s="38" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="39" t="n"/>
+      <c r="L132" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M132" s="38" t="n"/>
       <c r="P132" s="24" t="inlineStr">
         <is>
@@ -10711,7 +11283,8 @@
 · 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y132" s="23" t="inlineStr">
@@ -10741,7 +11314,11 @@
       <c r="I133" s="38" t="n"/>
       <c r="J133" s="38" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="39" t="n"/>
+      <c r="L133" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M133" s="38" t="n"/>
       <c r="N133" s="38" t="n"/>
       <c r="P133" s="24" t="inlineStr">
@@ -10787,7 +11364,8 @@
 · 小狐狸交易成功
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.02  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·小狐狸点击确认后，orb失败，还是没有转过去</t>
+·小狐狸点击确认后，orb失败，还是没有转过去
+·orb 成功</t>
         </is>
       </c>
       <c r="Y133" s="23" t="inlineStr">
@@ -10817,7 +11395,11 @@
       <c r="I134" s="38" t="n"/>
       <c r="J134" s="38" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="39" t="n"/>
+      <c r="L134" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M134" s="38" t="n"/>
       <c r="N134" s="38" t="n"/>
       <c r="O134" s="24" t="inlineStr">
@@ -10899,7 +11481,11 @@
       <c r="H135" s="39" t="n"/>
       <c r="I135" s="38" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="39" t="n"/>
+      <c r="L135" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M135" s="38" t="n"/>
       <c r="N135" s="38" t="n"/>
       <c r="P135" s="24" t="inlineStr">
@@ -10953,7 +11539,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y135" s="23" t="inlineStr">
@@ -10983,7 +11570,11 @@
       <c r="I136" s="38" t="n"/>
       <c r="J136" s="38" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="39" t="n"/>
+      <c r="L136" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M136" s="38" t="n"/>
       <c r="N136" s="38" t="n"/>
       <c r="P136" s="24" t="inlineStr">
@@ -11034,7 +11625,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0201  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0137, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0137, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y136" s="23" t="inlineStr">
@@ -11064,7 +11656,11 @@
       <c r="I137" s="38" t="n"/>
       <c r="J137" s="38" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="39" t="n"/>
+      <c r="L137" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M137" s="38" t="n"/>
       <c r="N137" s="38" t="n"/>
       <c r="P137" s="24" t="inlineStr">
@@ -11142,7 +11738,11 @@
       <c r="I138" s="38" t="n"/>
       <c r="J138" s="38" t="n"/>
       <c r="K138" s="22" t="n"/>
-      <c r="L138" s="39" t="n"/>
+      <c r="L138" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M138" s="38" t="n"/>
       <c r="N138" s="38" t="n"/>
       <c r="P138" s="24" t="inlineStr">
@@ -11217,7 +11817,11 @@
       <c r="I139" s="38" t="n"/>
       <c r="J139" s="38" t="n"/>
       <c r="K139" s="22" t="n"/>
-      <c r="L139" s="39" t="n"/>
+      <c r="L139" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M139" s="38" t="n"/>
       <c r="N139" s="38" t="n"/>
       <c r="P139" s="24" t="inlineStr">
@@ -11295,7 +11899,11 @@
       <c r="I140" s="38" t="n"/>
       <c r="J140" s="38" t="n"/>
       <c r="K140" s="22" t="n"/>
-      <c r="L140" s="39" t="n"/>
+      <c r="L140" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M140" s="38" t="n"/>
       <c r="N140" s="38" t="n"/>
       <c r="P140" s="24" t="inlineStr">
@@ -11342,7 +11950,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0194, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0194, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y140" s="23" t="inlineStr">
@@ -11372,7 +11981,11 @@
       <c r="I141" s="38" t="n"/>
       <c r="J141" s="38" t="n"/>
       <c r="K141" s="22" t="n"/>
-      <c r="L141" s="39" t="n"/>
+      <c r="L141" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M141" s="38" t="n"/>
       <c r="N141" s="38" t="n"/>
       <c r="O141" s="24" t="inlineStr">
@@ -11455,7 +12068,11 @@
       <c r="I142" s="38" t="n"/>
       <c r="J142" s="38" t="n"/>
       <c r="K142" s="22" t="n"/>
-      <c r="L142" s="39" t="n"/>
+      <c r="L142" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M142" s="38" t="n"/>
       <c r="N142" s="38" t="n"/>
       <c r="O142" s="24" t="inlineStr">
@@ -11537,7 +12154,11 @@
       <c r="I143" s="38" t="n"/>
       <c r="J143" s="38" t="n"/>
       <c r="K143" s="22" t="n"/>
-      <c r="L143" s="39" t="n"/>
+      <c r="L143" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M143" s="38" t="n"/>
       <c r="N143" s="38" t="n"/>
       <c r="P143" s="24" t="inlineStr">
@@ -11617,7 +12238,11 @@
       <c r="I144" s="38" t="n"/>
       <c r="J144" s="38" t="n"/>
       <c r="K144" s="22" t="n"/>
-      <c r="L144" s="39" t="n"/>
+      <c r="L144" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M144" s="38" t="n"/>
       <c r="N144" s="38" t="n"/>
       <c r="O144" s="24" t="inlineStr">
@@ -11661,7 +12286,8 @@
         <is>
           <t>· 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y144" s="23" t="inlineStr">
@@ -11691,7 +12317,11 @@
       <c r="I145" s="38" t="n"/>
       <c r="J145" s="38" t="n"/>
       <c r="K145" s="22" t="n"/>
-      <c r="L145" s="39" t="n"/>
+      <c r="L145" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M145" s="38" t="n"/>
       <c r="N145" s="38" t="n"/>
       <c r="P145" s="24" t="inlineStr">
@@ -11762,7 +12392,11 @@
       <c r="I146" s="38" t="n"/>
       <c r="J146" s="38" t="n"/>
       <c r="K146" s="22" t="n"/>
-      <c r="L146" s="39" t="n"/>
+      <c r="L146" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M146" s="38" t="n"/>
       <c r="P146" s="24" t="inlineStr">
         <is>
@@ -11831,7 +12465,11 @@
       <c r="H147" s="39" t="n"/>
       <c r="I147" s="38" t="n"/>
       <c r="K147" s="22" t="n"/>
-      <c r="L147" s="39" t="n"/>
+      <c r="L147" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M147" s="38" t="n"/>
       <c r="N147" s="38" t="n"/>
       <c r="O147" s="24" t="inlineStr">
@@ -11880,7 +12518,8 @@
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·小狐狸点击确认后，orb失败，还是没有转过去
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y147" s="23" t="inlineStr">
@@ -11909,7 +12548,11 @@
       <c r="I148" s="38" t="n"/>
       <c r="J148" s="38" t="n"/>
       <c r="K148" s="22" t="n"/>
-      <c r="L148" s="39" t="n"/>
+      <c r="L148" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M148" s="38" t="n"/>
       <c r="P148" s="24" t="inlineStr">
         <is>
@@ -11971,7 +12614,11 @@
       <c r="I149" s="38" t="n"/>
       <c r="J149" s="38" t="n"/>
       <c r="K149" s="22" t="n"/>
-      <c r="L149" s="39" t="n"/>
+      <c r="L149" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M149" s="38" t="n"/>
       <c r="N149" s="38" t="n"/>
       <c r="P149" s="24" t="inlineStr">
@@ -12022,7 +12669,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易
+·orb 成功</t>
         </is>
       </c>
       <c r="Y149" s="23" t="inlineStr">
@@ -12052,7 +12700,11 @@
       <c r="I150" s="38" t="n"/>
       <c r="J150" s="38" t="n"/>
       <c r="K150" s="22" t="n"/>
-      <c r="L150" s="39" t="n"/>
+      <c r="L150" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M150" s="38" t="n"/>
       <c r="N150" s="38" t="n"/>
       <c r="O150" s="24" t="inlineStr">
@@ -12123,7 +12775,11 @@
       <c r="I151" s="38" t="n"/>
       <c r="J151" s="38" t="n"/>
       <c r="K151" s="22" t="n"/>
-      <c r="L151" s="39" t="n"/>
+      <c r="L151" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M151" s="38" t="n"/>
       <c r="N151" s="38" t="n"/>
       <c r="O151" s="24" t="inlineStr">
@@ -12202,7 +12858,11 @@
       <c r="I152" s="38" t="n"/>
       <c r="J152" s="38" t="n"/>
       <c r="K152" s="22" t="n"/>
-      <c r="L152" s="39" t="n"/>
+      <c r="L152" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M152" s="38" t="n"/>
       <c r="P152" s="24" t="inlineStr">
         <is>
@@ -12289,7 +12949,11 @@
       <c r="I153" s="38" t="n"/>
       <c r="J153" s="38" t="n"/>
       <c r="K153" s="22" t="n"/>
-      <c r="L153" s="39" t="n"/>
+      <c r="L153" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M153" s="38" t="n"/>
       <c r="N153" s="38" t="n"/>
       <c r="P153" s="24" t="inlineStr">
@@ -12343,7 +13007,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0033  小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.009, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.009, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y153" s="23" t="inlineStr">
@@ -12373,7 +13038,11 @@
       <c r="I154" s="38" t="n"/>
       <c r="J154" s="38" t="n"/>
       <c r="K154" s="22" t="n"/>
-      <c r="L154" s="39" t="n"/>
+      <c r="L154" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M154" s="38" t="n"/>
       <c r="P154" s="24" t="inlineStr">
         <is>
@@ -12435,7 +13104,8 @@
 · 小狐狸交易成功
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.004  小狐狸交易成功
-·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y154" s="23" t="inlineStr">
@@ -12464,7 +13134,11 @@
       <c r="H155" s="39" t="n"/>
       <c r="I155" s="38" t="n"/>
       <c r="K155" s="22" t="n"/>
-      <c r="L155" s="39" t="n"/>
+      <c r="L155" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M155" s="38" t="n"/>
       <c r="N155" s="38" t="n"/>
       <c r="P155" s="24" t="inlineStr">
@@ -12543,7 +13217,11 @@
       <c r="I156" s="38" t="n"/>
       <c r="J156" s="38" t="n"/>
       <c r="K156" s="22" t="n"/>
-      <c r="L156" s="39" t="n"/>
+      <c r="L156" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M156" s="38" t="n"/>
       <c r="P156" s="24" t="inlineStr">
         <is>
@@ -12630,7 +13308,11 @@
       <c r="I157" s="38" t="n"/>
       <c r="J157" s="38" t="n"/>
       <c r="K157" s="22" t="n"/>
-      <c r="L157" s="39" t="n"/>
+      <c r="L157" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M157" s="38" t="n"/>
       <c r="N157" s="38" t="n"/>
       <c r="O157" s="24" t="inlineStr">
@@ -12709,7 +13391,11 @@
       <c r="I158" s="38" t="n"/>
       <c r="J158" s="38" t="n"/>
       <c r="K158" s="22" t="n"/>
-      <c r="L158" s="39" t="n"/>
+      <c r="L158" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M158" s="38" t="n"/>
       <c r="N158" s="38" t="n"/>
       <c r="P158" s="24" t="inlineStr">
@@ -12776,7 +13462,11 @@
       <c r="I159" s="38" t="n"/>
       <c r="J159" s="38" t="n"/>
       <c r="K159" s="22" t="n"/>
-      <c r="L159" s="39" t="n"/>
+      <c r="L159" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M159" s="38" t="n"/>
       <c r="N159" s="38" t="n"/>
       <c r="P159" s="37" t="inlineStr">
@@ -12856,7 +13546,11 @@
       <c r="I160" s="38" t="n"/>
       <c r="J160" s="38" t="n"/>
       <c r="K160" s="22" t="n"/>
-      <c r="L160" s="39" t="n"/>
+      <c r="L160" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M160" s="38" t="n"/>
       <c r="O160" s="24" t="inlineStr">
         <is>
@@ -12933,7 +13627,11 @@
       <c r="I161" s="38" t="n"/>
       <c r="J161" s="38" t="n"/>
       <c r="K161" s="22" t="n"/>
-      <c r="L161" s="39" t="n"/>
+      <c r="L161" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M161" s="38" t="n"/>
       <c r="P161" s="37" t="inlineStr">
         <is>
@@ -12981,7 +13679,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0025  小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0153, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0153, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y161" s="23" t="inlineStr">
@@ -13011,7 +13710,11 @@
       <c r="I162" s="38" t="n"/>
       <c r="J162" s="38" t="n"/>
       <c r="K162" s="22" t="n"/>
-      <c r="L162" s="39" t="n"/>
+      <c r="L162" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M162" s="38" t="n"/>
       <c r="N162" s="38" t="n"/>
       <c r="P162" s="24" t="inlineStr">
@@ -13080,7 +13783,11 @@
       <c r="I163" s="38" t="n"/>
       <c r="J163" s="38" t="n"/>
       <c r="K163" s="22" t="n"/>
-      <c r="L163" s="39" t="n"/>
+      <c r="L163" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M163" s="38" t="n"/>
       <c r="P163" s="24" t="inlineStr">
         <is>
@@ -13165,7 +13872,11 @@
       <c r="I164" s="38" t="n"/>
       <c r="J164" s="38" t="n"/>
       <c r="K164" s="22" t="n"/>
-      <c r="L164" s="39" t="n"/>
+      <c r="L164" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M164" s="38" t="n"/>
       <c r="N164" s="38" t="n"/>
       <c r="P164" s="24" t="inlineStr">
@@ -13228,7 +13939,11 @@
       <c r="I165" s="38" t="n"/>
       <c r="J165" s="38" t="n"/>
       <c r="K165" s="22" t="n"/>
-      <c r="L165" s="39" t="n"/>
+      <c r="L165" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M165" s="38" t="n"/>
       <c r="N165" s="38" t="n"/>
       <c r="P165" s="37" t="inlineStr">
@@ -13308,7 +14023,11 @@
       <c r="I166" s="38" t="n"/>
       <c r="J166" s="38" t="n"/>
       <c r="K166" s="22" t="n"/>
-      <c r="L166" s="39" t="n"/>
+      <c r="L166" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M166" s="38" t="n"/>
       <c r="N166" s="38" t="n"/>
       <c r="O166" s="24" t="inlineStr">
@@ -13379,7 +14098,11 @@
       <c r="I167" s="38" t="n"/>
       <c r="J167" s="38" t="n"/>
       <c r="K167" s="22" t="n"/>
-      <c r="L167" s="39" t="n"/>
+      <c r="L167" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M167" s="38" t="n"/>
       <c r="O167" s="24" t="inlineStr">
         <is>
@@ -13455,7 +14178,11 @@
       <c r="I168" s="38" t="n"/>
       <c r="J168" s="38" t="n"/>
       <c r="K168" s="22" t="n"/>
-      <c r="L168" s="39" t="n"/>
+      <c r="L168" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M168" s="38" t="n"/>
       <c r="O168" s="24" t="inlineStr">
         <is>
@@ -13495,7 +14222,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.0073  小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.025, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.025, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y168" s="23" t="inlineStr">
@@ -13525,7 +14253,11 @@
       <c r="I169" s="38" t="n"/>
       <c r="J169" s="38" t="n"/>
       <c r="K169" s="22" t="n"/>
-      <c r="L169" s="39" t="n"/>
+      <c r="L169" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M169" s="38" t="n"/>
       <c r="P169" s="37" t="inlineStr">
         <is>
@@ -13593,7 +14325,11 @@
       <c r="I170" s="38" t="n"/>
       <c r="J170" s="38" t="n"/>
       <c r="K170" s="22" t="n"/>
-      <c r="L170" s="39" t="n"/>
+      <c r="L170" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M170" s="38" t="n"/>
       <c r="N170" s="38" t="n"/>
       <c r="P170" s="24" t="inlineStr">
@@ -13660,7 +14396,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.01  小狐狸交易成功
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0033  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y170" s="23" t="inlineStr">
@@ -13690,7 +14427,11 @@
       <c r="I171" s="38" t="n"/>
       <c r="J171" s="38" t="n"/>
       <c r="K171" s="22" t="n"/>
-      <c r="L171" s="39" t="n"/>
+      <c r="L171" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M171" s="38" t="n"/>
       <c r="P171" s="24" t="inlineStr">
         <is>
@@ -13776,7 +14517,11 @@
       <c r="I172" s="38" t="n"/>
       <c r="J172" s="38" t="n"/>
       <c r="K172" s="22" t="n"/>
-      <c r="L172" s="39" t="n"/>
+      <c r="L172" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M172" s="38" t="n"/>
       <c r="N172" s="38" t="n"/>
       <c r="O172" s="24" t="inlineStr">
@@ -13849,7 +14594,11 @@
       <c r="I173" s="38" t="n"/>
       <c r="J173" s="38" t="n"/>
       <c r="K173" s="22" t="n"/>
-      <c r="L173" s="39" t="n"/>
+      <c r="L173" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M173" s="38" t="n"/>
       <c r="N173" s="38" t="n"/>
       <c r="P173" s="24" t="inlineStr">
@@ -13930,7 +14679,11 @@
       <c r="I174" s="38" t="n"/>
       <c r="J174" s="38" t="n"/>
       <c r="K174" s="22" t="n"/>
-      <c r="L174" s="39" t="n"/>
+      <c r="L174" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M174" s="38" t="n"/>
       <c r="N174" s="38" t="n"/>
       <c r="P174" s="24" t="inlineStr">
@@ -13978,7 +14731,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0027  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.022, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.022, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y174" s="23" t="inlineStr">
@@ -14008,7 +14762,11 @@
       <c r="I175" s="38" t="n"/>
       <c r="J175" s="38" t="n"/>
       <c r="K175" s="22" t="n"/>
-      <c r="L175" s="39" t="n"/>
+      <c r="L175" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M175" s="38" t="n"/>
       <c r="P175" s="37" t="inlineStr">
         <is>
@@ -14079,7 +14837,11 @@
       <c r="I176" s="38" t="n"/>
       <c r="J176" s="38" t="n"/>
       <c r="K176" s="22" t="n"/>
-      <c r="L176" s="39" t="n"/>
+      <c r="L176" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M176" s="38" t="n"/>
       <c r="N176" s="38" t="n"/>
       <c r="P176" s="37" t="inlineStr">
@@ -14110,7 +14872,8 @@
           <t>· 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y176" s="23" t="inlineStr">
@@ -14140,7 +14903,11 @@
       <c r="I177" s="38" t="n"/>
       <c r="J177" s="38" t="n"/>
       <c r="K177" s="22" t="n"/>
-      <c r="L177" s="39" t="n"/>
+      <c r="L177" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M177" s="38" t="n"/>
       <c r="N177" s="38" t="n"/>
       <c r="P177" s="24" t="inlineStr">
@@ -14219,7 +14986,11 @@
       <c r="I178" s="38" t="n"/>
       <c r="J178" s="38" t="n"/>
       <c r="K178" s="22" t="n"/>
-      <c r="L178" s="39" t="n"/>
+      <c r="L178" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M178" s="38" t="n"/>
       <c r="O178" s="24" t="inlineStr">
         <is>
@@ -14263,7 +15034,8 @@
           <t>·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0007 ETH  小狐狸交易成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.012, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.012, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y178" s="23" t="inlineStr">
@@ -14293,7 +15065,11 @@
       <c r="I179" s="38" t="n"/>
       <c r="J179" s="38" t="n"/>
       <c r="K179" s="22" t="n"/>
-      <c r="L179" s="39" t="n"/>
+      <c r="L179" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M179" s="38" t="n"/>
       <c r="N179" s="38" t="n"/>
       <c r="P179" s="24" t="inlineStr">
@@ -14335,7 +15111,8 @@
 ·考虑重新交易，小狐狸交易失败，点击【拒绝交易】，因为 gas fee是 0 或者大于 0.003 
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0024  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y179" s="23" t="inlineStr">
@@ -14365,7 +15142,11 @@
       <c r="I180" s="38" t="n"/>
       <c r="J180" s="38" t="n"/>
       <c r="K180" s="22" t="n"/>
-      <c r="L180" s="39" t="n"/>
+      <c r="L180" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M180" s="38" t="n"/>
       <c r="O180" s="24" t="inlineStr">
         <is>
@@ -14444,7 +15225,11 @@
       <c r="I181" s="38" t="n"/>
       <c r="J181" s="38" t="n"/>
       <c r="K181" s="22" t="n"/>
-      <c r="L181" s="39" t="n"/>
+      <c r="L181" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M181" s="38" t="n"/>
       <c r="N181" s="38" t="n"/>
       <c r="P181" s="24" t="inlineStr">
@@ -14523,7 +15308,11 @@
       <c r="I182" s="38" t="n"/>
       <c r="J182" s="38" t="n"/>
       <c r="K182" s="22" t="n"/>
-      <c r="L182" s="39" t="n"/>
+      <c r="L182" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M182" s="38" t="n"/>
       <c r="N182" s="38" t="n"/>
       <c r="P182" s="24" t="inlineStr">
@@ -14568,7 +15357,8 @@
 ·【成功】通过 bungee，资金从Ethereum转到Arbitrum 本次转账金额0.0036  小狐狸交易成功
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.017  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
-·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功</t>
+·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y182" s="23" t="inlineStr">
@@ -14598,7 +15388,11 @@
       <c r="I183" s="38" t="n"/>
       <c r="J183" s="38" t="n"/>
       <c r="K183" s="22" t="n"/>
-      <c r="L183" s="39" t="n"/>
+      <c r="L183" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M183" s="38" t="n"/>
       <c r="N183" s="38" t="n"/>
       <c r="P183" s="24" t="inlineStr">
@@ -14676,7 +15470,11 @@
       <c r="I184" s="38" t="n"/>
       <c r="J184" s="38" t="n"/>
       <c r="K184" s="22" t="n"/>
-      <c r="L184" s="39" t="n"/>
+      <c r="L184" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M184" s="38" t="n"/>
       <c r="N184" s="38" t="n"/>
       <c r="P184" s="24" t="inlineStr">
@@ -14762,7 +15560,11 @@
       <c r="I185" s="38" t="n"/>
       <c r="J185" s="38" t="n"/>
       <c r="K185" s="22" t="n"/>
-      <c r="L185" s="39" t="n"/>
+      <c r="L185" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M185" s="38" t="n"/>
       <c r="N185" s="38" t="n"/>
       <c r="O185" s="24" t="inlineStr">
@@ -14836,7 +15638,11 @@
       <c r="I186" s="22" t="n"/>
       <c r="J186" s="38" t="n"/>
       <c r="K186" s="22" t="n"/>
-      <c r="L186" s="39" t="n"/>
+      <c r="L186" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="N186" s="38" t="n"/>
       <c r="P186" s="24" t="inlineStr">
         <is>
@@ -14896,7 +15702,8 @@
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.026, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.026, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y186" s="23" t="inlineStr">
@@ -14926,7 +15733,11 @@
       <c r="I187" s="39" t="n"/>
       <c r="J187" s="38" t="n"/>
       <c r="K187" s="22" t="n"/>
-      <c r="L187" s="39" t="n"/>
+      <c r="L187" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M187" s="39" t="n"/>
       <c r="O187" s="24" t="inlineStr">
         <is>
@@ -14992,7 +15803,11 @@
       <c r="I188" s="38" t="n"/>
       <c r="J188" s="38" t="n"/>
       <c r="K188" s="22" t="n"/>
-      <c r="L188" s="39" t="n"/>
+      <c r="L188" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M188" s="38" t="n"/>
       <c r="N188" s="38" t="n"/>
       <c r="P188" s="24" t="inlineStr">
@@ -15061,7 +15876,11 @@
       <c r="I189" s="38" t="n"/>
       <c r="J189" s="38" t="n"/>
       <c r="K189" s="22" t="n"/>
-      <c r="L189" s="39" t="n"/>
+      <c r="L189" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M189" s="38" t="n"/>
       <c r="N189" s="38" t="n"/>
       <c r="O189" s="24" t="inlineStr">
@@ -15139,7 +15958,11 @@
       <c r="I190" s="38" t="n"/>
       <c r="J190" s="38" t="n"/>
       <c r="K190" s="22" t="n"/>
-      <c r="L190" s="39" t="n"/>
+      <c r="L190" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M190" s="38" t="n"/>
       <c r="O190" s="24" t="inlineStr">
         <is>
@@ -15204,7 +16027,11 @@
       <c r="I191" s="38" t="n"/>
       <c r="J191" s="38" t="n"/>
       <c r="K191" s="22" t="n"/>
-      <c r="L191" s="39" t="n"/>
+      <c r="L191" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M191" s="38" t="n"/>
       <c r="N191" s="38" t="n"/>
       <c r="P191" s="24" t="inlineStr">
@@ -15259,7 +16086,8 @@
 ·【成功】通过 bungee，资金从Optimism转到Arbitrum 本次转账金额0.04  小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0256, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0256, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y191" s="23" t="inlineStr">
@@ -15289,7 +16117,11 @@
       <c r="I192" s="38" t="n"/>
       <c r="J192" s="38" t="n"/>
       <c r="K192" s="22" t="n"/>
-      <c r="L192" s="39" t="n"/>
+      <c r="L192" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M192" s="38" t="n"/>
       <c r="N192" s="38" t="n"/>
       <c r="O192" s="24" t="inlineStr">
@@ -15374,7 +16206,11 @@
       <c r="I193" s="38" t="n"/>
       <c r="J193" s="38" t="n"/>
       <c r="K193" s="22" t="n"/>
-      <c r="L193" s="39" t="n"/>
+      <c r="L193" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M193" s="38" t="n"/>
       <c r="N193" s="38" t="n"/>
       <c r="O193" s="24" t="inlineStr">
@@ -15457,7 +16293,11 @@
       <c r="I194" s="38" t="n"/>
       <c r="J194" s="38" t="n"/>
       <c r="K194" s="22" t="n"/>
-      <c r="L194" s="39" t="n"/>
+      <c r="L194" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M194" s="38" t="n"/>
       <c r="N194" s="38" t="n"/>
       <c r="P194" s="24" t="inlineStr">
@@ -15504,7 +16344,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.014, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.014, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y194" s="23" t="inlineStr">
@@ -15534,7 +16375,11 @@
       <c r="I195" s="38" t="n"/>
       <c r="J195" s="38" t="n"/>
       <c r="K195" s="22" t="n"/>
-      <c r="L195" s="39" t="n"/>
+      <c r="L195" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M195" s="38" t="n"/>
       <c r="N195" s="38" t="n"/>
       <c r="O195" s="24" t="inlineStr">
@@ -15615,7 +16460,11 @@
       <c r="I196" s="38" t="n"/>
       <c r="J196" s="38" t="n"/>
       <c r="K196" s="22" t="n"/>
-      <c r="L196" s="39" t="n"/>
+      <c r="L196" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M196" s="38" t="n"/>
       <c r="N196" s="38" t="n"/>
       <c r="O196" s="24" t="inlineStr">
@@ -15666,7 +16515,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.024, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y196" s="23" t="inlineStr">
@@ -15696,7 +16546,11 @@
       <c r="I197" s="38" t="n"/>
       <c r="J197" s="38" t="n"/>
       <c r="K197" s="22" t="n"/>
-      <c r="L197" s="39" t="n"/>
+      <c r="L197" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M197" s="38" t="n"/>
       <c r="P197" s="24" t="inlineStr">
         <is>
@@ -15770,7 +16624,11 @@
       <c r="I198" s="38" t="n"/>
       <c r="J198" s="38" t="n"/>
       <c r="K198" s="22" t="n"/>
-      <c r="L198" s="39" t="n"/>
+      <c r="L198" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M198" s="38" t="n"/>
       <c r="N198" s="38" t="n"/>
       <c r="O198" s="24" t="inlineStr">
@@ -15848,7 +16706,11 @@
       <c r="I199" s="38" t="n"/>
       <c r="J199" s="38" t="n"/>
       <c r="K199" s="22" t="n"/>
-      <c r="L199" s="39" t="n"/>
+      <c r="L199" s="39" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="M199" s="38" t="n"/>
       <c r="N199" s="38" t="n"/>
       <c r="O199" s="24" t="inlineStr">
@@ -15919,7 +16781,11 @@
       <c r="I200" s="38" t="n"/>
       <c r="J200" s="38" t="n"/>
       <c r="K200" s="22" t="n"/>
-      <c r="L200" s="39" t="n"/>
+      <c r="L200" s="39" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="M200" s="38" t="n"/>
       <c r="N200" s="38" t="n"/>
       <c r="P200" s="24" t="inlineStr">
@@ -15972,7 +16838,8 @@
 · 小狐狸交易成功
 · 小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0288, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.0288, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y200" s="23" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -845,7 +845,11 @@
 {'Arbitrum':0.0169, 'Optimism':0.0514, 'zksync':0.002113551988}</t>
         </is>
       </c>
-      <c r="D2" s="38" t="n"/>
+      <c r="D2" s="38" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E2" s="38" t="n"/>
       <c r="F2" s="38" t="n"/>
       <c r="G2" s="22" t="n"/>
@@ -870,6 +874,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -907,7 +912,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0476
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 79.834 去兑换 ETH小狐狸签名成功
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 73.9187 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 73.9187 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0196 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W2" s="24" t="inlineStr">
@@ -940,7 +947,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0497, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D3" s="38" t="n"/>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E3" s="38" t="n"/>
       <c r="F3" s="38" t="n"/>
       <c r="G3" s="22" t="n"/>
@@ -966,6 +977,7 @@
 √
 √
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -994,7 +1006,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.014 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.19 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W3" s="24" t="inlineStr">
@@ -1024,7 +1038,11 @@
 {'Arbitrum':0.0537, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D4" s="38" t="n"/>
+      <c r="D4" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E4" s="38" t="n"/>
       <c r="F4" s="38" t="n"/>
       <c r="G4" s="22" t="n"/>
@@ -1075,7 +1093,8 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，Ethereum 换 USD Coin 金额 0.04
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
-· OP clipper 任务完</t>
+· OP clipper 任务完
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W4" s="24" t="inlineStr">
@@ -1106,7 +1125,11 @@
 {'Arbitrum':0.0367, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D5" s="38" t="n"/>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E5" s="38" t="n"/>
       <c r="F5" s="38" t="n"/>
       <c r="G5" s="22" t="n"/>
@@ -1174,7 +1197,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0438, 'zksync':0.00997}</t>
         </is>
       </c>
-      <c r="D6" s="38" t="n"/>
+      <c r="D6" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E6" s="38" t="n"/>
       <c r="F6" s="38" t="n"/>
       <c r="G6" s="22" t="n"/>
@@ -1248,7 +1275,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0267, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D7" s="38" t="n"/>
+      <c r="D7" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E7" s="38" t="n"/>
       <c r="F7" s="38" t="n"/>
       <c r="G7" s="22" t="n"/>
@@ -1318,7 +1349,11 @@
 {'Arbitrum':0.0533, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D8" s="38" t="n"/>
+      <c r="D8" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E8" s="38" t="n"/>
       <c r="F8" s="38" t="n"/>
       <c r="G8" s="22" t="n"/>
@@ -1396,7 +1431,11 @@
 {'Arbitrum':0.0553, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D9" s="38" t="n"/>
+      <c r="D9" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E9" s="38" t="n"/>
       <c r="F9" s="38" t="n"/>
       <c r="G9" s="22" t="n"/>
@@ -1566,7 +1605,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0373}</t>
         </is>
       </c>
-      <c r="D11" s="38" t="n"/>
+      <c r="D11" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E11" s="38" t="n"/>
       <c r="F11" s="38" t="n"/>
       <c r="G11" s="22" t="n"/>
@@ -1649,7 +1692,11 @@
 {'Arbitrum':0.0, 'Optimism':0.048, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D12" s="38" t="n"/>
+      <c r="D12" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E12" s="38" t="n"/>
       <c r="F12" s="38" t="n"/>
       <c r="G12" s="22" t="n"/>
@@ -1724,7 +1771,11 @@
 {'Arbitrum':0.0096, 'Optimism':0.0196, 'zksync':0.0213}</t>
         </is>
       </c>
-      <c r="D13" s="38" t="n"/>
+      <c r="D13" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E13" s="38" t="n"/>
       <c r="F13" s="38" t="n"/>
       <c r="G13" s="22" t="n"/>
@@ -1806,7 +1857,11 @@
 {'Arbitrum':0.0256, 'Optimism':0.0127, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D14" s="38" t="n"/>
+      <c r="D14" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E14" s="38" t="n"/>
       <c r="F14" s="38" t="n"/>
       <c r="G14" s="22" t="n"/>
@@ -1877,7 +1932,11 @@
 {'Arbitrum':0.058, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D15" s="38" t="n"/>
+      <c r="D15" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E15" s="38" t="n"/>
       <c r="F15" s="38" t="n"/>
       <c r="G15" s="22" t="n"/>
@@ -1954,7 +2013,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0398, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D16" s="38" t="n"/>
+      <c r="D16" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E16" s="38" t="n"/>
       <c r="F16" s="38" t="n"/>
       <c r="G16" s="22" t="n"/>
@@ -2039,7 +2102,11 @@
 {'Arbitrum':0.0, 'Optimism':0.015, 'zksync':0.03}</t>
         </is>
       </c>
-      <c r="D17" s="38" t="n"/>
+      <c r="D17" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E17" s="38" t="n"/>
       <c r="F17" s="38" t="n"/>
       <c r="G17" s="22" t="n"/>
@@ -2115,7 +2182,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0537}</t>
         </is>
       </c>
-      <c r="D18" s="38" t="n"/>
+      <c r="D18" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E18" s="38" t="n"/>
       <c r="F18" s="38" t="n"/>
       <c r="G18" s="22" t="n"/>
@@ -2124,7 +2195,7 @@
       <c r="J18" s="38" t="n"/>
       <c r="L18" s="39" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="M18" s="38" t="n"/>
@@ -2170,7 +2241,8 @@
 · 小狐狸交易成功
 ·【成功】通过orb，资金从Arbitrum转到zkSync  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
 ·【成功】通过orb，资金从zkSync转到Optimism  本次交易额是：全部, orb 显示 withholding fee 手续费是：0.0008 ETH 小狐狸签名成功
-·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.018, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功</t>
+·【成功】通过orb，资金从Optimism转到zkSync  本次交易额是：0.018, orb 显示 withholding fee 手续费是：0.0013 ETH  小狐狸交易成功
+·orb 成功</t>
         </is>
       </c>
       <c r="Y18" s="23" t="inlineStr">
@@ -2193,7 +2265,11 @@
 {'Arbitrum':0.0252, 'Optimism':0.0, 'zksync':0.01499}</t>
         </is>
       </c>
-      <c r="D19" s="38" t="n"/>
+      <c r="D19" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E19" s="38" t="n"/>
       <c r="F19" s="38" t="n"/>
       <c r="G19" s="22" t="n"/>
@@ -2263,7 +2339,11 @@
 {'Arbitrum':0.0507, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D20" s="38" t="n"/>
+      <c r="D20" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E20" s="38" t="n"/>
       <c r="F20" s="38" t="n"/>
       <c r="G20" s="22" t="n"/>
@@ -2334,7 +2414,11 @@
 {'Arbitrum':0.0196, 'Optimism':0.0274, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D21" s="38" t="n"/>
+      <c r="D21" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E21" s="38" t="n"/>
       <c r="F21" s="38" t="n"/>
       <c r="G21" s="22" t="n"/>
@@ -2416,7 +2500,11 @@
 {'Arbitrum':0.0396, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D22" s="38" t="n"/>
+      <c r="D22" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E22" s="38" t="n"/>
       <c r="F22" s="38" t="n"/>
       <c r="G22" s="22" t="n"/>
@@ -2488,7 +2576,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0598, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D23" s="38" t="n"/>
+      <c r="D23" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E23" s="38" t="n"/>
       <c r="F23" s="38" t="n"/>
       <c r="G23" s="22" t="n"/>
@@ -2571,7 +2663,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0586, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D24" s="38" t="n"/>
+      <c r="D24" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E24" s="38" t="n"/>
       <c r="F24" s="38" t="n"/>
       <c r="G24" s="22" t="n"/>
@@ -2642,7 +2738,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.062}</t>
         </is>
       </c>
-      <c r="D25" s="38" t="n"/>
+      <c r="D25" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E25" s="38" t="n"/>
       <c r="F25" s="38" t="n"/>
       <c r="G25" s="22" t="n"/>
@@ -2730,7 +2830,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.04}</t>
         </is>
       </c>
-      <c r="D26" s="38" t="n"/>
+      <c r="D26" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E26" s="38" t="n"/>
       <c r="F26" s="38" t="n"/>
       <c r="G26" s="22" t="n"/>
@@ -2809,7 +2913,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0396, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D27" s="38" t="n"/>
+      <c r="D27" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E27" s="38" t="n"/>
       <c r="F27" s="38" t="n"/>
       <c r="G27" s="22" t="n"/>
@@ -2884,7 +2992,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.06}</t>
         </is>
       </c>
-      <c r="D28" s="38" t="n"/>
+      <c r="D28" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E28" s="38" t="n"/>
       <c r="F28" s="38" t="n"/>
       <c r="G28" s="22" t="n"/>
@@ -2960,7 +3072,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0398, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D29" s="38" t="n"/>
+      <c r="D29" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E29" s="38" t="n"/>
       <c r="F29" s="38" t="n"/>
       <c r="G29" s="22" t="n"/>
@@ -3044,7 +3160,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0428, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D30" s="38" t="n"/>
+      <c r="D30" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E30" s="38" t="n"/>
       <c r="F30" s="38" t="n"/>
       <c r="G30" s="22" t="n"/>
@@ -3128,7 +3248,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0466, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D31" s="38" t="n"/>
+      <c r="D31" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E31" s="38" t="n"/>
       <c r="F31" s="38" t="n"/>
       <c r="G31" s="22" t="n"/>
@@ -3201,7 +3325,11 @@
 {'Arbitrum':0.0597, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D32" s="38" t="n"/>
+      <c r="D32" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E32" s="38" t="n"/>
       <c r="F32" s="38" t="n"/>
       <c r="G32" s="22" t="n"/>
@@ -3286,7 +3414,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.036}</t>
         </is>
       </c>
-      <c r="D33" s="38" t="n"/>
+      <c r="D33" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E33" s="38" t="n"/>
       <c r="F33" s="38" t="n"/>
       <c r="H33" s="39" t="n"/>
@@ -3378,7 +3510,11 @@
 {'Arbitrum':0.0217, 'Optimism':0.04, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D34" s="38" t="n"/>
+      <c r="D34" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E34" s="38" t="n"/>
       <c r="F34" s="38" t="n"/>
       <c r="G34" s="22" t="n"/>
@@ -3465,7 +3601,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.055}</t>
         </is>
       </c>
-      <c r="D35" s="38" t="n"/>
+      <c r="D35" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E35" s="38" t="n"/>
       <c r="F35" s="38" t="n"/>
       <c r="G35" s="22" t="n"/>
@@ -3550,7 +3690,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0617}</t>
         </is>
       </c>
-      <c r="D36" s="38" t="n"/>
+      <c r="D36" s="38" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E36" s="38" t="n"/>
       <c r="F36" s="38" t="n"/>
       <c r="G36" s="22" t="n"/>

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1043,7 +1043,11 @@
 {'Arbitrum':0.0537, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D4" s="40" t="n"/>
+      <c r="D4" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E4" s="40" t="n"/>
       <c r="F4" s="40" t="n"/>
       <c r="G4" s="24" t="n"/>
@@ -1107,7 +1111,8 @@
 · OP clipper 任务完
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：13.171；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：13.171；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.7011 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W4" s="26" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D4" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E4" s="40" t="n"/>
@@ -1073,6 +1073,7 @@
       <c r="P4" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1112,7 +1113,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：13.171；
-·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.7011 去兑换 ETH小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.7011 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W4" s="26" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1145,7 +1145,11 @@
 {'Arbitrum':0.0367, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D5" s="40" t="n"/>
+      <c r="D5" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E5" s="40" t="n"/>
       <c r="F5" s="40" t="n"/>
       <c r="G5" s="24" t="n"/>
@@ -1169,6 +1173,7 @@
           <t>·√
 ·√
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1195,7 +1200,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.7165；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.7165；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.76 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W5" s="26" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1231,7 +1231,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0438, 'zksync':0.00997}</t>
         </is>
       </c>
-      <c r="D6" s="40" t="n"/>
+      <c r="D6" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E6" s="40" t="n"/>
       <c r="F6" s="40" t="n"/>
       <c r="G6" s="24" t="n"/>
@@ -1252,6 +1256,7 @@
       <c r="P6" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√
@@ -1292,7 +1297,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.4 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0063</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0063
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.514 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W6" s="26" t="inlineStr">
@@ -1368,7 +1375,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W7" s="25" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -9606,7 +9606,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.054ETH，小狐狸交易成功，gas fee预估0.00213</t>
         </is>
       </c>
-      <c r="D101" s="40" t="n"/>
+      <c r="D101" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E101" s="40" t="n"/>
       <c r="F101" s="40" t="n"/>
       <c r="G101" s="24" t="n"/>
@@ -9629,7 +9633,8 @@
           <t>√
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R101" s="25" t="inlineStr">
@@ -9661,7 +9666,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0197；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.7393；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.7393；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0152 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.21 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W101" s="26" t="inlineStr">
@@ -9689,7 +9696,11 @@
           <t>·【ARB】通过lifi，转到ARB：0.06ETH，小狐狸交易成功，gas fee预估0.004142</t>
         </is>
       </c>
-      <c r="D102" s="40" t="n"/>
+      <c r="D102" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E102" s="40" t="n"/>
       <c r="F102" s="40" t="n"/>
       <c r="G102" s="24" t="n"/>
@@ -9715,6 +9726,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -9752,7 +9764,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.19；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.19；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.8171 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W102" s="26" t="inlineStr">
@@ -9784,7 +9798,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.06ETH，小狐狸交易成功，gas fee预估0.002016</t>
         </is>
       </c>
-      <c r="D103" s="40" t="n"/>
+      <c r="D103" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E103" s="40" t="n"/>
       <c r="F103" s="40" t="n"/>
       <c r="G103" s="24" t="n"/>
@@ -9815,6 +9833,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -9844,7 +9863,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.7789 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.0259；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.0259；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.741 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W103" s="26" t="inlineStr">
@@ -9874,7 +9895,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.042ETH，小狐狸交易成功，gas fee预估0.00195</t>
         </is>
       </c>
-      <c r="D104" s="40" t="n"/>
+      <c r="D104" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E104" s="40" t="n"/>
       <c r="F104" s="40" t="n"/>
       <c r="G104" s="24" t="n"/>
@@ -9904,6 +9929,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -9935,7 +9961,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1077 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0027 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.373 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W104" s="26" t="inlineStr">
@@ -9964,7 +9992,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.0424ETH，小狐狸交易成功，gas fee预估0.004787</t>
         </is>
       </c>
-      <c r="D105" s="40" t="n"/>
+      <c r="D105" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E105" s="40" t="n"/>
       <c r="F105" s="40" t="n"/>
       <c r="G105" s="24" t="n"/>
@@ -9990,6 +10022,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10025,7 +10058,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.009；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.014；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.014；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.7903 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W105" s="26" t="inlineStr">
@@ -10057,7 +10092,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.044ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002897</t>
         </is>
       </c>
-      <c r="D106" s="40" t="n"/>
+      <c r="D106" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E106" s="40" t="n"/>
       <c r="F106" s="40" t="n"/>
       <c r="G106" s="24" t="n"/>
@@ -10088,6 +10127,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10122,7 +10162,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.93 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.3016 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W106" s="26" t="inlineStr">
@@ -10153,7 +10195,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0431ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001384</t>
         </is>
       </c>
-      <c r="D107" s="40" t="n"/>
+      <c r="D107" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E107" s="40" t="n"/>
       <c r="F107" s="40" t="n"/>
       <c r="G107" s="24" t="n"/>
@@ -10180,7 +10226,8 @@
       <c r="P107" s="26" t="inlineStr">
         <is>
           <t>·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="R107" s="25" t="inlineStr">
@@ -10219,7 +10266,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.015；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.4243；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.4243；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0031 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.24 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W107" s="26" t="inlineStr">
@@ -10250,7 +10299,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.062ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00243</t>
         </is>
       </c>
-      <c r="D108" s="40" t="n"/>
+      <c r="D108" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E108" s="40" t="n"/>
       <c r="F108" s="40" t="n"/>
       <c r="G108" s="24" t="n"/>
@@ -10279,7 +10332,8 @@
           <t>·√哈
 ·√哈
 ·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="R108" s="25" t="inlineStr">
@@ -10309,7 +10363,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：5.631；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：5.631；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0129 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.76 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W108" s="26" t="inlineStr">
@@ -10339,7 +10395,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0634ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002309</t>
         </is>
       </c>
-      <c r="D109" s="40" t="n"/>
+      <c r="D109" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E109" s="40" t="n"/>
       <c r="F109" s="40" t="n"/>
       <c r="G109" s="24" t="n"/>
@@ -10367,7 +10427,7 @@
         <is>
           <t xml:space="preserve">
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R109" s="25" t="inlineStr">
@@ -10402,7 +10462,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0094
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 12.799</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 12.799
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.8793 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W109" s="26" t="inlineStr">
@@ -10434,7 +10496,11 @@
           <t>·【ARB】通过ARB官方桥，转到ARB：0.065ETH，小狐狸交易成功，gas fee预估0.004812</t>
         </is>
       </c>
-      <c r="D110" s="40" t="n"/>
+      <c r="D110" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E110" s="40" t="n"/>
       <c r="F110" s="40" t="n"/>
       <c r="G110" s="24" t="n"/>
@@ -10459,6 +10525,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10492,7 +10559,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0081</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0081
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.9631 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W110" s="26" t="inlineStr">
@@ -10527,7 +10596,7 @@
       </c>
       <c r="D111" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E111" s="40" t="n"/>
@@ -10556,7 +10625,8 @@
       <c r="P111" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="S111" s="25" t="inlineStr">
@@ -10586,7 +10656,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.024
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0037；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.5338；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.5338；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.38 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W111" s="26" t="inlineStr">
@@ -10620,7 +10692,11 @@
 ·【OP】通过OP官方桥，转到OP：0.056ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001506</t>
         </is>
       </c>
-      <c r="D112" s="40" t="n"/>
+      <c r="D112" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E112" s="40" t="n"/>
       <c r="F112" s="40" t="n"/>
       <c r="G112" s="49" t="n"/>
@@ -10646,6 +10722,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -10687,7 +10764,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是10.5734；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是10.5734；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.021 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.718 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W112" s="26" t="inlineStr">
@@ -10721,7 +10800,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0383ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00242</t>
         </is>
       </c>
-      <c r="D113" s="40" t="n"/>
+      <c r="D113" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E113" s="40" t="n"/>
       <c r="F113" s="40" t="n"/>
       <c r="G113" s="49" t="n"/>
@@ -10748,6 +10831,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10785,7 +10869,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.35 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0052 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.026；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是32.801；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是32.801；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W113" s="26" t="inlineStr">
@@ -10818,7 +10904,11 @@
 ·【OP】通过OP官方桥，转到OP：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001509</t>
         </is>
       </c>
-      <c r="D114" s="40" t="n"/>
+      <c r="D114" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E114" s="40" t="n"/>
       <c r="F114" s="40" t="n"/>
       <c r="G114" s="49" t="n"/>
@@ -10845,6 +10935,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10883,7 +10974,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.4369</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.4369
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.8365 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W114" s="26" t="inlineStr">
@@ -10915,7 +11008,11 @@
 ·【OP】通过OP官方桥，转到OP：0.065ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001671</t>
         </is>
       </c>
-      <c r="D115" s="40" t="n"/>
+      <c r="D115" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E115" s="40" t="n"/>
       <c r="F115" s="40" t="n"/>
       <c r="G115" s="24" t="n"/>
@@ -10942,6 +11039,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10973,7 +11071,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 38.47 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0112
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4072</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4072
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0217 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 33.5573 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W115" s="26" t="inlineStr">
@@ -11007,7 +11107,11 @@
 ·【OP】通过OP官方桥，转到OP：0.039ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001261</t>
         </is>
       </c>
-      <c r="D116" s="40" t="n"/>
+      <c r="D116" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E116" s="40" t="n"/>
       <c r="F116" s="40" t="n"/>
       <c r="G116" s="24" t="n"/>
@@ -11034,6 +11138,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11072,7 +11177,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0037；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.679；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.679；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.483 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W116" s="26" t="inlineStr">
@@ -11108,7 +11215,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0574ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002041</t>
         </is>
       </c>
-      <c r="D117" s="40" t="n"/>
+      <c r="D117" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E117" s="40" t="n"/>
       <c r="F117" s="40" t="n"/>
       <c r="G117" s="24" t="n"/>
@@ -11139,6 +11250,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11175,7 +11287,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.95 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.011；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.6949；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.6949；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.3042 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W117" s="26" t="inlineStr">
@@ -11207,7 +11321,11 @@
 ·【OP】通过OP官方桥，转到OP：0.061ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001327</t>
         </is>
       </c>
-      <c r="D118" s="40" t="n"/>
+      <c r="D118" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E118" s="40" t="n"/>
       <c r="F118" s="40" t="n"/>
       <c r="G118" s="24" t="n"/>
@@ -11234,7 +11352,8 @@
       <c r="P118" s="26" t="inlineStr">
         <is>
           <t>·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="R118" s="25" t="inlineStr">
@@ -11266,7 +11385,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0179；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.8163</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.8163
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0135 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.3682 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W118" s="26" t="inlineStr">
@@ -11299,7 +11420,11 @@
 ·【OP】通过OP官方桥，转到OP：0.042ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001343</t>
         </is>
       </c>
-      <c r="D119" s="40" t="n"/>
+      <c r="D119" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E119" s="40" t="n"/>
       <c r="F119" s="40" t="n"/>
       <c r="G119" s="24" t="n"/>
@@ -11327,6 +11452,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -11359,7 +11485,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.018
 · matcha 还是换钱失败
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 24.1673</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 24.1673
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.174 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W119" s="26" t="inlineStr">
@@ -11390,7 +11518,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002347</t>
         </is>
       </c>
-      <c r="D120" s="40" t="n"/>
+      <c r="D120" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E120" s="40" t="n"/>
       <c r="F120" s="40" t="n"/>
       <c r="G120" s="24" t="n"/>
@@ -11415,6 +11547,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11447,7 +11580,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0022 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0129
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 15.5928</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 15.5928
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.86 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W120" s="26" t="inlineStr">
@@ -11480,7 +11615,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00233</t>
         </is>
       </c>
-      <c r="D121" s="40" t="n"/>
+      <c r="D121" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E121" s="40" t="n"/>
       <c r="F121" s="40" t="n"/>
       <c r="G121" s="24" t="n"/>
@@ -11509,6 +11648,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11541,7 +11681,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.25 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.002；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.519 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W121" s="26" t="inlineStr">
@@ -11570,7 +11712,11 @@
 ·【OP】通过OP官方桥，转到OP：0.065ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001306</t>
         </is>
       </c>
-      <c r="D122" s="40" t="n"/>
+      <c r="D122" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E122" s="40" t="n"/>
       <c r="F122" s="40" t="n"/>
       <c r="G122" s="24" t="n"/>
@@ -11597,7 +11743,7 @@
         <is>
           <t xml:space="preserve">
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R122" s="25" t="inlineStr">
@@ -11626,7 +11772,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：12.215；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：12.215；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0153 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.701 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W122" s="26" t="inlineStr">
@@ -11657,7 +11805,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002948</t>
         </is>
       </c>
-      <c r="D123" s="40" t="n"/>
+      <c r="D123" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E123" s="40" t="n"/>
       <c r="F123" s="40" t="n"/>
       <c r="G123" s="24" t="n"/>
@@ -11682,7 +11834,8 @@
 ·√哈
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R123" s="25" t="inlineStr">
@@ -11713,7 +11866,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0228 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.584；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.584；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.8 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W123" s="26" t="inlineStr">
@@ -11746,7 +11901,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.044ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001682</t>
         </is>
       </c>
-      <c r="D124" s="40" t="n"/>
+      <c r="D124" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E124" s="40" t="n"/>
       <c r="F124" s="40" t="n"/>
       <c r="G124" s="24" t="n"/>
@@ -11772,7 +11931,8 @@
 ·√哈
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R124" s="25" t="inlineStr">
@@ -11802,7 +11962,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0152；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0049
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4629；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4629；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0091 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.486 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W124" s="26" t="inlineStr">
@@ -11835,7 +11997,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0514ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002941</t>
         </is>
       </c>
-      <c r="D125" s="40" t="n"/>
+      <c r="D125" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E125" s="40" t="n"/>
       <c r="F125" s="40" t="n"/>
       <c r="G125" s="24" t="n"/>
@@ -11861,6 +12027,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11900,7 +12067,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0047；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.807；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.807；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.9694 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W125" s="26" t="inlineStr">
@@ -11932,7 +12101,11 @@
 ·【OP】通过OP官方桥，转到OP：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000735</t>
         </is>
       </c>
-      <c r="D126" s="40" t="n"/>
+      <c r="D126" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E126" s="40" t="n"/>
       <c r="F126" s="40" t="n"/>
       <c r="G126" s="24" t="n"/>
@@ -11959,6 +12132,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12000,7 +12174,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
 · matcha 还是换钱失败
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.25 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W126" s="26" t="inlineStr">
@@ -12037,7 +12213,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002843</t>
         </is>
       </c>
-      <c r="D127" s="40" t="n"/>
+      <c r="D127" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E127" s="40" t="n"/>
       <c r="F127" s="40" t="n"/>
       <c r="G127" s="24" t="n"/>
@@ -12063,7 +12243,8 @@
 ·√哈
 ·√哈
 ·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="T127" s="26" t="inlineStr">
@@ -12087,7 +12268,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 34.7929
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0213
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 9.0688</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 9.0688
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0143 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.0 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W127" s="26" t="inlineStr">
@@ -12120,7 +12303,11 @@
 ·【OP】通过OP官方桥，转到OP：0.055ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001443</t>
         </is>
       </c>
-      <c r="D128" s="40" t="n"/>
+      <c r="D128" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E128" s="40" t="n"/>
       <c r="F128" s="40" t="n"/>
       <c r="G128" s="24" t="n"/>
@@ -12147,6 +12334,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12196,7 +12384,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.63 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0251；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.1745</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.1745
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.211 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W128" s="26" t="inlineStr">
@@ -12230,7 +12420,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0619ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002834</t>
         </is>
       </c>
-      <c r="D129" s="40" t="n"/>
+      <c r="D129" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E129" s="40" t="n"/>
       <c r="F129" s="40" t="n"/>
       <c r="G129" s="24" t="n"/>
@@ -12257,6 +12451,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -12286,7 +12481,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.576 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：16.408；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：16.408；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.24 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W129" s="26" t="inlineStr">
@@ -12319,7 +12516,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001991</t>
         </is>
       </c>
-      <c r="D130" s="40" t="n"/>
+      <c r="D130" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E130" s="40" t="n"/>
       <c r="F130" s="40" t="n"/>
       <c r="G130" s="24" t="n"/>
@@ -12345,6 +12546,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12381,7 +12583,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.22 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.3 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0219；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.551</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.551
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0053 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.92 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W130" s="26" t="inlineStr">
@@ -12412,7 +12616,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0474ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002732</t>
         </is>
       </c>
-      <c r="D131" s="40" t="n"/>
+      <c r="D131" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E131" s="40" t="n"/>
       <c r="F131" s="40" t="n"/>
       <c r="G131" s="24" t="n"/>
@@ -12438,6 +12646,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12476,7 +12685,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0128 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.923 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0043；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0175 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.6456 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W131" s="26" t="inlineStr">
@@ -12508,7 +12719,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002599</t>
         </is>
       </c>
-      <c r="D132" s="40" t="n"/>
+      <c r="D132" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E132" s="40" t="n"/>
       <c r="F132" s="40" t="n"/>
       <c r="G132" s="24" t="n"/>
@@ -12535,6 +12750,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12573,7 +12789,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0127 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.16 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W132" s="26" t="inlineStr">
@@ -12607,7 +12825,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001937</t>
         </is>
       </c>
-      <c r="D133" s="40" t="n"/>
+      <c r="D133" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E133" s="40" t="n"/>
       <c r="F133" s="40" t="n"/>
       <c r="G133" s="24" t="n"/>
@@ -12634,6 +12856,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -12667,7 +12890,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0078；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0078；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0163 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.5855 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W133" s="26" t="inlineStr">
@@ -12701,7 +12926,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002837</t>
         </is>
       </c>
-      <c r="D134" s="40" t="n"/>
+      <c r="D134" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E134" s="40" t="n"/>
       <c r="F134" s="40" t="n"/>
       <c r="G134" s="24" t="n"/>
@@ -12731,6 +12960,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12880,7 +13110,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是12.9912；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是12.9912；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.73 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W134" s="26" t="inlineStr">
@@ -12911,7 +13143,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002621</t>
         </is>
       </c>
-      <c r="D135" s="40" t="n"/>
+      <c r="D135" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E135" s="40" t="n"/>
       <c r="F135" s="40" t="n"/>
       <c r="G135" s="24" t="n"/>
@@ -12941,6 +13177,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12977,7 +13214,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.8 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.011
 · matcha 还是换钱失败
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.511；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.511；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.3439 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W135" s="26" t="inlineStr">
@@ -13012,7 +13251,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0469ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00277</t>
         </is>
       </c>
-      <c r="D136" s="40" t="n"/>
+      <c r="D136" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E136" s="40" t="n"/>
       <c r="F136" s="40" t="n"/>
       <c r="G136" s="24" t="n"/>
@@ -13039,6 +13282,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13071,7 +13315,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.735 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.24 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W136" s="26" t="inlineStr">
@@ -13106,7 +13352,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002323</t>
         </is>
       </c>
-      <c r="D137" s="40" t="n"/>
+      <c r="D137" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E137" s="40" t="n"/>
       <c r="F137" s="40" t="n"/>
       <c r="G137" s="24" t="n"/>
@@ -13131,6 +13381,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13162,7 +13413,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.855 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.0497 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W137" s="26" t="inlineStr">
@@ -13197,7 +13450,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.042ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001837</t>
         </is>
       </c>
-      <c r="D138" s="40" t="n"/>
+      <c r="D138" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E138" s="40" t="n"/>
       <c r="F138" s="40" t="n"/>
       <c r="G138" s="24" t="n"/>
@@ -13221,6 +13478,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -13255,7 +13513,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.5273 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.7517 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0192；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 24.573</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 24.573
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.3304 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W138" s="26" t="inlineStr">
@@ -13288,7 +13548,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.057ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002635</t>
         </is>
       </c>
-      <c r="D139" s="40" t="n"/>
+      <c r="D139" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E139" s="40" t="n"/>
       <c r="F139" s="40" t="n"/>
       <c r="G139" s="24" t="n"/>
@@ -13315,6 +13579,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13351,7 +13616,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0047 去兑换 USDC小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0234
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是29.1474；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是29.1474；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.5537 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W139" s="26" t="inlineStr">
@@ -13383,7 +13650,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001932</t>
         </is>
       </c>
-      <c r="D140" s="40" t="n"/>
+      <c r="D140" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E140" s="40" t="n"/>
       <c r="F140" s="40" t="n"/>
       <c r="G140" s="24" t="n"/>
@@ -13408,6 +13679,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13435,7 +13707,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 36.9533 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.009
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.682</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.682
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.14 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W140" s="26" t="inlineStr">
@@ -13472,7 +13746,11 @@
 ·【OP】通过OP官方桥，转到OP：0.046ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001838</t>
         </is>
       </c>
-      <c r="D141" s="40" t="n"/>
+      <c r="D141" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E141" s="40" t="n"/>
       <c r="F141" s="40" t="n"/>
       <c r="G141" s="24" t="n"/>
@@ -13500,7 +13778,8 @@
         <is>
           <t xml:space="preserve">
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R141" s="25" t="inlineStr">
@@ -13539,7 +13818,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0074
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.273；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.273；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.464 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W141" s="26" t="inlineStr">
@@ -13572,7 +13853,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002137</t>
         </is>
       </c>
-      <c r="D142" s="40" t="n"/>
+      <c r="D142" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E142" s="40" t="n"/>
       <c r="F142" s="40" t="n"/>
       <c r="G142" s="24" t="n"/>
@@ -13601,6 +13886,7 @@
           <t>√
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -13639,7 +13925,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.02 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0054；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0049；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0049；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0032 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.5575 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W142" s="26" t="inlineStr">
@@ -13671,7 +13959,11 @@
 ·【OP】通过OP官方桥，转到OP：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001158</t>
         </is>
       </c>
-      <c r="D143" s="40" t="n"/>
+      <c r="D143" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E143" s="40" t="n"/>
       <c r="F143" s="40" t="n"/>
       <c r="G143" s="24" t="n"/>
@@ -13695,6 +13987,7 @@
           <t>·√
 ·√
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -13734,7 +14027,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.523 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.026；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.152；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.152；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.83 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W143" s="26" t="inlineStr">
@@ -13768,7 +14063,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002513</t>
         </is>
       </c>
-      <c r="D144" s="40" t="n"/>
+      <c r="D144" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E144" s="40" t="n"/>
       <c r="F144" s="40" t="n"/>
       <c r="G144" s="24" t="n"/>
@@ -13797,6 +14096,7 @@
           <t>√
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -13830,7 +14130,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.69 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.8276；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.8276；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.139 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W144" s="26" t="inlineStr">
@@ -13859,7 +14161,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002174</t>
         </is>
       </c>
-      <c r="D145" s="40" t="n"/>
+      <c r="D145" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E145" s="40" t="n"/>
       <c r="F145" s="40" t="n"/>
       <c r="G145" s="24" t="n"/>
@@ -13883,6 +14189,7 @@
           <t>·√
 ·√
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -13913,7 +14220,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.026；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.067 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0247
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0027</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0027
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.695 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W145" s="26" t="inlineStr">
@@ -13946,7 +14255,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0391ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002855</t>
         </is>
       </c>
-      <c r="D146" s="40" t="n"/>
+      <c r="D146" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E146" s="40" t="n"/>
       <c r="F146" s="40" t="n"/>
       <c r="G146" s="24" t="n"/>
@@ -13969,6 +14282,7 @@
           <t>·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14004,7 +14318,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.079 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：2.584；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：2.584；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.7029 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W146" s="26" t="inlineStr">
@@ -14037,7 +14353,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002675</t>
         </is>
       </c>
-      <c r="D147" s="40" t="n"/>
+      <c r="D147" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E147" s="40" t="n"/>
       <c r="F147" s="40" t="n"/>
       <c r="G147" s="24" t="n"/>
@@ -14068,6 +14388,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14100,7 +14421,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0155 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.865 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.006
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0022</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0022
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.4159 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W147" s="26" t="inlineStr">
@@ -14132,6 +14455,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0513ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002195</t>
         </is>
       </c>
+      <c r="D148" s="25" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E148" s="40" t="n"/>
       <c r="F148" s="40" t="n"/>
       <c r="G148" s="24" t="n"/>
@@ -14154,6 +14482,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14184,7 +14513,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0046 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.69 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0054 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.564 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W148" s="26" t="inlineStr">
@@ -14213,7 +14544,11 @@
 ·【OP】通过OP官方桥，转到OP：0.048ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001075</t>
         </is>
       </c>
-      <c r="D149" s="40" t="n"/>
+      <c r="D149" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E149" s="40" t="n"/>
       <c r="F149" s="40" t="n"/>
       <c r="G149" s="24" t="n"/>
@@ -14238,6 +14573,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -14271,7 +14607,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.024 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.86 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0129；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是16.742；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是16.742；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.9122 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W149" s="26" t="inlineStr">
@@ -14306,7 +14644,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0517ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000834</t>
         </is>
       </c>
-      <c r="D150" s="40" t="n"/>
+      <c r="D150" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E150" s="40" t="n"/>
       <c r="F150" s="40" t="n"/>
       <c r="G150" s="24" t="n"/>
@@ -14330,6 +14672,11 @@
           <t>·√</t>
         </is>
       </c>
+      <c r="P150" s="25" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="R150" s="26" t="inlineStr">
         <is>
           <t>·√
@@ -14358,7 +14705,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.026
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：27.6054；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：27.6054；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.51 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W150" s="26" t="inlineStr">
@@ -14390,7 +14739,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002439</t>
         </is>
       </c>
-      <c r="D151" s="40" t="n"/>
+      <c r="D151" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E151" s="40" t="n"/>
       <c r="F151" s="40" t="n"/>
       <c r="G151" s="24" t="n"/>
@@ -14417,6 +14770,7 @@
       <c r="P151" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√</t>
@@ -14456,7 +14810,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.2645 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4846；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4846；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.44 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W151" s="26" t="inlineStr">
@@ -14486,7 +14842,11 @@
 ·【OP】通过OP官方桥，转到OP：0.041ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000756</t>
         </is>
       </c>
-      <c r="D152" s="40" t="n"/>
+      <c r="D152" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E152" s="40" t="n"/>
       <c r="F152" s="40" t="n"/>
       <c r="G152" s="24" t="n"/>
@@ -14512,6 +14872,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14553,7 +14914,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.445 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.65 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W152" s="26" t="inlineStr">
@@ -14585,7 +14948,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0533ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001975</t>
         </is>
       </c>
-      <c r="D153" s="40" t="n"/>
+      <c r="D153" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E153" s="40" t="n"/>
       <c r="F153" s="40" t="n"/>
       <c r="G153" s="24" t="n"/>
@@ -14612,6 +14979,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14652,7 +15020,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0178 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.4361 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0065；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.562；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.562；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0137 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.39 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W153" s="26" t="inlineStr">
@@ -14685,7 +15055,11 @@
 ·【OP】通过OP官方桥，转到OP：0.045ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002419</t>
         </is>
       </c>
-      <c r="D154" s="40" t="n"/>
+      <c r="D154" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E154" s="40" t="n"/>
       <c r="F154" s="40" t="n"/>
       <c r="G154" s="24" t="n"/>
@@ -14713,6 +15087,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14757,7 +15132,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.8223 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0222；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 26.7663</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 26.7663
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.5234 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W154" s="26" t="inlineStr">
@@ -14789,7 +15166,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002005</t>
         </is>
       </c>
-      <c r="D155" s="40" t="n"/>
+      <c r="D155" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E155" s="40" t="n"/>
       <c r="F155" s="40" t="n"/>
       <c r="G155" s="24" t="n"/>
@@ -14816,7 +15197,8 @@
 ·√
 √
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R155" s="25" t="inlineStr">
@@ -14851,7 +15233,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.4582 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.014
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0075</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0075
+·小狐狸签名失败
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W155" s="26" t="inlineStr">
@@ -14884,7 +15268,11 @@
 ·【OP】通过OP官方桥，转到OP：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001099</t>
         </is>
       </c>
-      <c r="D156" s="40" t="n"/>
+      <c r="D156" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E156" s="40" t="n"/>
       <c r="F156" s="40" t="n"/>
       <c r="G156" s="24" t="n"/>
@@ -14904,14 +15292,14 @@
       <c r="M156" s="40" t="n"/>
       <c r="P156" s="26" t="inlineStr">
         <is>
-          <t xml:space="preserve">·√
+          <t>·√
 ·√
 ·√
 ·√
 √
 √
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R156" s="26" t="inlineStr">
@@ -14950,7 +15338,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0262 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0148；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.603；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.603；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0031 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.08 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W156" s="26" t="inlineStr">
@@ -14983,7 +15373,11 @@
 ·【OP】通过OP官方桥，转到OP：0.046ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001039</t>
         </is>
       </c>
-      <c r="D157" s="40" t="n"/>
+      <c r="D157" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E157" s="40" t="n"/>
       <c r="F157" s="40" t="n"/>
       <c r="G157" s="24" t="n"/>
@@ -15011,6 +15405,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15043,7 +15438,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.37 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.1807 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0186；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：23.132；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：23.132；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.6691 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W157" s="26" t="inlineStr">
@@ -15074,7 +15471,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002115</t>
         </is>
       </c>
-      <c r="D158" s="40" t="n"/>
+      <c r="D158" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E158" s="40" t="n"/>
       <c r="F158" s="40" t="n"/>
       <c r="G158" s="24" t="n"/>
@@ -15096,7 +15497,8 @@
       <c r="P158" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R158" s="25" t="inlineStr">
@@ -15125,7 +15527,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 19.812
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0066
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.65 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W158" s="26" t="inlineStr">
@@ -15157,7 +15561,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0643ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00282</t>
         </is>
       </c>
-      <c r="D159" s="40" t="n"/>
+      <c r="D159" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E159" s="40" t="n"/>
       <c r="F159" s="40" t="n"/>
       <c r="G159" s="24" t="n"/>
@@ -15181,6 +15589,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15218,7 +15627,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.475 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.9343；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.9343；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.006 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W159" s="26" t="inlineStr">
@@ -15249,7 +15660,11 @@
 ·【OP】通过OP官方桥，转到OP：0.057ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001328</t>
         </is>
       </c>
-      <c r="D160" s="40" t="n"/>
+      <c r="D160" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E160" s="40" t="n"/>
       <c r="F160" s="40" t="n"/>
       <c r="G160" s="24" t="n"/>
@@ -15276,7 +15691,8 @@
         <is>
           <t xml:space="preserve">
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R160" s="26" t="inlineStr">
@@ -15309,7 +15725,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.674；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.674；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0043 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.2541 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W160" s="26" t="inlineStr">
@@ -15340,7 +15758,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0456ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002525</t>
         </is>
       </c>
-      <c r="D161" s="40" t="n"/>
+      <c r="D161" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E161" s="40" t="n"/>
       <c r="F161" s="40" t="n"/>
       <c r="G161" s="24" t="n"/>
@@ -15364,6 +15786,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15405,7 +15828,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.5714 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W161" s="26" t="inlineStr">
@@ -15437,7 +15862,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002728</t>
         </is>
       </c>
-      <c r="D162" s="40" t="n"/>
+      <c r="D162" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E162" s="40" t="n"/>
       <c r="F162" s="40" t="n"/>
       <c r="G162" s="24" t="n"/>
@@ -15459,6 +15888,7 @@
       <c r="P162" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15486,7 +15916,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0071 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.18 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.005
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.004；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.004；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0056 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.11 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W162" s="26" t="inlineStr">
@@ -15518,7 +15950,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0455ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001386</t>
         </is>
       </c>
-      <c r="D163" s="40" t="n"/>
+      <c r="D163" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E163" s="40" t="n"/>
       <c r="F163" s="40" t="n"/>
       <c r="G163" s="24" t="n"/>
@@ -15546,6 +15982,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15584,7 +16021,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.6 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.019；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是25.559；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是25.559；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.5305 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W163" s="26" t="inlineStr">
@@ -15617,7 +16056,7 @@
       </c>
       <c r="D164" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E164" s="40" t="n"/>
@@ -15641,6 +16080,7 @@
       <c r="P164" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15664,7 +16104,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.4289 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.5907；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.5907；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.66 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W164" s="26" t="inlineStr">
@@ -15695,7 +16137,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0441ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001823</t>
         </is>
       </c>
-      <c r="D165" s="40" t="n"/>
+      <c r="D165" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E165" s="40" t="n"/>
       <c r="F165" s="40" t="n"/>
       <c r="G165" s="24" t="n"/>
@@ -15719,6 +16165,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15758,7 +16205,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0154；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.8875</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.8875
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.806 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W165" s="26" t="inlineStr">
@@ -15789,7 +16238,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002621</t>
         </is>
       </c>
-      <c r="D166" s="40" t="n"/>
+      <c r="D166" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E166" s="40" t="n"/>
       <c r="F166" s="40" t="n"/>
       <c r="G166" s="24" t="n"/>
@@ -15817,6 +16270,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15855,7 +16309,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0025
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：3.31；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：3.31；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.66 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W166" s="26" t="inlineStr">
@@ -15884,7 +16340,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.054ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002506</t>
         </is>
       </c>
-      <c r="D167" s="40" t="n"/>
+      <c r="D167" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E167" s="40" t="n"/>
       <c r="F167" s="40" t="n"/>
       <c r="G167" s="24" t="n"/>
@@ -15913,6 +16373,7 @@
 √
 √
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -15944,7 +16405,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0084；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.83 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是17.001；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是17.001；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0038 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.18 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W167" s="26" t="inlineStr">
@@ -15972,7 +16435,11 @@
 ·【OP】通过OP官方桥，转到OP：0.053ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002171</t>
         </is>
       </c>
-      <c r="D168" s="40" t="n"/>
+      <c r="D168" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E168" s="40" t="n"/>
       <c r="F168" s="40" t="n"/>
       <c r="G168" s="24" t="n"/>
@@ -15998,6 +16465,7 @@
       <c r="P168" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -16028,7 +16496,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.91 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0065；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.1463；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.1463；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.24 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W168" s="26" t="inlineStr">
@@ -16059,7 +16529,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002643</t>
         </is>
       </c>
-      <c r="D169" s="40" t="n"/>
+      <c r="D169" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E169" s="40" t="n"/>
       <c r="F169" s="40" t="n"/>
       <c r="G169" s="24" t="n"/>
@@ -16082,7 +16556,8 @@
           <t>√
 √
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R169" s="25" t="inlineStr">
@@ -16114,7 +16589,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.3741 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.023
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0196；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：25.375；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：25.375；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.8702 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W169" s="26" t="inlineStr">
@@ -16143,7 +16620,11 @@
 ·【OP】通过OP官方桥，转到OP：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000939</t>
         </is>
       </c>
-      <c r="D170" s="40" t="n"/>
+      <c r="D170" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E170" s="40" t="n"/>
       <c r="F170" s="40" t="n"/>
       <c r="G170" s="24" t="n"/>
@@ -16172,6 +16653,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16221,7 +16703,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 50.1682 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.5547；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.5547；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.023 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 33.79 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W170" s="26" t="inlineStr">
@@ -16253,7 +16737,11 @@
 ·【OP】通过OP官方桥，转到OP：0.047ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00093</t>
         </is>
       </c>
-      <c r="D171" s="40" t="n"/>
+      <c r="D171" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E171" s="40" t="n"/>
       <c r="F171" s="40" t="n"/>
       <c r="G171" s="24" t="n"/>
@@ -16282,6 +16770,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16325,7 +16814,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.016；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.424；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.424；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.57 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0069 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W171" s="26" t="inlineStr">
@@ -16357,7 +16848,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.053ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002673</t>
         </is>
       </c>
-      <c r="D172" s="40" t="n"/>
+      <c r="D172" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E172" s="40" t="n"/>
       <c r="F172" s="40" t="n"/>
       <c r="G172" s="24" t="n"/>
@@ -16385,6 +16880,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16416,7 +16912,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0062 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 11.3682 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0075 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 11.78 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W172" s="26" t="inlineStr">
@@ -16446,7 +16944,11 @@
 ·【OP】通过OP官方桥，转到OP：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001276</t>
         </is>
       </c>
-      <c r="D173" s="40" t="n"/>
+      <c r="D173" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E173" s="40" t="n"/>
       <c r="F173" s="40" t="n"/>
       <c r="G173" s="24" t="n"/>
@@ -16473,6 +16975,7 @@
 ·√
 √
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -16508,7 +17011,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0296；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.72 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0289；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 37.5758</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 37.5758
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.51 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W173" s="26" t="inlineStr">
@@ -16543,7 +17048,11 @@
 ·【OP】通过OP官方桥，转到OP：0.054ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001046</t>
         </is>
       </c>
-      <c r="D174" s="40" t="n"/>
+      <c r="D174" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E174" s="40" t="n"/>
       <c r="F174" s="40" t="n"/>
       <c r="G174" s="24" t="n"/>
@@ -16569,6 +17078,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16604,7 +17114,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 40.67 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.486 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W174" s="26" t="inlineStr">
@@ -16637,7 +17149,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002907</t>
         </is>
       </c>
-      <c r="D175" s="40" t="n"/>
+      <c r="D175" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E175" s="40" t="n"/>
       <c r="F175" s="40" t="n"/>
       <c r="G175" s="24" t="n"/>
@@ -16658,6 +17174,7 @@
       <c r="P175" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√</t>
         </is>
@@ -16693,7 +17210,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.018；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.018；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.8225 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0051 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W175" s="26" t="inlineStr">
@@ -16723,7 +17242,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.051ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002759</t>
         </is>
       </c>
-      <c r="D176" s="40" t="n"/>
+      <c r="D176" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E176" s="40" t="n"/>
       <c r="F176" s="40" t="n"/>
       <c r="G176" s="24" t="n"/>
@@ -16744,7 +17267,8 @@
       <c r="N176" s="40" t="n"/>
       <c r="P176" s="39" t="inlineStr">
         <is>
-          <t>√</t>
+          <t>√
+·√</t>
         </is>
       </c>
       <c r="R176" s="26" t="inlineStr">
@@ -16766,7 +17290,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.553；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.4282；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.4282；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.5691 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W176" s="26" t="inlineStr">
@@ -16796,7 +17322,11 @@
 ·【OP】通过OP官方桥，转到OP：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001009</t>
         </is>
       </c>
-      <c r="D177" s="40" t="n"/>
+      <c r="D177" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E177" s="40" t="n"/>
       <c r="F177" s="40" t="n"/>
       <c r="G177" s="24" t="n"/>
@@ -16822,6 +17352,7 @@
 ·√
 ·√
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -16857,7 +17388,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.441 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：50.302；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0293</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0293
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0024 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.2708 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W177" s="26" t="inlineStr">
@@ -16891,7 +17424,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002851</t>
         </is>
       </c>
-      <c r="D178" s="40" t="n"/>
+      <c r="D178" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E178" s="40" t="n"/>
       <c r="F178" s="40" t="n"/>
       <c r="G178" s="24" t="n"/>
@@ -16918,6 +17455,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16947,7 +17485,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0147 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0032
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0112 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.9857 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W178" s="26" t="inlineStr">
@@ -16977,7 +17517,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002965</t>
         </is>
       </c>
-      <c r="D179" s="40" t="n"/>
+      <c r="D179" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E179" s="40" t="n"/>
       <c r="F179" s="40" t="n"/>
       <c r="G179" s="24" t="n"/>
@@ -17003,6 +17547,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17036,7 +17581,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.204 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0165 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.6119 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W179" s="26" t="inlineStr">
@@ -17069,7 +17616,11 @@
 ·【OP】通过OP官方桥，转到OP：0.064ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000908</t>
         </is>
       </c>
-      <c r="D180" s="40" t="n"/>
+      <c r="D180" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E180" s="40" t="n"/>
       <c r="F180" s="40" t="n"/>
       <c r="G180" s="24" t="n"/>
@@ -17097,6 +17648,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17130,7 +17682,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0185
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 22.9371</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 22.9371
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0146 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.895 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W180" s="26" t="inlineStr">
@@ -17161,7 +17715,11 @@
 ·【OP】通过OP官方桥，转到OP：0.042ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001064</t>
         </is>
       </c>
-      <c r="D181" s="40" t="n"/>
+      <c r="D181" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E181" s="40" t="n"/>
       <c r="F181" s="40" t="n"/>
       <c r="G181" s="24" t="n"/>
@@ -17188,6 +17746,7 @@
 ·√
 √
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -17223,7 +17782,9 @@
 · OP clipper 任务完成；小狐狸签
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.224 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.468；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.468；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.91 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W181" s="26" t="inlineStr">
@@ -17256,7 +17817,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0455ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002589</t>
         </is>
       </c>
-      <c r="D182" s="40" t="n"/>
+      <c r="D182" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E182" s="40" t="n"/>
       <c r="F182" s="40" t="n"/>
       <c r="G182" s="24" t="n"/>
@@ -17282,6 +17847,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17317,7 +17883,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.975 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W182" s="26" t="inlineStr">
@@ -17349,7 +17917,11 @@
 ·【OP】通过OP官方桥，转到OP：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001076</t>
         </is>
       </c>
-      <c r="D183" s="40" t="n"/>
+      <c r="D183" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E183" s="40" t="n"/>
       <c r="F183" s="40" t="n"/>
       <c r="G183" s="24" t="n"/>
@@ -17376,6 +17948,7 @@
 ·√
 √
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -17411,7 +17984,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 48.5342
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.618 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.032；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0041 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.727 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W183" s="26" t="inlineStr">
@@ -17443,7 +18018,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0453ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001642</t>
         </is>
       </c>
-      <c r="D184" s="40" t="n"/>
+      <c r="D184" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E184" s="40" t="n"/>
       <c r="F184" s="40" t="n"/>
       <c r="G184" s="24" t="n"/>
@@ -17469,6 +18048,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17509,7 +18089,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.911 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0054；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.1082 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W184" s="26" t="inlineStr">
@@ -17542,7 +18124,11 @@
 ·【OP】通过OP官方桥，转到OP：0.046ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002251</t>
         </is>
       </c>
-      <c r="D185" s="40" t="n"/>
+      <c r="D185" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E185" s="40" t="n"/>
       <c r="F185" s="40" t="n"/>
       <c r="G185" s="24" t="n"/>
@@ -17570,6 +18156,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17600,7 +18187,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.008 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.057 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0067；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.004；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.004；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.0003 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W185" s="26" t="inlineStr">
@@ -17632,7 +18221,11 @@
 ·【OP】通过OP官方桥，转到OP：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001637</t>
         </is>
       </c>
-      <c r="D186" s="40" t="n"/>
+      <c r="D186" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E186" s="40" t="n"/>
       <c r="F186" s="40" t="n"/>
       <c r="G186" s="24" t="n"/>
@@ -17659,6 +18252,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17704,7 +18298,10 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.522 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.809；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.809；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0171 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.69 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W186" s="26" t="inlineStr">
@@ -17739,7 +18336,11 @@
 ·【OP】通过OP官方桥，转到OP：0.062ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001329</t>
         </is>
       </c>
-      <c r="D187" s="40" t="n"/>
+      <c r="D187" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E187" s="40" t="n"/>
       <c r="F187" s="40" t="n"/>
       <c r="G187" s="24" t="n"/>
@@ -17762,6 +18363,11 @@
           <t>·√</t>
         </is>
       </c>
+      <c r="P187" s="25" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="R187" s="25" t="inlineStr">
         <is>
           <t>·√
@@ -17788,7 +18394,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0036
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.8462；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.8462；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.029 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 43.9847 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W187" s="26" t="inlineStr">
@@ -17819,7 +18427,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0553ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002059</t>
         </is>
       </c>
-      <c r="D188" s="40" t="n"/>
+      <c r="D188" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E188" s="40" t="n"/>
       <c r="F188" s="40" t="n"/>
       <c r="G188" s="24" t="n"/>
@@ -17843,6 +18455,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17876,7 +18489,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0115 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：7.4373；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：7.4373；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.231 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W188" s="26" t="inlineStr">
@@ -17908,7 +18523,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0533ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002199</t>
         </is>
       </c>
-      <c r="D189" s="40" t="n"/>
+      <c r="D189" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E189" s="40" t="n"/>
       <c r="F189" s="40" t="n"/>
       <c r="G189" s="24" t="n"/>
@@ -17937,6 +18556,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -17968,7 +18588,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0029 去兑换 USDC小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.023；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.874</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.874
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.624 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W189" s="26" t="inlineStr">
@@ -17999,7 +18621,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0428ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001103</t>
         </is>
       </c>
-      <c r="D190" s="40" t="n"/>
+      <c r="D190" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E190" s="40" t="n"/>
       <c r="F190" s="40" t="n"/>
       <c r="G190" s="24" t="n"/>
@@ -18018,6 +18644,11 @@
       <c r="L190" s="41" t="n"/>
       <c r="M190" s="40" t="n"/>
       <c r="O190" s="26" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
+      <c r="P190" s="25" t="inlineStr">
         <is>
           <t>·√</t>
         </is>
@@ -18049,7 +18680,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.2741；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.2741；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.462 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W190" s="26" t="inlineStr">
@@ -18079,7 +18712,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0569ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001344</t>
         </is>
       </c>
-      <c r="D191" s="40" t="n"/>
+      <c r="D191" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E191" s="40" t="n"/>
       <c r="F191" s="40" t="n"/>
       <c r="G191" s="24" t="n"/>
@@ -18105,6 +18742,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18142,7 +18780,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 43.72 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.3264</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.3264
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.024 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.8153 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W191" s="26" t="inlineStr">
@@ -18176,7 +18816,11 @@
 ·【OP】通过OP官方桥，转到OP：0.038ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001506</t>
         </is>
       </c>
-      <c r="D192" s="40" t="n"/>
+      <c r="D192" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E192" s="40" t="n"/>
       <c r="F192" s="40" t="n"/>
       <c r="G192" s="24" t="n"/>
@@ -18205,6 +18849,7 @@
           <t xml:space="preserve">
 √
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -18241,7 +18886,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.95 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.012
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.5425；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.5425；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0045 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.98 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W192" s="26" t="inlineStr">
@@ -18273,7 +18920,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0409ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001153</t>
         </is>
       </c>
-      <c r="D193" s="40" t="n"/>
+      <c r="D193" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E193" s="40" t="n"/>
       <c r="F193" s="40" t="n"/>
       <c r="G193" s="24" t="n"/>
@@ -18301,6 +18952,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18339,7 +18991,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.1821；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.1821；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.112 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W193" s="26" t="inlineStr">
@@ -18372,7 +19026,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002993</t>
         </is>
       </c>
-      <c r="D194" s="40" t="n"/>
+      <c r="D194" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E194" s="40" t="n"/>
       <c r="F194" s="40" t="n"/>
       <c r="G194" s="24" t="n"/>
@@ -18398,6 +19056,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18428,7 +19087,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.06 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0053；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0039；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0039；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.394 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W194" s="26" t="inlineStr">
@@ -18462,7 +19123,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0498ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001596</t>
         </is>
       </c>
-      <c r="D195" s="40" t="n"/>
+      <c r="D195" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E195" s="40" t="n"/>
       <c r="F195" s="40" t="n"/>
       <c r="G195" s="24" t="n"/>
@@ -18490,6 +19155,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18524,7 +19190,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.4 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是28.6565；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是28.6565；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.697 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W195" s="26" t="inlineStr">
@@ -18555,7 +19223,11 @@
 ·【OP】通过OP官方桥，转到OP：0.062ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000853</t>
         </is>
       </c>
-      <c r="D196" s="40" t="n"/>
+      <c r="D196" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E196" s="40" t="n"/>
       <c r="F196" s="40" t="n"/>
       <c r="G196" s="24" t="n"/>
@@ -18584,6 +19256,7 @@
           <t xml:space="preserve">
 √
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -18619,7 +19292,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.9114 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.91；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.91；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.62 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W196" s="26" t="inlineStr">
@@ -18652,7 +19327,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0636ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001327</t>
         </is>
       </c>
-      <c r="D197" s="40" t="n"/>
+      <c r="D197" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E197" s="40" t="n"/>
       <c r="F197" s="40" t="n"/>
       <c r="G197" s="24" t="n"/>
@@ -18677,6 +19356,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18712,7 +19392,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.67 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0323；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 39.607</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 39.607
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.04 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W197" s="26" t="inlineStr">
@@ -18742,7 +19424,11 @@
 ·【OP】通过OP官方桥，转到OP：0.045ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002093</t>
         </is>
       </c>
-      <c r="D198" s="40" t="n"/>
+      <c r="D198" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E198" s="40" t="n"/>
       <c r="F198" s="40" t="n"/>
       <c r="G198" s="24" t="n"/>
@@ -18771,6 +19457,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18806,7 +19493,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0019 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0164；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.772</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.772
+·小狐狸签名失败
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.8629 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W198" s="26" t="inlineStr">
@@ -18837,7 +19526,11 @@
 ·【OP】通过OP官方桥，转到OP：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001621</t>
         </is>
       </c>
-      <c r="D199" s="40" t="n"/>
+      <c r="D199" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E199" s="40" t="n"/>
       <c r="F199" s="40" t="n"/>
       <c r="G199" s="24" t="n"/>
@@ -18864,7 +19557,8 @@
       <c r="P199" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R199" s="26" t="inlineStr">
@@ -18894,7 +19588,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0216；
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 25.8219</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 25.8219
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0066 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.289 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W199" s="26" t="inlineStr">
@@ -18925,7 +19621,11 @@
 ·【OP】通过OP官方桥，转到OP：0.066ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001239</t>
         </is>
       </c>
-      <c r="D200" s="40" t="n"/>
+      <c r="D200" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E200" s="40" t="n"/>
       <c r="F200" s="40" t="n"/>
       <c r="G200" s="24" t="n"/>
@@ -18951,6 +19651,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -18990,7 +19691,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.018；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.7519；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.7519；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.25 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W200" s="26" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -1328,7 +1328,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0267, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D7" s="40" t="n"/>
+      <c r="D7" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E7" s="40" t="n"/>
       <c r="F7" s="40" t="n"/>
       <c r="G7" s="24" t="n"/>
@@ -1350,6 +1354,7 @@
 ·√
 ·√
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1376,7 +1381,8 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功</t>
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.7047 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W7" s="25" t="inlineStr">
@@ -1404,7 +1410,11 @@
 {'Arbitrum':0.0533, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D8" s="40" t="n"/>
+      <c r="D8" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E8" s="40" t="n"/>
       <c r="F8" s="40" t="n"/>
       <c r="G8" s="24" t="n"/>
@@ -1428,6 +1438,7 @@
           <t>·√
 ·√
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1463,7 +1474,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.691 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是13.7802；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是13.7802；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.7 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W8" s="26" t="inlineStr">
@@ -1494,7 +1507,11 @@
 {'Arbitrum':0.0553, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D9" s="40" t="n"/>
+      <c r="D9" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E9" s="40" t="n"/>
       <c r="F9" s="40" t="n"/>
       <c r="G9" s="24" t="n"/>
@@ -1516,6 +1533,7 @@
       <c r="P9" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -1551,7 +1569,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0094；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是19.5671；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是19.5671；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.282 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W9" s="26" t="inlineStr">
@@ -1587,7 +1607,7 @@
       </c>
       <c r="D10" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E10" s="40" t="n"/>
@@ -1612,6 +1632,7 @@
         <is>
           <t>√
 ·第10出错了
+·√
 ·√
 ·√</t>
         </is>
@@ -1651,7 +1672,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.743 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.8926
 · matcha 还是换钱失败
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：10.371；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：10.371；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.3114 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W10" s="26" t="inlineStr">
@@ -1685,7 +1708,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0373}</t>
         </is>
       </c>
-      <c r="D11" s="40" t="n"/>
+      <c r="D11" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E11" s="40" t="n"/>
       <c r="F11" s="40" t="n"/>
       <c r="G11" s="24" t="n"/>
@@ -1714,6 +1741,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -1744,7 +1772,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.837 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0027</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0027
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0113 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.9762 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W11" s="45" t="inlineStr">
@@ -1776,7 +1806,11 @@
 {'Arbitrum':0.0, 'Optimism':0.048, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D12" s="40" t="n"/>
+      <c r="D12" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E12" s="40" t="n"/>
       <c r="F12" s="40" t="n"/>
       <c r="G12" s="24" t="n"/>
@@ -1801,6 +1835,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -1830,7 +1865,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.83 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0063
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.2395；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.2395；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0156 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.51 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W12" s="26" t="inlineStr">
@@ -1863,7 +1900,11 @@
 {'Arbitrum':0.0096, 'Optimism':0.0196, 'zksync':0.0213}</t>
         </is>
       </c>
-      <c r="D13" s="40" t="n"/>
+      <c r="D13" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E13" s="40" t="n"/>
       <c r="F13" s="40" t="n"/>
       <c r="G13" s="24" t="n"/>
@@ -1885,6 +1926,7 @@
       <c r="P13" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -1916,7 +1958,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.4 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.01
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：20.961；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：20.961；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0154 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.793 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W13" s="45" t="inlineStr">
@@ -1953,7 +1997,11 @@
 {'Arbitrum':0.0256, 'Optimism':0.0127, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D14" s="40" t="n"/>
+      <c r="D14" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E14" s="40" t="n"/>
       <c r="F14" s="40" t="n"/>
       <c r="G14" s="24" t="n"/>
@@ -1973,6 +2021,7 @@
       <c r="P14" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -1998,7 +2047,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.024 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0066；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.544；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.544；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.298 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W14" s="26" t="inlineStr">
@@ -2032,7 +2083,11 @@
 {'Arbitrum':0.058, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D15" s="40" t="n"/>
+      <c r="D15" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E15" s="40" t="n"/>
       <c r="F15" s="40" t="n"/>
       <c r="G15" s="24" t="n"/>
@@ -2053,7 +2108,8 @@
       <c r="P15" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R15" s="25" t="inlineStr">
@@ -2087,7 +2143,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是38.143；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.025；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.437 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W15" s="26" t="inlineStr">
@@ -2120,7 +2178,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0398, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D16" s="40" t="n"/>
+      <c r="D16" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E16" s="40" t="n"/>
       <c r="F16" s="40" t="n"/>
       <c r="G16" s="24" t="n"/>
@@ -2145,6 +2207,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -2179,7 +2242,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0171 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.656 去兑换 ETH小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0074；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0074；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0136 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.1445 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W16" s="26" t="inlineStr">
@@ -2214,7 +2279,11 @@
 {'Arbitrum':0.0, 'Optimism':0.015, 'zksync':0.03}</t>
         </is>
       </c>
-      <c r="D17" s="40" t="n"/>
+      <c r="D17" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E17" s="40" t="n"/>
       <c r="F17" s="40" t="n"/>
       <c r="G17" s="24" t="n"/>
@@ -2236,6 +2305,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -2267,7 +2337,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0151；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0176 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.59 去兑换 ETH小狐狸签名成功
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0052</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0052
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.4871 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W17" s="45" t="inlineStr">
@@ -2300,7 +2372,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0537}</t>
         </is>
       </c>
-      <c r="D18" s="40" t="n"/>
+      <c r="D18" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E18" s="40" t="n"/>
       <c r="F18" s="40" t="n"/>
       <c r="G18" s="24" t="n"/>
@@ -2321,6 +2397,7 @@
       <c r="P18" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -2354,7 +2431,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.348 去兑换 ETH小狐狸签名成功
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0051；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0051；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.68 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W18" s="45" t="inlineStr">
@@ -2388,7 +2467,11 @@
 {'Arbitrum':0.0252, 'Optimism':0.0, 'zksync':0.01499}</t>
         </is>
       </c>
-      <c r="D19" s="40" t="n"/>
+      <c r="D19" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E19" s="40" t="n"/>
       <c r="F19" s="40" t="n"/>
       <c r="G19" s="24" t="n"/>
@@ -2411,6 +2494,7 @@
         <is>
           <t>·第19出错了
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -2431,7 +2515,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0202 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.6402 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.004；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.004；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.3317 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W19" s="26" t="inlineStr">
@@ -2464,7 +2550,11 @@
 {'Arbitrum':0.0507, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D20" s="40" t="n"/>
+      <c r="D20" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E20" s="40" t="n"/>
       <c r="F20" s="40" t="n"/>
       <c r="G20" s="24" t="n"/>
@@ -2485,6 +2575,7 @@
       <c r="P20" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -2509,7 +2600,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0193；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0216 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.42 去兑换 ETH小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0082；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0082；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.8546 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W20" s="26" t="inlineStr">
@@ -2540,7 +2633,11 @@
 {'Arbitrum':0.0196, 'Optimism':0.0274, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D21" s="40" t="n"/>
+      <c r="D21" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E21" s="40" t="n"/>
       <c r="F21" s="40" t="n"/>
       <c r="G21" s="24" t="n"/>
@@ -2560,6 +2657,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -2594,7 +2692,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.0996 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W21" s="26" t="inlineStr">
@@ -2627,7 +2727,11 @@
 {'Arbitrum':0.0396, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D22" s="40" t="n"/>
+      <c r="D22" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E22" s="40" t="n"/>
       <c r="F22" s="40" t="n"/>
       <c r="G22" s="24" t="n"/>
@@ -2648,6 +2752,7 @@
       <c r="P22" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -2673,7 +2778,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.7 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0074；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.841；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.841；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.6127 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W22" s="26" t="inlineStr">
@@ -2706,7 +2813,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0598, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D23" s="40" t="n"/>
+      <c r="D23" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E23" s="40" t="n"/>
       <c r="F23" s="40" t="n"/>
       <c r="G23" s="24" t="n"/>
@@ -2730,6 +2841,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -2762,7 +2874,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.41 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：21.5571；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：21.5571；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.54 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W23" s="26" t="inlineStr">
@@ -2796,7 +2910,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0586, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D24" s="40" t="n"/>
+      <c r="D24" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E24" s="40" t="n"/>
       <c r="F24" s="40" t="n"/>
       <c r="G24" s="24" t="n"/>
@@ -2817,6 +2935,7 @@
       <c r="P24" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -2842,7 +2961,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.868 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.369；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.098；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.098；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0141 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.1405 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W24" s="26" t="inlineStr">
@@ -2875,7 +2996,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.062}</t>
         </is>
       </c>
-      <c r="D25" s="40" t="n"/>
+      <c r="D25" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E25" s="40" t="n"/>
       <c r="F25" s="40" t="n"/>
       <c r="G25" s="24" t="n"/>
@@ -2898,6 +3023,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -2936,7 +3062,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 54.515 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0104；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0118；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0118；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0169 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.9101 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W25" s="45" t="inlineStr">
@@ -2971,7 +3099,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.04}</t>
         </is>
       </c>
-      <c r="D26" s="40" t="n"/>
+      <c r="D26" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E26" s="40" t="n"/>
       <c r="F26" s="40" t="n"/>
       <c r="G26" s="24" t="n"/>
@@ -2993,6 +3125,7 @@
       <c r="P26" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -3024,7 +3157,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0115 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.144 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0076；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.722；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.722；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.388 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W26" s="45" t="inlineStr">
@@ -3057,7 +3192,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0396, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D27" s="40" t="n"/>
+      <c r="D27" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E27" s="40" t="n"/>
       <c r="F27" s="40" t="n"/>
       <c r="G27" s="24" t="n"/>
@@ -3078,6 +3217,7 @@
       <c r="P27" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -3106,7 +3246,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.216 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.48 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W27" s="26" t="inlineStr">
@@ -3140,7 +3282,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.06}</t>
         </is>
       </c>
-      <c r="D28" s="40" t="n"/>
+      <c r="D28" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E28" s="40" t="n"/>
       <c r="F28" s="40" t="n"/>
       <c r="G28" s="24" t="n"/>
@@ -3161,6 +3307,7 @@
       <c r="P28" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√</t>
@@ -3189,7 +3336,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0151 去兑换 USDC小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.88 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W28" s="46" t="inlineStr">
@@ -3222,7 +3371,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0398, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D29" s="40" t="n"/>
+      <c r="D29" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E29" s="40" t="n"/>
       <c r="F29" s="40" t="n"/>
       <c r="G29" s="24" t="n"/>
@@ -3246,6 +3399,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -3280,7 +3434,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.1752 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.671；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是1.118；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是1.118；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0157 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 23.769 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W29" s="26" t="inlineStr">
@@ -3315,7 +3471,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0428, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D30" s="40" t="n"/>
+      <c r="D30" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E30" s="40" t="n"/>
       <c r="F30" s="40" t="n"/>
       <c r="G30" s="24" t="n"/>
@@ -3339,6 +3499,7 @@
           <t>·√
 ·√
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -3372,7 +3533,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.0983 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0052</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0052
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.2721 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W30" s="26" t="inlineStr">
@@ -3406,7 +3569,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0466, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D31" s="40" t="n"/>
+      <c r="D31" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E31" s="40" t="n"/>
       <c r="F31" s="40" t="n"/>
       <c r="G31" s="24" t="n"/>
@@ -3427,6 +3594,7 @@
       <c r="P31" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -3454,7 +3622,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.1684 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.603 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W31" s="26" t="inlineStr">
@@ -3487,7 +3657,11 @@
 {'Arbitrum':0.0597, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D32" s="40" t="n"/>
+      <c r="D32" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E32" s="40" t="n"/>
       <c r="F32" s="40" t="n"/>
       <c r="G32" s="24" t="n"/>
@@ -3509,6 +3683,7 @@
       <c r="P32" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -3549,7 +3724,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.473 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.6695 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W32" s="26" t="inlineStr">
@@ -3583,7 +3760,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.036}</t>
         </is>
       </c>
-      <c r="D33" s="40" t="n"/>
+      <c r="D33" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E33" s="40" t="n"/>
       <c r="F33" s="40" t="n"/>
       <c r="H33" s="41" t="inlineStr">
@@ -3603,6 +3784,7 @@
       <c r="P33" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -3647,7 +3829,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.35 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是1.255；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0042</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0042
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.4623 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W33" s="45" t="inlineStr">
@@ -3683,7 +3867,11 @@
 {'Arbitrum':0.0217, 'Optimism':0.04, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D34" s="40" t="n"/>
+      <c r="D34" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E34" s="40" t="n"/>
       <c r="F34" s="40" t="n"/>
       <c r="G34" s="24" t="n"/>
@@ -3703,6 +3891,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -3741,7 +3930,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0145 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.75 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W34" s="26" t="inlineStr">
@@ -3774,7 +3965,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.055}</t>
         </is>
       </c>
-      <c r="D35" s="40" t="n"/>
+      <c r="D35" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E35" s="40" t="n"/>
       <c r="F35" s="40" t="n"/>
       <c r="G35" s="24" t="n"/>
@@ -3800,6 +3995,7 @@
       <c r="P35" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -3835,7 +4031,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.023 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.3055 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0153；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.5887</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.5887
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.39 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W35" s="45" t="inlineStr">
@@ -3870,7 +4068,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0617}</t>
         </is>
       </c>
-      <c r="D36" s="40" t="n"/>
+      <c r="D36" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E36" s="40" t="n"/>
       <c r="F36" s="40" t="n"/>
       <c r="G36" s="24" t="n"/>
@@ -3924,7 +4126,8 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0269；
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.642；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是31.642；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0014 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W36" s="45" t="inlineStr">
@@ -3958,7 +4161,11 @@
 {'Arbitrum':0.0136, 'Optimism':0.0308, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D37" s="40" t="n"/>
+      <c r="D37" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E37" s="40" t="n"/>
       <c r="F37" s="40" t="n"/>
       <c r="G37" s="24" t="n"/>
@@ -3976,6 +4183,11 @@
       <c r="K37" s="24" t="n"/>
       <c r="L37" s="41" t="n"/>
       <c r="M37" s="40" t="n"/>
+      <c r="P37" s="25" t="inlineStr">
+        <is>
+          <t>·√</t>
+        </is>
+      </c>
       <c r="R37" s="25" t="inlineStr">
         <is>
           <t>·√</t>
@@ -4000,7 +4212,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.017；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0123 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 16.268 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W37" s="26" t="inlineStr">
@@ -4032,7 +4246,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0496, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D38" s="40" t="n"/>
+      <c r="D38" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E38" s="40" t="n"/>
       <c r="F38" s="40" t="n"/>
       <c r="G38" s="24" t="n"/>
@@ -4052,6 +4270,7 @@
       <c r="P38" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -4081,7 +4300,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.781 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0046；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.0483；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.0483；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.77 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W38" s="26" t="inlineStr">
@@ -4116,7 +4337,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0535, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D39" s="40" t="n"/>
+      <c r="D39" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E39" s="40" t="n"/>
       <c r="F39" s="40" t="n"/>
       <c r="G39" s="24" t="n"/>
@@ -4191,7 +4416,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.059}</t>
         </is>
       </c>
-      <c r="D40" s="40" t="n"/>
+      <c r="D40" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E40" s="40" t="n"/>
       <c r="F40" s="40" t="n"/>
       <c r="G40" s="24" t="n"/>
@@ -4215,6 +4444,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -4254,7 +4484,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.944 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.027；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.027；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.8484 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W40" s="45" t="inlineStr">
@@ -4288,7 +4520,11 @@
 {'Arbitrum':0.0572, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D41" s="40" t="n"/>
+      <c r="D41" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E41" s="40" t="n"/>
       <c r="F41" s="40" t="n"/>
       <c r="G41" s="24" t="n"/>
@@ -4376,7 +4612,11 @@
 {'Arbitrum':0.0236, 'Optimism':0.0127, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D42" s="40" t="n"/>
+      <c r="D42" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E42" s="40" t="n"/>
       <c r="F42" s="40" t="n"/>
       <c r="G42" s="24" t="n"/>
@@ -4400,6 +4640,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -4430,7 +4671,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.11 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.706；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.706；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.1583 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W42" s="26" t="inlineStr">
@@ -4467,7 +4710,11 @@
 {'Arbitrum':0.0397, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D43" s="40" t="n"/>
+      <c r="D43" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E43" s="40" t="n"/>
       <c r="F43" s="40" t="n"/>
       <c r="G43" s="24" t="n"/>
@@ -4538,7 +4785,11 @@
 {'Arbitrum':0.0184, 'Optimism':0.0393, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D44" s="40" t="n"/>
+      <c r="D44" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E44" s="40" t="n"/>
       <c r="F44" s="40" t="n"/>
       <c r="G44" s="24" t="n"/>
@@ -4560,6 +4811,7 @@
       <c r="P44" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√
@@ -4599,7 +4851,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.62 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.266；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.266；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.59 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W44" s="26" t="inlineStr">
@@ -4634,7 +4888,11 @@
 {'Arbitrum':0.0097, 'Optimism':0.0, 'zksync':0.017432893021}</t>
         </is>
       </c>
-      <c r="D45" s="40" t="n"/>
+      <c r="D45" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E45" s="40" t="n"/>
       <c r="F45" s="40" t="n"/>
       <c r="G45" s="24" t="n"/>
@@ -4657,6 +4915,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -4686,7 +4945,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.15 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0039；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0039；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0096 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.0 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W45" s="45" t="inlineStr">
@@ -4720,7 +4981,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0257, 'zksync':0.000539694985}</t>
         </is>
       </c>
-      <c r="D46" s="40" t="n"/>
+      <c r="D46" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E46" s="40" t="n"/>
       <c r="F46" s="40" t="n"/>
       <c r="G46" s="24" t="n"/>
@@ -4741,6 +5006,7 @@
       <c r="P46" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -4776,7 +5042,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.22 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.63 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W46" s="26" t="inlineStr">
@@ -4809,7 +5077,11 @@
 {'Arbitrum':0.032, 'Optimism':0.0162, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D47" s="40" t="n"/>
+      <c r="D47" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E47" s="40" t="n"/>
       <c r="F47" s="40" t="n"/>
       <c r="G47" s="24" t="n"/>
@@ -4830,6 +5102,7 @@
       <c r="P47" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -4858,7 +5131,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.2408 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W47" s="26" t="inlineStr">
@@ -4892,6 +5167,11 @@
 {'Arbitrum':0.0147, 'Optimism':0.0, 'zksync':0.001932890999}</t>
         </is>
       </c>
+      <c r="D48" s="25" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E48" s="40" t="n"/>
       <c r="F48" s="40" t="n"/>
       <c r="G48" s="24" t="n"/>
@@ -4915,6 +5195,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -4949,7 +5230,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.719；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.719；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.342 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W48" s="26" t="inlineStr">
@@ -4983,7 +5266,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0096, 'zksync':0.006211139024}</t>
         </is>
       </c>
-      <c r="D49" s="40" t="n"/>
+      <c r="D49" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E49" s="40" t="n"/>
       <c r="F49" s="40" t="n"/>
       <c r="G49" s="24" t="n"/>
@@ -5008,6 +5295,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -5052,7 +5340,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 42.478 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是18.5218；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是18.5218；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0212 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.97 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W49" s="26" t="inlineStr">
@@ -5087,7 +5377,11 @@
 {'Arbitrum':0.0197, 'Optimism':0.0, 'zksync':0.006852415999}</t>
         </is>
       </c>
-      <c r="D50" s="40" t="n"/>
+      <c r="D50" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E50" s="40" t="n"/>
       <c r="F50" s="40" t="n"/>
       <c r="G50" s="24" t="n"/>
@@ -5111,6 +5405,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -5146,7 +5441,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 55.88 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0205；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：27.181；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：27.181；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0251 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.7521 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W50" s="26" t="inlineStr">
@@ -5181,7 +5478,11 @@
 {'Arbitrum':0.0191, 'Optimism':0.0396, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D51" s="40" t="n"/>
+      <c r="D51" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E51" s="40" t="n"/>
       <c r="F51" s="40" t="n"/>
       <c r="G51" s="24" t="n"/>
@@ -5208,6 +5509,7 @@
       <c r="P51" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -5254,7 +5556,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 32.74 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0137；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 16.349</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 16.349
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0174 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.29 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W51" s="26" t="inlineStr">
@@ -5288,7 +5592,11 @@
 {'Arbitrum':0.0281, 'Optimism':0.017, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D52" s="40" t="n"/>
+      <c r="D52" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E52" s="40" t="n"/>
       <c r="F52" s="40" t="n"/>
       <c r="G52" s="24" t="n"/>
@@ -5312,6 +5620,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -5348,7 +5657,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.02
 ·ZK zigzag 任务完成；zigzag 点击【卖】
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.0044；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.0044；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0137 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.845 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W52" s="26" t="inlineStr">
@@ -5383,7 +5694,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0365, 'zksync':0.01995}</t>
         </is>
       </c>
-      <c r="D53" s="40" t="n"/>
+      <c r="D53" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E53" s="40" t="n"/>
       <c r="F53" s="40" t="n"/>
       <c r="G53" s="24" t="n"/>
@@ -5405,6 +5720,7 @@
       <c r="P53" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√
@@ -5447,7 +5763,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0159
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0152 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.9192 去兑换 ETH小狐狸签名成功
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0063；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0063；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.0067 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W53" s="26" t="inlineStr">
@@ -5482,7 +5800,11 @@
 {'Arbitrum':0.014, 'Optimism':0.0268, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D54" s="40" t="n"/>
+      <c r="D54" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E54" s="40" t="n"/>
       <c r="F54" s="40" t="n"/>
       <c r="G54" s="24" t="n"/>
@@ -5509,6 +5831,7 @@
       <c r="P54" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -5538,7 +5861,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.01；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.0648；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.0648；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.71 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W54" s="26" t="inlineStr">
@@ -5571,7 +5896,11 @@
 {'Arbitrum':0.0274, 'Optimism':0.0, 'zksync':0.01599}</t>
         </is>
       </c>
-      <c r="D55" s="40" t="n"/>
+      <c r="D55" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E55" s="40" t="n"/>
       <c r="F55" s="40" t="n"/>
       <c r="G55" s="24" t="n"/>
@@ -5593,6 +5922,7 @@
       <c r="P55" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -5625,7 +5955,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0107 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.187 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0039</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0039
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0093 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.4777 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W55" s="26" t="inlineStr">
@@ -5661,7 +5993,11 @@
 {'Arbitrum':0.0307, 'Optimism':0.01, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D56" s="40" t="n"/>
+      <c r="D56" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E56" s="40" t="n"/>
       <c r="F56" s="40" t="n"/>
       <c r="G56" s="24" t="n"/>
@@ -5679,6 +6015,7 @@
       <c r="P56" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -5711,7 +6048,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W56" s="26" t="inlineStr">
@@ -5746,7 +6085,11 @@
 {'Arbitrum':0.013, 'Optimism':0.02, 'zksync':0.019890000001}</t>
         </is>
       </c>
-      <c r="D57" s="40" t="n"/>
+      <c r="D57" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E57" s="40" t="n"/>
       <c r="F57" s="40" t="n"/>
       <c r="G57" s="24" t="n"/>
@@ -5773,6 +6116,7 @@
       <c r="P57" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -5810,7 +6154,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0168 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.39 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0063；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.7448；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.7448；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.44 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W57" s="26" t="inlineStr">
@@ -5843,7 +6189,11 @@
 {'Arbitrum':0.0172, 'Optimism':0.0, 'zksync':0.02947727007}</t>
         </is>
       </c>
-      <c r="D58" s="40" t="n"/>
+      <c r="D58" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E58" s="40" t="n"/>
       <c r="F58" s="40" t="n"/>
       <c r="G58" s="24" t="n"/>
@@ -5865,6 +6215,7 @@
       <c r="P58" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -5903,7 +6254,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.11 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.075</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.075
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.114 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W58" s="45" t="inlineStr">
@@ -5936,7 +6289,11 @@
 {'Arbitrum':0.0131, 'Optimism':0.0249, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D59" s="40" t="n"/>
+      <c r="D59" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E59" s="40" t="n"/>
       <c r="F59" s="40" t="n"/>
       <c r="G59" s="24" t="n"/>
@@ -5960,6 +6317,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -5994,7 +6352,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.06 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W59" s="26" t="inlineStr">
@@ -6029,7 +6389,11 @@
 {'Arbitrum':0.0169, 'Optimism':0.0342, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D60" s="40" t="n"/>
+      <c r="D60" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E60" s="40" t="n"/>
       <c r="F60" s="40" t="n"/>
       <c r="G60" s="24" t="n"/>
@@ -6052,6 +6416,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -6082,7 +6447,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.756 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0054；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.3615；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.3615；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.68 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W60" s="26" t="inlineStr">
@@ -6115,7 +6482,11 @@
 {'Arbitrum':0.0223, 'Optimism':0.0, 'zksync':0.002161477118}</t>
         </is>
       </c>
-      <c r="D61" s="40" t="n"/>
+      <c r="D61" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E61" s="40" t="n"/>
       <c r="F61" s="40" t="n"/>
       <c r="G61" s="24" t="n"/>
@@ -6137,6 +6508,7 @@
       <c r="P61" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -6167,7 +6539,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.685 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.03；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0043；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0043；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.6239 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W61" s="26" t="inlineStr">
@@ -6202,7 +6576,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0318, 'zksync':0.00997}</t>
         </is>
       </c>
-      <c r="D62" s="40" t="n"/>
+      <c r="D62" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E62" s="40" t="n"/>
       <c r="F62" s="40" t="n"/>
       <c r="G62" s="24" t="n"/>
@@ -6224,6 +6602,7 @@
       <c r="P62" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -6255,7 +6634,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.003；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.632 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W62" s="26" t="inlineStr">
@@ -6289,7 +6670,11 @@
 {'Arbitrum':0.0383, 'Optimism':0.0101, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D63" s="40" t="n"/>
+      <c r="D63" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E63" s="40" t="n"/>
       <c r="F63" s="40" t="n"/>
       <c r="G63" s="24" t="n"/>
@@ -6311,6 +6696,7 @@
       <c r="P63" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -6346,7 +6732,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.6676 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：15.094；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：15.094；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.018 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.9863 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W63" s="26" t="inlineStr">
@@ -6380,7 +6768,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0555}</t>
         </is>
       </c>
-      <c r="D64" s="40" t="n"/>
+      <c r="D64" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E64" s="40" t="n"/>
       <c r="F64" s="40" t="n"/>
       <c r="H64" s="41" t="inlineStr">
@@ -6400,6 +6792,7 @@
       <c r="P64" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -6438,7 +6831,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.1882 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0117；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 14.737</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 14.737
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.2304 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W64" s="45" t="inlineStr">
@@ -6472,7 +6867,11 @@
 {'Arbitrum':0.0, 'Optimism':0.02, 'zksync':0.017375586191}</t>
         </is>
       </c>
-      <c r="D65" s="40" t="n"/>
+      <c r="D65" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E65" s="40" t="n"/>
       <c r="F65" s="40" t="n"/>
       <c r="G65" s="24" t="n"/>
@@ -6494,6 +6893,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -6524,7 +6924,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0061 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0063 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.021；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 26.568</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 26.568
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.6422 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0055 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W65" s="26" t="inlineStr">
@@ -6556,7 +6958,11 @@
 {'Arbitrum':0.0351, 'Optimism':0.017, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D66" s="40" t="n"/>
+      <c r="D66" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E66" s="40" t="n"/>
       <c r="F66" s="40" t="n"/>
       <c r="G66" s="24" t="n"/>
@@ -6580,6 +6986,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -6620,7 +7027,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 37.91 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0074；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.5062；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：9.5062；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.12 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W66" s="26" t="inlineStr">
@@ -6654,7 +7063,11 @@
 {'Arbitrum':0.0399, 'Optimism':0.0192, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D67" s="40" t="n"/>
+      <c r="D67" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E67" s="40" t="n"/>
       <c r="F67" s="40" t="n"/>
       <c r="G67" s="24" t="n"/>
@@ -6677,6 +7090,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -6709,7 +7123,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 33.9147
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0267 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.014；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.752；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.752；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.27 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W67" s="26" t="inlineStr">
@@ -6744,7 +7160,11 @@
 {'Arbitrum':0.0182, 'Optimism':0.0, 'zksync':0.012234786515}</t>
         </is>
       </c>
-      <c r="D68" s="40" t="n"/>
+      <c r="D68" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E68" s="40" t="n"/>
       <c r="F68" s="40" t="n"/>
       <c r="G68" s="24" t="n"/>
@@ -6766,6 +7186,7 @@
       <c r="P68" s="26" t="inlineStr">
         <is>
           <t>·出错了
+·√
 ·√
 ·√
 ·√
@@ -6799,7 +7220,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.034 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 65.7005 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0196；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.0995；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.0995；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.03 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 46.45 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W68" s="26" t="inlineStr">
@@ -6832,7 +7255,11 @@
 {'Arbitrum':0.0264, 'Optimism':0.0127, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D69" s="40" t="n"/>
+      <c r="D69" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E69" s="40" t="n"/>
       <c r="F69" s="40" t="n"/>
       <c r="G69" s="24" t="n"/>
@@ -6854,6 +7281,7 @@
         <is>
           <t xml:space="preserve">
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -6884,7 +7312,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.14 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0066；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.317；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.317；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0118 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.1384 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W69" s="26" t="inlineStr">
@@ -6918,7 +7348,11 @@
 {'Arbitrum':0.02, 'Optimism':0.0, 'zksync':0.008346684997}</t>
         </is>
       </c>
-      <c r="D70" s="40" t="n"/>
+      <c r="D70" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E70" s="40" t="n"/>
       <c r="F70" s="40" t="n"/>
       <c r="G70" s="24" t="n"/>
@@ -6939,6 +7373,7 @@
       <c r="P70" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -6974,7 +7409,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.341 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0054；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.26</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.26
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.7335 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W70" s="26" t="inlineStr">
@@ -7006,7 +7443,11 @@
 {'Arbitrum':0.0155, 'Optimism':0.0, 'zksync':0.026116761207}</t>
         </is>
       </c>
-      <c r="D71" s="40" t="n"/>
+      <c r="D71" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E71" s="40" t="n"/>
       <c r="F71" s="40" t="n"/>
       <c r="G71" s="24" t="n"/>
@@ -7029,6 +7470,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -7053,7 +7495,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.07 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.005</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.005
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.953 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W71" s="26" t="inlineStr">
@@ -7084,7 +7528,11 @@
 {'Arbitrum':0.0301, 'Optimism':0.016, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D72" s="40" t="n"/>
+      <c r="D72" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E72" s="40" t="n"/>
       <c r="F72" s="40" t="n"/>
       <c r="G72" s="24" t="n"/>
@@ -7108,6 +7556,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -7141,7 +7590,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.7987 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0088；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.5017</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.5017
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.007 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.664 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W72" s="26" t="inlineStr">
@@ -7176,7 +7627,11 @@
 {'Arbitrum':0.0186, 'Optimism':0.0379, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D73" s="40" t="n"/>
+      <c r="D73" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E73" s="40" t="n"/>
       <c r="F73" s="40" t="n"/>
       <c r="G73" s="24" t="n"/>
@@ -7200,7 +7655,8 @@
           <t>·√
 ·√
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R73" s="25" t="inlineStr">
@@ -7237,7 +7693,9 @@
 · matcha 还是换钱失败
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是24.642；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0135 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.17 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W73" s="26" t="inlineStr">
@@ -7272,7 +7730,11 @@
 {'Arbitrum':0.0169, 'Optimism':0.0336, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D74" s="40" t="n"/>
+      <c r="D74" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E74" s="40" t="n"/>
       <c r="F74" s="40" t="n"/>
       <c r="G74" s="24" t="n"/>
@@ -7296,6 +7758,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -7330,7 +7793,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.5972 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0018 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0244；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：29.38；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：29.38；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.11 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0016 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W74" s="26" t="inlineStr">
@@ -7363,7 +7828,11 @@
 {'Arbitrum':0.016, 'Optimism':0.0297, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D75" s="40" t="n"/>
+      <c r="D75" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E75" s="40" t="n"/>
       <c r="F75" s="40" t="n"/>
       <c r="G75" s="24" t="n"/>
@@ -7385,6 +7854,7 @@
       <c r="P75" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -7414,7 +7884,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0028</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0028
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0141 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.17 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W75" s="26" t="inlineStr">
@@ -7446,7 +7918,11 @@
 {'Arbitrum':0.0, 'Optimism':0.02, 'zksync':0.017178814462}</t>
         </is>
       </c>
-      <c r="D76" s="40" t="n"/>
+      <c r="D76" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E76" s="40" t="n"/>
       <c r="F76" s="40" t="n"/>
       <c r="G76" s="24" t="n"/>
@@ -7470,6 +7946,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -7499,7 +7976,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.137 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0136；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是18.2001；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是18.2001；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.668 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W76" s="26" t="inlineStr">
@@ -7532,7 +8011,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0188, 'zksync':0.037114884964}</t>
         </is>
       </c>
-      <c r="D77" s="40" t="n"/>
+      <c r="D77" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E77" s="40" t="n"/>
       <c r="F77" s="40" t="n"/>
       <c r="G77" s="24" t="n"/>
@@ -7556,6 +8039,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -7594,7 +8078,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0147；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.698；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：18.698；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.023 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 39.733 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W77" s="45" t="inlineStr">
@@ -7628,7 +8114,11 @@
 {'Arbitrum':0.0116, 'Optimism':0.0, 'zksync':0.021812190998}</t>
         </is>
       </c>
-      <c r="D78" s="40" t="n"/>
+      <c r="D78" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E78" s="40" t="n"/>
       <c r="F78" s="40" t="n"/>
       <c r="G78" s="24" t="n"/>
@@ -7645,6 +8135,7 @@
       <c r="P78" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -7678,7 +8169,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.68 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W78" s="45" t="inlineStr">
@@ -7711,7 +8204,11 @@
 {'Arbitrum':0.0, 'Optimism':0.07, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D79" s="40" t="n"/>
+      <c r="D79" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E79" s="40" t="n"/>
       <c r="F79" s="40" t="n"/>
       <c r="G79" s="24" t="n"/>
@@ -7736,6 +8233,7 @@
 √
 √
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -7771,7 +8269,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0417 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 62.3119 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.016；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：21.796；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：21.796；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0243 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 45.85 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W79" s="26" t="inlineStr">
@@ -7805,7 +8305,11 @@
 {'Arbitrum':0.0, 'Optimism':0.01, 'zksync':0.023469889115}</t>
         </is>
       </c>
-      <c r="D80" s="40" t="n"/>
+      <c r="D80" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E80" s="40" t="n"/>
       <c r="F80" s="40" t="n"/>
       <c r="G80" s="24" t="n"/>
@@ -7826,6 +8330,7 @@
       <c r="P80" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -7864,7 +8369,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.009 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.55 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.6227；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是6.6227；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.013 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.1337 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W80" s="45" t="inlineStr">
@@ -7897,7 +8404,11 @@
 {'Arbitrum':0.0271, 'Optimism':0.0156, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D81" s="40" t="n"/>
+      <c r="D81" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E81" s="40" t="n"/>
       <c r="F81" s="40" t="n"/>
       <c r="G81" s="24" t="n"/>
@@ -7987,7 +8498,11 @@
 {'Arbitrum':0.0, 'Optimism':0.01, 'zksync':0.027158737703}</t>
         </is>
       </c>
-      <c r="D82" s="40" t="n"/>
+      <c r="D82" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E82" s="40" t="n"/>
       <c r="F82" s="40" t="n"/>
       <c r="G82" s="24" t="n"/>
@@ -8009,6 +8524,7 @@
       <c r="P82" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√
@@ -8045,7 +8561,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0054 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0168；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.899；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.899；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.227 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0063 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W82" s="45" t="inlineStr">
@@ -8077,7 +8595,11 @@
 {'Arbitrum':0.0153, 'Optimism':0.0264, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D83" s="40" t="n"/>
+      <c r="D83" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E83" s="40" t="n"/>
       <c r="F83" s="40" t="n"/>
       <c r="G83" s="24" t="n"/>
@@ -8167,7 +8689,11 @@
 {'Arbitrum':0.0212, 'Optimism':0.0, 'zksync':0.019986076589}</t>
         </is>
       </c>
-      <c r="D84" s="40" t="n"/>
+      <c r="D84" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E84" s="40" t="n"/>
       <c r="F84" s="40" t="n"/>
       <c r="G84" s="24" t="n"/>
@@ -8248,7 +8774,11 @@
 {'Arbitrum':0.0345, 'Optimism':0.0, 'zksync':0.00999}</t>
         </is>
       </c>
-      <c r="D85" s="40" t="n"/>
+      <c r="D85" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E85" s="40" t="n"/>
       <c r="F85" s="40" t="n"/>
       <c r="G85" s="24" t="n"/>
@@ -8334,7 +8864,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0385, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D86" s="40" t="n"/>
+      <c r="D86" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E86" s="40" t="n"/>
       <c r="F86" s="40" t="n"/>
       <c r="G86" s="24" t="n"/>
@@ -8421,7 +8955,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.05}</t>
         </is>
       </c>
-      <c r="D87" s="40" t="n"/>
+      <c r="D87" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E87" s="40" t="n"/>
       <c r="F87" s="40" t="n"/>
       <c r="G87" s="24" t="n"/>
@@ -8505,7 +9043,11 @@
 {'Arbitrum':0.0, 'Optimism':0.02, 'zksync':0.020738248214}</t>
         </is>
       </c>
-      <c r="D88" s="40" t="n"/>
+      <c r="D88" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E88" s="40" t="n"/>
       <c r="F88" s="40" t="n"/>
       <c r="G88" s="24" t="n"/>
@@ -8592,7 +9134,11 @@
 {'Arbitrum':0.0261, 'Optimism':0.013, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D89" s="40" t="n"/>
+      <c r="D89" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E89" s="40" t="n"/>
       <c r="F89" s="40" t="n"/>
       <c r="G89" s="24" t="n"/>
@@ -8679,7 +9225,11 @@
 {'Arbitrum':0.01, 'Optimism':0.0, 'zksync':0.013422759849}</t>
         </is>
       </c>
-      <c r="D90" s="40" t="n"/>
+      <c r="D90" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E90" s="40" t="n"/>
       <c r="F90" s="40" t="n"/>
       <c r="G90" s="24" t="n"/>
@@ -8759,7 +9309,11 @@
 {'Arbitrum':0.018, 'Optimism':0.0, 'zksync':0.02430301918}</t>
         </is>
       </c>
-      <c r="D91" s="40" t="n"/>
+      <c r="D91" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E91" s="40" t="n"/>
       <c r="F91" s="40" t="n"/>
       <c r="G91" s="24" t="n"/>
@@ -8783,6 +9337,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -8813,7 +9368,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.8 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.7535；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0049；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0049；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0109 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.2906 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W91" s="26" t="inlineStr">
@@ -8845,7 +9402,11 @@
 {'Arbitrum':0.0, 'Optimism':0.014, 'zksync':0.007344395094}</t>
         </is>
       </c>
-      <c r="D92" s="40" t="n"/>
+      <c r="D92" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E92" s="40" t="n"/>
       <c r="F92" s="40" t="n"/>
       <c r="H92" s="41" t="inlineStr">
@@ -8868,6 +9429,7 @@
           <t>·√
 ·√
 ·√
+·√
 ·√</t>
         </is>
       </c>
@@ -8911,7 +9473,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0161 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.048 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4872</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4872
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0161 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.734 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W92" s="26" t="inlineStr">
@@ -8946,7 +9510,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0501}</t>
         </is>
       </c>
-      <c r="D93" s="40" t="n"/>
+      <c r="D93" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E93" s="40" t="n"/>
       <c r="F93" s="40" t="n"/>
       <c r="G93" s="24" t="n"/>
@@ -8967,7 +9535,8 @@
       <c r="P93" s="39" t="inlineStr">
         <is>
           <t>√
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R93" s="26" t="inlineStr">
@@ -8993,7 +9562,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.029；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：24.0756；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0197；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是24.636；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是24.636；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.5961 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W93" s="48" t="inlineStr">
@@ -9027,7 +9598,11 @@
 {'Arbitrum':0.014, 'Optimism':0.0, 'zksync':0.012953438963}</t>
         </is>
       </c>
-      <c r="D94" s="40" t="n"/>
+      <c r="D94" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E94" s="40" t="n"/>
       <c r="F94" s="40" t="n"/>
       <c r="G94" s="24" t="n"/>
@@ -9048,7 +9623,8 @@
       <c r="N94" s="40" t="n"/>
       <c r="P94" s="26" t="inlineStr">
         <is>
-          <t>·出错了</t>
+          <t>·出错了
+·√</t>
         </is>
       </c>
       <c r="R94" s="25" t="inlineStr">
@@ -9074,7 +9650,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 15.83
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0084；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.6848</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.6848
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.011 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.4352 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W94" s="26" t="inlineStr">
@@ -9104,7 +9682,11 @@
 {'Arbitrum':0.024, 'Optimism':0.0, 'zksync':0.00999}</t>
         </is>
       </c>
-      <c r="D95" s="40" t="n"/>
+      <c r="D95" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E95" s="40" t="n"/>
       <c r="F95" s="40" t="n"/>
       <c r="G95" s="24" t="n"/>
@@ -9123,7 +9705,8 @@
         <is>
           <t xml:space="preserve">
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R95" s="26" t="inlineStr">
@@ -9148,7 +9731,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0145；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0097；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？</t>
+·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.618 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W95" s="26" t="inlineStr">
@@ -9183,7 +9768,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.0634}</t>
         </is>
       </c>
-      <c r="D96" s="40" t="n"/>
+      <c r="D96" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E96" s="40" t="n"/>
       <c r="F96" s="40" t="n"/>
       <c r="G96" s="24" t="n"/>
@@ -9205,7 +9794,8 @@
       <c r="P96" s="39" t="inlineStr">
         <is>
           <t>√
-·出错了</t>
+·出错了
+·√</t>
         </is>
       </c>
       <c r="S96" s="25" t="inlineStr">
@@ -9225,7 +9815,9 @@
 ·zigzag 点击【买】成功，本次：用 75% USDC余额去兑换 ETH
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0406
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0318；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0059</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0059
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.022 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 33.02 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W96" s="45" t="inlineStr">
@@ -9259,7 +9851,11 @@
 {'Arbitrum':0.0, 'Optimism':0.041, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D97" s="40" t="n"/>
+      <c r="D97" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E97" s="40" t="n"/>
       <c r="F97" s="40" t="n"/>
       <c r="G97" s="24" t="n"/>
@@ -9281,6 +9877,7 @@
       <c r="P97" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -9309,7 +9906,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.011；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0048；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.6802；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.6802；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.988 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W97" s="26" t="inlineStr">
@@ -9345,7 +9944,11 @@
 {'Arbitrum':0.0, 'Optimism':0.0, 'zksync':0.006}</t>
         </is>
       </c>
-      <c r="D98" s="40" t="n"/>
+      <c r="D98" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E98" s="40" t="n"/>
       <c r="F98" s="40" t="n"/>
       <c r="G98" s="24" t="n"/>
@@ -9367,7 +9970,8 @@
         <is>
           <t>√
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R98" s="25" t="inlineStr">
@@ -9398,7 +10002,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.041
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：33.249；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0136；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 16.9801</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 16.9801
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.053 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W98" s="45" t="inlineStr">
@@ -9433,7 +10039,11 @@
 {'Arbitrum':0.06, 'Optimism':0.0, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D99" s="40" t="n"/>
+      <c r="D99" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E99" s="40" t="n"/>
       <c r="F99" s="40" t="n"/>
       <c r="G99" s="24" t="n"/>
@@ -9455,6 +10065,7 @@
       <c r="P99" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -9489,7 +10100,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0185 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.085 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.009；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：10.6675；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：10.6675；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0163 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.1031 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W99" s="26" t="inlineStr">
@@ -9527,7 +10140,11 @@
 {'Arbitrum':0.0, 'Optimism':0.058, 'zksync':0.0}</t>
         </is>
       </c>
-      <c r="D100" s="40" t="n"/>
+      <c r="D100" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E100" s="40" t="n"/>
       <c r="F100" s="40" t="n"/>
       <c r="H100" s="41" t="inlineStr">
@@ -9548,6 +10165,7 @@
       <c r="P100" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√
 ·√
 ·√</t>
@@ -9584,7 +10202,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 52.199 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.29 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W100" s="26" t="inlineStr">
@@ -9614,7 +10234,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.054ETH，小狐狸交易成功，gas fee预估0.00213</t>
         </is>
       </c>
-      <c r="D101" s="40" t="n"/>
+      <c r="D101" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E101" s="40" t="n"/>
       <c r="F101" s="40" t="n"/>
       <c r="G101" s="24" t="n"/>
@@ -9637,7 +10261,8 @@
           <t>√
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R101" s="25" t="inlineStr">
@@ -9669,7 +10294,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0067 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0197；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.7393；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：19.7393；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0145 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.1144 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W101" s="26" t="inlineStr">
@@ -9697,7 +10324,11 @@
           <t>·【ARB】通过lifi，转到ARB：0.06ETH，小狐狸交易成功，gas fee预估0.004142</t>
         </is>
       </c>
-      <c r="D102" s="40" t="n"/>
+      <c r="D102" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E102" s="40" t="n"/>
       <c r="F102" s="40" t="n"/>
       <c r="G102" s="24" t="n"/>
@@ -9723,6 +10354,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -9760,7 +10392,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.19；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是7.19；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.941 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W102" s="26" t="inlineStr">
@@ -9792,7 +10426,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.06ETH，小狐狸交易成功，gas fee预估0.002016</t>
         </is>
       </c>
-      <c r="D103" s="40" t="n"/>
+      <c r="D103" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E103" s="40" t="n"/>
       <c r="F103" s="40" t="n"/>
       <c r="G103" s="24" t="n"/>
@@ -9823,6 +10461,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -9852,7 +10491,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.012；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.7789 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.0259；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是9.0259；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0145 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.5432 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W103" s="26" t="inlineStr">
@@ -9882,7 +10523,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.042ETH，小狐狸交易成功，gas fee预估0.00195</t>
         </is>
       </c>
-      <c r="D104" s="40" t="n"/>
+      <c r="D104" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E104" s="40" t="n"/>
       <c r="F104" s="40" t="n"/>
       <c r="G104" s="24" t="n"/>
@@ -9912,6 +10557,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -9943,7 +10589,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.1077 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.8801 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W104" s="26" t="inlineStr">
@@ -9972,7 +10620,11 @@
           <t>·【ZK】通过ZK官方桥，转到ZK：0.0424ETH，小狐狸交易成功，gas fee预估0.004787</t>
         </is>
       </c>
-      <c r="D105" s="40" t="n"/>
+      <c r="D105" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E105" s="40" t="n"/>
       <c r="F105" s="40" t="n"/>
       <c r="G105" s="24" t="n"/>
@@ -9998,6 +10650,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10033,7 +10686,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.012 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.009；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.014；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：11.014；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.501 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W105" s="26" t="inlineStr">
@@ -10065,7 +10720,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.044ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002897</t>
         </is>
       </c>
-      <c r="D106" s="40" t="n"/>
+      <c r="D106" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E106" s="40" t="n"/>
       <c r="F106" s="40" t="n"/>
       <c r="G106" s="24" t="n"/>
@@ -10096,6 +10755,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10130,7 +10790,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.93 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0103 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.5372 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W106" s="26" t="inlineStr">
@@ -10161,7 +10823,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0431ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001384</t>
         </is>
       </c>
-      <c r="D107" s="40" t="n"/>
+      <c r="D107" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E107" s="40" t="n"/>
       <c r="F107" s="40" t="n"/>
       <c r="G107" s="24" t="n"/>
@@ -10258,7 +10924,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.062ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00243</t>
         </is>
       </c>
-      <c r="D108" s="40" t="n"/>
+      <c r="D108" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E108" s="40" t="n"/>
       <c r="F108" s="40" t="n"/>
       <c r="G108" s="24" t="n"/>
@@ -10287,7 +10957,8 @@
           <t>·√哈
 ·√哈
 ·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="R108" s="25" t="inlineStr">
@@ -10317,7 +10988,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：5.631；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：5.631；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.92 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W108" s="26" t="inlineStr">
@@ -10347,7 +11020,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0634ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002309</t>
         </is>
       </c>
-      <c r="D109" s="40" t="n"/>
+      <c r="D109" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E109" s="40" t="n"/>
       <c r="F109" s="40" t="n"/>
       <c r="G109" s="24" t="n"/>
@@ -10375,7 +11052,7 @@
         <is>
           <t xml:space="preserve">
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R109" s="25" t="inlineStr">
@@ -10410,7 +11087,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.02；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.024；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0094
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 12.799</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 12.799
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.31 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W109" s="26" t="inlineStr">
@@ -10442,7 +11121,11 @@
           <t>·【ARB】通过ARB官方桥，转到ARB：0.065ETH，小狐狸交易成功，gas fee预估0.004812</t>
         </is>
       </c>
-      <c r="D110" s="40" t="n"/>
+      <c r="D110" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E110" s="40" t="n"/>
       <c r="F110" s="40" t="n"/>
       <c r="G110" s="24" t="n"/>
@@ -10467,6 +11150,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10500,7 +11184,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0081</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0081
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0182 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.0478 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W110" s="26" t="inlineStr">
@@ -10535,7 +11221,7 @@
       </c>
       <c r="D111" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E111" s="40" t="n"/>
@@ -10564,7 +11250,8 @@
       <c r="P111" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="S111" s="25" t="inlineStr">
@@ -10594,7 +11281,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.024
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.015
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0037；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.5338；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是4.5338；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 17.04 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W111" s="26" t="inlineStr">
@@ -10628,7 +11317,11 @@
 ·【OP】通过OP官方桥，转到OP：0.056ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001506</t>
         </is>
       </c>
-      <c r="D112" s="40" t="n"/>
+      <c r="D112" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E112" s="40" t="n"/>
       <c r="F112" s="40" t="n"/>
       <c r="G112" s="49" t="n"/>
@@ -10654,6 +11347,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -10695,7 +11389,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是10.5734；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是10.5734；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.024 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 36.0162 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W112" s="26" t="inlineStr">
@@ -10729,7 +11425,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0383ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00242</t>
         </is>
       </c>
-      <c r="D113" s="40" t="n"/>
+      <c r="D113" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E113" s="40" t="n"/>
       <c r="F113" s="40" t="n"/>
       <c r="G113" s="49" t="n"/>
@@ -10756,6 +11456,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10793,7 +11494,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.35 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0052 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.026；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是32.801；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是32.801；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.5276 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.86 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W113" s="26" t="inlineStr">
@@ -10826,7 +11529,11 @@
 ·【OP】通过OP官方桥，转到OP：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001509</t>
         </is>
       </c>
-      <c r="D114" s="40" t="n"/>
+      <c r="D114" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E114" s="40" t="n"/>
       <c r="F114" s="40" t="n"/>
       <c r="G114" s="49" t="n"/>
@@ -10853,6 +11560,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10891,7 +11599,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.4369</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 27.4369
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.87 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W114" s="26" t="inlineStr">
@@ -10923,7 +11633,11 @@
 ·【OP】通过OP官方桥，转到OP：0.065ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001671</t>
         </is>
       </c>
-      <c r="D115" s="40" t="n"/>
+      <c r="D115" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E115" s="40" t="n"/>
       <c r="F115" s="40" t="n"/>
       <c r="G115" s="24" t="n"/>
@@ -10950,6 +11664,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -10981,7 +11696,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 38.47 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0112
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4072</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 13.4072
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0216 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.12 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W115" s="26" t="inlineStr">
@@ -11015,7 +11732,11 @@
 ·【OP】通过OP官方桥，转到OP：0.039ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001261</t>
         </is>
       </c>
-      <c r="D116" s="40" t="n"/>
+      <c r="D116" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E116" s="40" t="n"/>
       <c r="F116" s="40" t="n"/>
       <c r="G116" s="24" t="n"/>
@@ -11042,6 +11763,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11080,7 +11802,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.05 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0037；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.679；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：4.679；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.4711 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W116" s="26" t="inlineStr">
@@ -11116,7 +11840,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0574ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002041</t>
         </is>
       </c>
-      <c r="D117" s="40" t="n"/>
+      <c r="D117" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E117" s="40" t="n"/>
       <c r="F117" s="40" t="n"/>
       <c r="G117" s="24" t="n"/>
@@ -11147,6 +11875,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11183,7 +11912,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 34.95 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.011；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.6949；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.6949；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.019 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.2 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W117" s="26" t="inlineStr">
@@ -11215,7 +11946,11 @@
 ·【OP】通过OP官方桥，转到OP：0.061ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001327</t>
         </is>
       </c>
-      <c r="D118" s="40" t="n"/>
+      <c r="D118" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E118" s="40" t="n"/>
       <c r="F118" s="40" t="n"/>
       <c r="G118" s="24" t="n"/>
@@ -11242,7 +11977,8 @@
       <c r="P118" s="26" t="inlineStr">
         <is>
           <t>·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="R118" s="25" t="inlineStr">
@@ -11274,7 +12010,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0179；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.8163</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 21.8163
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.746 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W118" s="26" t="inlineStr">
@@ -11307,7 +12045,11 @@
 ·【OP】通过OP官方桥，转到OP：0.042ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001343</t>
         </is>
       </c>
-      <c r="D119" s="40" t="n"/>
+      <c r="D119" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E119" s="40" t="n"/>
       <c r="F119" s="40" t="n"/>
       <c r="G119" s="24" t="n"/>
@@ -11398,7 +12140,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002347</t>
         </is>
       </c>
-      <c r="D120" s="40" t="n"/>
+      <c r="D120" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E120" s="40" t="n"/>
       <c r="F120" s="40" t="n"/>
       <c r="G120" s="24" t="n"/>
@@ -11488,7 +12234,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00233</t>
         </is>
       </c>
-      <c r="D121" s="40" t="n"/>
+      <c r="D121" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E121" s="40" t="n"/>
       <c r="F121" s="40" t="n"/>
       <c r="G121" s="24" t="n"/>
@@ -11517,6 +12267,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11549,7 +12300,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.25 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是0.002；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.3883 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W121" s="26" t="inlineStr">
@@ -11578,7 +12331,11 @@
 ·【OP】通过OP官方桥，转到OP：0.065ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001306</t>
         </is>
       </c>
-      <c r="D122" s="40" t="n"/>
+      <c r="D122" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E122" s="40" t="n"/>
       <c r="F122" s="40" t="n"/>
       <c r="G122" s="24" t="n"/>
@@ -11605,7 +12362,7 @@
         <is>
           <t xml:space="preserve">
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R122" s="25" t="inlineStr">
@@ -11634,7 +12391,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：12.215；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：12.215；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.2 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W122" s="26" t="inlineStr">
@@ -11665,7 +12424,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002948</t>
         </is>
       </c>
-      <c r="D123" s="40" t="n"/>
+      <c r="D123" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E123" s="40" t="n"/>
       <c r="F123" s="40" t="n"/>
       <c r="G123" s="24" t="n"/>
@@ -11690,7 +12453,8 @@
 ·√哈
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R123" s="25" t="inlineStr">
@@ -11721,7 +12485,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0228 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.584；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.584；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.969 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W123" s="26" t="inlineStr">
@@ -11754,7 +12520,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.044ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001682</t>
         </is>
       </c>
-      <c r="D124" s="40" t="n"/>
+      <c r="D124" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E124" s="40" t="n"/>
       <c r="F124" s="40" t="n"/>
       <c r="G124" s="24" t="n"/>
@@ -11780,7 +12550,8 @@
 ·√哈
 ·√哈
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R124" s="25" t="inlineStr">
@@ -11810,7 +12581,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0152；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0049
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4629；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4629；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.4029 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W124" s="26" t="inlineStr">
@@ -11843,7 +12616,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0514ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002941</t>
         </is>
       </c>
-      <c r="D125" s="40" t="n"/>
+      <c r="D125" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E125" s="40" t="n"/>
       <c r="F125" s="40" t="n"/>
       <c r="G125" s="24" t="n"/>
@@ -11869,6 +12646,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -11908,7 +12686,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0047；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.807；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是5.807；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.49 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W125" s="26" t="inlineStr">
@@ -11940,7 +12720,11 @@
 ·【OP】通过OP官方桥，转到OP：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000735</t>
         </is>
       </c>
-      <c r="D126" s="40" t="n"/>
+      <c r="D126" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E126" s="40" t="n"/>
       <c r="F126" s="40" t="n"/>
       <c r="G126" s="24" t="n"/>
@@ -11967,6 +12751,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12008,7 +12793,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.006；
 · matcha 还是换钱失败
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 24.27 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W126" s="26" t="inlineStr">
@@ -12045,7 +12832,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002843</t>
         </is>
       </c>
-      <c r="D127" s="40" t="n"/>
+      <c r="D127" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E127" s="40" t="n"/>
       <c r="F127" s="40" t="n"/>
       <c r="G127" s="24" t="n"/>
@@ -12071,7 +12862,8 @@
 ·√哈
 ·√哈
 ·√哈
-·√哈</t>
+·√哈
+·√</t>
         </is>
       </c>
       <c r="T127" s="26" t="inlineStr">
@@ -12095,7 +12887,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 34.7929
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0213
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.007
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 9.0688</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 9.0688
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.883 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W127" s="26" t="inlineStr">
@@ -12128,7 +12922,11 @@
 ·【OP】通过OP官方桥，转到OP：0.055ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001443</t>
         </is>
       </c>
-      <c r="D128" s="40" t="n"/>
+      <c r="D128" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E128" s="40" t="n"/>
       <c r="F128" s="40" t="n"/>
       <c r="G128" s="24" t="n"/>
@@ -12155,6 +12953,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12204,7 +13003,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.63 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0251；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.1745</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 32.1745
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0055 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.7625 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W128" s="26" t="inlineStr">
@@ -12238,7 +13039,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0619ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002834</t>
         </is>
       </c>
-      <c r="D129" s="40" t="n"/>
+      <c r="D129" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E129" s="40" t="n"/>
       <c r="F129" s="40" t="n"/>
       <c r="G129" s="24" t="n"/>
@@ -12265,6 +13070,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -12294,7 +13100,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.576 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.013
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：16.408；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：16.408；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.5888 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W129" s="26" t="inlineStr">
@@ -12327,7 +13135,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001991</t>
         </is>
       </c>
-      <c r="D130" s="40" t="n"/>
+      <c r="D130" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E130" s="40" t="n"/>
       <c r="F130" s="40" t="n"/>
       <c r="G130" s="24" t="n"/>
@@ -12353,6 +13165,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12389,7 +13202,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.22 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.3 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0219；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.551</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 28.551
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.204 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W130" s="26" t="inlineStr">
@@ -12420,7 +13235,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0474ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002732</t>
         </is>
       </c>
-      <c r="D131" s="40" t="n"/>
+      <c r="D131" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E131" s="40" t="n"/>
       <c r="F131" s="40" t="n"/>
       <c r="G131" s="24" t="n"/>
@@ -12446,6 +13265,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -12484,7 +13304,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0128 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.923 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0043；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.003
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 22.9993 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W131" s="26" t="inlineStr">
@@ -12516,7 +13338,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002599</t>
         </is>
       </c>
-      <c r="D132" s="40" t="n"/>
+      <c r="D132" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E132" s="40" t="n"/>
       <c r="F132" s="40" t="n"/>
       <c r="G132" s="24" t="n"/>
@@ -12543,6 +13369,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12581,7 +13408,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 19.5644 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W132" s="26" t="inlineStr">
@@ -12615,7 +13444,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001937</t>
         </is>
       </c>
-      <c r="D133" s="40" t="n"/>
+      <c r="D133" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E133" s="40" t="n"/>
       <c r="F133" s="40" t="n"/>
       <c r="G133" s="24" t="n"/>
@@ -12642,6 +13475,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -12675,7 +13509,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.01；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0078；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0078；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0162 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.3445 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W133" s="26" t="inlineStr">
@@ -12709,7 +13545,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002837</t>
         </is>
       </c>
-      <c r="D134" s="40" t="n"/>
+      <c r="D134" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E134" s="40" t="n"/>
       <c r="F134" s="40" t="n"/>
       <c r="G134" s="24" t="n"/>
@@ -12739,6 +13579,7 @@
 ·√哈
 ·√哈
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12888,7 +13729,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是12.9912；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是12.9912；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.74 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W134" s="26" t="inlineStr">
@@ -12919,7 +13762,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002621</t>
         </is>
       </c>
-      <c r="D135" s="40" t="n"/>
+      <c r="D135" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E135" s="40" t="n"/>
       <c r="F135" s="40" t="n"/>
       <c r="G135" s="24" t="n"/>
@@ -12949,6 +13796,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -12985,7 +13833,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 3.8 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.011
 · matcha 还是换钱失败
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.511；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：14.511；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.7012 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W135" s="26" t="inlineStr">
@@ -13020,7 +13870,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0469ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00277</t>
         </is>
       </c>
-      <c r="D136" s="40" t="n"/>
+      <c r="D136" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E136" s="40" t="n"/>
       <c r="F136" s="40" t="n"/>
       <c r="G136" s="24" t="n"/>
@@ -13047,6 +13901,7 @@
 ·√哈
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13079,7 +13934,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 27.735 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0049；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.6983 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W136" s="26" t="inlineStr">
@@ -13114,7 +13971,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002323</t>
         </is>
       </c>
-      <c r="D137" s="40" t="n"/>
+      <c r="D137" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E137" s="40" t="n"/>
       <c r="F137" s="40" t="n"/>
       <c r="G137" s="24" t="n"/>
@@ -13205,7 +14066,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.042ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001837</t>
         </is>
       </c>
-      <c r="D138" s="40" t="n"/>
+      <c r="D138" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E138" s="40" t="n"/>
       <c r="F138" s="40" t="n"/>
       <c r="G138" s="24" t="n"/>
@@ -13296,7 +14161,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.057ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002635</t>
         </is>
       </c>
-      <c r="D139" s="40" t="n"/>
+      <c r="D139" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E139" s="40" t="n"/>
       <c r="F139" s="40" t="n"/>
       <c r="G139" s="24" t="n"/>
@@ -13323,6 +14192,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13359,7 +14229,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0047 去兑换 USDC小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0234
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是29.1474；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是29.1474；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.47 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0051 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W139" s="26" t="inlineStr">
@@ -13391,7 +14263,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001932</t>
         </is>
       </c>
-      <c r="D140" s="40" t="n"/>
+      <c r="D140" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E140" s="40" t="n"/>
       <c r="F140" s="40" t="n"/>
       <c r="G140" s="24" t="n"/>
@@ -13416,6 +14292,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -13443,7 +14320,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.016 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 36.9533 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.009
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.682</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 10.682
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.017 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 26.1162 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W140" s="26" t="inlineStr">
@@ -13480,7 +14359,11 @@
 ·【OP】通过OP官方桥，转到OP：0.046ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001838</t>
         </is>
       </c>
-      <c r="D141" s="40" t="n"/>
+      <c r="D141" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E141" s="40" t="n"/>
       <c r="F141" s="40" t="n"/>
       <c r="G141" s="24" t="n"/>
@@ -13580,7 +14463,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002137</t>
         </is>
       </c>
-      <c r="D142" s="40" t="n"/>
+      <c r="D142" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E142" s="40" t="n"/>
       <c r="F142" s="40" t="n"/>
       <c r="G142" s="24" t="n"/>
@@ -13679,7 +14566,11 @@
 ·【OP】通过OP官方桥，转到OP：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001158</t>
         </is>
       </c>
-      <c r="D143" s="40" t="n"/>
+      <c r="D143" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E143" s="40" t="n"/>
       <c r="F143" s="40" t="n"/>
       <c r="G143" s="24" t="n"/>
@@ -13776,7 +14667,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002513</t>
         </is>
       </c>
-      <c r="D144" s="40" t="n"/>
+      <c r="D144" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E144" s="40" t="n"/>
       <c r="F144" s="40" t="n"/>
       <c r="G144" s="24" t="n"/>
@@ -13805,6 +14700,7 @@
           <t>√
 ·√哈
 ·√哈
+·√
 ·√</t>
         </is>
       </c>
@@ -13838,7 +14734,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.69 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.8276；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是8.8276；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 13.2413 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W144" s="26" t="inlineStr">
@@ -13867,7 +14765,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002174</t>
         </is>
       </c>
-      <c r="D145" s="40" t="n"/>
+      <c r="D145" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E145" s="40" t="n"/>
       <c r="F145" s="40" t="n"/>
       <c r="G145" s="24" t="n"/>
@@ -13954,7 +14856,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0391ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002855</t>
         </is>
       </c>
-      <c r="D146" s="40" t="n"/>
+      <c r="D146" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E146" s="40" t="n"/>
       <c r="F146" s="40" t="n"/>
       <c r="G146" s="24" t="n"/>
@@ -13977,6 +14883,7 @@
           <t>·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14012,7 +14919,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.079 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：2.584；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：2.584；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.924 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W146" s="26" t="inlineStr">
@@ -14045,7 +14954,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002675</t>
         </is>
       </c>
-      <c r="D147" s="40" t="n"/>
+      <c r="D147" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E147" s="40" t="n"/>
       <c r="F147" s="40" t="n"/>
       <c r="G147" s="24" t="n"/>
@@ -14076,6 +14989,7 @@
 ·√哈
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14108,7 +15022,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0155 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.865 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.006
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0022</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0022
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.014 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 21.57 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W147" s="26" t="inlineStr">
@@ -14140,6 +15056,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0513ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002195</t>
         </is>
       </c>
+      <c r="D148" s="25" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E148" s="40" t="n"/>
       <c r="F148" s="40" t="n"/>
       <c r="G148" s="24" t="n"/>
@@ -14162,6 +15083,7 @@
           <t xml:space="preserve">
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14192,7 +15114,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0046 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.69 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.007；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.58 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W148" s="26" t="inlineStr">
@@ -14221,7 +15145,11 @@
 ·【OP】通过OP官方桥，转到OP：0.048ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001075</t>
         </is>
       </c>
-      <c r="D149" s="40" t="n"/>
+      <c r="D149" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E149" s="40" t="n"/>
       <c r="F149" s="40" t="n"/>
       <c r="G149" s="24" t="n"/>
@@ -14246,6 +15174,7 @@
 ·√
 ·√哈
 ·√哈
+·√
 ·√
 ·√</t>
         </is>
@@ -14279,7 +15208,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.024 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 41.86 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0129；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是16.742；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是16.742；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 28.23 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W149" s="26" t="inlineStr">
@@ -14314,7 +15245,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0517ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000834</t>
         </is>
       </c>
-      <c r="D150" s="40" t="n"/>
+      <c r="D150" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E150" s="40" t="n"/>
       <c r="F150" s="40" t="n"/>
       <c r="G150" s="24" t="n"/>
@@ -14398,7 +15333,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002439</t>
         </is>
       </c>
-      <c r="D151" s="40" t="n"/>
+      <c r="D151" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E151" s="40" t="n"/>
       <c r="F151" s="40" t="n"/>
       <c r="G151" s="24" t="n"/>
@@ -14425,6 +15364,7 @@
       <c r="P151" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√
 ·√</t>
@@ -14464,7 +15404,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.2645 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4846；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：6.4846；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0129 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 18.2484 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W151" s="26" t="inlineStr">
@@ -14494,7 +15436,11 @@
 ·【OP】通过OP官方桥，转到OP：0.041ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000756</t>
         </is>
       </c>
-      <c r="D152" s="40" t="n"/>
+      <c r="D152" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E152" s="40" t="n"/>
       <c r="F152" s="40" t="n"/>
       <c r="G152" s="24" t="n"/>
@@ -14520,6 +15466,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14561,7 +15508,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.445 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.005；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0065 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.796 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W152" s="26" t="inlineStr">
@@ -14593,7 +15542,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.0533ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001975</t>
         </is>
       </c>
-      <c r="D153" s="40" t="n"/>
+      <c r="D153" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E153" s="40" t="n"/>
       <c r="F153" s="40" t="n"/>
       <c r="G153" s="24" t="n"/>
@@ -14620,6 +15573,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -14660,7 +15614,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0178 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 30.4361 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0065；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.562；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.562；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0118 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 14.62 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W153" s="26" t="inlineStr">
@@ -14693,7 +15649,11 @@
 ·【OP】通过OP官方桥，转到OP：0.045ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002419</t>
         </is>
       </c>
-      <c r="D154" s="40" t="n"/>
+      <c r="D154" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E154" s="40" t="n"/>
       <c r="F154" s="40" t="n"/>
       <c r="G154" s="24" t="n"/>
@@ -14797,7 +15757,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002005</t>
         </is>
       </c>
-      <c r="D155" s="40" t="n"/>
+      <c r="D155" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E155" s="40" t="n"/>
       <c r="F155" s="40" t="n"/>
       <c r="G155" s="24" t="n"/>
@@ -14824,7 +15788,8 @@
 ·√
 √
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R155" s="25" t="inlineStr">
@@ -14859,7 +15824,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.4582 去兑换 ETH小狐狸签名成功
 · OP clipper 任务完成；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.014
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0075</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0075
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 1.898 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.001 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W155" s="26" t="inlineStr">
@@ -14892,7 +15859,11 @@
 ·【OP】通过OP官方桥，转到OP：0.052ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001099</t>
         </is>
       </c>
-      <c r="D156" s="40" t="n"/>
+      <c r="D156" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E156" s="40" t="n"/>
       <c r="F156" s="40" t="n"/>
       <c r="G156" s="24" t="n"/>
@@ -14912,14 +15883,14 @@
       <c r="M156" s="40" t="n"/>
       <c r="P156" s="26" t="inlineStr">
         <is>
-          <t xml:space="preserve">·√
+          <t>·√
 ·√
 ·√
 ·√
 √
 √
 √
-</t>
+·√</t>
         </is>
       </c>
       <c r="R156" s="26" t="inlineStr">
@@ -14958,7 +15929,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0262 去兑换 USDC小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0148；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.02；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.603；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.603；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.711 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W156" s="26" t="inlineStr">
@@ -14991,7 +15964,11 @@
 ·【OP】通过OP官方桥，转到OP：0.046ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001039</t>
         </is>
       </c>
-      <c r="D157" s="40" t="n"/>
+      <c r="D157" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E157" s="40" t="n"/>
       <c r="F157" s="40" t="n"/>
       <c r="G157" s="24" t="n"/>
@@ -15082,7 +16059,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002115</t>
         </is>
       </c>
-      <c r="D158" s="40" t="n"/>
+      <c r="D158" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E158" s="40" t="n"/>
       <c r="F158" s="40" t="n"/>
       <c r="G158" s="24" t="n"/>
@@ -15104,7 +16085,8 @@
       <c r="P158" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R158" s="25" t="inlineStr">
@@ -15133,7 +16115,9 @@
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Dai 换 Ethereum 金额 19.812
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.01；
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0066
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0036 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.8998 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W158" s="26" t="inlineStr">
@@ -15165,7 +16149,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0643ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00282</t>
         </is>
       </c>
-      <c r="D159" s="40" t="n"/>
+      <c r="D159" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E159" s="40" t="n"/>
       <c r="F159" s="40" t="n"/>
       <c r="G159" s="24" t="n"/>
@@ -15189,6 +16177,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15226,7 +16215,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.475 去兑换 ETH小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0058 去兑换 USDC小狐狸签名成功
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.9343；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是33.9343；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.907 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W159" s="26" t="inlineStr">
@@ -15257,7 +16248,11 @@
 ·【OP】通过OP官方桥，转到OP：0.057ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001328</t>
         </is>
       </c>
-      <c r="D160" s="40" t="n"/>
+      <c r="D160" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E160" s="40" t="n"/>
       <c r="F160" s="40" t="n"/>
       <c r="G160" s="24" t="n"/>
@@ -15284,7 +16279,8 @@
         <is>
           <t xml:space="preserve">
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R160" s="26" t="inlineStr">
@@ -15317,7 +16313,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.674；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：26.674；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0048 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.317 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W160" s="26" t="inlineStr">
@@ -15348,7 +16346,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0456ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002525</t>
         </is>
       </c>
-      <c r="D161" s="40" t="n"/>
+      <c r="D161" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E161" s="40" t="n"/>
       <c r="F161" s="40" t="n"/>
       <c r="G161" s="24" t="n"/>
@@ -15372,6 +16374,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15413,7 +16416,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0023
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.007；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.944 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W161" s="26" t="inlineStr">
@@ -15445,7 +16450,11 @@
 ·【ARB】通过ARB官方桥，转到ARB：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002728</t>
         </is>
       </c>
-      <c r="D162" s="40" t="n"/>
+      <c r="D162" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E162" s="40" t="n"/>
       <c r="F162" s="40" t="n"/>
       <c r="G162" s="24" t="n"/>
@@ -15467,6 +16476,7 @@
       <c r="P162" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15494,7 +16504,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0071 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.18 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.005
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.004；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.004；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.1307 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W162" s="26" t="inlineStr">
@@ -15526,7 +16538,11 @@
 ·【OP】通过OP官方桥，转到OP：0.0455ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001386</t>
         </is>
       </c>
-      <c r="D163" s="40" t="n"/>
+      <c r="D163" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E163" s="40" t="n"/>
       <c r="F163" s="40" t="n"/>
       <c r="G163" s="24" t="n"/>
@@ -15554,6 +16570,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15592,7 +16609,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.003 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 4.6 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.019；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是25.559；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是25.559；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.004 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.8713 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W163" s="26" t="inlineStr">
@@ -15625,7 +16644,7 @@
       </c>
       <c r="D164" s="40" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
       <c r="E164" s="40" t="n"/>
@@ -15649,6 +16668,7 @@
       <c r="P164" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -15672,7 +16692,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.4289 去兑换 ETH小狐狸签名成功
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.027；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.5907；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.5907；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0062 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 8.2847 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W164" s="26" t="inlineStr">
@@ -15703,7 +16725,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.0441ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001823</t>
         </is>
       </c>
-      <c r="D165" s="40" t="n"/>
+      <c r="D165" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E165" s="40" t="n"/>
       <c r="F165" s="40" t="n"/>
       <c r="G165" s="24" t="n"/>
@@ -15727,6 +16753,7 @@
           <t>√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15766,7 +16793,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0154；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 · matcha 还是换钱失败
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.8875</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 18.8875
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.005 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 7.218 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W165" s="26" t="inlineStr">
@@ -15797,7 +16826,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.043ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002621</t>
         </is>
       </c>
-      <c r="D166" s="40" t="n"/>
+      <c r="D166" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E166" s="40" t="n"/>
       <c r="F166" s="40" t="n"/>
       <c r="G166" s="24" t="n"/>
@@ -15825,6 +16858,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -15863,7 +16897,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0025
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：3.31；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：3.31；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 15.397 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W166" s="26" t="inlineStr">
@@ -15892,7 +16928,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.054ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002506</t>
         </is>
       </c>
-      <c r="D167" s="40" t="n"/>
+      <c r="D167" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E167" s="40" t="n"/>
       <c r="F167" s="40" t="n"/>
       <c r="G167" s="24" t="n"/>
@@ -15980,7 +17020,11 @@
 ·【OP】通过OP官方桥，转到OP：0.053ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002171</t>
         </is>
       </c>
-      <c r="D168" s="40" t="n"/>
+      <c r="D168" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E168" s="40" t="n"/>
       <c r="F168" s="40" t="n"/>
       <c r="G168" s="24" t="n"/>
@@ -16006,6 +17050,7 @@
       <c r="P168" s="26" t="inlineStr">
         <is>
           <t>·√
+·√
 ·√</t>
         </is>
       </c>
@@ -16036,7 +17081,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 35.91 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0065；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.1463；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：8.1463；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0155 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 20.8057 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W168" s="26" t="inlineStr">
@@ -16067,7 +17114,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.04ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002643</t>
         </is>
       </c>
-      <c r="D169" s="40" t="n"/>
+      <c r="D169" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E169" s="40" t="n"/>
       <c r="F169" s="40" t="n"/>
       <c r="G169" s="24" t="n"/>
@@ -16090,7 +17141,8 @@
           <t>√
 √
 √
-√</t>
+√
+·√</t>
         </is>
       </c>
       <c r="R169" s="25" t="inlineStr">
@@ -16122,7 +17174,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 5.3741 去兑换 ETH小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.023
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0196；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：25.375；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：25.375；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0048 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.615 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W169" s="26" t="inlineStr">
@@ -16151,7 +17205,11 @@
 ·【OP】通过OP官方桥，转到OP：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.000939</t>
         </is>
       </c>
-      <c r="D170" s="40" t="n"/>
+      <c r="D170" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E170" s="40" t="n"/>
       <c r="F170" s="40" t="n"/>
       <c r="G170" s="24" t="n"/>
@@ -16180,6 +17238,7 @@
 ·√
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16229,7 +17288,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 50.1682 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.014；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.5547；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：17.5547；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 31.015 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W170" s="26" t="inlineStr">
@@ -16261,7 +17322,11 @@
 ·【OP】通过OP官方桥，转到OP：0.047ETH，小狐狸已成功点击【确认】交易，gas fee预估0.00093</t>
         </is>
       </c>
-      <c r="D171" s="40" t="n"/>
+      <c r="D171" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E171" s="40" t="n"/>
       <c r="F171" s="40" t="n"/>
       <c r="G171" s="24" t="n"/>
@@ -16290,6 +17355,7 @@
 √
 √
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16333,7 +17399,9 @@
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.016；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.424；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是21.424；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 9.83 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W171" s="26" t="inlineStr">
@@ -16365,7 +17433,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.053ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002673</t>
         </is>
       </c>
-      <c r="D172" s="40" t="n"/>
+      <c r="D172" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E172" s="40" t="n"/>
       <c r="F172" s="40" t="n"/>
       <c r="G172" s="24" t="n"/>
@@ -16393,6 +17465,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16424,7 +17497,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0062 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 11.3682 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.002
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0082 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 10.338 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W172" s="26" t="inlineStr">
@@ -16454,7 +17529,11 @@
 ·【OP】通过OP官方桥，转到OP：0.05ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001276</t>
         </is>
       </c>
-      <c r="D173" s="40" t="n"/>
+      <c r="D173" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E173" s="40" t="n"/>
       <c r="F173" s="40" t="n"/>
       <c r="G173" s="24" t="n"/>
@@ -16481,6 +17560,7 @@
 ·√
 √
 √
+·√
 ·√</t>
         </is>
       </c>
@@ -16516,7 +17596,9 @@
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.0296；
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.72 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.0289；
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 37.5758</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 USD Coin 换 Ethereum 金额 37.5758
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.002 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 2.514 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W173" s="26" t="inlineStr">
@@ -16551,7 +17633,11 @@
 ·【OP】通过OP官方桥，转到OP：0.054ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001046</t>
         </is>
       </c>
-      <c r="D174" s="40" t="n"/>
+      <c r="D174" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E174" s="40" t="n"/>
       <c r="F174" s="40" t="n"/>
       <c r="G174" s="24" t="n"/>
@@ -16577,6 +17663,7 @@
 ·√
 ·√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16612,7 +17699,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 40.67 去兑换 ETH小狐狸签名成功
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.006；
-· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；</t>
+· OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 ETH 转到 USDC 的随机金额是0.005；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 25.94 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W174" s="26" t="inlineStr">
@@ -16645,7 +17734,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.059ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002907</t>
         </is>
       </c>
-      <c r="D175" s="40" t="n"/>
+      <c r="D175" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E175" s="40" t="n"/>
       <c r="F175" s="40" t="n"/>
       <c r="G175" s="24" t="n"/>
@@ -16666,6 +17759,7 @@
       <c r="P175" s="39" t="inlineStr">
         <is>
           <t>√
+·√
 ·√
 ·√</t>
         </is>
@@ -16701,7 +17795,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.022；
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
 ·fox_confirm_OP()小狐狸点击【签名】失败了，是否影响？
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.018；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.018；
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 6.74 去兑换 ETH小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.006 去兑换 USDC小狐狸签名成功</t>
         </is>
       </c>
       <c r="W175" s="26" t="inlineStr">
@@ -16731,7 +17827,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.051ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002759</t>
         </is>
       </c>
-      <c r="D176" s="40" t="n"/>
+      <c r="D176" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E176" s="40" t="n"/>
       <c r="F176" s="40" t="n"/>
       <c r="G176" s="24" t="n"/>
@@ -16752,7 +17852,8 @@
       <c r="N176" s="40" t="n"/>
       <c r="P176" s="39" t="inlineStr">
         <is>
-          <t>√</t>
+          <t>√
+·√</t>
         </is>
       </c>
       <c r="R176" s="26" t="inlineStr">
@@ -16774,7 +17875,9 @@
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.04；
 · OP clipper 任务完成；小狐狸签名成功OP clipper 提交订单成功，本次从 USDC 转到 ETH 的随机金额是34.553；
 ·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 ETH 转到 USDC 的金额是：0.008；
-·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.4282；</t>
+·OP zipswap 任务完成；小狐狸签名成功OP zipswap 任务完成，本次 zipswap 从 USDC 转到 ETH 的金额是：28.4282；
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.02 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 29.09 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W176" s="26" t="inlineStr">
@@ -16804,7 +17907,11 @@
 ·【OP】通过OP官方桥，转到OP：0.063ETH，小狐狸已成功点击【确认】交易，gas fee预估0.001009</t>
         </is>
       </c>
-      <c r="D177" s="40" t="n"/>
+      <c r="D177" s="40" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="E177" s="40" t="n"/>
       <c r="F177" s="40" t="n"/>
       <c r="G177" s="24" t="n"/>
@@ -16899,7 +18006,11 @@
 ·【ZK】通过ZK官方桥，转到ZK：0.06ETH，小狐狸已成功点击【确认】交易，gas fee预估0.002851</t>
         </is>
       </c>
-      <c r="D178" s="40" t="n"/>
+      <c r="D178" s="40" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
       <c r="E178" s="40" t="n"/>
       <c r="F178" s="40" t="n"/>
       <c r="G178" s="24" t="n"/>
@@ -16926,6 +18037,7 @@
         <is>
           <t>√
 √
+·√
 ·√
 ·√</t>
         </is>
@@ -16955,7 +18067,9 @@
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.015 去兑换 USDC小狐狸签名成功
 ·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.0147 去兑换 USDC小狐狸签名成功
 ·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.0032
-·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004</t>
+·OP matcha 任务完成；小狐狸签名成功 OP matcha 完成，从 Ethereum 换 USD Coin 金额 0.004
+·ZK zigzag 任务完成；zigzag 点击【卖】成功，本次：0.01 去兑换 USDC小狐狸签名成功
+·ZK zigzag 任务完成；zigzag 点击【买】成功，本次：用 12.6465 去兑换 ETH小狐狸签名成功</t>
         </is>
       </c>
       <c r="W178" s="26" t="inlineStr">

--- a/eth1000_操作后.xlsx
+++ b/eth1000_操作后.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
@@ -216,166 +216,166 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -731,36 +731,36 @@
   </sheetPr>
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H201"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100">
+      <selection activeCell="H2" activeCellId="0" pane="topLeft" sqref="H2:H201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col width="65.75" customWidth="1" style="24" min="1" max="1"/>
-    <col width="8.289999999999999" customWidth="1" style="25" min="2" max="2"/>
-    <col hidden="1" width="11.86" customWidth="1" style="25" min="3" max="3"/>
-    <col width="9" customWidth="1" style="25" min="4" max="4"/>
-    <col width="7.57" customWidth="1" style="25" min="5" max="5"/>
-    <col width="8" customWidth="1" style="25" min="6" max="6"/>
-    <col width="11.02" customWidth="1" style="25" min="7" max="7"/>
-    <col width="9" customWidth="1" style="25" min="8" max="10"/>
-    <col width="12.43" customWidth="1" style="25" min="11" max="11"/>
-    <col width="9" customWidth="1" style="25" min="12" max="14"/>
-    <col width="12" customWidth="1" style="26" min="15" max="15"/>
-    <col width="13" customWidth="1" style="26" min="16" max="16"/>
-    <col width="10" customWidth="1" style="26" min="17" max="17"/>
-    <col width="12.43" customWidth="1" style="25" min="18" max="18"/>
-    <col width="18.86" customWidth="1" style="25" min="19" max="19"/>
-    <col width="12" customWidth="1" style="26" min="20" max="20"/>
-    <col width="11.72" customWidth="1" style="25" min="21" max="21"/>
-    <col width="98.86" customWidth="1" style="26" min="22" max="22"/>
-    <col width="36.85" customWidth="1" style="25" min="23" max="23"/>
-    <col width="25" customWidth="1" style="25" min="24" max="24"/>
-    <col width="66.86" customWidth="1" style="25" min="25" max="25"/>
+    <col customWidth="1" max="1" min="1" style="24" width="65.75"/>
+    <col customWidth="1" max="2" min="2" style="25" width="8.289999999999999"/>
+    <col customWidth="1" hidden="1" max="3" min="3" style="25" width="11.86"/>
+    <col customWidth="1" max="4" min="4" style="25" width="9"/>
+    <col customWidth="1" max="5" min="5" style="25" width="7.57"/>
+    <col customWidth="1" max="6" min="6" style="25" width="8"/>
+    <col customWidth="1" max="7" min="7" style="25" width="11.02"/>
+    <col customWidth="1" max="10" min="8" style="25" width="9"/>
+    <col customWidth="1" max="11" min="11" style="25" width="12.43"/>
+    <col customWidth="1" max="14" min="12" style="25" width="9"/>
+    <col customWidth="1" max="15" min="15" style="26" width="12"/>
+    <col customWidth="1" max="16" min="16" style="26" width="13"/>
+    <col customWidth="1" max="17" min="17" style="26" width="10"/>
+    <col customWidth="1" max="18" min="18" style="25" width="12.43"/>
+    <col customWidth="1" max="19" min="19" style="25" width="18.86"/>
+    <col customWidth="1" max="20" min="20" style="26" width="12"/>
+    <col customWidth="1" max="21" min="21" style="25" width="11.72"/>
+    <col customWidth="1" max="22" min="22" style="26" width="98.86"/>
+    <col customWidth="1" max="23" min="23" style="25" width="36.85"/>
+    <col customWidth="1" max="24" min="24" style="25" width="25"/>
+    <col customWidth="1" max="25" min="25" style="25" width="66.86"/>
   </cols>
   <sheetData>
-    <row r="1" ht="52.9" customHeight="1" s="27">
+    <row customHeight="1" ht="52.9" r="1" s="27">
       <c r="A1" s="28" t="inlineStr">
         <is>
           <t>0x12d5bd645030dd85080699c8a91c7072967e9c87</t>
@@ -840,7 +840,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="56.95" customHeight="1" s="27">
+    <row customHeight="1" ht="56.95" r="2" s="27">
       <c r="A2" s="28" t="inlineStr">
         <is>
           <t>0x02662179a7f9c9d5107690bf3725a75e0eb00041</t>
@@ -869,7 +869,11 @@
           <t>USDC</t>
         </is>
       </c>
-      <c r="K2" s="24" t="n"/>
+      <c r="K2" s="24" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
       <c r="L2" s="41" t="n"/>
       <c r="M2" s="40" t="n"/>
       <c r="N2" s="40" t="n"/>
@@ -941,7 +945,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="56.95" customHeight="1" s="27">
+    <row customHeight="1" ht="56.95" r="3" s="27">
       <c r="A3" s="28" t="inlineStr">
         <is>
           <t>0x77d9023bf64a306612180451a00a5f5e3142b036</t>
@@ -1029,7 +1033,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="47.45" customHeight="1" s="27">
+    <row customHeight="1" ht="47.45" r="4" s="27">
       <c r="A4" s="28" t="inlineStr">
         <is>
           <t>0xf5ddc19afacca35d0f4533d48dd876f651542e9d</t>
@@ -1131,7 +1135,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="48.75" customHeight="1" s="27">
+    <row customHeight="1" ht="48.75" r="5" s="27">
       <c r="A5" s="28" t="inlineStr">
         <is>
           <t>0x8cab4ce0d6fe819ddbf3e371031bf61bb606dfc8</t>
@@ -1217,7 +1221,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="58.3" customHeight="1" s="27">
+    <row customHeight="1" ht="58.3" r="6" s="27">
       <c r="A6" s="28" t="inlineStr">
         <is>
           <t>0xc62ea2653b4b60081a2802bd65b01f65b64f79be</t>
@@ -1314,7 +1318,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="51.55" customHeight="1" s="27">
+    <row customHeight="1" ht="51.55" r="7" s="27">
       <c r="A7" s="44" t="inlineStr">
         <is>
           <t>0x4325005407ca2c4638e637fd2c98594f7c8a4d48</t>
@@ -1396,7 +1400,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="59.7" customHeight="1" s="27">
+    <row customHeight="1" ht="59.7" r="8" s="27">
       <c r="A8" s="28" t="inlineStr">
         <is>
           <t>0x261147a248d0849ec4fbda5130fc7c01647ec6ee</t>
@@ -1493,7 +1497,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="61.05" customHeight="1" s="27">
+    <row customHeight="1" ht="61.05" r="9" s="27">
       <c r="A9" s="28" t="inlineStr">
         <is>
           <t>0xfa4771750904470939ed910747617f071750d334</t>
@@ -1591,7 +1595,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="55.6" customHeight="1" s="27">
+    <row customHeight="1" ht="55.6" r="10" s="27">
       <c r="A10" s="28" t="inlineStr">
         <is>
           <t>0xbe2952c51f90c96b1b075bc3f57af1fc84381b50</t>
@@ -1694,7 +1698,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="54.25" customHeight="1" s="27">
+    <row customHeight="1" ht="54.25" r="11" s="27">
       <c r="A11" s="28" t="inlineStr">
         <is>
           <t>0x3e3d04141394dcd356f99919dd1528a76cfedd73</t>
@@ -1792,7 +1796,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="51.55" customHeight="1" s="27">
+    <row customHeight="1" ht="51.55" r="12" s="27">
       <c r="A12" s="28" t="inlineStr">
         <is>
           <t>0x830a542642a936176fa558219a51f8f1bbd5a444</t>
@@ -1886,7 +1890,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="13" s="27">
       <c r="A13" s="28" t="inlineStr">
         <is>
           <t>0x5a4934cfa415f0a5fe5c2a176f5b9476f59257c8</t>
@@ -1983,7 +1987,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="14" s="27">
       <c r="A14" s="28" t="inlineStr">
         <is>
           <t>0x7a6810eda940e07b9b979c02af67dd2e6fbdea01</t>
@@ -2069,7 +2073,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="15" s="27">
       <c r="A15" s="28" t="inlineStr">
         <is>
           <t>0x90f5593b4faf3ff4fee7468110b4196109e13c23</t>
@@ -2164,7 +2168,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="16" s="27">
       <c r="A16" s="28" t="inlineStr">
         <is>
           <t>0x5bf23d262f9827e48a772f828c462f48fd6b0045</t>
@@ -2265,7 +2269,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="17" s="27">
       <c r="A17" s="28" t="inlineStr">
         <is>
           <t>0x07b75bd161e4b5bf62cced1039c1b697a3c1bf48</t>
@@ -2358,7 +2362,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="18" s="27">
       <c r="A18" s="28" t="inlineStr">
         <is>
           <t>0x99263cb51ba4b79008819b17b5e3b0d021769e21</t>
@@ -2453,7 +2457,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="19" s="27">
       <c r="A19" s="28" t="inlineStr">
         <is>
           <t>0x0a509720f3a7f13e2d869f7be85ac858fa2010b3</t>
@@ -2536,7 +2540,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="20" s="27">
       <c r="A20" s="28" t="inlineStr">
         <is>
           <t>0xfba900dac833dcca5add483c11e2aec9ed7ad2b5</t>
@@ -2619,7 +2623,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="21" s="27">
       <c r="A21" s="28" t="inlineStr">
         <is>
           <t>0x06789b91f1451b06eb7de842409a5d781349ff35</t>
@@ -2713,7 +2717,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="22" s="27">
       <c r="A22" s="28" t="inlineStr">
         <is>
           <t>0x6945260086bf76504306c735344abec516c5f2f2</t>
@@ -2799,7 +2803,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="23" s="27">
       <c r="A23" s="28" t="inlineStr">
         <is>
           <t>0x5664a523839be49ba831898ecc825987cdaa4d6e</t>
@@ -2896,7 +2900,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="24" s="27">
       <c r="A24" s="28" t="inlineStr">
         <is>
           <t>0x8e92b134ec476b2637a7d5b9b9beb47a55e4669a</t>
@@ -2982,7 +2986,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="25" s="27">
       <c r="A25" s="28" t="inlineStr">
         <is>
           <t>0x53bb214f5f22f80b6597d19b4d2a47156300b3c3</t>
@@ -3085,7 +3089,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="26" s="27">
       <c r="A26" s="28" t="inlineStr">
         <is>
           <t>0xd243188352ed7358606e3367a0df9de846fbc0bd</t>
@@ -3178,7 +3182,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="27" s="27">
       <c r="A27" s="28" t="inlineStr">
         <is>
           <t>0x08dff33cb05e1bd59dfd09ccedc7980496994f48</t>
@@ -3268,7 +3272,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="28" s="27">
       <c r="A28" s="28" t="inlineStr">
         <is>
           <t>0x9636d8d24e64878f2f22e29a3bca42ecec08af56</t>
@@ -3357,7 +3361,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="29" s="27">
       <c r="A29" s="28" t="inlineStr">
         <is>
           <t>0x4b1150db6788a20d1609847f88d3751a97bc6438</t>
@@ -3457,7 +3461,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="30" s="27">
       <c r="A30" s="28" t="inlineStr">
         <is>
           <t>0x2783e12c7bb563c18134a6e916de5878a1a73e75</t>
@@ -3555,7 +3559,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="31" s="27">
       <c r="A31" s="28" t="inlineStr">
         <is>
           <t>0x635792167ed832dc93deffcc6544335d41c75349</t>
@@ -3643,7 +3647,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="32" s="27">
       <c r="A32" s="28" t="inlineStr">
         <is>
           <t>0xc3246a1daa2cfacaa5be4dd3f10c392d40388cc1</t>
@@ -3746,7 +3750,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="33" s="27">
       <c r="A33" s="28" t="inlineStr">
         <is>
           <t>0x6af85ab80a9b42b309ad3ce431e4317d5e3b06da</t>
@@ -3853,7 +3857,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="34" s="27">
       <c r="A34" s="28" t="inlineStr">
         <is>
           <t>0x1617cdd435f3d5514f3afb3850105c113ee828eb</t>
@@ -3951,7 +3955,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="35" s="27">
       <c r="A35" s="28" t="inlineStr">
         <is>
           <t>0xa1bd20d1110abbc03db80701b484f207fc2831c0</t>
@@ -4054,7 +4058,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="36" s="27">
       <c r="A36" s="28" t="inlineStr">
         <is>
           <t>0x8a7a7cbac6f6f8b71666c08e439d1ef107b67231</t>
@@ -4147,7 +4151,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="37" s="27">
       <c r="A37" s="28" t="inlineStr">
         <is>
           <t>0x5e9f378752c7f060b048583ca0ef99d777d68d0c</t>
@@ -4232,7 +4236,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="38" s="27">
       <c r="A38" s="28" t="inlineStr">
         <is>
           <t>0x5c647f190d5a2a5e4b2fddfaa6db09c66b7080d1</t>
@@ -4323,7 +4327,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="39" s="27">
       <c r="A39" s="28" t="inlineStr">
         <is>
           <t>0xdf547d2e6bddd2aa15c4a696cd7492b20fddff04</t>
@@ -4402,7 +4406,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="40" s="27">
       <c r="A40" s="28" t="inlineStr">
         <is>
           <t>0x44f8f034e199fe15662329f42b52cc1c3988d136</t>
@@ -4506,7 +4510,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="41" s="27">
       <c r="A41" s="28" t="inlineStr">
         <is>
           <t>0x45c5f259505113fc0dc2c77c77681cedcfc5b233</t>
@@ -4598,7 +4602,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="42" s="27">
       <c r="A42" s="28" t="inlineStr">
         <is>
           <t>0x2e945850e28cd77bdcf9d3e4f484c9aaac86c091</t>
@@ -4696,7 +4700,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="43" s="27">
       <c r="A43" s="28" t="inlineStr">
         <is>
           <t>0x94187914510d1a9ff56d5b6ebf2ff21ac1062087</t>
@@ -4771,7 +4775,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="44" s="27">
       <c r="A44" s="28" t="inlineStr">
         <is>
           <t>0xfbe5a91db70acf9818ff8db87a232b351e6a1da4</t>
@@ -4874,7 +4878,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="45" s="27">
       <c r="A45" s="28" t="inlineStr">
         <is>
           <t>0xebdeea026222b6c41141019013eb332a9c60f52b</t>
@@ -4967,7 +4971,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="46" s="27">
       <c r="A46" s="28" t="inlineStr">
         <is>
           <t>0x66a12f392f27ad4bb21ab8c17d951c84520f1d75</t>
@@ -5063,7 +5067,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="47" s="27">
       <c r="A47" s="28" t="inlineStr">
         <is>
           <t>0x1a2b12e60cb3a745f43817e4aac99742d610c1b0</t>
@@ -5153,7 +5157,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="48" s="27">
       <c r="A48" s="28" t="inlineStr">
         <is>
           <t>0xf1147f8b03a4a09e3d7af5f2acb618ae36705e4a</t>
@@ -5252,7 +5256,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="49" s="27">
       <c r="A49" s="28" t="inlineStr">
         <is>
           <t>0xc7bbf906e86458b49d8b31d4fcfdbe1c3a55254c</t>
@@ -5363,7 +5367,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="50" s="27">
       <c r="A50" s="28" t="inlineStr">
         <is>
           <t>0xc4504e2e7fc7f7a41e39f6a2372ee469fa42438b</t>
@@ -5464,7 +5468,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="51" s="27">
       <c r="A51" s="28" t="inlineStr">
         <is>
           <t>0xc15b3269d49afb9a63f4ac64221cdcb0ebe41f68</t>
@@ -5578,7 +5582,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="52" s="27">
       <c r="A52" s="44" t="inlineStr">
         <is>
           <t>0x00ddf48b657323694409d4a6d7e6175df3f2e24c</t>
@@ -5680,7 +5684,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="53" s="27">
       <c r="A53" s="28" t="inlineStr">
         <is>
           <t>0x0fc013436ecfa181f2994977f599da571b6fc88c</t>
@@ -5786,7 +5790,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="54" s="27">
       <c r="A54" s="28" t="inlineStr">
         <is>
           <t>0x5403f46962b863751580550e404c7b6e0bec6644</t>
@@ -5882,7 +5886,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="55" s="27">
       <c r="A55" s="28" t="inlineStr">
         <is>
           <t>0x4fe7c586c71c6b21f5d4a82f4d4fc02d8388848c</t>
@@ -5979,7 +5983,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="56" s="27">
       <c r="A56" s="28" t="inlineStr">
         <is>
           <t>0x91d6bff23f4e4ebd4f46a1456b19681b4444b338</t>
@@ -6071,7 +6075,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="57" s="27">
       <c r="A57" s="28" t="inlineStr">
         <is>
           <t>0xeffbeb9ace834f8490271a1cdfd821e44bbea130</t>
@@ -6175,7 +6179,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="58" s="27">
       <c r="A58" s="28" t="inlineStr">
         <is>
           <t>0x1f2f5bd41ccd36a45cdff1d6e9a6a39ed3860810</t>
@@ -6275,7 +6279,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="59" s="27">
       <c r="A59" s="28" t="inlineStr">
         <is>
           <t>0x7e09a169e6943fc793159573b2a7d5095ce1f8ef</t>
@@ -6375,7 +6379,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="60" s="27">
       <c r="A60" s="28" t="inlineStr">
         <is>
           <t>0x07fe4533077291d9211e8b6ee418c6bb973dfbc7</t>
@@ -6468,7 +6472,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="61" s="27">
       <c r="A61" s="28" t="inlineStr">
         <is>
           <t>0x74767cf992b5a033533121e920afed3ba7a272ab</t>
@@ -6562,7 +6566,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="62" s="27">
       <c r="A62" s="28" t="inlineStr">
         <is>
           <t>0x50aba257019f1ce87da905b9e10cbe9daa44b369</t>
@@ -6656,7 +6660,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="63" s="27">
       <c r="A63" s="28" t="inlineStr">
         <is>
           <t>0x95a0c4aab9dd190e0fc33cd4c97c9b346ffc2db2</t>
@@ -6754,7 +6758,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="64" s="27">
       <c r="A64" s="28" t="inlineStr">
         <is>
           <t>0x0233c8fb7bf45b52553b1443e5cedbeae3715bf6</t>
@@ -6853,7 +6857,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="65" s="27">
       <c r="A65" s="28" t="inlineStr">
         <is>
           <t>0xee7863bcd9fc8fe38f10f32b50c0ec9477d099ae</t>
@@ -6944,7 +6948,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="66" s="27">
       <c r="A66" s="28" t="inlineStr">
         <is>
           <t>0x8dcd0ee994e7cbff8497a5725e6f3c43c505c3b9</t>
@@ -7049,7 +7053,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="67" s="27">
       <c r="A67" s="28" t="inlineStr">
         <is>
           <t>0x58227dc321cbfe3cd2d22a59f8904a03e72613df</t>
@@ -7146,7 +7150,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="68" s="27">
       <c r="A68" s="28" t="inlineStr">
         <is>
           <t>0x5adb75fa5836e72b423d455ab93118dc714c7649</t>
@@ -7241,7 +7245,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="69" s="27">
       <c r="A69" s="28" t="inlineStr">
         <is>
           <t>0x4b961608e462e0fff4af3dc3274161d80a87c72b</t>
@@ -7334,7 +7338,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="70" s="27">
       <c r="A70" s="28" t="inlineStr">
         <is>
           <t>0x39a48898625cfe545fb712ab754f7f92b61291eb</t>
@@ -7429,7 +7433,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="71" s="27">
       <c r="A71" s="28" t="inlineStr">
         <is>
           <t>0x1fe1560ad732dd216c1b30b7f25ea2cc298a05fe</t>
@@ -7514,7 +7518,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="72" s="27">
       <c r="A72" s="28" t="inlineStr">
         <is>
           <t>0x9b18431bec41d40393a27671d1f142e2745e7b7f</t>
@@ -7613,7 +7617,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="73" s="27">
       <c r="A73" s="28" t="inlineStr">
         <is>
           <t>0x2ef801704bfa7b175419fbfda83401a1c69a8b41</t>
@@ -7716,7 +7720,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="74" s="27">
       <c r="A74" s="28" t="inlineStr">
         <is>
           <t>0x174c50d8f6298ec9b74c90d9aa3071296bdc15da</t>
@@ -7814,7 +7818,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="75" s="27">
       <c r="A75" s="28" t="inlineStr">
         <is>
           <t>0x4b63689f144cb986f24bc9bf66009bff461b01d2</t>
@@ -7904,7 +7908,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="76" s="27">
       <c r="A76" s="28" t="inlineStr">
         <is>
           <t>0x967d0f2b2e829bb1a0a51ee982c392e5feaf3a85</t>
@@ -7997,7 +8001,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="77" s="27">
       <c r="A77" s="28" t="inlineStr">
         <is>
           <t>0x2e94e5c6989016c3ea1264337aa3d9ce532623cf</t>
@@ -8100,7 +8104,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="78" s="27">
       <c r="A78" s="28" t="inlineStr">
         <is>
           <t>0xc96dbef4dde9082171e7cd1a2c341008091cc8a8</t>
@@ -8190,7 +8194,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="79" s="27">
       <c r="A79" s="28" t="inlineStr">
         <is>
           <t>0x2fb64ca021a89a3af26eec4f363bb5b3502e781a</t>
@@ -8291,7 +8295,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="80" s="27">
       <c r="A80" s="28" t="inlineStr">
         <is>
           <t>0x3199e0e6f0eee8bf6476a03c964dad4655b20d2e</t>
@@ -8390,7 +8394,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="81" s="27">
       <c r="A81" s="28" t="inlineStr">
         <is>
           <t>0x08551dcd79818c2e178574f62c51398923286646</t>
@@ -8484,7 +8488,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="82" s="27">
       <c r="A82" s="28" t="inlineStr">
         <is>
           <t>0xfb96c80e85e854ade3e24c062282a17ee49d9c1d</t>
@@ -8581,7 +8585,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="83" s="27">
       <c r="A83" s="28" t="inlineStr">
         <is>
           <t>0x8e66aa1c9dc965d9ae872505b0f0f6bb6ce45f77</t>
@@ -8675,7 +8679,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="84" s="27">
       <c r="A84" s="28" t="inlineStr">
         <is>
           <t>0x5381366083ad039ff65bd7df8dba07a24e38a6a7</t>
@@ -8760,7 +8764,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="85" s="27">
       <c r="A85" s="28" t="inlineStr">
         <is>
           <t>0x85f70e5f090ea66bc489278911838b261a63debd</t>
@@ -8850,7 +8854,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="86" s="27">
       <c r="A86" s="28" t="inlineStr">
         <is>
           <t>0xa02bc09823990b627e38363808db67ee36b8c4f8</t>
@@ -8941,7 +8945,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="87" s="27">
       <c r="A87" s="28" t="inlineStr">
         <is>
           <t>0xff8d297f22f414b17ca8d426c5365a86d38370ca</t>
@@ -9029,7 +9033,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="88" s="27">
       <c r="A88" s="44" t="inlineStr">
         <is>
           <t>0x4d798ccc2d71ebf48ed1f79a85b3baee04898f45</t>
@@ -9120,7 +9124,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="89" s="27">
       <c r="A89" s="28" t="inlineStr">
         <is>
           <t>0x7e16c50d178fd6b29dca845489fc32b1ac41a625</t>
@@ -9211,7 +9215,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="90" s="27">
       <c r="A90" s="28" t="inlineStr">
         <is>
           <t>0xb518994bbdd0604d2b537af5cf840d4a1c7b14c7</t>
@@ -9295,7 +9299,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="91" s="27">
       <c r="A91" s="28" t="inlineStr">
         <is>
           <t>0x32cc6c3f67786afd0c3acb3967cef4c59d6e4f99</t>
@@ -9388,7 +9392,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="92" s="27">
       <c r="A92" s="28" t="inlineStr">
         <is>
           <t>0x69d3405f965e1e96c2cc2bbe7dbb3c44878faac0</t>
@@ -9496,7 +9500,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="93" s="27">
       <c r="A93" s="28" t="inlineStr">
         <is>
           <t>0x6646b912dc445b78a9f7239694fb1319726e3826</t>
@@ -9584,7 +9588,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="94" s="27">
       <c r="A94" s="28" t="inlineStr">
         <is>
           <t>0x45d5d6b6e667760022b74f65dd05d0101ff67c93</t>
@@ -9668,7 +9672,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="95" s="27">
       <c r="A95" s="28" t="inlineStr">
         <is>
           <t>0xba427f818cec2bb104a0f71d00723c8c0026993d</t>
@@ -9753,7 +9757,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="19.5" customHeight="1" s="27">
+    <row customHeight="1" ht="19.5" r="96" s="27">
       <c r="A96" s="28" t="inlineStr">
         <is>
           <t>0x4d00ba89af82c2450a4f1ecfd85948215f42e30d</t>
@@ -9836,7 +9840,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="97" s="27">
       <c r="A97" s="28" t="inlineStr">
         <is>
           <t>0x62a91f42a8b7d70e55cef25317bca820ad2cbbd5</t>
@@ -9929,7 +9933,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="98" s="27">
       <c r="A98" s="28" t="inlineStr">
         <is>
           <t>0x3aa01b3675b20353ad9e30f55075ebedfdee92fd</t>
@@ -10024,7 +10028,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="99" s="27">
       <c r="A99" s="28" t="inlineStr">
         <is>
           <t>0xb217dd96130f83dbe9ba95ee426968d260918b55</t>
@@ -10124,7 +10128,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="100" s="27">
       <c r="A100" s="28" t="inlineStr">
         <is>
           <t>0x81ce67fbf56c7609820c14fbc9623411b070831a</t>
@@ -10222,7 +10226,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="101" s="27">
       <c r="A101" s="28" t="inlineStr">
         <is>
           <t>0xcd84d4ff44e4895cefb093187f565c0422e4871e</t>
@@ -10312,7 +10316,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="102" s="27">
       <c r="A102" s="28" t="inlineStr">
         <is>
           <t>0x8e74f5d739974f09d455a09c8121dce69127c129</t>
@@ -10414,7 +10418,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="103" s="27">
       <c r="A103" s="28" t="inlineStr">
         <is>
           <t>0x961313a46c85ffd8f3995e25c83ce5dd2eb5a17d</t>
@@ -10511,7 +10515,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="104" s="27">
       <c r="A104" s="28" t="inlineStr">
         <is>
           <t>0x366cd21f547493df436bb3e9d5274594efa6057b</t>
@@ -10608,7 +10612,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="105" s="27">
       <c r="A105" s="28" t="inlineStr">
         <is>
           <t>0x5f3d9750e6dcea9dee4731b99c68c3d06c31f94e</t>
@@ -10707,7 +10711,7 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="106" s="27">
       <c r="A106" s="28" t="inlineStr">
         <is>
           <t>0x925fb95203b57307c7f8368d9852528aae87f8ec</t>
@@ -10810,7 +10814,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="107" s="27">
       <c r="A107" s="28" t="inlineStr">
         <is>
           <t>0xa85342f95e81f178f27a12dfbaa7ac1fc9858814</t>
@@ -10911,7 +10915,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="108" s="27">
       <c r="A108" s="28" t="inlineStr">
         <is>
           <t>0xf498c5761ee87c0620f8a31ac67232782a48d2fc</t>
@@ -11007,7 +11011,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="109" s="27">
       <c r="A109" s="28" t="inlineStr">
         <is>
           <t>0xeb8467f557fe80cf8a875000d34ff2fa945257bc</t>
@@ -11109,7 +11113,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="110" s="27">
       <c r="A110" s="28" t="inlineStr">
         <is>
           <t>0xc4b547c63be69743d3a6b566bc60f44de5e947df</t>
@@ -11206,7 +11210,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="111" s="27">
       <c r="A111" s="28" t="inlineStr">
         <is>
           <t>0xa5518c67cffb36e2a99f2a2b7669d20006c0b361</t>
@@ -11304,7 +11308,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="112" s="27">
       <c r="A112" s="28" t="inlineStr">
         <is>
           <t>0xb1f70a9d642ed1141f5d26d1760879d0a61d54dc</t>
@@ -11412,7 +11416,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="113" s="27">
       <c r="A113" s="28" t="inlineStr">
         <is>
           <t>0x545ff4b2f7079eb8eeb8d4cebc99582988bd368f</t>
@@ -11516,7 +11520,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="114" s="27">
       <c r="A114" s="28" t="inlineStr">
         <is>
           <t>0xb1c95f7cc6458c0ec96889111c0e277e07e72850</t>
@@ -11620,7 +11624,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="115" s="27">
       <c r="A115" s="28" t="inlineStr">
         <is>
           <t>0x99f59d188968bacfbf38999028857e35534f701d</t>
@@ -11719,7 +11723,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="116" s="27">
       <c r="A116" s="28" t="inlineStr">
         <is>
           <t>0x38c74f646cd99336f465ec90c99c795c439c9223</t>
@@ -11827,7 +11831,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="117" s="27">
       <c r="A117" s="28" t="inlineStr">
         <is>
           <t>0x0c499f3defe4dbd9533229efd09d25395410dd4e</t>
@@ -11933,7 +11937,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="118" s="27">
       <c r="A118" s="28" t="inlineStr">
         <is>
           <t>0xdff540cc732d8237535bead7a1f66d71cad113ea</t>
@@ -12032,7 +12036,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="119" s="27">
       <c r="A119" s="28" t="inlineStr">
         <is>
           <t>0x193d3058a538900fa1b6166f0283ef2675610190</t>
@@ -12127,7 +12131,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="120" s="27">
       <c r="A120" s="28" t="inlineStr">
         <is>
           <t>0x5a2d1bd26285592be7faa590dc02c465c0d686e1</t>
@@ -12221,7 +12225,7 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="121" s="27">
       <c r="A121" s="28" t="inlineStr">
         <is>
           <t>0x1d5663fd21bff4ba7a8897ea723aa5fd0557c684</t>
@@ -12318,7 +12322,7 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="122" s="27">
       <c r="A122" s="28" t="inlineStr">
         <is>
           <t>0x4e46e9704e6266e20242a8d7910cd5ed3df65cc6</t>
@@ -12411,7 +12415,7 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="123" s="27">
       <c r="A123" s="28" t="inlineStr">
         <is>
           <t>0x6ec0bfc84474c8f74bec63a55ee5250e0a44c934</t>
@@ -12507,7 +12511,7 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="124" s="27">
       <c r="A124" s="44" t="inlineStr">
         <is>
           <t>0x4bc788bbf0c1a4269e552b6978968fbb325e87c4</t>
@@ -12603,7 +12607,7 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="125" s="27">
       <c r="A125" s="28" t="inlineStr">
         <is>
           <t>0x320e5fb5654bda8040a08686f50702f7d9853b6a</t>
@@ -12707,7 +12711,7 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="126" s="27">
       <c r="A126" s="28" t="inlineStr">
         <is>
           <t>0xf6c0d4d667703dbfe8685eaa44c79aabc43ec089</t>
@@ -12819,7 +12823,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="127" s="27">
       <c r="A127" s="28" t="inlineStr">
         <is>
           <t>0x9786c3a7cf5200640d98bec387708ef041454f2f</t>
@@ -12909,7 +12913,7 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="128" s="27">
       <c r="A128" s="28" t="inlineStr">
         <is>
           <t>0x1c7c947046f6b6e9e465785291f060345231add5</t>
@@ -13026,7 +13030,7 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="129" s="27">
       <c r="A129" s="28" t="inlineStr">
         <is>
           <t>0xa912ddd96702031672719c1ab644dfedbdc1c40a</t>
@@ -13122,7 +13126,7 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="130" s="27">
       <c r="A130" s="28" t="inlineStr">
         <is>
           <t>0x4bd281148b2b484e0a97852cac1ddaa54d176cc6</t>
@@ -13222,7 +13226,7 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="131" s="27">
       <c r="A131" s="28" t="inlineStr">
         <is>
           <t>0x98729dc029c4135e41272d70fc2d1e326e1ce81d</t>
@@ -13325,7 +13329,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="132" s="27">
       <c r="A132" s="28" t="inlineStr">
         <is>
           <t>0x433865883b55c70ecba5731863ecf97f0999812e</t>
@@ -13431,7 +13435,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="133" s="27">
       <c r="A133" s="44" t="inlineStr">
         <is>
           <t>0x790b6474505b70638d597c68c8c2f31264566874</t>
@@ -13532,7 +13536,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="134" s="27">
       <c r="A134" s="28" t="inlineStr">
         <is>
           <t>0x2320603da6734597a3179680089770de58a698f9</t>
@@ -13749,7 +13753,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="135" s="27">
       <c r="A135" s="28" t="inlineStr">
         <is>
           <t>0x0ed4aa7b5d492b5949023784c2bfcdbdf39269b0</t>
@@ -13857,7 +13861,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="136" s="27">
       <c r="A136" s="44" t="inlineStr">
         <is>
           <t>0xf5fb9f24ca74efbc917b72f39618cf29b4aa590d</t>
@@ -13958,7 +13962,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="137" s="27">
       <c r="A137" s="28" t="inlineStr">
         <is>
           <t>0xf4a886568540cb12722be8f4f18c652740e9fedc</t>
@@ -14053,7 +14057,7 @@
         </is>
       </c>
     </row>
-    <row r="138" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="138" s="27">
       <c r="A138" s="44" t="inlineStr">
         <is>
           <t>0x759176d547b520237623f5fc77e0622464fb89fb</t>
@@ -14148,7 +14152,7 @@
         </is>
       </c>
     </row>
-    <row r="139" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="139" s="27">
       <c r="A139" s="28" t="inlineStr">
         <is>
           <t>0x512ba5f7f891ee7a6082ca90aba44b2aece1b285</t>
@@ -14250,7 +14254,7 @@
         </is>
       </c>
     </row>
-    <row r="140" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="140" s="27">
       <c r="A140" s="44" t="inlineStr">
         <is>
           <t>0x8b20496bbaf0396c7eb1e25c71e5b7cd550889a2</t>
@@ -14346,7 +14350,7 @@
         </is>
       </c>
     </row>
-    <row r="141" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="141" s="27">
       <c r="A141" s="44" t="inlineStr">
         <is>
           <t>0xa87abd44630a87e45e68faf37c3b61e03d322868</t>
@@ -14450,7 +14454,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="142" s="27">
       <c r="A142" s="28" t="inlineStr">
         <is>
           <t>0xcac3f6a05658e8841df42ed813d6e4799e287db6</t>
@@ -14553,7 +14557,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="143" s="27">
       <c r="A143" s="28" t="inlineStr">
         <is>
           <t>0xac37e9f1f8435ebd952005ca4718437330bf8cc6</t>
@@ -14654,7 +14658,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="144" s="27">
       <c r="A144" s="28" t="inlineStr">
         <is>
           <t>0x9b53b86bd4bf75a9a8b20e5cd1dfffe372b9ad25</t>
@@ -14752,7 +14756,7 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="145" s="27">
       <c r="A145" s="44" t="inlineStr">
         <is>
           <t>0x3e433a309a3232128ca6fac549e2a1265e235741</t>
@@ -14843,7 +14847,7 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="146" s="27">
       <c r="A146" s="44" t="inlineStr">
         <is>
           <t>0x151f7b0c894c468d0a3de6f38ece50123e94d382</t>
@@ -14941,7 +14945,7 @@
         </is>
       </c>
     </row>
-    <row r="147" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="147" s="27">
       <c r="A147" s="28" t="inlineStr">
         <is>
           <t>0x1d3b3f58c3c43b25ef2653972f4ac0661a2ca167</t>
@@ -15043,7 +15047,7 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="148" s="27">
       <c r="A148" s="28" t="inlineStr">
         <is>
           <t>0xeaae34f33d6fecc948fd72ba2f508bc314ee6520</t>
@@ -15132,7 +15136,7 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="149" s="27">
       <c r="A149" s="44" t="inlineStr">
         <is>
           <t>0xf2b68f0f71e97a56379c4f6065e41fafc7bf34c3</t>
@@ -15232,7 +15236,7 @@
         </is>
       </c>
     </row>
-    <row r="150" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="150" s="27">
       <c r="A150" s="28" t="inlineStr">
         <is>
           <t>0x792e125b95739581a27aa344a028f88bc97a522a</t>
@@ -15320,7 +15324,7 @@
         </is>
       </c>
     </row>
-    <row r="151" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="151" s="27">
       <c r="A151" s="28" t="inlineStr">
         <is>
           <t>0xe74c33e5d7c727c88ae6d1d7c3f0ed30d1af4e5e</t>
@@ -15423,7 +15427,7 @@
         </is>
       </c>
     </row>
-    <row r="152" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="152" s="27">
       <c r="A152" s="44" t="inlineStr">
         <is>
           <t>0x5ed96b594e327287cbb8863a4058a615c72ebae5</t>
@@ -15529,7 +15533,7 @@
         </is>
       </c>
     </row>
-    <row r="153" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="153" s="27">
       <c r="A153" s="44" t="inlineStr">
         <is>
           <t>0x1468fcdd8f711e06fef3618a219d4e33f6c315e6</t>
@@ -15636,7 +15640,7 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="154" s="27">
       <c r="A154" s="28" t="inlineStr">
         <is>
           <t>0xc6283a643dd2833715bee047ddb56c5eb560f0d6</t>
@@ -15744,7 +15748,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="155" s="27">
       <c r="A155" s="44" t="inlineStr">
         <is>
           <t>0xa1f3fde220f83d7fe0bd4067a7255bf3d4e32dc9</t>
@@ -15846,7 +15850,7 @@
         </is>
       </c>
     </row>
-    <row r="156" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="156" s="27">
       <c r="A156" s="28" t="inlineStr">
         <is>
           <t>0x45613bf771c3a643909846f6638791d76b51b945</t>
@@ -15951,7 +15955,7 @@
         </is>
       </c>
     </row>
-    <row r="157" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="157" s="27">
       <c r="A157" s="28" t="inlineStr">
         <is>
           <t>0xedd75e036b7ccdd2dda3a6f4d80d491534d43aac</t>
@@ -16046,7 +16050,7 @@
         </is>
       </c>
     </row>
-    <row r="158" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="158" s="27">
       <c r="A158" s="44" t="inlineStr">
         <is>
           <t>0x92c2a099143369dbbfcf1ca4ef9c1c3cc872d7d9</t>
@@ -16136,7 +16140,7 @@
         </is>
       </c>
     </row>
-    <row r="159" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="159" s="27">
       <c r="A159" s="44" t="inlineStr">
         <is>
           <t>0x657bdaeb4be7c6dd583913d70fa33f8b93d22bc2</t>
@@ -16235,7 +16239,7 @@
         </is>
       </c>
     </row>
-    <row r="160" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="160" s="27">
       <c r="A160" s="28" t="inlineStr">
         <is>
           <t>0x525ee2b39df95a938f8ee72bfc3509b492a0ea1b</t>
@@ -16333,7 +16337,7 @@
         </is>
       </c>
     </row>
-    <row r="161" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="161" s="27">
       <c r="A161" s="44" t="inlineStr">
         <is>
           <t>0xb340bb14343f1915a084ff39fe6b1367cf61bafc</t>
@@ -16437,7 +16441,7 @@
         </is>
       </c>
     </row>
-    <row r="162" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="162" s="27">
       <c r="A162" s="28" t="inlineStr">
         <is>
           <t>0xaf389135be833248d97776b068a2bc5c7ec4a0f2</t>
@@ -16525,7 +16529,7 @@
         </is>
       </c>
     </row>
-    <row r="163" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="163" s="27">
       <c r="A163" s="44" t="inlineStr">
         <is>
           <t>0x865a621349b7d15592efa776728f3ed3660e9025</t>
@@ -16629,7 +16633,7 @@
         </is>
       </c>
     </row>
-    <row r="164" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="164" s="27">
       <c r="A164" s="28" t="inlineStr">
         <is>
           <t>0x7514fa69fd07ab5ab987683c276bbc1e8c010dc1</t>
@@ -16712,7 +16716,7 @@
         </is>
       </c>
     </row>
-    <row r="165" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="165" s="27">
       <c r="A165" s="44" t="inlineStr">
         <is>
           <t>0x9920d3a27b66c82ffcf69ee439477379d6471d92</t>
@@ -16813,7 +16817,7 @@
         </is>
       </c>
     </row>
-    <row r="166" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="166" s="27">
       <c r="A166" s="28" t="inlineStr">
         <is>
           <t>0x99ea0cd38fb789b0e20fded004af0b61430263c0</t>
@@ -16915,7 +16919,7 @@
         </is>
       </c>
     </row>
-    <row r="167" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="167" s="27">
       <c r="A167" s="28" t="inlineStr">
         <is>
           <t>0xa8c07ceb6f77a687f10e0698e7f97a9cf37c641d</t>
@@ -17007,7 +17011,7 @@
         </is>
       </c>
     </row>
-    <row r="168" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="168" s="27">
       <c r="A168" s="28" t="inlineStr">
         <is>
           <t>0x60832ce6ed7688b97c12ace5fadc24394809e02f</t>
@@ -17101,7 +17105,7 @@
         </is>
       </c>
     </row>
-    <row r="169" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="169" s="27">
       <c r="A169" s="28" t="inlineStr">
         <is>
           <t>0x8cc51287ccb910ae3ddc8151df865fb8448ce760</t>
@@ -17192,7 +17196,7 @@
         </is>
       </c>
     </row>
-    <row r="170" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="170" s="27">
       <c r="A170" s="28" t="inlineStr">
         <is>
           <t>0x6496973e1a2640dcd0ca6b3a0bc46da3bf457356</t>
@@ -17309,7 +17313,7 @@
         </is>
       </c>
     </row>
-    <row r="171" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="171" s="27">
       <c r="A171" s="44" t="inlineStr">
         <is>
           <t>0xa9267f4c446cc3369ed02e54fae966ba6115e883</t>
@@ -17420,7 +17424,7 @@
         </is>
       </c>
     </row>
-    <row r="172" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="172" s="27">
       <c r="A172" s="28" t="inlineStr">
         <is>
           <t>0x06e4edea365a91d8a0ccc8acb6c6be2a7a27df0c</t>
@@ -17516,7 +17520,7 @@
         </is>
       </c>
     </row>
-    <row r="173" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="173" s="27">
       <c r="A173" s="44" t="inlineStr">
         <is>
           <t>0x9519cfc3d294d94ac89a2309ffb0213387e67893</t>
@@ -17620,7 +17624,7 @@
         </is>
       </c>
     </row>
-    <row r="174" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="174" s="27">
       <c r="A174" s="28" t="inlineStr">
         <is>
           <t>0x50b684d91908e0da7544026cb68f277370af3bbe</t>
@@ -17721,7 +17725,7 @@
         </is>
       </c>
     </row>
-    <row r="175" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="175" s="27">
       <c r="A175" s="44" t="inlineStr">
         <is>
           <t>0x6c9143dd9f2e0e0ea194adf89c75ebc5865d6c2d</t>
@@ -17814,7 +17818,7 @@
         </is>
       </c>
     </row>
-    <row r="176" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="176" s="27">
       <c r="A176" s="28" t="inlineStr">
         <is>
           <t>0x9e462421a103f40ff584563c314942e4128fae42</t>
@@ -17894,7 +17898,7 @@
         </is>
       </c>
     </row>
-    <row r="177" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="177" s="27">
       <c r="A177" s="44" t="inlineStr">
         <is>
           <t>0xd6f989b9a65850ba2a4de34312ac61b9158b882d</t>
@@ -17993,7 +17997,7 @@
         </is>
       </c>
     </row>
-    <row r="178" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="178" s="27">
       <c r="A178" s="28" t="inlineStr">
         <is>
           <t>0xd7db508bbb8deca4505749b921905fcc9c2c91a2</t>
@@ -18086,7 +18090,7 @@
         </is>
       </c>
     </row>
-    <row r="179" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="179" s="27">
       <c r="A179" s="28" t="inlineStr">
         <is>
           <t>0x90f9d51562a47c06bc1101e93ad0eea2477e88f3</t>
@@ -18178,7 +18182,7 @@
         </is>
       </c>
     </row>
-    <row r="180" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="180" s="27">
       <c r="A180" s="28" t="inlineStr">
         <is>
           <t>0x521d022dce49a25ebb34d008b69f4430d56a511b</t>
@@ -18270,7 +18274,7 @@
         </is>
       </c>
     </row>
-    <row r="181" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="181" s="27">
       <c r="A181" s="28" t="inlineStr">
         <is>
           <t>0xd5c5fea355dcfe8ef309000e5b6aa81b954ef015</t>
@@ -18365,7 +18369,7 @@
         </is>
       </c>
     </row>
-    <row r="182" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="182" s="27">
       <c r="A182" s="44" t="inlineStr">
         <is>
           <t>0x5cfe7a64a6c9de565c317a86b1ffa20139e57a4f</t>
@@ -18458,7 +18462,7 @@
         </is>
       </c>
     </row>
-    <row r="183" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="183" s="27">
       <c r="A183" s="28" t="inlineStr">
         <is>
           <t>0x01e0508f7c236debea96c3df3b22b967a7e6570a</t>
@@ -18552,7 +18556,7 @@
         </is>
       </c>
     </row>
-    <row r="184" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="184" s="27">
       <c r="A184" s="28" t="inlineStr">
         <is>
           <t>0x2c60a8ffce45c52cbee0d88f2cd42af841cbca13</t>
@@ -18651,7 +18655,7 @@
         </is>
       </c>
     </row>
-    <row r="185" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="185" s="27">
       <c r="A185" s="28" t="inlineStr">
         <is>
           <t>0xefac8d081c360299f92bd2fe00150b20a83885ed</t>
@@ -18741,7 +18745,7 @@
         </is>
       </c>
     </row>
-    <row r="186" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="186" s="27">
       <c r="A186" s="44" t="inlineStr">
         <is>
           <t>0x562e0b08023ab992b4355a4391c087963b599919</t>
@@ -18848,7 +18852,7 @@
         </is>
       </c>
     </row>
-    <row r="187" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="187" s="27">
       <c r="A187" s="28" t="inlineStr">
         <is>
           <t>0x20e791b1351964ff66ba4e8b68139315d4ad0853</t>
@@ -18928,7 +18932,7 @@
         </is>
       </c>
     </row>
-    <row r="188" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="188" s="27">
       <c r="A188" s="28" t="inlineStr">
         <is>
           <t>0xa749241ac9ce2c97d099059757e01cf3b389e56f</t>
@@ -19017,7 +19021,7 @@
         </is>
       </c>
     </row>
-    <row r="189" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="189" s="27">
       <c r="A189" s="28" t="inlineStr">
         <is>
           <t>0x495ded2ceec8f7520bd9e01085c2a833ed9279f5</t>
@@ -19108,7 +19112,7 @@
         </is>
       </c>
     </row>
-    <row r="190" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="190" s="27">
       <c r="A190" s="28" t="inlineStr">
         <is>
           <t>0x3129aae0c2cc261707cd9fae1dfcca0c2e0ab6ae</t>
@@ -19188,7 +19192,7 @@
         </is>
       </c>
     </row>
-    <row r="191" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="191" s="27">
       <c r="A191" s="44" t="inlineStr">
         <is>
           <t>0xe92e56cd8e6c4c9a2c9def572fb96b532a8940d6</t>
@@ -19285,7 +19289,7 @@
         </is>
       </c>
     </row>
-    <row r="192" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="192" s="27">
       <c r="A192" s="28" t="inlineStr">
         <is>
           <t>0x96c088133f97f43fe38c175407c7cc91337ce0a9</t>
@@ -19382,7 +19386,7 @@
         </is>
       </c>
     </row>
-    <row r="193" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="193" s="27">
       <c r="A193" s="28" t="inlineStr">
         <is>
           <t>0xe5694c0ab756003ab963518f15dcba23f75a6143</t>
@@ -19481,7 +19485,7 @@
         </is>
       </c>
     </row>
-    <row r="194" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="194" s="27">
       <c r="A194" s="44" t="inlineStr">
         <is>
           <t>0x9eb9ef68b1de521a9cc9d8e52b86dc813defc00d</t>
@@ -19571,7 +19575,7 @@
         </is>
       </c>
     </row>
-    <row r="195" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="195" s="27">
       <c r="A195" s="28" t="inlineStr">
         <is>
           <t>0xcf8972bd2750b2c41063c7b2daa69a50bb20ffab</t>
@@ -19664,7 +19668,7 @@
         </is>
       </c>
     </row>
-    <row r="196" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="196" s="27">
       <c r="A196" s="28" t="inlineStr">
         <is>
           <t>0x8327fea3c808a241fe2c0d66e2d1e88349522642</t>
@@ -19761,7 +19765,7 @@
         </is>
       </c>
     </row>
-    <row r="197" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="197" s="27">
       <c r="A197" s="28" t="inlineStr">
         <is>
           <t>0x6237f75e494e6bfd4b6cb0a9ec37cf2b78411057</t>
@@ -19851,7 +19855,7 @@
         </is>
       </c>
     </row>
-    <row r="198" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="198" s="27">
       <c r="A198" s="28" t="inlineStr">
         <is>
           <t>0x49ff1674310531dd42f0a0f654a49094ea018c6e</t>
@@ -19946,7 +19950,7 @@
         </is>
       </c>
     </row>
-    <row r="199" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="199" s="27">
       <c r="A199" s="28" t="inlineStr">
         <is>
           <t>0xf41f968f6decd082d1c2f6e3b2bbf2911390503e</t>
@@ -20034,7 +20038,7 @@
         </is>
       </c>
     </row>
-    <row r="200" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="200" s="27">
       <c r="A200" s="28" t="inlineStr">
         <is>
           <t>0x6aee777232ea5a6e32aaef980214e43481777f7c</t>
@@ -20131,7 +20135,7 @@
         </is>
       </c>
     </row>
-    <row r="201" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="201" s="27">
       <c r="A201" s="28" t="inlineStr">
         <is>
           <t>0xb79e9e58d5e627a75dedee0dc09f4722a83a822e</t>
@@ -20143,7 +20147,7 @@
         </is>
       </c>
     </row>
-    <row r="202" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="202" s="27">
       <c r="A202" s="28" t="inlineStr">
         <is>
           <t>0x5858ca83d71e8fda7587afea9d1f6554f52a99d9</t>
@@ -20155,7 +20159,7 @@
         </is>
       </c>
     </row>
-    <row r="203" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="203" s="27">
       <c r="A203" s="28" t="inlineStr">
         <is>
           <t>0xea9141617a9c042774ef2481d2a39cf331ed77b6</t>
@@ -20167,7 +20171,7 @@
         </is>
       </c>
     </row>
-    <row r="204" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="204" s="27">
       <c r="A204" s="28" t="inlineStr">
         <is>
           <t>0x89d115fb6fa72d38c9ebf8b8403594aeed0237e2</t>
@@ -20179,7 +20183,7 @@
         </is>
       </c>
     </row>
-    <row r="205" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="205" s="27">
       <c r="A205" s="28" t="inlineStr">
         <is>
           <t>0x9859d0a4442c944d6ae7712d8a916c7968071a0f</t>
@@ -20191,7 +20195,7 @@
         </is>
       </c>
     </row>
-    <row r="206" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="206" s="27">
       <c r="A206" s="28" t="inlineStr">
         <is>
           <t>0x1b0d8a199b321d2f78c9889d54c064fcae4708c5</t>
@@ -20203,7 +20207,7 @@
         </is>
       </c>
     </row>
-    <row r="207" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="207" s="27">
       <c r="A207" s="28" t="inlineStr">
         <is>
           <t>0x4b53e88f4078ce0c1f4917b51e80b12684640828</t>
@@ -20215,7 +20219,7 @@
         </is>
       </c>
     </row>
-    <row r="208" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="208" s="27">
       <c r="A208" s="28" t="inlineStr">
         <is>
           <t>0xdaf4ea8b091cee081040ec180afc60ec7a600980</t>
@@ -20227,7 +20231,7 @@
         </is>
       </c>
     </row>
-    <row r="209" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="209" s="27">
       <c r="A209" s="28" t="inlineStr">
         <is>
           <t>0xc912fa65968408e5a1872008bbfc22af84b80f13</t>
@@ -20239,7 +20243,7 @@
         </is>
       </c>
     </row>
-    <row r="210" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="210" s="27">
       <c r="A210" s="28" t="inlineStr">
         <is>
           <t>0x20e77081f7709c73db5bb16cb5a868123f203e5d</t>
@@ -20251,7 +20255,7 @@
         </is>
       </c>
     </row>
-    <row r="211" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="211" s="27">
       <c r="A211" s="28" t="inlineStr">
         <is>
           <t>0xdb6219e31441201e26680bdf0ec38d490c7ea9a4</t>
@@ -20263,7 +20267,7 @@
         </is>
       </c>
     </row>
-    <row r="212" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="212" s="27">
       <c r="A212" s="28" t="inlineStr">
         <is>
           <t>0x2d853713b63c5dc34d1c6542e0b8496ed1a084bc</t>
@@ -20275,7 +20279,7 @@
         </is>
       </c>
     </row>
-    <row r="213" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="213" s="27">
       <c r="A213" s="28" t="inlineStr">
         <is>
           <t>0xf342aca44133dd93eba5150152f270c6fe2bdbb2</t>
@@ -20288,7 +20292,7 @@
         </is>
       </c>
     </row>
-    <row r="214" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="214" s="27">
       <c r="A214" s="28" t="inlineStr">
         <is>
           <t>0x0f766e02e8b6e3111d67895df9b5a15f004d26f2</t>
@@ -20301,7 +20305,7 @@
         </is>
       </c>
     </row>
-    <row r="215" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="215" s="27">
       <c r="A215" s="28" t="inlineStr">
         <is>
           <t>0xe781cd9a325ee1b6c15c1fe2af93521b5ee5ab27</t>
@@ -20314,7 +20318,7 @@
         </is>
       </c>
     </row>
-    <row r="216" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="216" s="27">
       <c r="A216" s="28" t="inlineStr">
         <is>
           <t>0x9ce47848f8f38a2e99af84bde9a35ecec9bec167</t>
@@ -20327,7 +20331,7 @@
         </is>
       </c>
     </row>
-    <row r="217" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="217" s="27">
       <c r="A217" s="28" t="inlineStr">
         <is>
           <t>0x5ce2d21c89e577012aeb134a83b071946f8bd819</t>
@@ -20340,7 +20344,7 @@
         </is>
       </c>
     </row>
-    <row r="218" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="218" s="27">
       <c r="A218" s="28" t="inlineStr">
         <is>
           <t>0x36c9ccd5d791abcca9291657ff728e6033a45c29</t>
@@ -20353,7 +20357,7 @@
         </is>
       </c>
     </row>
-    <row r="219" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="219" s="27">
       <c r="A219" s="28" t="inlineStr">
         <is>
           <t>0xe6172f2e6f5a6bb33c845b6727737fe4c579c89f</t>
@@ -20366,7 +20370,7 @@
         </is>
       </c>
     </row>
-    <row r="220" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="220" s="27">
       <c r="A220" s="28" t="inlineStr">
         <is>
           <t>0xf40992efe779e152f433c066f583be6ce78b4ca7</t>
@@ -20379,7 +20383,7 @@
         </is>
       </c>
     </row>
-    <row r="221" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="221" s="27">
       <c r="A221" s="28" t="inlineStr">
         <is>
           <t>0x56a4ca76021f521012b185dcbe74ea7217d2256b</t>
@@ -20392,7 +20396,7 @@
         </is>
       </c>
     </row>
-    <row r="222" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="222" s="27">
       <c r="A222" s="28" t="inlineStr">
         <is>
           <t>0x483015f634a5917d4f724ef4fea71c061e788ce3</t>
@@ -20405,7 +20409,7 @@
         </is>
       </c>
     </row>
-    <row r="223" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="223" s="27">
       <c r="A223" s="28" t="inlineStr">
         <is>
           <t>0xa45de0c548cc32a63bdd3281ca12537655404ed9</t>
@@ -20418,7 +20422,7 @@
         </is>
       </c>
     </row>
-    <row r="224" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="224" s="27">
       <c r="A224" s="28" t="inlineStr">
         <is>
           <t>0xfe8ab212595e23b443de13b786a3aeaf56432952</t>
@@ -20431,7 +20435,7 @@
         </is>
       </c>
     </row>
-    <row r="225" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="225" s="27">
       <c r="A225" s="28" t="inlineStr">
         <is>
           <t>0x0e74c5cf66fb5cb484ad7755c34908be66cf1991</t>
@@ -20444,7 +20448,7 @@
         </is>
       </c>
     </row>
-    <row r="226" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="226" s="27">
       <c r="A226" s="28" t="inlineStr">
         <is>
           <t>0xceea041d4ba9334a436f9817cca785b1852e9ee3</t>
@@ -20457,7 +20461,7 @@
         </is>
       </c>
     </row>
-    <row r="227" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="227" s="27">
       <c r="A227" s="28" t="inlineStr">
         <is>
           <t>0x24d85d3f26a303f69dbe0929374737cb9702ae7d</t>
@@ -20470,7 +20474,7 @@
         </is>
       </c>
     </row>
-    <row r="228" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="228" s="27">
       <c r="A228" s="28" t="inlineStr">
         <is>
           <t>0x3a6c84bfcc67999709c20c53d59c99d55b92934e</t>
@@ -20483,7 +20487,7 @@
         </is>
       </c>
     </row>
-    <row r="229" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="229" s="27">
       <c r="A229" s="28" t="inlineStr">
         <is>
           <t>0x1a4d88fcf2ef13fa50a82a68463e56d433e96e6a</t>
@@ -20496,7 +20500,7 @@
         </is>
       </c>
     </row>
-    <row r="230" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="230" s="27">
       <c r="A230" s="28" t="inlineStr">
         <is>
           <t>0x875adeb9d24cadde69b06fc2cbeb17b6968f2114</t>
@@ -20509,7 +20513,7 @@
         </is>
       </c>
     </row>
-    <row r="231" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="231" s="27">
       <c r="A231" s="28" t="inlineStr">
         <is>
           <t>0xe0e90d796afba09b6fb8cd3d775610efd30ffc18</t>
@@ -20522,7 +20526,7 @@
         </is>
       </c>
     </row>
-    <row r="232" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="232" s="27">
       <c r="A232" s="28" t="inlineStr">
         <is>
           <t>0xdc65710a98520e8c0754a32b21429cc73c3e4124</t>
@@ -20535,7 +20539,7 @@
         </is>
       </c>
     </row>
-    <row r="233" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="233" s="27">
       <c r="A233" s="28" t="inlineStr">
         <is>
           <t>0x17d8a3d39ccf1aa38a887adb9e51226922a7c929</t>
@@ -20548,7 +20552,7 @@
         </is>
       </c>
     </row>
-    <row r="234" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="234" s="27">
       <c r="A234" s="28" t="inlineStr">
         <is>
           <t>0x195dfd2ef49110e875108b86326b66941330afd9</t>
@@ -20561,7 +20565,7 @@
         </is>
       </c>
     </row>
-    <row r="235" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="235" s="27">
       <c r="A235" s="28" t="inlineStr">
         <is>
           <t>0xa77674bab7c60b4c4ec11427eda557c394fd5c21</t>
@@ -20574,7 +20578,7 @@
         </is>
       </c>
     </row>
-    <row r="236" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="236" s="27">
       <c r="A236" s="28" t="inlineStr">
         <is>
           <t>0xa87c234975ba5584b4931ae6c9189a229ec2270a</t>
@@ -20587,7 +20591,7 @@
         </is>
       </c>
     </row>
-    <row r="237" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="237" s="27">
       <c r="A237" s="28" t="inlineStr">
         <is>
           <t>0xa76a8a43b5a5bab58a1d63acf7edfe0912500bf9</t>
@@ -20600,7 +20604,7 @@
         </is>
       </c>
     </row>
-    <row r="238" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="238" s="27">
       <c r="A238" s="28" t="inlineStr">
         <is>
           <t>0xa46ef78252f9b4a9a50c16d3bc424f9f6852ddee</t>
@@ -20613,7 +20617,7 @@
         </is>
       </c>
     </row>
-    <row r="239" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="239" s="27">
       <c r="A239" s="28" t="inlineStr">
         <is>
           <t>0x8a9d0cc0b352afdd2dff2f8e62af667351582b2a</t>
@@ -20626,7 +20630,7 @@
         </is>
       </c>
     </row>
-    <row r="240" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="240" s="27">
       <c r="A240" s="28" t="inlineStr">
         <is>
           <t>0xa42426b0e3dffe4c06f8e92a4962e370b3f3099f</t>
@@ -20639,7 +20643,7 @@
         </is>
       </c>
     </row>
-    <row r="241" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="241" s="27">
       <c r="A241" s="28" t="inlineStr">
         <is>
           <t>0xcaa1f3d47d4083b0cec4fec9852801e9090388e0</t>
@@ -20652,7 +20656,7 @@
         </is>
       </c>
     </row>
-    <row r="242" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="242" s="27">
       <c r="A242" s="28" t="inlineStr">
         <is>
           <t>0xaa6ebbefe84f14131af4e05a4f96f487db70d5ac</t>
@@ -20665,7 +20669,7 @@
         </is>
       </c>
     </row>
-    <row r="243" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="243" s="27">
       <c r="A243" s="28" t="inlineStr">
         <is>
           <t>0x077a781f811a73f114249f6794b06a449535115d</t>
@@ -20678,7 +20682,7 @@
         </is>
       </c>
     </row>
-    <row r="244" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="244" s="27">
       <c r="A244" s="28" t="inlineStr">
         <is>
           <t>0xe88ad37aa99f2855a8eeb0cb8eba8a1ea57003b7</t>
@@ -20691,7 +20695,7 @@
         </is>
       </c>
     </row>
-    <row r="245" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="245" s="27">
       <c r="A245" s="28" t="inlineStr">
         <is>
           <t>0xd4996001f1a983647c24dba2b6a203cf67c08a44</t>
@@ -20704,7 +20708,7 @@
         </is>
       </c>
     </row>
-    <row r="246" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="246" s="27">
       <c r="A246" s="28" t="inlineStr">
         <is>
           <t>0x7cd2f779db94ace0adbd1f3bdac0bb3139c914bc</t>
@@ -20717,7 +20721,7 @@
         </is>
       </c>
     </row>
-    <row r="247" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="247" s="27">
       <c r="A247" s="28" t="inlineStr">
         <is>
           <t>0xe2ba207f6f6c1233417ae837d40dd79e4f206a8f</t>
@@ -20730,7 +20734,7 @@
         </is>
       </c>
     </row>
-    <row r="248" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="248" s="27">
       <c r="A248" s="28" t="inlineStr">
         <is>
           <t>0x9a174b3f7fe080f1f0a374b9e111a76353019b19</t>
@@ -20743,7 +20747,7 @@
         </is>
       </c>
     </row>
-    <row r="249" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="249" s="27">
       <c r="A249" s="28" t="inlineStr">
         <is>
           <t>0xde775710bc567e1b9df6c867042bf6d388d31ce0</t>
@@ -20756,7 +20760,7 @@
         </is>
       </c>
     </row>
-    <row r="250" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="250" s="27">
       <c r="A250" s="28" t="inlineStr">
         <is>
           <t>0x8d5d473fb79b81659462ec2953b06ec502153e55</t>
@@ -20769,7 +20773,7 @@
         </is>
       </c>
     </row>
-    <row r="251" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="251" s="27">
       <c r="A251" s="28" t="inlineStr">
         <is>
           <t>0x3263edc4160814fbd36c030121dec02d65db0448</t>
@@ -20782,7 +20786,7 @@
         </is>
       </c>
     </row>
-    <row r="252" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="252" s="27">
       <c r="A252" s="28" t="inlineStr">
         <is>
           <t>0x46a62aa3527644400ea1e0f6f07201454a975d41</t>
@@ -20795,7 +20799,7 @@
         </is>
       </c>
     </row>
-    <row r="253" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="253" s="27">
       <c r="A253" s="28" t="inlineStr">
         <is>
           <t>0x9fd1c3fb2756f7f60316ad571bbd3dec9ce10f4d</t>
@@ -20808,7 +20812,7 @@
         </is>
       </c>
     </row>
-    <row r="254" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="254" s="27">
       <c r="A254" s="28" t="inlineStr">
         <is>
           <t>0xf5b80830508da1fc7c050f3ed0883bbb7df97d24</t>
@@ -20821,7 +20825,7 @@
         </is>
       </c>
     </row>
-    <row r="255" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="255" s="27">
       <c r="A255" s="28" t="inlineStr">
         <is>
           <t>0xacc9eb881b1814c2b44aed6c08d472ca3bcc2b1c</t>
@@ -20834,7 +20838,7 @@
         </is>
       </c>
     </row>
-    <row r="256" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="256" s="27">
       <c r="A256" s="28" t="inlineStr">
         <is>
           <t>0x8b22eec28292c1ac61308f1984d5179cef118889</t>
@@ -20847,7 +20851,7 @@
         </is>
       </c>
     </row>
-    <row r="257" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="257" s="27">
       <c r="A257" s="28" t="inlineStr">
         <is>
           <t>0x36f3e5c97db4e59b4e24554ae58a26775f6676fe</t>
@@ -20860,7 +20864,7 @@
         </is>
       </c>
     </row>
-    <row r="258" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="258" s="27">
       <c r="A258" s="28" t="inlineStr">
         <is>
           <t>0x83140f0d04bb02ea19c70d3b2870122a816482a8</t>
@@ -20873,7 +20877,7 @@
         </is>
       </c>
     </row>
-    <row r="259" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="259" s="27">
       <c r="A259" s="28" t="inlineStr">
         <is>
           <t>0xa025cac2cb6eb53e4edbc5cd7a80e70d5ea8e6b1</t>
@@ -20886,7 +20890,7 @@
         </is>
       </c>
     </row>
-    <row r="260" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="260" s="27">
       <c r="A260" s="28" t="inlineStr">
         <is>
           <t>0x97eee194abe87529527a21f6dd3b81f8e431f165</t>
@@ -20899,7 +20903,7 @@
         </is>
       </c>
     </row>
-    <row r="261" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="261" s="27">
       <c r="A261" s="28" t="inlineStr">
         <is>
           <t>0x27d953d8d1439a4564a4d81d931af455a835b2a0</t>
@@ -20912,7 +20916,7 @@
         </is>
       </c>
     </row>
-    <row r="262" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="262" s="27">
       <c r="A262" s="28" t="inlineStr">
         <is>
           <t>0x41dd2a677023b4b4a609d036d767e08dcb1bfc76</t>
@@ -20925,7 +20929,7 @@
         </is>
       </c>
     </row>
-    <row r="263" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="263" s="27">
       <c r="A263" s="28" t="inlineStr">
         <is>
           <t>0x0d7da56f59a6e9d8f5d7a7fad3312aea1978e7a1</t>
@@ -20938,7 +20942,7 @@
         </is>
       </c>
     </row>
-    <row r="264" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="264" s="27">
       <c r="A264" s="28" t="inlineStr">
         <is>
           <t>0x1ba9051ccf1fe243f807cde7fc254a5f53c689ba</t>
@@ -20951,7 +20955,7 @@
         </is>
       </c>
     </row>
-    <row r="265" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="265" s="27">
       <c r="A265" s="28" t="inlineStr">
         <is>
           <t>0x1e5f2475e8edf4e4e3848915bf79d8e6bedea365</t>
@@ -20964,7 +20968,7 @@
         </is>
       </c>
     </row>
-    <row r="266" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="266" s="27">
       <c r="A266" s="28" t="inlineStr">
         <is>
           <t>0x38dd712c3c73c6fa28398dcdf6b0c90029f9c531</t>
@@ -20977,7 +20981,7 @@
         </is>
       </c>
     </row>
-    <row r="267" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="267" s="27">
       <c r="A267" s="28" t="inlineStr">
         <is>
           <t>0xc66dc1c250eee56cf6cc1669ae386413ecb0ed96</t>
@@ -20990,7 +20994,7 @@
         </is>
       </c>
     </row>
-    <row r="268" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="268" s="27">
       <c r="A268" s="28" t="inlineStr">
         <is>
           <t>0xdd3d93a14b7c6fbfd9c84b014db07be1fd961251</t>
@@ -21003,7 +21007,7 @@
         </is>
       </c>
     </row>
-    <row r="269" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="269" s="27">
       <c r="A269" s="28" t="inlineStr">
         <is>
           <t>0xb3e36382796fb7c7473920963ff20b1588e0ddb2</t>
@@ -21016,7 +21020,7 @@
         </is>
       </c>
     </row>
-    <row r="270" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="270" s="27">
       <c r="A270" s="28" t="inlineStr">
         <is>
           <t>0xc18ebb08bb877e33e254e4d88eff3f3cc37a5777</t>
@@ -21029,7 +21033,7 @@
         </is>
       </c>
     </row>
-    <row r="271" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="271" s="27">
       <c r="A271" s="28" t="inlineStr">
         <is>
           <t>0xc8376cd56afa0ba7fc5b3a55b8e77db4827e2157</t>
@@ -21042,7 +21046,7 @@
         </is>
       </c>
     </row>
-    <row r="272" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="272" s="27">
       <c r="A272" s="28" t="inlineStr">
         <is>
           <t>0x43d018eeb78bf6fbee39950ae70c9ad625f6bf75</t>
@@ -21055,7 +21059,7 @@
         </is>
       </c>
     </row>
-    <row r="273" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="273" s="27">
       <c r="A273" s="28" t="inlineStr">
         <is>
           <t>0xce6c20859274e6548964f750c6741327f2a0f04d</t>
@@ -21068,7 +21072,7 @@
         </is>
       </c>
     </row>
-    <row r="274" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="274" s="27">
       <c r="A274" s="28" t="inlineStr">
         <is>
           <t>0x95cf2f0a57f085bd1fd0f7cf15c9760d2724a861</t>
@@ -21081,7 +21085,7 @@
         </is>
       </c>
     </row>
-    <row r="275" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="275" s="27">
       <c r="A275" s="28" t="inlineStr">
         <is>
           <t>0x2f8dfd48ea87813fb75b7ba94745aa7ce64abc0e</t>
@@ -21094,7 +21098,7 @@
         </is>
       </c>
     </row>
-    <row r="276" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="276" s="27">
       <c r="A276" s="28" t="inlineStr">
         <is>
           <t>0x288ac2684af3aa0d25e65d33e96e23502e65e702</t>
@@ -21107,7 +21111,7 @@
         </is>
       </c>
     </row>
-    <row r="277" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="277" s="27">
       <c r="A277" s="28" t="inlineStr">
         <is>
           <t>0x266b0b7e7362f29276a98c0808fd7b8e939f9e77</t>
@@ -21120,7 +21124,7 @@
         </is>
       </c>
     </row>
-    <row r="278" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="278" s="27">
       <c r="A278" s="28" t="inlineStr">
         <is>
           <t>0x6a544682025ae684b3262e856cff02b048113b59</t>
@@ -21133,7 +21137,7 @@
         </is>
       </c>
     </row>
-    <row r="279" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="279" s="27">
       <c r="A279" s="28" t="inlineStr">
         <is>
           <t>0x2d3adc0e29cb59768846067fb2851877339e52fc</t>
@@ -21146,7 +21150,7 @@
         </is>
       </c>
     </row>
-    <row r="280" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="280" s="27">
       <c r="A280" s="28" t="inlineStr">
         <is>
           <t>0xac7525685f0eeaf62eeca1e4335d475796867b95</t>
@@ -21159,7 +21163,7 @@
         </is>
       </c>
     </row>
-    <row r="281" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="281" s="27">
       <c r="A281" s="28" t="inlineStr">
         <is>
           <t>0x07d077a7223302ca6112157cbf9f72cdedf89e50</t>
@@ -21172,7 +21176,7 @@
         </is>
       </c>
     </row>
-    <row r="282" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="282" s="27">
       <c r="A282" s="28" t="inlineStr">
         <is>
           <t>0x83af5d697f601dc88fa1f0b04b60739b1816fb75</t>
@@ -21185,7 +21189,7 @@
         </is>
       </c>
     </row>
-    <row r="283" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="283" s="27">
       <c r="A283" s="28" t="inlineStr">
         <is>
           <t>0x58c12b44b14c16f60698f392e4285c575460317d</t>
@@ -21198,7 +21202,7 @@
         </is>
       </c>
     </row>
-    <row r="284" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="284" s="27">
       <c r="A284" s="28" t="inlineStr">
         <is>
           <t>0x8f4e294666d63a48caa176c6d76f9f43f954c330</t>
@@ -21211,7 +21215,7 @@
         </is>
       </c>
     </row>
-    <row r="285" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="285" s="27">
       <c r="A285" s="28" t="inlineStr">
         <is>
           <t>0xf13525d83ae7e93a6cfeedacf6f0eca7a018784c</t>
@@ -21224,7 +21228,7 @@
         </is>
       </c>
     </row>
-    <row r="286" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="286" s="27">
       <c r="A286" s="28" t="inlineStr">
         <is>
           <t>0x7f640a11bb85d37ec11609bf71045983a27b5d1c</t>
@@ -21237,7 +21241,7 @@
         </is>
       </c>
     </row>
-    <row r="287" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="287" s="27">
       <c r="A287" s="28" t="inlineStr">
         <is>
           <t>0x478dc241f0dfb0dc9424177ad9e649e34bb42931</t>
@@ -21250,7 +21254,7 @@
         </is>
       </c>
     </row>
-    <row r="288" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="288" s="27">
       <c r="A288" s="28" t="inlineStr">
         <is>
           <t>0x5a55b4de6fdd9d492451c1c5b15c7f5d203c0a8e</t>
@@ -21263,7 +21267,7 @@
         </is>
       </c>
     </row>
-    <row r="289" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="289" s="27">
       <c r="A289" s="28" t="inlineStr">
         <is>
           <t>0x8fed3bb4279a5748434617db08f04133892d0cc2</t>
@@ -21276,7 +21280,7 @@
         </is>
       </c>
     </row>
-    <row r="290" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="290" s="27">
       <c r="A290" s="28" t="inlineStr">
         <is>
           <t>0xe2f98762cf5743460f19d5b41cf50ab115f4683f</t>
@@ -21289,7 +21293,7 @@
         </is>
       </c>
     </row>
-    <row r="291" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="291" s="27">
       <c r="A291" s="28" t="inlineStr">
         <is>
           <t>0xe77e545c08bcddf09deacf6098e01a5994879f4b</t>
@@ -21302,7 +21306,7 @@
         </is>
       </c>
     </row>
-    <row r="292" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="292" s="27">
       <c r="A292" s="28" t="inlineStr">
         <is>
           <t>0xfd44c0d9f8e60655c3802750e64ddf44defaca57</t>
@@ -21315,7 +21319,7 @@
         </is>
       </c>
     </row>
-    <row r="293" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="293" s="27">
       <c r="A293" s="28" t="inlineStr">
         <is>
           <t>0x652de633abd83a4d509c56c1d6ef0351ad7bd3b9</t>
@@ -21328,7 +21332,7 @@
         </is>
       </c>
     </row>
-    <row r="294" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="294" s="27">
       <c r="A294" s="28" t="inlineStr">
         <is>
           <t>0xf32f93e1b3bb1281cdfbbbe7378d596f435bf631</t>
@@ -21341,7 +21345,7 @@
         </is>
       </c>
     </row>
-    <row r="295" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="295" s="27">
       <c r="A295" s="28" t="inlineStr">
         <is>
           <t>0x3a601fe47c2b425f6dd61acc76f5e216daa1cb4a</t>
@@ -21354,7 +21358,7 @@
         </is>
       </c>
     </row>
-    <row r="296" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="296" s="27">
       <c r="A296" s="28" t="inlineStr">
         <is>
           <t>0xe244521cc16e6fefe0968e9b2c9daed2a481f6cb</t>
@@ -21367,7 +21371,7 @@
         </is>
       </c>
     </row>
-    <row r="297" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="297" s="27">
       <c r="A297" s="28" t="inlineStr">
         <is>
           <t>0x2b50b8bd63599024d24e5450f631843a9f5b4125</t>
@@ -21380,7 +21384,7 @@
         </is>
       </c>
     </row>
-    <row r="298" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="298" s="27">
       <c r="A298" s="28" t="inlineStr">
         <is>
           <t>0x90765492cabd8e5e27d716d44fdab0dcb763855d</t>
@@ -21393,7 +21397,7 @@
         </is>
       </c>
     </row>
-    <row r="299" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="299" s="27">
       <c r="A299" s="28" t="inlineStr">
         <is>
           <t>0xaf372ab78de9ff9a3ae7e8d49d340ede77d29737</t>
@@ -21406,7 +21410,7 @@
         </is>
       </c>
     </row>
-    <row r="300" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="300" s="27">
       <c r="A300" s="28" t="inlineStr">
         <is>
           <t>0x50264de476d35ed87935ae4323d408efcb9236f4</t>
@@ -21419,7 +21423,7 @@
         </is>
       </c>
     </row>
-    <row r="301" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="301" s="27">
       <c r="A301" s="28" t="inlineStr">
         <is>
           <t>0x751e180e274d603f0244ab339ec8c096f2f38fd1</t>
@@ -21432,7 +21436,7 @@
         </is>
       </c>
     </row>
-    <row r="302" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="302" s="27">
       <c r="A302" s="28" t="inlineStr">
         <is>
           <t>0x85376955fd89fc9d2818849610a7fb7198353ab0</t>
@@ -21445,7 +21449,7 @@
         </is>
       </c>
     </row>
-    <row r="303" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="303" s="27">
       <c r="A303" s="28" t="inlineStr">
         <is>
           <t>0x950f6854e1a907feb6ba1ae83462ddb8fd2e7d8d</t>
@@ -21458,7 +21462,7 @@
         </is>
       </c>
     </row>
-    <row r="304" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="304" s="27">
       <c r="A304" s="28" t="inlineStr">
         <is>
           <t>0x20ca8c2d8b26495e1221b05283d1c805089e4407</t>
@@ -21471,7 +21475,7 @@
         </is>
       </c>
     </row>
-    <row r="305" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="305" s="27">
       <c r="A305" s="28" t="inlineStr">
         <is>
           <t>0x135f94d12f36529c8c98811a241e937acd1e0978</t>
@@ -21484,7 +21488,7 @@
         </is>
       </c>
     </row>
-    <row r="306" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="306" s="27">
       <c r="A306" s="28" t="inlineStr">
         <is>
           <t>0xebc9a8360a1759c296722cd40960261ad7bee5c0</t>
@@ -21497,7 +21501,7 @@
         </is>
       </c>
     </row>
-    <row r="307" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="307" s="27">
       <c r="A307" s="28" t="inlineStr">
         <is>
           <t>0xde7350672cb2a6466d2654f5ba16a06dcc05d62a</t>
@@ -21510,7 +21514,7 @@
         </is>
       </c>
     </row>
-    <row r="308" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="308" s="27">
       <c r="A308" s="28" t="inlineStr">
         <is>
           <t>0x352be48cfdc48f7d7cdb2c02433da86eb2d8b1d1</t>
@@ -21523,7 +21527,7 @@
         </is>
       </c>
     </row>
-    <row r="309" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="309" s="27">
       <c r="A309" s="28" t="inlineStr">
         <is>
           <t>0xa0359feff48ed3c5aff238922efe5438ab0be0e8</t>
@@ -21536,7 +21540,7 @@
         </is>
       </c>
     </row>
-    <row r="310" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="310" s="27">
       <c r="A310" s="28" t="inlineStr">
         <is>
           <t>0x3f9361e0a554b196a61ae3eb26b0c3d572b3fd11</t>
@@ -21549,7 +21553,7 @@
         </is>
       </c>
     </row>
-    <row r="311" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="311" s="27">
       <c r="A311" s="28" t="inlineStr">
         <is>
           <t>0x51f584784ab534a341e85244797cdcef22921acc</t>
@@ -21562,7 +21566,7 @@
         </is>
       </c>
     </row>
-    <row r="312" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="312" s="27">
       <c r="A312" s="28" t="inlineStr">
         <is>
           <t>0x035861c42d051ab4fa4a78f12fed0f19ffb4aa0f</t>
@@ -21575,7 +21579,7 @@
         </is>
       </c>
     </row>
-    <row r="313" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="313" s="27">
       <c r="A313" s="28" t="inlineStr">
         <is>
           <t>0x18c69eec538fef4cff2b99eab1e9cb6990ffb19e</t>
@@ -21588,7 +21592,7 @@
         </is>
       </c>
     </row>
-    <row r="314" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="314" s="27">
       <c r="A314" s="28" t="inlineStr">
         <is>
           <t>0x7a65f9183b908028562c4be66adeafbfc7a5a807</t>
@@ -21601,7 +21605,7 @@
         </is>
       </c>
     </row>
-    <row r="315" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="315" s="27">
       <c r="A315" s="28" t="inlineStr">
         <is>
           <t>0x005ffd55da7c1bdf3ee4d6b329c73909c24a398f</t>
@@ -21614,7 +21618,7 @@
         </is>
       </c>
     </row>
-    <row r="316" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="316" s="27">
       <c r="A316" s="28" t="inlineStr">
         <is>
           <t>0xa3708144f0356892b5ec0a58aec0984ef83e2d71</t>
@@ -21627,7 +21631,7 @@
         </is>
       </c>
     </row>
-    <row r="317" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="317" s="27">
       <c r="A317" s="28" t="inlineStr">
         <is>
           <t>0x50e8f124518dd0e01d7bb00cb511ff8ca295fabd</t>
@@ -21640,7 +21644,7 @@
         </is>
       </c>
     </row>
-    <row r="318" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="318" s="27">
       <c r="A318" s="28" t="inlineStr">
         <is>
           <t>0xab912650e1a7dfcb32637acc1d05c7e9e8b8d530</t>
@@ -21653,7 +21657,7 @@
         </is>
       </c>
     </row>
-    <row r="319" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="319" s="27">
       <c r="A319" s="28" t="inlineStr">
         <is>
           <t>0xb19f54a2c42dd099f3069fbbc161bcc2bbbe42de</t>
@@ -21666,7 +21670,7 @@
         </is>
       </c>
     </row>
-    <row r="320" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="320" s="27">
       <c r="A320" s="28" t="inlineStr">
         <is>
           <t>0x67f78048ebc2c0c276714dd093e5ed1edb547c21</t>
@@ -21679,7 +21683,7 @@
         </is>
       </c>
     </row>
-    <row r="321" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="321" s="27">
       <c r="A321" s="28" t="inlineStr">
         <is>
           <t>0x0f0bc996467401efe4c7895e8686879e87da3750</t>
@@ -21692,7 +21696,7 @@
         </is>
       </c>
     </row>
-    <row r="322" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="322" s="27">
       <c r="A322" s="28" t="inlineStr">
         <is>
           <t>0x6a508d944baf39585d74c8bf33f4787820d99689</t>
@@ -21705,7 +21709,7 @@
         </is>
       </c>
     </row>
-    <row r="323" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="323" s="27">
       <c r="A323" s="28" t="inlineStr">
         <is>
           <t>0x537c140705f63a50b4052854a8981184cf9962e9</t>
@@ -21718,7 +21722,7 @@
         </is>
       </c>
     </row>
-    <row r="324" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="324" s="27">
       <c r="A324" s="28" t="inlineStr">
         <is>
           <t>0x19428528ce8499d4eb32e1f06ca860026e3f88a7</t>
@@ -21731,7 +21735,7 @@
         </is>
       </c>
     </row>
-    <row r="325" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="325" s="27">
       <c r="A325" s="28" t="inlineStr">
         <is>
           <t>0x89d84d7ad76482b3208e2e9c7efb77a0b5204760</t>
@@ -21744,7 +21748,7 @@
         </is>
       </c>
     </row>
-    <row r="326" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="326" s="27">
       <c r="A326" s="28" t="inlineStr">
         <is>
           <t>0x73eb35bd023ee938b78c04f6f97c839465d5ee4b</t>
@@ -21757,7 +21761,7 @@
         </is>
       </c>
     </row>
-    <row r="327" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="327" s="27">
       <c r="A327" s="28" t="inlineStr">
         <is>
           <t>0x30b79c35e1a4ec61217f62a3a4ffe772f2f3bcb2</t>
@@ -21770,7 +21774,7 @@
         </is>
       </c>
     </row>
-    <row r="328" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="328" s="27">
       <c r="A328" s="28" t="inlineStr">
         <is>
           <t>0xfc892d7d2da71d5f73ec04d3aacc76fc9f19de3a</t>
@@ -21783,7 +21787,7 @@
         </is>
       </c>
     </row>
-    <row r="329" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="329" s="27">
       <c r="A329" s="28" t="inlineStr">
         <is>
           <t>0x1e4ee537c9862026d56b0b373398c8d4317bcb29</t>
@@ -21796,7 +21800,7 @@
         </is>
       </c>
     </row>
-    <row r="330" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="330" s="27">
       <c r="A330" s="28" t="inlineStr">
         <is>
           <t>0x8fa2ef57d8331f3e60d4d7eb96a116fb54468342</t>
@@ -21809,7 +21813,7 @@
         </is>
       </c>
     </row>
-    <row r="331" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="331" s="27">
       <c r="A331" s="28" t="inlineStr">
         <is>
           <t>0x5d013d1a508d72f9264f7399a77a67996621b3f1</t>
@@ -21822,7 +21826,7 @@
         </is>
       </c>
     </row>
-    <row r="332" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="332" s="27">
       <c r="A332" s="28" t="inlineStr">
         <is>
           <t>0x09a628f5dc9bbfe47b59fc104470875c86779413</t>
@@ -21835,7 +21839,7 @@
         </is>
       </c>
     </row>
-    <row r="333" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="333" s="27">
       <c r="A333" s="28" t="inlineStr">
         <is>
           <t>0x364dfe9f428232347abc5adddaee558d189323bf</t>
@@ -21848,7 +21852,7 @@
         </is>
       </c>
     </row>
-    <row r="334" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="334" s="27">
       <c r="A334" s="28" t="inlineStr">
         <is>
           <t>0x12c61c44a9377c7289039de222dfb63a4a04b6fe</t>
@@ -21861,7 +21865,7 @@
         </is>
       </c>
     </row>
-    <row r="335" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="335" s="27">
       <c r="A335" s="28" t="inlineStr">
         <is>
           <t>0x393f1c5d72872b2c4fdf88860dc080add48dd83a</t>
@@ -21874,7 +21878,7 @@
         </is>
       </c>
     </row>
-    <row r="336" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="336" s="27">
       <c r="A336" s="28" t="inlineStr">
         <is>
           <t>0x2add3d2659f8da688fcc4ab25c656b0f95665783</t>
@@ -21887,7 +21891,7 @@
         </is>
       </c>
     </row>
-    <row r="337" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="337" s="27">
       <c r="A337" s="28" t="inlineStr">
         <is>
           <t>0xaff0b79b2d644fc07989e0f95f858137a57e8702</t>
@@ -21900,7 +21904,7 @@
         </is>
       </c>
     </row>
-    <row r="338" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="338" s="27">
       <c r="A338" s="28" t="inlineStr">
         <is>
           <t>0x6dacdd5f3db84b89b038559ffc386fc60037d59b</t>
@@ -21913,7 +21917,7 @@
         </is>
       </c>
     </row>
-    <row r="339" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="339" s="27">
       <c r="A339" s="28" t="inlineStr">
         <is>
           <t>0x174950798626ac60706cf757de069b7028afebaa</t>
@@ -21926,7 +21930,7 @@
         </is>
       </c>
     </row>
-    <row r="340" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="340" s="27">
       <c r="A340" s="28" t="inlineStr">
         <is>
           <t>0x02ecbf4bd0ffecccd8d679b2ed4564380b353d35</t>
@@ -21939,7 +21943,7 @@
         </is>
       </c>
     </row>
-    <row r="341" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="341" s="27">
       <c r="A341" s="28" t="inlineStr">
         <is>
           <t>0xbf932917938fd3488a5ef55c30db04ae96148a95</t>
@@ -21952,7 +21956,7 @@
         </is>
       </c>
     </row>
-    <row r="342" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="342" s="27">
       <c r="A342" s="28" t="inlineStr">
         <is>
           <t>0xeb1f7cec072e219805dd0fe1ce6474d256d74009</t>
@@ -21965,7 +21969,7 @@
         </is>
       </c>
     </row>
-    <row r="343" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="343" s="27">
       <c r="A343" s="28" t="inlineStr">
         <is>
           <t>0x612d218435197682bcf6b62b3eaaff735fcfb311</t>
@@ -21978,7 +21982,7 @@
         </is>
       </c>
     </row>
-    <row r="344" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="344" s="27">
       <c r="A344" s="28" t="inlineStr">
         <is>
           <t>0x91639db1ba68b565f46ac8f2ad5bdbabffde90b6</t>
@@ -21991,7 +21995,7 @@
         </is>
       </c>
     </row>
-    <row r="345" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="345" s="27">
       <c r="A345" s="28" t="inlineStr">
         <is>
           <t>0x4dd16d291e887965e5f7a0dcb61cc3e599e0dfb7</t>
@@ -22004,7 +22008,7 @@
         </is>
       </c>
     </row>
-    <row r="346" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="346" s="27">
       <c r="A346" s="28" t="inlineStr">
         <is>
           <t>0xf25d0ed851b5db0864e7444096a816ca7bd02638</t>
@@ -22017,7 +22021,7 @@
         </is>
       </c>
     </row>
-    <row r="347" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="347" s="27">
       <c r="A347" s="28" t="inlineStr">
         <is>
           <t>0x658d52f13c0ac2aa14519b123100fd94205f67b9</t>
@@ -22030,7 +22034,7 @@
         </is>
       </c>
     </row>
-    <row r="348" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="348" s="27">
       <c r="A348" s="28" t="inlineStr">
         <is>
           <t>0xa55ad1e034c421c2cbc7b580485dc7b8fc5d1e01</t>
@@ -22043,7 +22047,7 @@
         </is>
       </c>
     </row>
-    <row r="349" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="349" s="27">
       <c r="A349" s="28" t="inlineStr">
         <is>
           <t>0x2837e0e2a5de9eac0d8461d4488afb9b84088f30</t>
@@ -22056,7 +22060,7 @@
         </is>
       </c>
     </row>
-    <row r="350" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="350" s="27">
       <c r="A350" s="28" t="inlineStr">
         <is>
           <t>0x14e2586c3ef6a870c3409642821d4ab4f378e96e</t>
@@ -22069,7 +22073,7 @@
         </is>
       </c>
     </row>
-    <row r="351" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="351" s="27">
       <c r="A351" s="28" t="inlineStr">
         <is>
           <t>0xf628c69d34c66f7fbaead3589cbfb20caa51e0e9</t>
@@ -22082,7 +22086,7 @@
         </is>
       </c>
     </row>
-    <row r="352" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="352" s="27">
       <c r="A352" s="28" t="inlineStr">
         <is>
           <t>0x63591bc0764e4e79cfc3bc0ce3987099e5c2ee09</t>
@@ -22095,7 +22099,7 @@
         </is>
       </c>
     </row>
-    <row r="353" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="353" s="27">
       <c r="A353" s="28" t="inlineStr">
         <is>
           <t>0x0bd301d989d46f9be83525a5399d659a14693fd7</t>
@@ -22108,7 +22112,7 @@
         </is>
       </c>
     </row>
-    <row r="354" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="354" s="27">
       <c r="A354" s="28" t="inlineStr">
         <is>
           <t>0xe16d456f61021610f4d14f2910e251f5bcc5751f</t>
@@ -22121,7 +22125,7 @@
         </is>
       </c>
     </row>
-    <row r="355" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="355" s="27">
       <c r="A355" s="28" t="inlineStr">
         <is>
           <t>0x0edbaa8069c2eb65956f37cf7c735a3d4fbe3035</t>
@@ -22134,7 +22138,7 @@
         </is>
       </c>
     </row>
-    <row r="356" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="356" s="27">
       <c r="A356" s="28" t="inlineStr">
         <is>
           <t>0x1e48144dace8f2b94209a0d901206bd571d5dfd9</t>
@@ -22147,7 +22151,7 @@
         </is>
       </c>
     </row>
-    <row r="357" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="357" s="27">
       <c r="A357" s="28" t="inlineStr">
         <is>
           <t>0x73589d0064754f445f8df7bb79649220c840a902</t>
@@ -22160,7 +22164,7 @@
         </is>
       </c>
     </row>
-    <row r="358" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="358" s="27">
       <c r="A358" s="28" t="inlineStr">
         <is>
           <t>0x99e27b0a1acefbbcf68787eb1bd7469b983c813d</t>
@@ -22173,7 +22177,7 @@
         </is>
       </c>
     </row>
-    <row r="359" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="359" s="27">
       <c r="A359" s="28" t="inlineStr">
         <is>
           <t>0x0b373eecd0633211bc5ce9b280a1c245b95622f5</t>
@@ -22186,7 +22190,7 @@
         </is>
       </c>
     </row>
-    <row r="360" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="360" s="27">
       <c r="A360" s="28" t="inlineStr">
         <is>
           <t>0x6be18000ab6106b0291c3ef1ef9106d3d936ad5a</t>
@@ -22199,7 +22203,7 @@
         </is>
       </c>
     </row>
-    <row r="361" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="361" s="27">
       <c r="A361" s="28" t="inlineStr">
         <is>
           <t>0x062a83e46ee28c49bbf07eb30365089cbc888215</t>
@@ -22212,7 +22216,7 @@
         </is>
       </c>
     </row>
-    <row r="362" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="362" s="27">
       <c r="A362" s="28" t="inlineStr">
         <is>
           <t>0x95e6a8700409139daf5d1d8cf75da7b0a806bc5f</t>
@@ -22225,7 +22229,7 @@
         </is>
       </c>
     </row>
-    <row r="363" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="363" s="27">
       <c r="A363" s="28" t="inlineStr">
         <is>
           <t>0x9caaf7e7852c4ef5ad376bdf90dadbb251d3f9eb</t>
@@ -22238,7 +22242,7 @@
         </is>
       </c>
     </row>
-    <row r="364" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="364" s="27">
       <c r="A364" s="28" t="inlineStr">
         <is>
           <t>0xa853a0fff12989f8ea4d596c11266978e205b331</t>
@@ -22251,7 +22255,7 @@
         </is>
       </c>
     </row>
-    <row r="365" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="365" s="27">
       <c r="A365" s="28" t="inlineStr">
         <is>
           <t>0x7cd8eb3a604a18dda7108a3f4e9a6a7d04d654fa</t>
@@ -22264,7 +22268,7 @@
         </is>
       </c>
     </row>
-    <row r="366" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="366" s="27">
       <c r="A366" s="28" t="inlineStr">
         <is>
           <t>0x148af7f2228ae8f588ce021840741815b5181407</t>
@@ -22277,7 +22281,7 @@
         </is>
       </c>
     </row>
-    <row r="367" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="367" s="27">
       <c r="A367" s="28" t="inlineStr">
         <is>
           <t>0xa79ddf6248f069a9c36fede6476728bb40b7836a</t>
@@ -22290,7 +22294,7 @@
         </is>
       </c>
     </row>
-    <row r="368" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="368" s="27">
       <c r="A368" s="28" t="inlineStr">
         <is>
           <t>0x75212a9627e087c9ad1ab52335e638b3cdc51c74</t>
@@ -22303,7 +22307,7 @@
         </is>
       </c>
     </row>
-    <row r="369" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="369" s="27">
       <c r="A369" s="28" t="inlineStr">
         <is>
           <t>0xdc799e83182163b98d90c82cc6deca6dd5066474</t>
@@ -22316,7 +22320,7 @@
         </is>
       </c>
     </row>
-    <row r="370" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="370" s="27">
       <c r="A370" s="28" t="inlineStr">
         <is>
           <t>0xd69a207e79c3ba0fc5f33844f6b4dbafc3751e85</t>
@@ -22329,7 +22333,7 @@
         </is>
       </c>
     </row>
-    <row r="371" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="371" s="27">
       <c r="A371" s="28" t="inlineStr">
         <is>
           <t>0xaa974e434ffd50ae0a60d5492ee425abf13f1dda</t>
@@ -22342,7 +22346,7 @@
         </is>
       </c>
     </row>
-    <row r="372" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="372" s="27">
       <c r="A372" s="28" t="inlineStr">
         <is>
           <t>0x6191bac45ac80bf01b781fb40d076919bd41eb72</t>
@@ -22355,7 +22359,7 @@
         </is>
       </c>
     </row>
-    <row r="373" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="373" s="27">
       <c r="A373" s="28" t="inlineStr">
         <is>
           <t>0x41f14d085ee67e039f3f1f44c45fcd7b150642fb</t>
@@ -22368,7 +22372,7 @@
         </is>
       </c>
     </row>
-    <row r="374" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="374" s="27">
       <c r="A374" s="28" t="inlineStr">
         <is>
           <t>0xa84738d232ffb22758127ee914e7fbfa302d66de</t>
@@ -22381,7 +22385,7 @@
         </is>
       </c>
     </row>
-    <row r="375" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="375" s="27">
       <c r="A375" s="28" t="inlineStr">
         <is>
           <t>0x87dc79b2035072f807e086387e095dd050345dcf</t>
@@ -22394,7 +22398,7 @@
         </is>
       </c>
     </row>
-    <row r="376" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="376" s="27">
       <c r="A376" s="28" t="inlineStr">
         <is>
           <t>0x725e97bf4cdedba1b13ca37dcd30e8feca3fb595</t>
@@ -22407,7 +22411,7 @@
         </is>
       </c>
     </row>
-    <row r="377" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="377" s="27">
       <c r="A377" s="28" t="inlineStr">
         <is>
           <t>0x57fbaff7dbc7e229a787e05cc190d0705981a31d</t>
@@ -22420,7 +22424,7 @@
         </is>
       </c>
     </row>
-    <row r="378" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="378" s="27">
       <c r="A378" s="28" t="inlineStr">
         <is>
           <t>0x4ea6509e3cd8ae2116695cdf9e7b1ec780a86ed1</t>
@@ -22433,7 +22437,7 @@
         </is>
       </c>
     </row>
-    <row r="379" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="379" s="27">
       <c r="A379" s="28" t="inlineStr">
         <is>
           <t>0xdb42db87ee4a2b7caccf85d52850388b506ccba0</t>
@@ -22446,7 +22450,7 @@
         </is>
       </c>
     </row>
-    <row r="380" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="380" s="27">
       <c r="A380" s="28" t="inlineStr">
         <is>
           <t>0x031ce730fd6bba5405489fe576d94cd025c6f8d3</t>
@@ -22459,7 +22463,7 @@
         </is>
       </c>
     </row>
-    <row r="381" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="381" s="27">
       <c r="A381" s="28" t="inlineStr">
         <is>
           <t>0x4e021bcd8a18e2a0ecab13106a527d7ac58b76d5</t>
@@ -22472,7 +22476,7 @@
         </is>
       </c>
     </row>
-    <row r="382" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="382" s="27">
       <c r="A382" s="28" t="inlineStr">
         <is>
           <t>0xecd1b44a8339a161c1cfec631f0361eaee710fd9</t>
@@ -22485,7 +22489,7 @@
         </is>
       </c>
     </row>
-    <row r="383" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="383" s="27">
       <c r="A383" s="28" t="inlineStr">
         <is>
           <t>0xa2b690c500dc89b80b03f6846227e551238bcd6e</t>
@@ -22498,7 +22502,7 @@
         </is>
       </c>
     </row>
-    <row r="384" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="384" s="27">
       <c r="A384" s="28" t="inlineStr">
         <is>
           <t>0xc890d7500a1649deb69791fbc8f52ef82f338033</t>
@@ -22511,7 +22515,7 @@
         </is>
       </c>
     </row>
-    <row r="385" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="385" s="27">
       <c r="A385" s="28" t="inlineStr">
         <is>
           <t>0xb76892653301c980f3b2fe9ba553f6625f7020a4</t>
@@ -22524,7 +22528,7 @@
         </is>
       </c>
     </row>
-    <row r="386" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="386" s="27">
       <c r="A386" s="28" t="inlineStr">
         <is>
           <t>0x8950eed64696f919c73687f17476c6e8b0777e03</t>
@@ -22537,7 +22541,7 @@
         </is>
       </c>
     </row>
-    <row r="387" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="387" s="27">
       <c r="A387" s="28" t="inlineStr">
         <is>
           <t>0x4ffb23344bb368f5bd4e2d7fd3b4b3a401cb508a</t>
@@ -22550,7 +22554,7 @@
         </is>
       </c>
     </row>
-    <row r="388" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="388" s="27">
       <c r="A388" s="28" t="inlineStr">
         <is>
           <t>0xb063738df85314ed0dda861c9800a6bcf03ea53b</t>
@@ -22563,7 +22567,7 @@
         </is>
       </c>
     </row>
-    <row r="389" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="389" s="27">
       <c r="A389" s="28" t="inlineStr">
         <is>
           <t>0x0218efe6c539d76c9b4d82af7c095abfd14db04b</t>
@@ -22576,7 +22580,7 @@
         </is>
       </c>
     </row>
-    <row r="390" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="390" s="27">
       <c r="A390" s="28" t="inlineStr">
         <is>
           <t>0x24f17df7c50c8e9f83a9c867614ce6a5998b61e8</t>
@@ -22589,7 +22593,7 @@
         </is>
       </c>
     </row>
-    <row r="391" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="391" s="27">
       <c r="A391" s="28" t="inlineStr">
         <is>
           <t>0xa0231e235f9472db286632b270a3719f359627c0</t>
@@ -22602,7 +22606,7 @@
         </is>
       </c>
     </row>
-    <row r="392" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="392" s="27">
       <c r="A392" s="28" t="inlineStr">
         <is>
           <t>0x8dc6ab2501136bc3110eb9fb5bebc9b0e48b06d9</t>
@@ -22615,7 +22619,7 @@
         </is>
       </c>
     </row>
-    <row r="393" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="393" s="27">
       <c r="A393" s="28" t="inlineStr">
         <is>
           <t>0x6ff27762d97a8034ce27b2fd0b475cecb441f36d</t>
@@ -22628,7 +22632,7 @@
         </is>
       </c>
     </row>
-    <row r="394" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="394" s="27">
       <c r="A394" s="28" t="inlineStr">
         <is>
           <t>0xdcd5e33b7a1876e8c923352d7e05c19bcc041b1e</t>
@@ -22641,7 +22645,7 @@
         </is>
       </c>
     </row>
-    <row r="395" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="395" s="27">
       <c r="A395" s="28" t="inlineStr">
         <is>
           <t>0xd5c007bee60dca3deee471183f4735a7fa32d9c4</t>
@@ -22654,7 +22658,7 @@
         </is>
       </c>
     </row>
-    <row r="396" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="396" s="27">
       <c r="A396" s="28" t="inlineStr">
         <is>
           <t>0x9bb64d136df908da0895655b38b3220abc307241</t>
@@ -22667,7 +22671,7 @@
         </is>
       </c>
     </row>
-    <row r="397" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="397" s="27">
       <c r="A397" s="28" t="inlineStr">
         <is>
           <t>0x847b22ba563b6afb8040da9b6be6b50dbc00ab10</t>
@@ -22680,7 +22684,7 @@
         </is>
       </c>
     </row>
-    <row r="398" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="398" s="27">
       <c r="A398" s="28" t="inlineStr">
         <is>
           <t>0x0975601734e652d8c8bf8bd493a5e9c1b48212af</t>
@@ -22693,7 +22697,7 @@
         </is>
       </c>
     </row>
-    <row r="399" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="399" s="27">
       <c r="A399" s="28" t="inlineStr">
         <is>
           <t>0xac3016b7a26f622f8853f1f9c11d749e44838f0f</t>
@@ -22706,7 +22710,7 @@
         </is>
       </c>
     </row>
-    <row r="400" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="400" s="27">
       <c r="A400" s="28" t="inlineStr">
         <is>
           <t>0xa3e17dacc8676d227d5adbde33180b14a53a2952</t>
@@ -22719,7 +22723,7 @@
         </is>
       </c>
     </row>
-    <row r="401" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="401" s="27">
       <c r="A401" s="28" t="inlineStr">
         <is>
           <t>0x71471731c6d438a8afef8ef49862cf22e6423352</t>
@@ -22732,7 +22736,7 @@
         </is>
       </c>
     </row>
-    <row r="402" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="402" s="27">
       <c r="A402" s="28" t="inlineStr">
         <is>
           <t>0x9f91617493e4ae6332868085dc0b27708b9a2233</t>
@@ -22745,7 +22749,7 @@
         </is>
       </c>
     </row>
-    <row r="403" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="403" s="27">
       <c r="A403" s="28" t="inlineStr">
         <is>
           <t>0x4a1681a30b0a530b29086ddf1843bb38d785d588</t>
@@ -22758,7 +22762,7 @@
         </is>
       </c>
     </row>
-    <row r="404" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="404" s="27">
       <c r="A404" s="28" t="inlineStr">
         <is>
           <t>0x2c54c335ae25769be3b48a37763ce08f72fa8354</t>
@@ -22771,7 +22775,7 @@
         </is>
       </c>
     </row>
-    <row r="405" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="405" s="27">
       <c r="A405" s="28" t="inlineStr">
         <is>
           <t>0x776cff284384a017fdf40b892d6b18d88dc5a22d</t>
@@ -22784,7 +22788,7 @@
         </is>
       </c>
     </row>
-    <row r="406" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="406" s="27">
       <c r="A406" s="28" t="inlineStr">
         <is>
           <t>0x886248694a9781a4815bb4db7f1a6d0a11a18c0e</t>
@@ -22797,7 +22801,7 @@
         </is>
       </c>
     </row>
-    <row r="407" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="407" s="27">
       <c r="A407" s="28" t="inlineStr">
         <is>
           <t>0x586447e29a3e2c423e9a43bf2f1cc98edfaf902e</t>
@@ -22810,7 +22814,7 @@
         </is>
       </c>
     </row>
-    <row r="408" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="408" s="27">
       <c r="A408" s="28" t="inlineStr">
         <is>
           <t>0xfc4f654cac9efaf57066ede7c19d1483a86b1622</t>
@@ -22823,7 +22827,7 @@
         </is>
       </c>
     </row>
-    <row r="409" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="409" s="27">
       <c r="A409" s="28" t="inlineStr">
         <is>
           <t>0xf10290d2d17d68dfdc38d46880d3e52d7df9037d</t>
@@ -22836,7 +22840,7 @@
         </is>
       </c>
     </row>
-    <row r="410" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="410" s="27">
       <c r="A410" s="28" t="inlineStr">
         <is>
           <t>0x76a8e559739925309242d02af85afa050724d6bd</t>
@@ -22849,7 +22853,7 @@
         </is>
       </c>
     </row>
-    <row r="411" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="411" s="27">
       <c r="A411" s="28" t="inlineStr">
         <is>
           <t>0x28c3a537e022a7acea3966e63ca11ce80f3cb550</t>
@@ -22862,7 +22866,7 @@
         </is>
       </c>
     </row>
-    <row r="412" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="412" s="27">
       <c r="A412" s="28" t="inlineStr">
         <is>
           <t>0x88b2531a5d427c3a93b9c229420c7ba233fff83c</t>
@@ -22875,7 +22879,7 @@
         </is>
       </c>
     </row>
-    <row r="413" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="413" s="27">
       <c r="A413" s="28" t="inlineStr">
         <is>
           <t>0x4fd05f6b3fc806f415288c866f4fefe22784f208</t>
@@ -22888,7 +22892,7 @@
         </is>
       </c>
     </row>
-    <row r="414" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="414" s="27">
       <c r="A414" s="28" t="inlineStr">
         <is>
           <t>0x038645c221bbaf97cd331d51f60348905fab0f75</t>
@@ -22901,7 +22905,7 @@
         </is>
       </c>
     </row>
-    <row r="415" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="415" s="27">
       <c r="A415" s="28" t="inlineStr">
         <is>
           <t>0x32d813855f718d81e295034c05871e87d255a451</t>
@@ -22914,7 +22918,7 @@
         </is>
       </c>
     </row>
-    <row r="416" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="416" s="27">
       <c r="A416" s="28" t="inlineStr">
         <is>
           <t>0x9ee6f5793d4a8d3320369b74ac93a2a6880d70d4</t>
@@ -22927,7 +22931,7 @@
         </is>
       </c>
     </row>
-    <row r="417" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="417" s="27">
       <c r="A417" s="28" t="inlineStr">
         <is>
           <t>0xf1e903894e762d21eb18ce7e48a4500d657400d5</t>
@@ -22940,7 +22944,7 @@
         </is>
       </c>
     </row>
-    <row r="418" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="418" s="27">
       <c r="A418" s="28" t="inlineStr">
         <is>
           <t>0x997cd86a2ecddf08e430603c7f965846c7991ee8</t>
@@ -22953,7 +22957,7 @@
         </is>
       </c>
     </row>
-    <row r="419" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="419" s="27">
       <c r="A419" s="28" t="inlineStr">
         <is>
           <t>0x50eb139f11e54c2898d86ec99b1d3e0546783385</t>
@@ -22966,7 +22970,7 @@
         </is>
       </c>
     </row>
-    <row r="420" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="420" s="27">
       <c r="A420" s="28" t="inlineStr">
         <is>
           <t>0xa1ee3568e6c33dfbd8f224a2e9b0bb7636243fae</t>
@@ -22979,7 +22983,7 @@
         </is>
       </c>
     </row>
-    <row r="421" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="421" s="27">
       <c r="A421" s="28" t="inlineStr">
         <is>
           <t>0xd4888287a0caa30439a99bfb3dc16c1e9faff010</t>
@@ -22992,7 +22996,7 @@
         </is>
       </c>
     </row>
-    <row r="422" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="422" s="27">
       <c r="A422" s="28" t="inlineStr">
         <is>
           <t>0x2d422220cb3d0cf9a52162303d0220750e8c6181</t>
@@ -23005,7 +23009,7 @@
         </is>
       </c>
     </row>
-    <row r="423" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="423" s="27">
       <c r="A423" s="28" t="inlineStr">
         <is>
           <t>0x76c779bca01f888ec537867704b8364acf2e54b8</t>
@@ -23018,7 +23022,7 @@
         </is>
       </c>
     </row>
-    <row r="424" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="424" s="27">
       <c r="A424" s="28" t="inlineStr">
         <is>
           <t>0xb9cfa8e98176a396b3ef21d7a3a6944565d10908</t>
@@ -23031,7 +23035,7 @@
         </is>
       </c>
     </row>
-    <row r="425" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="425" s="27">
       <c r="A425" s="28" t="inlineStr">
         <is>
           <t>0xa480b71d45b69eb838644c375996836e8f1a4dc8</t>
@@ -23044,7 +23048,7 @@
         </is>
       </c>
     </row>
-    <row r="426" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="426" s="27">
       <c r="A426" s="28" t="inlineStr">
         <is>
           <t>0x6b2c38184173c74f9293dd9f6b0fb2da9f657377</t>
@@ -23057,7 +23061,7 @@
         </is>
       </c>
     </row>
-    <row r="427" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="427" s="27">
       <c r="A427" s="28" t="inlineStr">
         <is>
           <t>0x92cf14ed62ade5f5001e646ac56eb2bd02ff30bd</t>
@@ -23070,7 +23074,7 @@
         </is>
       </c>
     </row>
-    <row r="428" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="428" s="27">
       <c r="A428" s="28" t="inlineStr">
         <is>
           <t>0x917ec09e9df1389328419664912945b7cae09b8b</t>
@@ -23083,7 +23087,7 @@
         </is>
       </c>
     </row>
-    <row r="429" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="429" s="27">
       <c r="A429" s="28" t="inlineStr">
         <is>
           <t>0x5f7f385a3c3148e2de9a5673bde6c3c581d90ad6</t>
@@ -23096,7 +23100,7 @@
         </is>
       </c>
     </row>
-    <row r="430" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="430" s="27">
       <c r="A430" s="28" t="inlineStr">
         <is>
           <t>0x6f04cc2b22df11eb6a3f8cd2486b32087c9ed97d</t>
@@ -23109,7 +23113,7 @@
         </is>
       </c>
     </row>
-    <row r="431" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="431" s="27">
       <c r="A431" s="28" t="inlineStr">
         <is>
           <t>0xb339671c358af59fd1c012b80348102f0809188c</t>
@@ -23122,7 +23126,7 @@
         </is>
       </c>
     </row>
-    <row r="432" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="432" s="27">
       <c r="A432" s="28" t="inlineStr">
         <is>
           <t>0xd6c92d53a0f75c03da3716c34a2ace83ec05bc0e</t>
@@ -23135,7 +23139,7 @@
         </is>
       </c>
     </row>
-    <row r="433" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="433" s="27">
       <c r="A433" s="28" t="inlineStr">
         <is>
           <t>0x9d8841865387c35da9e00bf17cba077f7a5abe3d</t>
@@ -23148,7 +23152,7 @@
         </is>
       </c>
     </row>
-    <row r="434" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="434" s="27">
       <c r="A434" s="28" t="inlineStr">
         <is>
           <t>0xf3c5ccba026af696ceafcadc2a0d20a718e6584a</t>
@@ -23161,7 +23165,7 @@
         </is>
       </c>
     </row>
-    <row r="435" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="435" s="27">
       <c r="A435" s="28" t="inlineStr">
         <is>
           <t>0x708ee4c0f0e99ddb209c339bbd11b9b23b807ffb</t>
@@ -23174,7 +23178,7 @@
         </is>
       </c>
     </row>
-    <row r="436" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="436" s="27">
       <c r="A436" s="28" t="inlineStr">
         <is>
           <t>0x01c7b0d6c7fd28626a3e3488bff46eae6711fc20</t>
@@ -23187,7 +23191,7 @@
         </is>
       </c>
     </row>
-    <row r="437" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="437" s="27">
       <c r="A437" s="28" t="inlineStr">
         <is>
           <t>0xb7cae4abc47e8f077f865f7b4a8588a7bf1306fa</t>
@@ -23200,7 +23204,7 @@
         </is>
       </c>
     </row>
-    <row r="438" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="438" s="27">
       <c r="A438" s="28" t="inlineStr">
         <is>
           <t>0x3563c875b37e461c93820bb0255764b515973b1d</t>
@@ -23213,7 +23217,7 @@
         </is>
       </c>
     </row>
-    <row r="439" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="439" s="27">
       <c r="A439" s="28" t="inlineStr">
         <is>
           <t>0x49c96332745a73e09847e7c5949c143b81dc8c49</t>
@@ -23226,7 +23230,7 @@
         </is>
       </c>
     </row>
-    <row r="440" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="440" s="27">
       <c r="A440" s="28" t="inlineStr">
         <is>
           <t>0xc4268f0441b9785d6f9a543a5165d93b75767f3f</t>
@@ -23239,7 +23243,7 @@
         </is>
       </c>
     </row>
-    <row r="441" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="441" s="27">
       <c r="A441" s="28" t="inlineStr">
         <is>
           <t>0x8a5282b62f6bd6fcee57ffdf92f2b1c98fb733c1</t>
@@ -23252,7 +23256,7 @@
         </is>
       </c>
     </row>
-    <row r="442" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="442" s="27">
       <c r="A442" s="28" t="inlineStr">
         <is>
           <t>0xeb13c1f67243f272416a940b60414eb2224b3037</t>
@@ -23265,7 +23269,7 @@
         </is>
       </c>
     </row>
-    <row r="443" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="443" s="27">
       <c r="A443" s="28" t="inlineStr">
         <is>
           <t>0x25e30e24f8c2e65eb9d62c08141c7446f6191f09</t>
@@ -23278,7 +23282,7 @@
         </is>
       </c>
     </row>
-    <row r="444" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="444" s="27">
       <c r="A444" s="28" t="inlineStr">
         <is>
           <t>0xefb6388a652faff26abf64bc9fdbadebba0ac691</t>
@@ -23291,7 +23295,7 @@
         </is>
       </c>
     </row>
-    <row r="445" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="445" s="27">
       <c r="A445" s="28" t="inlineStr">
         <is>
           <t>0x5806edec131f57b61e083cb4142a8daa1a5370fe</t>
@@ -23304,7 +23308,7 @@
         </is>
       </c>
     </row>
-    <row r="446" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="446" s="27">
       <c r="A446" s="28" t="inlineStr">
         <is>
           <t>0xc971eeda18bcd61f075fdb06b927386e3584df57</t>
@@ -23317,7 +23321,7 @@
         </is>
       </c>
     </row>
-    <row r="447" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="447" s="27">
       <c r="A447" s="28" t="inlineStr">
         <is>
           <t>0xcf384349ce809bd9a826d89f16f5b6e5b5916e38</t>
@@ -23330,7 +23334,7 @@
         </is>
       </c>
     </row>
-    <row r="448" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="448" s="27">
       <c r="A448" s="28" t="inlineStr">
         <is>
           <t>0x961a6fefdcc5785ba2024a1f9aef457444d5801d</t>
@@ -23343,7 +23347,7 @@
         </is>
       </c>
     </row>
-    <row r="449" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="449" s="27">
       <c r="A449" s="28" t="inlineStr">
         <is>
           <t>0x0729764813cd31cd6322e8212539ea96de1b9d5f</t>
@@ -23356,7 +23360,7 @@
         </is>
       </c>
     </row>
-    <row r="450" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="450" s="27">
       <c r="A450" s="28" t="inlineStr">
         <is>
           <t>0xbead81951efeb7e663c66fdaeb78292b8153a0d9</t>
@@ -23369,7 +23373,7 @@
         </is>
       </c>
     </row>
-    <row r="451" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="451" s="27">
       <c r="A451" s="28" t="inlineStr">
         <is>
           <t>0x50b2f06d9f5acb6efe71c9815e8784eb4e3254e4</t>
@@ -23382,7 +23386,7 @@
         </is>
       </c>
     </row>
-    <row r="452" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="452" s="27">
       <c r="A452" s="28" t="inlineStr">
         <is>
           <t>0x38c44c478e4ea6fbf90a9aa23e328fe63e27f561</t>
@@ -23395,7 +23399,7 @@
         </is>
       </c>
     </row>
-    <row r="453" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="453" s="27">
       <c r="A453" s="28" t="inlineStr">
         <is>
           <t>0x78de558a6610d0496463eb0a221afed33d3a388b</t>
@@ -23408,7 +23412,7 @@
         </is>
       </c>
     </row>
-    <row r="454" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="454" s="27">
       <c r="A454" s="28" t="inlineStr">
         <is>
           <t>0x947afe1dd343113035ce02b5c0e891c550fe87f8</t>
@@ -23421,7 +23425,7 @@
         </is>
       </c>
     </row>
-    <row r="455" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="455" s="27">
       <c r="A455" s="28" t="inlineStr">
         <is>
           <t>0xfb8d8e1f1ca86ce4d5366e7943d31a6b1747fbd6</t>
@@ -23434,7 +23438,7 @@
         </is>
       </c>
     </row>
-    <row r="456" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="456" s="27">
       <c r="A456" s="28" t="inlineStr">
         <is>
           <t>0x7d85bfbedc001f7866e803121c0d0070d1327a04</t>
@@ -23447,7 +23451,7 @@
         </is>
       </c>
     </row>
-    <row r="457" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="457" s="27">
       <c r="A457" s="28" t="inlineStr">
         <is>
           <t>0x09181e1df34f18feb79f4df5b0738822057ffd16</t>
@@ -23460,7 +23464,7 @@
         </is>
       </c>
     </row>
-    <row r="458" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="458" s="27">
       <c r="A458" s="28" t="inlineStr">
         <is>
           <t>0x4bd26be39c951bd48d08cf5f6cc8f53de2aed71b</t>
@@ -23473,7 +23477,7 @@
         </is>
       </c>
     </row>
-    <row r="459" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="459" s="27">
       <c r="A459" s="28" t="inlineStr">
         <is>
           <t>0x314539f9066fe2491b445096d66af95a204da1ec</t>
@@ -23486,7 +23490,7 @@
         </is>
       </c>
     </row>
-    <row r="460" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="460" s="27">
       <c r="A460" s="28" t="inlineStr">
         <is>
           <t>0x68e6dcd91d97a602869cbab035c4832c70cc0456</t>
@@ -23499,7 +23503,7 @@
         </is>
       </c>
     </row>
-    <row r="461" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="461" s="27">
       <c r="A461" s="28" t="inlineStr">
         <is>
           <t>0xea9385bae9bbe84304ad77b0f18be795bd2cc571</t>
@@ -23512,7 +23516,7 @@
         </is>
       </c>
     </row>
-    <row r="462" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="462" s="27">
       <c r="A462" s="28" t="inlineStr">
         <is>
           <t>0x41550af5fc0d184909e56aa64a140000bdaa9be4</t>
@@ -23525,7 +23529,7 @@
         </is>
       </c>
     </row>
-    <row r="463" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="463" s="27">
       <c r="A463" s="28" t="inlineStr">
         <is>
           <t>0xa3be724898f027a81a1ef8addabc91871a40c7e8</t>
@@ -23538,7 +23542,7 @@
         </is>
       </c>
     </row>
-    <row r="464" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="464" s="27">
       <c r="A464" s="28" t="inlineStr">
         <is>
           <t>0xf138caaf0a28c74b6ca884e2d18b8c3b62d017de</t>
@@ -23551,7 +23555,7 @@
         </is>
       </c>
     </row>
-    <row r="465" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="465" s="27">
       <c r="A465" s="28" t="inlineStr">
         <is>
           <t>0xc50ede3a1d4a1a016ded1dce83ce264269b5b347</t>
@@ -23564,7 +23568,7 @@
         </is>
       </c>
     </row>
-    <row r="466" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="466" s="27">
       <c r="A466" s="28" t="inlineStr">
         <is>
           <t>0x8032f3a419f551ac5b4836e732a7a3ae96a43f64</t>
@@ -23577,7 +23581,7 @@
         </is>
       </c>
     </row>
-    <row r="467" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="467" s="27">
       <c r="A467" s="28" t="inlineStr">
         <is>
           <t>0x808c031e1352d41ccf95bbe3254e328b21e1f1f4</t>
@@ -23590,7 +23594,7 @@
         </is>
       </c>
     </row>
-    <row r="468" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="468" s="27">
       <c r="A468" s="28" t="inlineStr">
         <is>
           <t>0x89465d576f787ff5f3ea50f0649bc4777540ef21</t>
@@ -23603,7 +23607,7 @@
         </is>
       </c>
     </row>
-    <row r="469" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="469" s="27">
       <c r="A469" s="28" t="inlineStr">
         <is>
           <t>0xbe26f83bbb0b361fa7e45494f1a52528735e0e30</t>
@@ -23616,7 +23620,7 @@
         </is>
       </c>
     </row>
-    <row r="470" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="470" s="27">
       <c r="A470" s="28" t="inlineStr">
         <is>
           <t>0xcca358609dc50a3ba05912eb2b7aeddf08db51e9</t>
@@ -23629,7 +23633,7 @@
         </is>
       </c>
     </row>
-    <row r="471" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="471" s="27">
       <c r="A471" s="28" t="inlineStr">
         <is>
           <t>0x9ef2b4661dfc51d7257763bdcbcf43611fcbabcb</t>
@@ -23642,7 +23646,7 @@
         </is>
       </c>
     </row>
-    <row r="472" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="472" s="27">
       <c r="A472" s="28" t="inlineStr">
         <is>
           <t>0xe803a82e2788a9be61826ade3b06c4c18f7e2347</t>
@@ -23655,7 +23659,7 @@
         </is>
       </c>
     </row>
-    <row r="473" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="473" s="27">
       <c r="A473" s="28" t="inlineStr">
         <is>
           <t>0x1955d89aa1d545fc56adddabf33ff661b6844262</t>
@@ -23668,7 +23672,7 @@
         </is>
       </c>
     </row>
-    <row r="474" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="474" s="27">
       <c r="A474" s="28" t="inlineStr">
         <is>
           <t>0x46335657e994ecb12f2141d223ca652a883a8e6c</t>
@@ -23681,7 +23685,7 @@
         </is>
       </c>
     </row>
-    <row r="475" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="475" s="27">
       <c r="A475" s="28" t="inlineStr">
         <is>
           <t>0x53c0c784a5e9ea1a03635c1cec47b6b1bec8c80b</t>
@@ -23694,7 +23698,7 @@
         </is>
       </c>
     </row>
-    <row r="476" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="476" s="27">
       <c r="A476" s="28" t="inlineStr">
         <is>
           <t>0x9b1762f51a9ef7b187a4e24c9765e425447851be</t>
@@ -23707,7 +23711,7 @@
         </is>
       </c>
     </row>
-    <row r="477" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="477" s="27">
       <c r="A477" s="28" t="inlineStr">
         <is>
           <t>0x574aa1414ca749568fd85c76e143a1229107fd59</t>
@@ -23720,7 +23724,7 @@
         </is>
       </c>
     </row>
-    <row r="478" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="478" s="27">
       <c r="A478" s="28" t="inlineStr">
         <is>
           <t>0x0d0cc1428d8bf37f3ac872c68793634991f951f4</t>
@@ -23733,7 +23737,7 @@
         </is>
       </c>
     </row>
-    <row r="479" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="479" s="27">
       <c r="A479" s="28" t="inlineStr">
         <is>
           <t>0x8c05a6e6bbe644757e9350fe973a6bdd4fa0a422</t>
@@ -23746,7 +23750,7 @@
         </is>
       </c>
     </row>
-    <row r="480" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="480" s="27">
       <c r="A480" s="28" t="inlineStr">
         <is>
           <t>0x58e1e94bd60b30a7b43d6b58dcc5627ed02bd329</t>
@@ -23759,7 +23763,7 @@
         </is>
       </c>
     </row>
-    <row r="481" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="481" s="27">
       <c r="A481" s="28" t="inlineStr">
         <is>
           <t>0x1d162358d070f411b10f958ab86f6137412954f3</t>
@@ -23772,7 +23776,7 @@
         </is>
       </c>
     </row>
-    <row r="482" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="482" s="27">
       <c r="A482" s="28" t="inlineStr">
         <is>
           <t>0x7296b769343477a1fdf6d788a5b11f34b6d99897</t>
@@ -23785,7 +23789,7 @@
         </is>
       </c>
     </row>
-    <row r="483" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="483" s="27">
       <c r="A483" s="28" t="inlineStr">
         <is>
           <t>0x882f96d7da10f0b9a1bbe6ae3b128abfa6e04b11</t>
@@ -23798,7 +23802,7 @@
         </is>
       </c>
     </row>
-    <row r="484" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="484" s="27">
       <c r="A484" s="28" t="inlineStr">
         <is>
           <t>0x35e3928fa725c4a386062c1feb2f380afb8f462f</t>
@@ -23811,7 +23815,7 @@
         </is>
       </c>
     </row>
-    <row r="485" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="485" s="27">
       <c r="A485" s="28" t="inlineStr">
         <is>
           <t>0x131c092ae14195281f6bbe66fb13b548f2a01470</t>
@@ -23824,7 +23828,7 @@
         </is>
       </c>
     </row>
-    <row r="486" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="486" s="27">
       <c r="A486" s="28" t="inlineStr">
         <is>
           <t>0x4cf99afd0e76c2eac861143cbf1f2c19cbda7ba1</t>
@@ -23837,7 +23841,7 @@
         </is>
       </c>
     </row>
-    <row r="487" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="487" s="27">
       <c r="A487" s="28" t="inlineStr">
         <is>
           <t>0x5b8a9719e8adcb6450ac1038c481fb2ca81962a6</t>
@@ -23850,7 +23854,7 @@
         </is>
       </c>
     </row>
-    <row r="488" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="488" s="27">
       <c r="A488" s="28" t="inlineStr">
         <is>
           <t>0xa86458de7af57c6e1dd51c399ca0a6cecff3f9c5</t>
@@ -23863,7 +23867,7 @@
         </is>
       </c>
     </row>
-    <row r="489" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="489" s="27">
       <c r="A489" s="28" t="inlineStr">
         <is>
           <t>0x91e26eb6d21de823862e7fd196375d0669945de7</t>
@@ -23876,7 +23880,7 @@
         </is>
       </c>
     </row>
-    <row r="490" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="490" s="27">
       <c r="A490" s="28" t="inlineStr">
         <is>
           <t>0xa05eceee5a481b2bee23c1d6a2f35d3f450e0339</t>
@@ -23889,7 +23893,7 @@
         </is>
       </c>
     </row>
-    <row r="491" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="491" s="27">
       <c r="A491" s="28" t="inlineStr">
         <is>
           <t>0xe52daddb06ad4fd2a585e733101fd45d8ed7dc89</t>
@@ -23902,7 +23906,7 @@
         </is>
       </c>
     </row>
-    <row r="492" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="492" s="27">
       <c r="A492" s="28" t="inlineStr">
         <is>
           <t>0xa012209d8400e27cbc12278c757d34c71040c7da</t>
@@ -23915,7 +23919,7 @@
         </is>
       </c>
     </row>
-    <row r="493" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="493" s="27">
       <c r="A493" s="28" t="inlineStr">
         <is>
           <t>0x17f146f3de1d517c30c5180905ec57d477a6f8d5</t>
@@ -23928,7 +23932,7 @@
         </is>
       </c>
     </row>
-    <row r="494" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="494" s="27">
       <c r="A494" s="28" t="inlineStr">
         <is>
           <t>0x66bfc01bb455920a187b2fb1e665039d04bd7f56</t>
@@ -23941,7 +23945,7 @@
         </is>
       </c>
     </row>
-    <row r="495" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="495" s="27">
       <c r="A495" s="28" t="inlineStr">
         <is>
           <t>0x1b7093cf2edf998eaae27e0322dedd4ca03da3f4</t>
@@ -23954,7 +23958,7 @@
         </is>
       </c>
     </row>
-    <row r="496" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="496" s="27">
       <c r="A496" s="28" t="inlineStr">
         <is>
           <t>0xb592ca12f13ae19900a4835c1663238d9f9f71b4</t>
@@ -23967,7 +23971,7 @@
         </is>
       </c>
     </row>
-    <row r="497" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="497" s="27">
       <c r="A497" s="28" t="inlineStr">
         <is>
           <t>0xc6e9f36fe53a19a283de31a59eecb509ae7f9943</t>
@@ -23980,7 +23984,7 @@
         </is>
       </c>
     </row>
-    <row r="498" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="498" s="27">
       <c r="A498" s="28" t="inlineStr">
         <is>
           <t>0xbce878662ca60ec9fa93c0ed23218103d9215449</t>
@@ -23993,7 +23997,7 @@
         </is>
       </c>
     </row>
-    <row r="499" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="499" s="27">
       <c r="A499" s="28" t="inlineStr">
         <is>
           <t>0xa0f8159e239eaf989fc69c787aad9a8912327edb</t>
@@ -24006,7 +24010,7 @@
         </is>
       </c>
     </row>
-    <row r="500" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="500" s="27">
       <c r="A500" s="28" t="inlineStr">
         <is>
           <t>0x6226dd667f639edd47b52b8cce73caf88964cf4f</t>
@@ -24019,7 +24023,7 @@
         </is>
       </c>
     </row>
-    <row r="501" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="501" s="27">
       <c r="A501" s="28" t="inlineStr">
         <is>
           <t>0x67f6d673d3fe4717e3c2f80017ef75d477353a23</t>
@@ -24032,7 +24036,7 @@
         </is>
       </c>
     </row>
-    <row r="502" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="502" s="27">
       <c r="A502" s="28" t="inlineStr">
         <is>
           <t>0x6dd4a9ba76cd90ea45152fb374bd8b5049fda86f</t>
@@ -24045,7 +24049,7 @@
         </is>
       </c>
     </row>
-    <row r="503" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="503" s="27">
       <c r="A503" s="28" t="inlineStr">
         <is>
           <t>0x5f6bab731fcdad46c8d430c347796a4913f09e52</t>
@@ -24058,7 +24062,7 @@
         </is>
       </c>
     </row>
-    <row r="504" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="504" s="27">
       <c r="A504" s="28" t="inlineStr">
         <is>
           <t>0x275dddeb09312473ff62a4675e44a9417e532ab9</t>
@@ -24071,7 +24075,7 @@
         </is>
       </c>
     </row>
-    <row r="505" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="505" s="27">
       <c r="A505" s="28" t="inlineStr">
         <is>
           <t>0xbd4a5e9f368d66233d26dccdfd5e1ba499d54208</t>
@@ -24084,7 +24088,7 @@
         </is>
       </c>
     </row>
-    <row r="506" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="506" s="27">
       <c r="A506" s="28" t="inlineStr">
         <is>
           <t>0x9d1d7406e4b25c3a276a5321a0baece6f4b1796b</t>
@@ -24097,7 +24101,7 @@
         </is>
       </c>
     </row>
-    <row r="507" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="507" s="27">
       <c r="A507" s="28" t="inlineStr">
         <is>
           <t>0x1015b3051ed31dcfa1c1e4c4f8bd146a7821b82f</t>
@@ -24110,7 +24114,7 @@
         </is>
       </c>
     </row>
-    <row r="508" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="508" s="27">
       <c r="A508" s="28" t="inlineStr">
         <is>
           <t>0x1f545ac0bfdeca50327302467ed74a71e777502c</t>
@@ -24123,7 +24127,7 @@
         </is>
       </c>
     </row>
-    <row r="509" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="509" s="27">
       <c r="A509" s="28" t="inlineStr">
         <is>
           <t>0xddbd7d2e0300875b5d2c7f6935e4e5b36a24c2b8</t>
@@ -24136,7 +24140,7 @@
         </is>
       </c>
     </row>
-    <row r="510" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="510" s="27">
       <c r="A510" s="28" t="inlineStr">
         <is>
           <t>0xabed0504aa8aeb759ffa43024fc4c0ffdf9aa183</t>
@@ -24149,7 +24153,7 @@
         </is>
       </c>
     </row>
-    <row r="511" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="511" s="27">
       <c r="A511" s="28" t="inlineStr">
         <is>
           <t>0xbd2afb5ed27f82898b10be7ba1011b7b897c3c7e</t>
@@ -24162,7 +24166,7 @@
         </is>
       </c>
     </row>
-    <row r="512" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="512" s="27">
       <c r="A512" s="28" t="inlineStr">
         <is>
           <t>0xa53eaff20e23e799e27f96fdfdadadae223450fd</t>
@@ -24175,7 +24179,7 @@
         </is>
       </c>
     </row>
-    <row r="513" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="513" s="27">
       <c r="A513" s="28" t="inlineStr">
         <is>
           <t>0xaac0d936497fbf12d73eafced71323e1c807a16f</t>
@@ -24188,7 +24192,7 @@
         </is>
       </c>
     </row>
-    <row r="514" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="514" s="27">
       <c r="A514" s="28" t="inlineStr">
         <is>
           <t>0x2854d4f242ab50985351937ada85dbe2f1de645d</t>
@@ -24201,7 +24205,7 @@
         </is>
       </c>
     </row>
-    <row r="515" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="515" s="27">
       <c r="A515" s="28" t="inlineStr">
         <is>
           <t>0x231a3503ce8211af98e53655c79a5e2f252ff98a</t>
@@ -24214,7 +24218,7 @@
         </is>
       </c>
     </row>
-    <row r="516" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="516" s="27">
       <c r="A516" s="28" t="inlineStr">
         <is>
           <t>0xd01d480d5fe861c045cf2355eca353ba07bffc57</t>
@@ -24227,7 +24231,7 @@
         </is>
       </c>
     </row>
-    <row r="517" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="517" s="27">
       <c r="A517" s="28" t="inlineStr">
         <is>
           <t>0x5f49a29204e2c4d69e8034da06abaa6f0c08ab73</t>
@@ -24240,7 +24244,7 @@
         </is>
       </c>
     </row>
-    <row r="518" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="518" s="27">
       <c r="A518" s="28" t="inlineStr">
         <is>
           <t>0x0f8d79899009ab8bfb4e3ce3f5ad8ba1d9703964</t>
@@ -24253,7 +24257,7 @@
         </is>
       </c>
     </row>
-    <row r="519" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="519" s="27">
       <c r="A519" s="28" t="inlineStr">
         <is>
           <t>0x9a98c86f1d2a008e0fda5cb4758b7d21751d9c0b</t>
@@ -24266,7 +24270,7 @@
         </is>
       </c>
     </row>
-    <row r="520" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="520" s="27">
       <c r="A520" s="28" t="inlineStr">
         <is>
           <t>0x5cac37d843e3cd997e48f1135ac1cd149bfd7cbc</t>
@@ -24279,7 +24283,7 @@
         </is>
       </c>
     </row>
-    <row r="521" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="521" s="27">
       <c r="A521" s="28" t="inlineStr">
         <is>
           <t>0xe54404d38a944ccdc5b5b9790d5077fb0f0f52b4</t>
@@ -24292,7 +24296,7 @@
         </is>
       </c>
     </row>
-    <row r="522" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="522" s="27">
       <c r="A522" s="28" t="inlineStr">
         <is>
           <t>0xb7a4f576962ce79185ea7369b59f29866a1589d4</t>
@@ -24305,7 +24309,7 @@
         </is>
       </c>
     </row>
-    <row r="523" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="523" s="27">
       <c r="A523" s="28" t="inlineStr">
         <is>
           <t>0x384c11130903859ab866fb8b8272a9fd80ce420b</t>
@@ -24318,7 +24322,7 @@
         </is>
       </c>
     </row>
-    <row r="524" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="524" s="27">
       <c r="A524" s="28" t="inlineStr">
         <is>
           <t>0x2ec6649665b85f6a6d3a3f6ef0788f3efaffe16d</t>
@@ -24331,7 +24335,7 @@
         </is>
       </c>
     </row>
-    <row r="525" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="525" s="27">
       <c r="A525" s="28" t="inlineStr">
         <is>
           <t>0x79a43a1c8246230f75ec260a360cefa5f8cfcb9d</t>
@@ -24344,7 +24348,7 @@
         </is>
       </c>
     </row>
-    <row r="526" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="526" s="27">
       <c r="A526" s="28" t="inlineStr">
         <is>
           <t>0xb8e21918c18c2eddc229210e26be17790c645b13</t>
@@ -24357,7 +24361,7 @@
         </is>
       </c>
     </row>
-    <row r="527" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="527" s="27">
       <c r="A527" s="28" t="inlineStr">
         <is>
           <t>0x6e6585bd360872103373a62a9d2d049b186c30c4</t>
@@ -24370,7 +24374,7 @@
         </is>
       </c>
     </row>
-    <row r="528" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="528" s="27">
       <c r="A528" s="28" t="inlineStr">
         <is>
           <t>0x58fc3f63aef02995d0938e255f45084e280cef18</t>
@@ -24383,7 +24387,7 @@
         </is>
       </c>
     </row>
-    <row r="529" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="529" s="27">
       <c r="A529" s="28" t="inlineStr">
         <is>
           <t>0xd9999037bea88b9656ae2d4d94b718155fafe3b3</t>
@@ -24396,7 +24400,7 @@
         </is>
       </c>
     </row>
-    <row r="530" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="530" s="27">
       <c r="A530" s="28" t="inlineStr">
         <is>
           <t>0x798056b9e2701648b867c929378822025bbe19f2</t>
@@ -24409,7 +24413,7 @@
         </is>
       </c>
     </row>
-    <row r="531" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="531" s="27">
       <c r="A531" s="28" t="inlineStr">
         <is>
           <t>0x7d175a80c9865708547f91fab04981af5de0622a</t>
@@ -24422,7 +24426,7 @@
         </is>
       </c>
     </row>
-    <row r="532" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="532" s="27">
       <c r="A532" s="28" t="inlineStr">
         <is>
           <t>0x03e95e5c43a651b235235ff901aa0691343f980a</t>
@@ -24435,7 +24439,7 @@
         </is>
       </c>
     </row>
-    <row r="533" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="533" s="27">
       <c r="A533" s="28" t="inlineStr">
         <is>
           <t>0x401f0b2b6e0db8be0e1be650c7e8bc40a86ee439</t>
@@ -24448,7 +24452,7 @@
         </is>
       </c>
     </row>
-    <row r="534" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="534" s="27">
       <c r="A534" s="28" t="inlineStr">
         <is>
           <t>0x1f1cce66c3d78056d779e1c05872dd1914b726ac</t>
@@ -24461,7 +24465,7 @@
         </is>
       </c>
     </row>
-    <row r="535" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="535" s="27">
       <c r="A535" s="28" t="inlineStr">
         <is>
           <t>0xb92063a0a10cd64f03cac1e062ea3baf1827ffca</t>
@@ -24474,7 +24478,7 @@
         </is>
       </c>
     </row>
-    <row r="536" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="536" s="27">
       <c r="A536" s="28" t="inlineStr">
         <is>
           <t>0x15fa06489df6d7505dfb2fa4a6265ed48101efd5</t>
@@ -24487,7 +24491,7 @@
         </is>
       </c>
     </row>
-    <row r="537" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="537" s="27">
       <c r="A537" s="28" t="inlineStr">
         <is>
           <t>0xd1b463b3599bfdee908f79ae008fca1f687792f8</t>
@@ -24500,7 +24504,7 @@
         </is>
       </c>
     </row>
-    <row r="538" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="538" s="27">
       <c r="A538" s="28" t="inlineStr">
         <is>
           <t>0xc7b1b4411d9f0b30a81195ee15e0052ac382be15</t>
@@ -24513,7 +24517,7 @@
         </is>
       </c>
     </row>
-    <row r="539" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="539" s="27">
       <c r="A539" s="28" t="inlineStr">
         <is>
           <t>0x1c21e7c49cc88244a5310d1726480e1b9c80d4a3</t>
@@ -24526,7 +24530,7 @@
         </is>
       </c>
     </row>
-    <row r="540" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="540" s="27">
       <c r="A540" s="28" t="inlineStr">
         <is>
           <t>0x915a4629b9f2f5291fafa8486889dbd93bf57311</t>
@@ -24539,7 +24543,7 @@
         </is>
       </c>
     </row>
-    <row r="541" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="541" s="27">
       <c r="A541" s="28" t="inlineStr">
         <is>
           <t>0x3e6c63f6d1edd13210107ff349475282c46e4a4c</t>
@@ -24552,7 +24556,7 @@
         </is>
       </c>
     </row>
-    <row r="542" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="542" s="27">
       <c r="A542" s="28" t="inlineStr">
         <is>
           <t>0xde47ad2d2ac084af007104ea96a5c8f9d8275174</t>
@@ -24565,7 +24569,7 @@
         </is>
       </c>
     </row>
-    <row r="543" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="543" s="27">
       <c r="A543" s="28" t="inlineStr">
         <is>
           <t>0x87165c93bed3b3ed50b0a0d8eb8cfe24ce813a30</t>
@@ -24578,7 +24582,7 @@
         </is>
       </c>
     </row>
-    <row r="544" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="544" s="27">
       <c r="A544" s="28" t="inlineStr">
         <is>
           <t>0x1a44e17bff715f6e53dd124caf981eb9191d1d62</t>
@@ -24591,7 +24595,7 @@
         </is>
       </c>
     </row>
-    <row r="545" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="545" s="27">
       <c r="A545" s="28" t="inlineStr">
         <is>
           <t>0x288f5cb1d5839bd47fb33325d960b24a2c3e74df</t>
@@ -24604,7 +24608,7 @@
         </is>
       </c>
     </row>
-    <row r="546" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="546" s="27">
       <c r="A546" s="28" t="inlineStr">
         <is>
           <t>0xe87888e3f80bfc06b02e039d0b9c6ac7657ce8dc</t>
@@ -24617,7 +24621,7 @@
         </is>
       </c>
     </row>
-    <row r="547" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="547" s="27">
       <c r="A547" s="28" t="inlineStr">
         <is>
           <t>0xadc5c7ab5219ee9d0e9645b640af23addf88d62b</t>
@@ -24630,7 +24634,7 @@
         </is>
       </c>
     </row>
-    <row r="548" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="548" s="27">
       <c r="A548" s="28" t="inlineStr">
         <is>
           <t>0x980d7f67c365dc321eb8a39274e3694d3c6f7974</t>
@@ -24643,7 +24647,7 @@
         </is>
       </c>
     </row>
-    <row r="549" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="549" s="27">
       <c r="A549" s="28" t="inlineStr">
         <is>
           <t>0xb8bd2c61678a753330cd76d3a30986dc23c2046c</t>
@@ -24656,7 +24660,7 @@
         </is>
       </c>
     </row>
-    <row r="550" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="550" s="27">
       <c r="A550" s="28" t="inlineStr">
         <is>
           <t>0x7ca067d4cea3a0a991a2713fa8ecadc9aa29e4cb</t>
@@ -24669,7 +24673,7 @@
         </is>
       </c>
     </row>
-    <row r="551" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="551" s="27">
       <c r="A551" s="28" t="inlineStr">
         <is>
           <t>0x09241c7b17e239acb6edcf28ed2d898970b4f114</t>
@@ -24682,7 +24686,7 @@
         </is>
       </c>
     </row>
-    <row r="552" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="552" s="27">
       <c r="A552" s="28" t="inlineStr">
         <is>
           <t>0x4310cf1f8aaf9e1b01eee306ffeeedabe8e5b516</t>
@@ -24695,7 +24699,7 @@
         </is>
       </c>
     </row>
-    <row r="553" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="553" s="27">
       <c r="A553" s="28" t="inlineStr">
         <is>
           <t>0x20643f54e4b1b1d6ccae252762e419032af0e584</t>
@@ -24707,7 +24711,7 @@
         </is>
       </c>
     </row>
-    <row r="554" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="554" s="27">
       <c r="A554" s="28" t="inlineStr">
         <is>
           <t>0xf9b3305558c1f751197be7089321be11d4b7b7f8</t>
@@ -24719,7 +24723,7 @@
         </is>
       </c>
     </row>
-    <row r="555" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="555" s="27">
       <c r="A555" s="28" t="inlineStr">
         <is>
           <t>0xb24e5af564e79d73e1be9eb7f39ef40df033c70e</t>
@@ -24731,7 +24735,7 @@
         </is>
       </c>
     </row>
-    <row r="556" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="556" s="27">
       <c r="A556" s="28" t="inlineStr">
         <is>
           <t>0xc26746815d354f693daa14ec18f766f38888d73d</t>
@@ -24743,7 +24747,7 @@
         </is>
       </c>
     </row>
-    <row r="557" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="557" s="27">
       <c r="A557" s="28" t="inlineStr">
         <is>
           <t>0x72a6cd299e6aba354b11af324c4c4c481a748ac3</t>
@@ -24755,7 +24759,7 @@
         </is>
       </c>
     </row>
-    <row r="558" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="558" s="27">
       <c r="A558" s="28" t="inlineStr">
         <is>
           <t>0x6fc17b8694148f6bf538cdcfb791b650f7e864a8</t>
@@ -24767,7 +24771,7 @@
         </is>
       </c>
     </row>
-    <row r="559" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="559" s="27">
       <c r="A559" s="28" t="inlineStr">
         <is>
           <t>0x13d26639c30c109c7b2bbb41178dffb93d20c334</t>
@@ -24779,7 +24783,7 @@
         </is>
       </c>
     </row>
-    <row r="560" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="560" s="27">
       <c r="A560" s="28" t="inlineStr">
         <is>
           <t>0x373155dc1f4ec37c20a88e3ddffed1bd84b8fa64</t>
@@ -24791,7 +24795,7 @@
         </is>
       </c>
     </row>
-    <row r="561" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="561" s="27">
       <c r="A561" s="28" t="inlineStr">
         <is>
           <t>0x196869329bf514def9bc8d4fd529512b4c5e36eb</t>
@@ -24803,7 +24807,7 @@
         </is>
       </c>
     </row>
-    <row r="562" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="562" s="27">
       <c r="A562" s="28" t="inlineStr">
         <is>
           <t>0x1fc466784c24bdcfd4c16a198690fc152f9bd050</t>
@@ -24815,7 +24819,7 @@
         </is>
       </c>
     </row>
-    <row r="563" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="563" s="27">
       <c r="A563" s="28" t="inlineStr">
         <is>
           <t>0x27bad9a425700b306a92d387134bcc0c7ec6201b</t>
@@ -24827,7 +24831,7 @@
         </is>
       </c>
     </row>
-    <row r="564" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="564" s="27">
       <c r="A564" s="28" t="inlineStr">
         <is>
           <t>0xf76141914254167d574562d2b5419078e2bcd791</t>
@@ -24839,7 +24843,7 @@
         </is>
       </c>
     </row>
-    <row r="565" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="565" s="27">
       <c r="A565" s="28" t="inlineStr">
         <is>
           <t>0xfa596534168dc3447c36248333759a98a5ed625c</t>
@@ -24851,7 +24855,7 @@
         </is>
       </c>
     </row>
-    <row r="566" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="566" s="27">
       <c r="A566" s="28" t="inlineStr">
         <is>
           <t>0xdd254e0d2df6a25e2169bd5639ffc9ebbcd6f3e8</t>
@@ -24863,7 +24867,7 @@
         </is>
       </c>
     </row>
-    <row r="567" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="567" s="27">
       <c r="A567" s="28" t="inlineStr">
         <is>
           <t>0xa4e42f0ca2dedc70c3e021ffdc24376e6bf77980</t>
@@ -24875,7 +24879,7 @@
         </is>
       </c>
     </row>
-    <row r="568" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="568" s="27">
       <c r="A568" s="28" t="inlineStr">
         <is>
           <t>0xcd2455961020dabb6d38c49461f05e868496ca9c</t>
@@ -24887,7 +24891,7 @@
         </is>
       </c>
     </row>
-    <row r="569" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="569" s="27">
       <c r="A569" s="28" t="inlineStr">
         <is>
           <t>0xb2196afbb786be3c7ae0dcec09616db37aeffdd2</t>
@@ -24899,7 +24903,7 @@
         </is>
       </c>
     </row>
-    <row r="570" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="570" s="27">
       <c r="A570" s="28" t="inlineStr">
         <is>
           <t>0x9078c44a8971cba1d3bcb40f34ea7c91c0e63539</t>
@@ -24911,7 +24915,7 @@
         </is>
       </c>
     </row>
-    <row r="571" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="571" s="27">
       <c r="A571" s="28" t="inlineStr">
         <is>
           <t>0x7a4e0df384a2ea9b0a8e47e0f44c08c28bcc5693</t>
@@ -24923,7 +24927,7 @@
         </is>
       </c>
     </row>
-    <row r="572" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="572" s="27">
       <c r="A572" s="28" t="inlineStr">
         <is>
           <t>0x71b084856da1d30a40b94b24f0214bf4d8839906</t>
@@ -24935,7 +24939,7 @@
         </is>
       </c>
     </row>
-    <row r="573" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="573" s="27">
       <c r="A573" s="28" t="inlineStr">
         <is>
           <t>0x46da2d03b0b0d99718f05678c79fae24fdeccacb</t>
@@ -24947,7 +24951,7 @@
         </is>
       </c>
     </row>
-    <row r="574" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="574" s="27">
       <c r="A574" s="28" t="inlineStr">
         <is>
           <t>0x4eb1186caa24828005f303753cea114e6ed58cc1</t>
@@ -24959,7 +24963,7 @@
         </is>
       </c>
     </row>
-    <row r="575" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="575" s="27">
       <c r="A575" s="28" t="inlineStr">
         <is>
           <t>0xc3d2d04c1d99ffb5e18282b6553de7656cc9596c</t>
@@ -24971,7 +24975,7 @@
         </is>
       </c>
     </row>
-    <row r="576" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="576" s="27">
       <c r="A576" s="28" t="inlineStr">
         <is>
           <t>0xc39b8420be903322228aea5a68933771eca8d5d5</t>
@@ -24983,7 +24987,7 @@
         </is>
       </c>
     </row>
-    <row r="577" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="577" s="27">
       <c r="A577" s="28" t="inlineStr">
         <is>
           <t>0xf37901d386f64a1972c22e95717af4b2dbccd99e</t>
@@ -24995,7 +24999,7 @@
         </is>
       </c>
     </row>
-    <row r="578" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="578" s="27">
       <c r="A578" s="28" t="inlineStr">
         <is>
           <t>0x235b3155fe0946847839dbe1bc86b91b842f395d</t>
@@ -25007,7 +25011,7 @@
         </is>
       </c>
     </row>
-    <row r="579" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="579" s="27">
       <c r="A579" s="28" t="inlineStr">
         <is>
           <t>0x2e1ac7bb6ce50e93adeedc19936ff507ce6baba9</t>
@@ -25019,7 +25023,7 @@
         </is>
       </c>
     </row>
-    <row r="580" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="580" s="27">
       <c r="A580" s="28" t="inlineStr">
         <is>
           <t>0xa4c9af82dfdc5ff1e4741c6ab2411785031ec96f</t>
@@ -25031,7 +25035,7 @@
         </is>
       </c>
     </row>
-    <row r="581" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="581" s="27">
       <c r="A581" s="28" t="inlineStr">
         <is>
           <t>0xa4b5fc5dc3c3d8d558c183934eb77304c0f1458a</t>
@@ -25043,7 +25047,7 @@
         </is>
       </c>
     </row>
-    <row r="582" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="582" s="27">
       <c r="A582" s="28" t="inlineStr">
         <is>
           <t>0xa705c9e6cf08b780f5daa70eb65966121887f5af</t>
@@ -25055,7 +25059,7 @@
         </is>
       </c>
     </row>
-    <row r="583" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="583" s="27">
       <c r="A583" s="28" t="inlineStr">
         <is>
           <t>0x4946c3cb7e68cc8a2efcc7fcad6971b313954bff</t>
@@ -25067,7 +25071,7 @@
         </is>
       </c>
     </row>
-    <row r="584" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="584" s="27">
       <c r="A584" s="28" t="inlineStr">
         <is>
           <t>0x4fe79192c3877e4dbc9843d2bb4d41a83f6240b6</t>
@@ -25079,7 +25083,7 @@
         </is>
       </c>
     </row>
-    <row r="585" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="585" s="27">
       <c r="A585" s="28" t="inlineStr">
         <is>
           <t>0xfd6d50d912e388fa845b31ed0fe601755650decd</t>
@@ -25091,7 +25095,7 @@
         </is>
       </c>
     </row>
-    <row r="586" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="586" s="27">
       <c r="A586" s="28" t="inlineStr">
         <is>
           <t>0x7d7c6f546b56748ea720d391266843096bf5ed71</t>
@@ -25103,7 +25107,7 @@
         </is>
       </c>
     </row>
-    <row r="587" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="587" s="27">
       <c r="A587" s="28" t="inlineStr">
         <is>
           <t>0x61767407c1f92a610fa3822ea85440c999aead8d</t>
@@ -25115,7 +25119,7 @@
         </is>
       </c>
     </row>
-    <row r="588" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="588" s="27">
       <c r="A588" s="28" t="inlineStr">
         <is>
           <t>0x7d3d7bca66d3887727cf1aa638a7da51ac3ca355</t>
@@ -25127,7 +25131,7 @@
         </is>
       </c>
     </row>
-    <row r="589" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="589" s="27">
       <c r="A589" s="28" t="inlineStr">
         <is>
           <t>0xcb889727a555a9e2c3dc6caa6bcfed351a64d6bb</t>
@@ -25139,7 +25143,7 @@
         </is>
       </c>
     </row>
-    <row r="590" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="590" s="27">
       <c r="A590" s="28" t="inlineStr">
         <is>
           <t>0x281032e9f86878ca16bc56497dabfccf305b3041</t>
@@ -25151,7 +25155,7 @@
         </is>
       </c>
     </row>
-    <row r="591" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="591" s="27">
       <c r="A591" s="28" t="inlineStr">
         <is>
           <t>0x81e6234bd35a0423a90c1703ee2951ab1a8884e3</t>
@@ -25163,7 +25167,7 @@
         </is>
       </c>
     </row>
-    <row r="592" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="592" s="27">
       <c r="A592" s="28" t="inlineStr">
         <is>
           <t>0x5038e984b0d7b60ea6d476b7e54e60625b9eb875</t>
@@ -25175,7 +25179,7 @@
         </is>
       </c>
     </row>
-    <row r="593" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="593" s="27">
       <c r="A593" s="28" t="inlineStr">
         <is>
           <t>0xddca6b39bdfae1b60f0c95a0846b6b0b63904be5</t>
@@ -25187,7 +25191,7 @@
         </is>
       </c>
     </row>
-    <row r="594" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="594" s="27">
       <c r="A594" s="28" t="inlineStr">
         <is>
           <t>0x068bcd90d49f68a579c44fca3520f43344aeaef3</t>
@@ -25199,7 +25203,7 @@
         </is>
       </c>
     </row>
-    <row r="595" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="595" s="27">
       <c r="A595" s="28" t="inlineStr">
         <is>
           <t>0x6d8482ddd83b5860b63f350df632a5d36a6209d4</t>
@@ -25211,7 +25215,7 @@
         </is>
       </c>
     </row>
-    <row r="596" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="596" s="27">
       <c r="A596" s="28" t="inlineStr">
         <is>
           <t>0x6d019ef8847c805f148dac6a453abe4ab71caf61</t>
@@ -25223,7 +25227,7 @@
         </is>
       </c>
     </row>
-    <row r="597" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="597" s="27">
       <c r="A597" s="28" t="inlineStr">
         <is>
           <t>0xc7a0fa45c08f8603237bc0fbe9507d71fa6baf2b</t>
@@ -25235,7 +25239,7 @@
         </is>
       </c>
     </row>
-    <row r="598" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="598" s="27">
       <c r="A598" s="28" t="inlineStr">
         <is>
           <t>0x75d8f126e2190a8c95b86a2e516a29953cbd4996</t>
@@ -25247,7 +25251,7 @@
         </is>
       </c>
     </row>
-    <row r="599" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="599" s="27">
       <c r="A599" s="28" t="inlineStr">
         <is>
           <t>0x0a44fd87c033b03f204374a76d38f3e8ffafb919</t>
@@ -25259,7 +25263,7 @@
         </is>
       </c>
     </row>
-    <row r="600" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="600" s="27">
       <c r="A600" s="28" t="inlineStr">
         <is>
           <t>0x9bb59f3d71d7e1f1a8bed3e5d3987f711d8ef220</t>
@@ -25271,7 +25275,7 @@
         </is>
       </c>
     </row>
-    <row r="601" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="601" s="27">
       <c r="A601" s="28" t="inlineStr">
         <is>
           <t>0xd82f76098a7cdda22a083b37de2b763f0dd253d1</t>
@@ -25283,7 +25287,7 @@
         </is>
       </c>
     </row>
-    <row r="602" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="602" s="27">
       <c r="A602" s="28" t="inlineStr">
         <is>
           <t>0xc7a2a14b7864466bbd7c2b1bcf974d59f6d89301</t>
@@ -25295,7 +25299,7 @@
         </is>
       </c>
     </row>
-    <row r="603" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="603" s="27">
       <c r="A603" s="28" t="inlineStr">
         <is>
           <t>0xd6e8d452460dfd2a8f1ad5987fa840f193873b09</t>
@@ -25307,7 +25311,7 @@
         </is>
       </c>
     </row>
-    <row r="604" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="604" s="27">
       <c r="A604" s="28" t="inlineStr">
         <is>
           <t>0x3161ba878c9229536f4ecd9cd9a6088cffdd6015</t>
@@ -25319,7 +25323,7 @@
         </is>
       </c>
     </row>
-    <row r="605" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="605" s="27">
       <c r="A605" s="28" t="inlineStr">
         <is>
           <t>0x2f21d57c5363159ff2ca1e8360c3c3b3f26f2cca</t>
@@ -25331,7 +25335,7 @@
         </is>
       </c>
     </row>
-    <row r="606" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="606" s="27">
       <c r="A606" s="28" t="inlineStr">
         <is>
           <t>0x3429a10bf5b20f198b76e861988c9d4bb683f6ce</t>
@@ -25343,7 +25347,7 @@
         </is>
       </c>
     </row>
-    <row r="607" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="607" s="27">
       <c r="A607" s="28" t="inlineStr">
         <is>
           <t>0xeed023f63f65b29c65e5eb99c00441ea0ea5c1ff</t>
@@ -25355,7 +25359,7 @@
         </is>
       </c>
     </row>
-    <row r="608" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="608" s="27">
       <c r="A608" s="28" t="inlineStr">
         <is>
           <t>0x6cd77783e1e7d91590d8e8bfe3654d74b5285b60</t>
@@ -25367,7 +25371,7 @@
         </is>
       </c>
     </row>
-    <row r="609" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="609" s="27">
       <c r="A609" s="28" t="inlineStr">
         <is>
           <t>0x38c4217c9d9e4e9cfba3037724682c0772760561</t>
@@ -25379,7 +25383,7 @@
         </is>
       </c>
     </row>
-    <row r="610" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="610" s="27">
       <c r="A610" s="28" t="inlineStr">
         <is>
           <t>0x482713fabc5f3f2690be82692ad3843ca6f49051</t>
@@ -25391,7 +25395,7 @@
         </is>
       </c>
     </row>
-    <row r="611" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="611" s="27">
       <c r="A611" s="28" t="inlineStr">
         <is>
           <t>0xf4792cbbb0c9ce408f02e5edbbecc3202fe4bfef</t>
@@ -25403,7 +25407,7 @@
         </is>
       </c>
     </row>
-    <row r="612" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="612" s="27">
       <c r="A612" s="28" t="inlineStr">
         <is>
           <t>0x440bb1c4cec33114b9a46143b889975289aa6112</t>
@@ -25415,7 +25419,7 @@
         </is>
       </c>
     </row>
-    <row r="613" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="613" s="27">
       <c r="A613" s="28" t="inlineStr">
         <is>
           <t>0xa95a404cd04ce01cfa457267541d8b8e4a4c4a9a</t>
@@ -25427,7 +25431,7 @@
         </is>
       </c>
     </row>
-    <row r="614" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="614" s="27">
       <c r="A614" s="28" t="inlineStr">
         <is>
           <t>0xa2107d310689d539302c5c3fd7c413b2f7f63487</t>
@@ -25439,7 +25443,7 @@
         </is>
       </c>
     </row>
-    <row r="615" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="615" s="27">
       <c r="A615" s="28" t="inlineStr">
         <is>
           <t>0x7668c1f5c7ba0087ce49c22587a9bd6328320de4</t>
@@ -25451,7 +25455,7 @@
         </is>
       </c>
     </row>
-    <row r="616" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="616" s="27">
       <c r="A616" s="28" t="inlineStr">
         <is>
           <t>0xe79216e933381de6c2c15012353df39b2db77612</t>
@@ -25463,7 +25467,7 @@
         </is>
       </c>
     </row>
-    <row r="617" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="617" s="27">
       <c r="A617" s="28" t="inlineStr">
         <is>
           <t>0x8cdd03642d2b8443fd682f2c8919b3260655844b</t>
@@ -25475,7 +25479,7 @@
         </is>
       </c>
     </row>
-    <row r="618" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="618" s="27">
       <c r="A618" s="28" t="inlineStr">
         <is>
           <t>0xee48da61470c1a89f9fc7ab6aba39481a75ed2ab</t>
@@ -25487,7 +25491,7 @@
         </is>
       </c>
     </row>
-    <row r="619" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="619" s="27">
       <c r="A619" s="28" t="inlineStr">
         <is>
           <t>0x0fec9612fe4a95a26a949970bc91e30f951dfc5c</t>
@@ -25499,7 +25503,7 @@
         </is>
       </c>
     </row>
-    <row r="620" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="620" s="27">
       <c r="A620" s="28" t="inlineStr">
         <is>
           <t>0x7f8c1f9f7e5909e6a78bac65ef4df61275e555c8</t>
@@ -25511,7 +25515,7 @@
         </is>
       </c>
     </row>
-    <row r="621" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="621" s="27">
       <c r="A621" s="28" t="inlineStr">
         <is>
           <t>0x5a6521e137500d794e46ef86182c7b77eb46fcf1</t>
@@ -25523,7 +25527,7 @@
         </is>
       </c>
     </row>
-    <row r="622" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="622" s="27">
       <c r="A622" s="28" t="inlineStr">
         <is>
           <t>0x9cd896873eb8c0b8841104d404202afa24b52e3d</t>
@@ -25535,7 +25539,7 @@
         </is>
       </c>
     </row>
-    <row r="623" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="623" s="27">
       <c r="A623" s="28" t="inlineStr">
         <is>
           <t>0x039b73bdff487271020519e2d141259ab78ec782</t>
@@ -25547,7 +25551,7 @@
         </is>
       </c>
     </row>
-    <row r="624" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="624" s="27">
       <c r="A624" s="28" t="inlineStr">
         <is>
           <t>0xc74bc1acd33abccb9aab030f5eb4f9dfac40221c</t>
@@ -25559,7 +25563,7 @@
         </is>
       </c>
     </row>
-    <row r="625" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="625" s="27">
       <c r="A625" s="28" t="inlineStr">
         <is>
           <t>0xd834a9a8a5af6b6deb551260c1d91236ce1a83d4</t>
@@ -25571,7 +25575,7 @@
         </is>
       </c>
     </row>
-    <row r="626" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="626" s="27">
       <c r="A626" s="28" t="inlineStr">
         <is>
           <t>0xd0e040f58688f19fd6820c9cedeae49161f2a66e</t>
@@ -25583,7 +25587,7 @@
         </is>
       </c>
     </row>
-    <row r="627" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="627" s="27">
       <c r="A627" s="28" t="inlineStr">
         <is>
           <t>0x88e876c4eb58e1abdfcb12ccdc7e98d1c7153aae</t>
@@ -25595,7 +25599,7 @@
         </is>
       </c>
     </row>
-    <row r="628" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="628" s="27">
       <c r="A628" s="28" t="inlineStr">
         <is>
           <t>0x6f2eafd437b3c6f83f13f6f7ed2c8fdac472e3f0</t>
@@ -25607,7 +25611,7 @@
         </is>
       </c>
     </row>
-    <row r="629" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="629" s="27">
       <c r="A629" s="28" t="inlineStr">
         <is>
           <t>0x200a0f63029da058dd1940608657f8ab36ec3df0</t>
@@ -25619,7 +25623,7 @@
         </is>
       </c>
     </row>
-    <row r="630" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="630" s="27">
       <c r="A630" s="28" t="inlineStr">
         <is>
           <t>0x37d9749b5298e276c664217c77045884f0520feb</t>
@@ -25631,7 +25635,7 @@
         </is>
       </c>
     </row>
-    <row r="631" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="631" s="27">
       <c r="A631" s="28" t="inlineStr">
         <is>
           <t>0x76c52488c6d05902cc3e3a0e0b85a59330e36313</t>
@@ -25643,7 +25647,7 @@
         </is>
       </c>
     </row>
-    <row r="632" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="632" s="27">
       <c r="A632" s="28" t="inlineStr">
         <is>
           <t>0x789e50129c6b6e539fbe2a889472c0f2688b6852</t>
@@ -25655,7 +25659,7 @@
         </is>
       </c>
     </row>
-    <row r="633" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="633" s="27">
       <c r="A633" s="28" t="inlineStr">
         <is>
           <t>0x3a55928dd1164625fcd7937015d1c1d5b5cc1ecb</t>
@@ -25667,7 +25671,7 @@
         </is>
       </c>
     </row>
-    <row r="634" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="634" s="27">
       <c r="A634" s="28" t="inlineStr">
         <is>
           <t>0xbbf92ab779c4bd568d9a8d787b342c9324cd967e</t>
@@ -25679,7 +25683,7 @@
         </is>
       </c>
     </row>
-    <row r="635" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="635" s="27">
       <c r="A635" s="28" t="inlineStr">
         <is>
           <t>0x90262e5b67afe49f761d351bf4c0556d7936f304</t>
@@ -25691,7 +25695,7 @@
         </is>
       </c>
     </row>
-    <row r="636" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="636" s="27">
       <c r="A636" s="28" t="inlineStr">
         <is>
           <t>0x10fc9241108aea7f8ab4b2ddd0cec421d2cb02b6</t>
@@ -25703,7 +25707,7 @@
         </is>
       </c>
     </row>
-    <row r="637" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="637" s="27">
       <c r="A637" s="28" t="inlineStr">
         <is>
           <t>0x426598ef77402e43b4a1d89b0c0de381822fd588</t>
@@ -25715,7 +25719,7 @@
         </is>
       </c>
     </row>
-    <row r="638" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="638" s="27">
       <c r="A638" s="28" t="inlineStr">
         <is>
           <t>0xe2f01241595f1b313136d1eefa733dd8e9d5dc37</t>
@@ -25727,7 +25731,7 @@
         </is>
       </c>
     </row>
-    <row r="639" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="639" s="27">
       <c r="A639" s="28" t="inlineStr">
         <is>
           <t>0x76f5d54e9cd9c446943227a679a348edcc49247a</t>
@@ -25739,7 +25743,7 @@
         </is>
       </c>
     </row>
-    <row r="640" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="640" s="27">
       <c r="A640" s="28" t="inlineStr">
         <is>
           <t>0x02c46703ecd04cdbc0ade3193a681aa25113f8f9</t>
@@ -25751,7 +25755,7 @@
         </is>
       </c>
     </row>
-    <row r="641" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="641" s="27">
       <c r="A641" s="28" t="inlineStr">
         <is>
           <t>0x902cb48f01a236786090ad52283dc6d39a83ba71</t>
@@ -25763,7 +25767,7 @@
         </is>
       </c>
     </row>
-    <row r="642" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="642" s="27">
       <c r="A642" s="28" t="inlineStr">
         <is>
           <t>0x54dfef4ee579cd839c693c5332be122556eec7ec</t>
@@ -25775,7 +25779,7 @@
         </is>
       </c>
     </row>
-    <row r="643" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="643" s="27">
       <c r="A643" s="28" t="inlineStr">
         <is>
           <t>0x7d6176484e2e0fd027ead507fc35fabcfcc4a384</t>
@@ -25787,7 +25791,7 @@
         </is>
       </c>
     </row>
-    <row r="644" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="644" s="27">
       <c r="A644" s="28" t="inlineStr">
         <is>
           <t>0x9850f75f195eb8a37ce86f5261576bb228a23774</t>
@@ -25799,7 +25803,7 @@
         </is>
       </c>
     </row>
-    <row r="645" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="645" s="27">
       <c r="A645" s="28" t="inlineStr">
         <is>
           <t>0xa430b63d69db1f2acc52d673acd61c6b3f8e619e</t>
@@ -25811,7 +25815,7 @@
         </is>
       </c>
     </row>
-    <row r="646" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="646" s="27">
       <c r="A646" s="28" t="inlineStr">
         <is>
           <t>0xeb44d5c08e0695158428812d9a5e672fe5f62c5b</t>
@@ -25823,7 +25827,7 @@
         </is>
       </c>
     </row>
-    <row r="647" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="647" s="27">
       <c r="A647" s="28" t="inlineStr">
         <is>
           <t>0x2335da61a7afd2b1600483f8c495c5f5baab614a</t>
@@ -25835,7 +25839,7 @@
         </is>
       </c>
     </row>
-    <row r="648" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="648" s="27">
       <c r="A648" s="28" t="inlineStr">
         <is>
           <t>0x33064d374a71d5e36dfd44ee0806d9fb40765b98</t>
@@ -25847,7 +25851,7 @@
         </is>
       </c>
     </row>
-    <row r="649" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="649" s="27">
       <c r="A649" s="28" t="inlineStr">
         <is>
           <t>0xbc98efc4a89105284a5aecf4b798c4bfa66be9d5</t>
@@ -25859,7 +25863,7 @@
         </is>
       </c>
     </row>
-    <row r="650" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="650" s="27">
       <c r="A650" s="28" t="inlineStr">
         <is>
           <t>0x24131049db3e156e380c48290ba06e1b08479e1a</t>
@@ -25871,7 +25875,7 @@
         </is>
       </c>
     </row>
-    <row r="651" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="651" s="27">
       <c r="A651" s="28" t="inlineStr">
         <is>
           <t>0x49003025f82ff86d788c520b6a039342749fd433</t>
@@ -25883,7 +25887,7 @@
         </is>
       </c>
     </row>
-    <row r="652" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="652" s="27">
       <c r="A652" s="28" t="inlineStr">
         <is>
           <t>0x717a9886f237c3956801cd3f9e3e0274b19fd35c</t>
@@ -25895,7 +25899,7 @@
         </is>
       </c>
     </row>
-    <row r="653" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="653" s="27">
       <c r="A653" s="28" t="inlineStr">
         <is>
           <t>0xcdc2d30e0a4ae094b32c4e4235e931daf399a45d</t>
@@ -25907,7 +25911,7 @@
         </is>
       </c>
     </row>
-    <row r="654" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="654" s="27">
       <c r="A654" s="28" t="inlineStr">
         <is>
           <t>0x77237f2f8f1090bddde43693fb4a6ba6e32c5e05</t>
@@ -25919,7 +25923,7 @@
         </is>
       </c>
     </row>
-    <row r="655" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="655" s="27">
       <c r="A655" s="28" t="inlineStr">
         <is>
           <t>0x4ac64d46d680f8a945c4b8968a56e6f92c7458b1</t>
@@ -25931,7 +25935,7 @@
         </is>
       </c>
     </row>
-    <row r="656" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="656" s="27">
       <c r="A656" s="28" t="inlineStr">
         <is>
           <t>0xd2fe4d3ec6a784771ad07bcf6411561191d19aa2</t>
@@ -25943,7 +25947,7 @@
         </is>
       </c>
     </row>
-    <row r="657" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="657" s="27">
       <c r="A657" s="28" t="inlineStr">
         <is>
           <t>0xdb7875b0d56f6f6f7baf0322dd8f47d3fd7350b3</t>
@@ -25955,7 +25959,7 @@
         </is>
       </c>
     </row>
-    <row r="658" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="658" s="27">
       <c r="A658" s="28" t="inlineStr">
         <is>
           <t>0xa1ac14f75276d3383c22de47196e7bb76ae47604</t>
@@ -25967,7 +25971,7 @@
         </is>
       </c>
     </row>
-    <row r="659" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="659" s="27">
       <c r="A659" s="28" t="inlineStr">
         <is>
           <t>0x8edd66bb1f2e0620235faa6831f097ff0db585e3</t>
@@ -25979,7 +25983,7 @@
         </is>
       </c>
     </row>
-    <row r="660" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="660" s="27">
       <c r="A660" s="28" t="inlineStr">
         <is>
           <t>0x3002a15470f4e65d06657aca5bddc0d5ebf19f78</t>
@@ -25991,7 +25995,7 @@
         </is>
       </c>
     </row>
-    <row r="661" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="661" s="27">
       <c r="A661" s="28" t="inlineStr">
         <is>
           <t>0x7c0e82e6f5c9c782bf75e3fee4437986e264af87</t>
@@ -26003,7 +26007,7 @@
         </is>
       </c>
     </row>
-    <row r="662" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="662" s="27">
       <c r="A662" s="28" t="inlineStr">
         <is>
           <t>0x58807c52715608fa8a0d43c50c04291d0c17e2d0</t>
@@ -26015,7 +26019,7 @@
         </is>
       </c>
     </row>
-    <row r="663" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="663" s="27">
       <c r="A663" s="28" t="inlineStr">
         <is>
           <t>0x19c76b51acb82808090007522324c9fbc2bf2d7b</t>
@@ -26027,7 +26031,7 @@
         </is>
       </c>
     </row>
-    <row r="664" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="664" s="27">
       <c r="A664" s="28" t="inlineStr">
         <is>
           <t>0x8289ce57e1c4f0e9f4fa6dffc449a30f7a38dc9c</t>
@@ -26039,7 +26043,7 @@
         </is>
       </c>
     </row>
-    <row r="665" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="665" s="27">
       <c r="A665" s="28" t="inlineStr">
         <is>
           <t>0xcdf65dec2389b88a6d04db278b0efbedb0b1d067</t>
@@ -26051,7 +26055,7 @@
         </is>
       </c>
     </row>
-    <row r="666" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="666" s="27">
       <c r="A666" s="28" t="inlineStr">
         <is>
           <t>0xbed9d8afc00385e17f5f5bbb99d70613fec61723</t>
@@ -26063,7 +26067,7 @@
         </is>
       </c>
     </row>
-    <row r="667" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="667" s="27">
       <c r="A667" s="28" t="inlineStr">
         <is>
           <t>0x9d5ee62e85070a4b16269b4631d44b470b38b941</t>
@@ -26075,7 +26079,7 @@
         </is>
       </c>
     </row>
-    <row r="668" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="668" s="27">
       <c r="A668" s="28" t="inlineStr">
         <is>
           <t>0x842c2dd2085076d50ddc14fe38b15d9dd82d55da</t>
@@ -26087,7 +26091,7 @@
         </is>
       </c>
     </row>
-    <row r="669" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="669" s="27">
       <c r="A669" s="28" t="inlineStr">
         <is>
           <t>0x862db8d4c154b2efefb9f1141546a22b9ac3b8bc</t>
@@ -26099,7 +26103,7 @@
         </is>
       </c>
     </row>
-    <row r="670" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="670" s="27">
       <c r="A670" s="28" t="inlineStr">
         <is>
           <t>0x1f1cc1d375c6adb8a4aff41f8a4d573a58e8e37b</t>
@@ -26111,7 +26115,7 @@
         </is>
       </c>
     </row>
-    <row r="671" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="671" s="27">
       <c r="A671" s="28" t="inlineStr">
         <is>
           <t>0x75e6167cdebde1dfc1b3a95aa24f54da7f101d70</t>
@@ -26123,7 +26127,7 @@
         </is>
       </c>
     </row>
-    <row r="672" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="672" s="27">
       <c r="A672" s="28" t="inlineStr">
         <is>
           <t>0xc48fcff2123beee426042315cc5a26816100625d</t>
@@ -26135,7 +26139,7 @@
         </is>
       </c>
     </row>
-    <row r="673" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="673" s="27">
       <c r="A673" s="28" t="inlineStr">
         <is>
           <t>0x1a5d1b8fce64502d3add70c56ac69cae443a169d</t>
@@ -26147,7 +26151,7 @@
         </is>
       </c>
     </row>
-    <row r="674" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="674" s="27">
       <c r="A674" s="28" t="inlineStr">
         <is>
           <t>0x00c35e291235ea4d2df292d0443263205973405c</t>
@@ -26159,7 +26163,7 @@
         </is>
       </c>
     </row>
-    <row r="675" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="675" s="27">
       <c r="A675" s="28" t="inlineStr">
         <is>
           <t>0x21a0e5e4e44d4223a15b94c4fc32d75b14abe645</t>
@@ -26171,7 +26175,7 @@
         </is>
       </c>
     </row>
-    <row r="676" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="676" s="27">
       <c r="A676" s="28" t="inlineStr">
         <is>
           <t>0x022751660ce49a2fcff335b8cee467c3dad42e44</t>
@@ -26183,7 +26187,7 @@
         </is>
       </c>
     </row>
-    <row r="677" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="677" s="27">
       <c r="A677" s="28" t="inlineStr">
         <is>
           <t>0x73d27c01c427ba7b618005c58be309e7daabb20b</t>
@@ -26195,7 +26199,7 @@
         </is>
       </c>
     </row>
-    <row r="678" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="678" s="27">
       <c r="A678" s="28" t="inlineStr">
         <is>
           <t>0x75ddf583cc11c199d4eca9e667de053c0f791859</t>
@@ -26207,7 +26211,7 @@
         </is>
       </c>
     </row>
-    <row r="679" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="679" s="27">
       <c r="A679" s="28" t="inlineStr">
         <is>
           <t>0x6fef9489cf4ff291b7ee7df8b17b2fbb4794b8bb</t>
@@ -26219,7 +26223,7 @@
         </is>
       </c>
     </row>
-    <row r="680" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="680" s="27">
       <c r="A680" s="28" t="inlineStr">
         <is>
           <t>0x70a344895ef2cfffac1674ef5bcbe63f08eeacb0</t>
@@ -26231,7 +26235,7 @@
         </is>
       </c>
     </row>
-    <row r="681" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="681" s="27">
       <c r="A681" s="28" t="inlineStr">
         <is>
           <t>0xeeb6c1623a4d28595dce39e95cae372e96dca115</t>
@@ -26243,7 +26247,7 @@
         </is>
       </c>
     </row>
-    <row r="682" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="682" s="27">
       <c r="A682" s="28" t="inlineStr">
         <is>
           <t>0x18b59be618e3e192e3e1e39e4b087a34b0ededf0</t>
@@ -26255,7 +26259,7 @@
         </is>
       </c>
     </row>
-    <row r="683" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="683" s="27">
       <c r="A683" s="28" t="inlineStr">
         <is>
           <t>0xf3a1422bac1fc53fab84ba89224beac9509de382</t>
@@ -26267,7 +26271,7 @@
         </is>
       </c>
     </row>
-    <row r="684" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="684" s="27">
       <c r="A684" s="28" t="inlineStr">
         <is>
           <t>0x927f49bb3499defd6c681d2aa5ee3c007193d6b8</t>
@@ -26279,7 +26283,7 @@
         </is>
       </c>
     </row>
-    <row r="685" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="685" s="27">
       <c r="A685" s="28" t="inlineStr">
         <is>
           <t>0x72a5acae5254826fda33ac00104797a6b8144027</t>
@@ -26291,7 +26295,7 @@
         </is>
       </c>
     </row>
-    <row r="686" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="686" s="27">
       <c r="A686" s="28" t="inlineStr">
         <is>
           <t>0xd863f0d1f30eab3b6c2132154967b6f607493b07</t>
@@ -26303,7 +26307,7 @@
         </is>
       </c>
     </row>
-    <row r="687" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="687" s="27">
       <c r="A687" s="28" t="inlineStr">
         <is>
           <t>0x48812958becc688cb997f1ee3a41c27cf8492ec2</t>
@@ -26315,7 +26319,7 @@
         </is>
       </c>
     </row>
-    <row r="688" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="688" s="27">
       <c r="A688" s="28" t="inlineStr">
         <is>
           <t>0x3ee324e8deaa6c46f52653b6e2cb1cbdd39cc451</t>
@@ -26327,7 +26331,7 @@
         </is>
       </c>
     </row>
-    <row r="689" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="689" s="27">
       <c r="A689" s="28" t="inlineStr">
         <is>
           <t>0xf0c341c00ca22b08776d5ecb85d8db59f0f33882</t>
@@ -26339,7 +26343,7 @@
         </is>
       </c>
     </row>
-    <row r="690" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="690" s="27">
       <c r="A690" s="28" t="inlineStr">
         <is>
           <t>0x02506b5f7e13537358d426ae44ae9cd6e6fa1ac2</t>
@@ -26351,7 +26355,7 @@
         </is>
       </c>
     </row>
-    <row r="691" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="691" s="27">
       <c r="A691" s="28" t="inlineStr">
         <is>
           <t>0x2449f244887cdaf3a6ebe80f2037c7103957d14d</t>
@@ -26363,7 +26367,7 @@
         </is>
       </c>
     </row>
-    <row r="692" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="692" s="27">
       <c r="A692" s="28" t="inlineStr">
         <is>
           <t>0x442a4485eaec363d5a0b9e391c69039892f07c4b</t>
@@ -26375,7 +26379,7 @@
         </is>
       </c>
     </row>
-    <row r="693" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="693" s="27">
       <c r="A693" s="28" t="inlineStr">
         <is>
           <t>0x9e7a253e15eb54ffc9a8f176f355f9cb29b3222e</t>
@@ -26387,7 +26391,7 @@
         </is>
       </c>
     </row>
-    <row r="694" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="694" s="27">
       <c r="A694" s="28" t="inlineStr">
         <is>
           <t>0x8d66dae70494123f76716d174f0832fadd502812</t>
@@ -26399,7 +26403,7 @@
         </is>
       </c>
     </row>
-    <row r="695" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="695" s="27">
       <c r="A695" s="28" t="inlineStr">
         <is>
           <t>0x6ea17c86c5b94e722cee7be97a0061aa1f58ca23</t>
@@ -26411,7 +26415,7 @@
         </is>
       </c>
     </row>
-    <row r="696" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="696" s="27">
       <c r="A696" s="28" t="inlineStr">
         <is>
           <t>0x7ff57fd88fe3942089282bbfe743da1abc51c5f4</t>
@@ -26423,7 +26427,7 @@
         </is>
       </c>
     </row>
-    <row r="697" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="697" s="27">
       <c r="A697" s="28" t="inlineStr">
         <is>
           <t>0x7116a09c4f3dddf8143947ab28ed3e04ed3a8c29</t>
@@ -26435,7 +26439,7 @@
         </is>
       </c>
     </row>
-    <row r="698" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="698" s="27">
       <c r="A698" s="28" t="inlineStr">
         <is>
           <t>0x5e6ffb1342c8419fc9477726d929726266d578fc</t>
@@ -26447,7 +26451,7 @@
         </is>
       </c>
     </row>
-    <row r="699" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="699" s="27">
       <c r="A699" s="28" t="inlineStr">
         <is>
           <t>0xc3c031e3007275ecd2c1ecc60e0e713f1ddef6a7</t>
@@ -26459,7 +26463,7 @@
         </is>
       </c>
     </row>
-    <row r="700" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="700" s="27">
       <c r="A700" s="28" t="inlineStr">
         <is>
           <t>0x1003c234b4dbb9b74fa6cf315d57d389364440ad</t>
@@ -26471,7 +26475,7 @@
         </is>
       </c>
     </row>
-    <row r="701" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="701" s="27">
       <c r="A701" s="28" t="inlineStr">
         <is>
           <t>0x899bd78b2548a7140343c0de562b52d5a51ca10b</t>
@@ -26483,7 +26487,7 @@
         </is>
       </c>
     </row>
-    <row r="702" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="702" s="27">
       <c r="A702" s="28" t="inlineStr">
         <is>
           <t>0x245f3f24f605d5048bfcbfc6327c8f32fddd0ab9</t>
@@ -26495,7 +26499,7 @@
         </is>
       </c>
     </row>
-    <row r="703" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="703" s="27">
       <c r="A703" s="28" t="inlineStr">
         <is>
           <t>0xaadd244d6f9730157b1efcfca6f96abe3c81af55</t>
@@ -26507,7 +26511,7 @@
         </is>
       </c>
     </row>
-    <row r="704" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="704" s="27">
       <c r="A704" s="28" t="inlineStr">
         <is>
           <t>0x162638fb36fed5b8ad245358a7a33e797d2cf76d</t>
@@ -26519,7 +26523,7 @@
         </is>
       </c>
     </row>
-    <row r="705" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="705" s="27">
       <c r="A705" s="28" t="inlineStr">
         <is>
           <t>0x29503948f6e7e5f7c6901e331fbbee7fd7ca6dac</t>
@@ -26531,7 +26535,7 @@
         </is>
       </c>
     </row>
-    <row r="706" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="706" s="27">
       <c r="A706" s="28" t="inlineStr">
         <is>
           <t>0x55207a878215d8a21f6b37efd70fe55f9e218869</t>
@@ -26543,7 +26547,7 @@
         </is>
       </c>
     </row>
-    <row r="707" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="707" s="27">
       <c r="A707" s="28" t="inlineStr">
         <is>
           <t>0xcbf23c24ff157fe26622e6203d97aabcf7d872d7</t>
@@ -26555,7 +26559,7 @@
         </is>
       </c>
     </row>
-    <row r="708" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="708" s="27">
       <c r="A708" s="28" t="inlineStr">
         <is>
           <t>0xb3a1f3f2740fad9808025dc29087291bf8e39b54</t>
@@ -26567,7 +26571,7 @@
         </is>
       </c>
     </row>
-    <row r="709" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="709" s="27">
       <c r="A709" s="28" t="inlineStr">
         <is>
           <t>0xdd90b514632a7ae34b75fd66e86704c1c78bc1d0</t>
@@ -26579,7 +26583,7 @@
         </is>
       </c>
     </row>
-    <row r="710" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="710" s="27">
       <c r="A710" s="28" t="inlineStr">
         <is>
           <t>0xbc1ebcf3aa283732b9c8d6c5ba95099eeb3be891</t>
@@ -26591,7 +26595,7 @@
         </is>
       </c>
     </row>
-    <row r="711" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="711" s="27">
       <c r="A711" s="28" t="inlineStr">
         <is>
           <t>0xe01861ad7deca8b6839e0361124c33a10e6d58de</t>
@@ -26603,7 +26607,7 @@
         </is>
       </c>
     </row>
-    <row r="712" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="712" s="27">
       <c r="A712" s="28" t="inlineStr">
         <is>
           <t>0x6c181f2400cfd917cc84309aefaf5ff2df1013c2</t>
@@ -26615,7 +26619,7 @@
         </is>
       </c>
     </row>
-    <row r="713" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="713" s="27">
       <c r="A713" s="28" t="inlineStr">
         <is>
           <t>0xa88a9a9285cd5bf410f2222a35c858e2b7f11ff0</t>
@@ -26627,7 +26631,7 @@
         </is>
       </c>
     </row>
-    <row r="714" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="714" s="27">
       <c r="A714" s="28" t="inlineStr">
         <is>
           <t>0x7057211817a7d18006f7a10c54047def2feb5e64</t>
@@ -26639,7 +26643,7 @@
         </is>
       </c>
     </row>
-    <row r="715" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="715" s="27">
       <c r="A715" s="28" t="inlineStr">
         <is>
           <t>0xa54e9234a9718a9a4453dea5d70c3ba64fcbdd63</t>
@@ -26651,7 +26655,7 @@
         </is>
       </c>
     </row>
-    <row r="716" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="716" s="27">
       <c r="A716" s="28" t="inlineStr">
         <is>
           <t>0xe81885ff6eba380b0659cdfa3a29abb16fceb5f8</t>
@@ -26663,7 +26667,7 @@
         </is>
       </c>
     </row>
-    <row r="717" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="717" s="27">
       <c r="A717" s="28" t="inlineStr">
         <is>
           <t>0x8e7477947e22e5b625734aa171f855cad30da18b</t>
@@ -26675,7 +26679,7 @@
         </is>
       </c>
     </row>
-    <row r="718" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="718" s="27">
       <c r="A718" s="28" t="inlineStr">
         <is>
           <t>0x748a5d8a3804ca48494e1855d5344ac369151ac5</t>
@@ -26687,7 +26691,7 @@
         </is>
       </c>
     </row>
-    <row r="719" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="719" s="27">
       <c r="A719" s="28" t="inlineStr">
         <is>
           <t>0xbcfb48cef6e447550326e49ca85010aab5c520cd</t>
@@ -26699,7 +26703,7 @@
         </is>
       </c>
     </row>
-    <row r="720" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="720" s="27">
       <c r="A720" s="28" t="inlineStr">
         <is>
           <t>0x34c56f43765c49a34faeee4b0a1793ffbb0fd7af</t>
@@ -26711,7 +26715,7 @@
         </is>
       </c>
     </row>
-    <row r="721" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="721" s="27">
       <c r="A721" s="28" t="inlineStr">
         <is>
           <t>0x89de074b67c55d34a797124fb7df0b63d7609da9</t>
@@ -26723,7 +26727,7 @@
         </is>
       </c>
     </row>
-    <row r="722" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="722" s="27">
       <c r="A722" s="28" t="inlineStr">
         <is>
           <t>0xa50f1dcbffa45f83bc441b1874ce03d872081f44</t>
@@ -26735,7 +26739,7 @@
         </is>
       </c>
     </row>
-    <row r="723" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="723" s="27">
       <c r="A723" s="28" t="inlineStr">
         <is>
           <t>0x3eeccb9cd453655e74b3f935d636e13764a1e82a</t>
@@ -26747,7 +26751,7 @@
         </is>
       </c>
     </row>
-    <row r="724" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="724" s="27">
       <c r="A724" s="28" t="inlineStr">
         <is>
           <t>0xb717aa613c018be6c8aa656c1176a36e6d76dc43</t>
@@ -26759,7 +26763,7 @@
         </is>
       </c>
     </row>
-    <row r="725" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="725" s="27">
       <c r="A725" s="28" t="inlineStr">
         <is>
           <t>0xb2ec3ca32ddf5c33b0f95519f1999aedbcdbd801</t>
@@ -26771,7 +26775,7 @@
         </is>
       </c>
     </row>
-    <row r="726" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="726" s="27">
       <c r="A726" s="28" t="inlineStr">
         <is>
           <t>0x9e7028bb59cbb234ff75e84ccd1ed9843a6ae0c0</t>
@@ -26783,7 +26787,7 @@
         </is>
       </c>
     </row>
-    <row r="727" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="727" s="27">
       <c r="A727" s="28" t="inlineStr">
         <is>
           <t>0x2eb8920c5bcb5c532738cf16a0508cfaddf9d08b</t>
@@ -26795,7 +26799,7 @@
         </is>
       </c>
     </row>
-    <row r="728" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="728" s="27">
       <c r="A728" s="28" t="inlineStr">
         <is>
           <t>0xb5f38b30e5147d2bdaedba2e884982995dc18021</t>
@@ -26807,7 +26811,7 @@
         </is>
       </c>
     </row>
-    <row r="729" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="729" s="27">
       <c r="A729" s="28" t="inlineStr">
         <is>
           <t>0xc8dde78a4fe90298d4114e6e1884f16ddaba1c4e</t>
@@ -26819,7 +26823,7 @@
         </is>
       </c>
     </row>
-    <row r="730" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="730" s="27">
       <c r="A730" s="28" t="inlineStr">
         <is>
           <t>0x1daddad1ba4a651354a496141e6969372ed7c136</t>
@@ -26831,7 +26835,7 @@
         </is>
       </c>
     </row>
-    <row r="731" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="731" s="27">
       <c r="A731" s="28" t="inlineStr">
         <is>
           <t>0xab59d2754b974e026b61d3b46f83ae8438d9012e</t>
@@ -26843,7 +26847,7 @@
         </is>
       </c>
     </row>
-    <row r="732" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="732" s="27">
       <c r="A732" s="28" t="inlineStr">
         <is>
           <t>0x4388411de200ccbae01c8ad4b3ae49fc5b143816</t>
@@ -26855,7 +26859,7 @@
         </is>
       </c>
     </row>
-    <row r="733" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="733" s="27">
       <c r="A733" s="28" t="inlineStr">
         <is>
           <t>0x4da4ad5c8b0ae8e0de53a8101485119c5cb293f1</t>
@@ -26867,7 +26871,7 @@
         </is>
       </c>
     </row>
-    <row r="734" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="734" s="27">
       <c r="A734" s="28" t="inlineStr">
         <is>
           <t>0xff7313d051244658a37b26241f4682568ca034bd</t>
@@ -26879,7 +26883,7 @@
         </is>
       </c>
     </row>
-    <row r="735" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="735" s="27">
       <c r="A735" s="28" t="inlineStr">
         <is>
           <t>0x2234f9a6d0e0ff89d2e8924e64a7c345de0cfed4</t>
@@ -26891,7 +26895,7 @@
         </is>
       </c>
     </row>
-    <row r="736" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="736" s="27">
       <c r="A736" s="28" t="inlineStr">
         <is>
           <t>0x27992f9260a13423c89003e5b4b0427d6ebc489d</t>
@@ -26903,7 +26907,7 @@
         </is>
       </c>
     </row>
-    <row r="737" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="737" s="27">
       <c r="A737" s="28" t="inlineStr">
         <is>
           <t>0xec978df1abcc0c79d7e402032c8cbd8eaaecf551</t>
@@ -26915,7 +26919,7 @@
         </is>
       </c>
     </row>
-    <row r="738" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="738" s="27">
       <c r="A738" s="28" t="inlineStr">
         <is>
           <t>0xaf85fa738f5038178be59081bd26518b87b56c99</t>
@@ -26927,7 +26931,7 @@
         </is>
       </c>
     </row>
-    <row r="739" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="739" s="27">
       <c r="A739" s="28" t="inlineStr">
         <is>
           <t>0x980b775ac2f0f8c3667c8c87c06edfbed83633cb</t>
@@ -26939,7 +26943,7 @@
         </is>
       </c>
     </row>
-    <row r="740" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="740" s="27">
       <c r="A740" s="28" t="inlineStr">
         <is>
           <t>0x0e37e6583d17a7bcde2fcd975b4dcec9977e116e</t>
@@ -26951,7 +26955,7 @@
         </is>
       </c>
     </row>
-    <row r="741" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="741" s="27">
       <c r="A741" s="28" t="inlineStr">
         <is>
           <t>0x34e78a3a1322486f94cfdcb58d802f77bccc465b</t>
@@ -26963,7 +26967,7 @@
         </is>
       </c>
     </row>
-    <row r="742" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="742" s="27">
       <c r="A742" s="28" t="inlineStr">
         <is>
           <t>0x5c35662d919caf3bce211742ba584977f5bd096e</t>
@@ -26975,7 +26979,7 @@
         </is>
       </c>
     </row>
-    <row r="743" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="743" s="27">
       <c r="A743" s="28" t="inlineStr">
         <is>
           <t>0x44b4402e1852c507f027b2bf371dc37087ea2fc8</t>
@@ -26987,7 +26991,7 @@
         </is>
       </c>
     </row>
-    <row r="744" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="744" s="27">
       <c r="A744" s="28" t="inlineStr">
         <is>
           <t>0xc85d8f2d83aac398754fa196d25fc748ca6071cc</t>
@@ -26999,7 +27003,7 @@
         </is>
       </c>
     </row>
-    <row r="745" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="745" s="27">
       <c r="A745" s="28" t="inlineStr">
         <is>
           <t>0x0e93c06352889c1bb43e57c701e175a311b3ffce</t>
@@ -27011,7 +27015,7 @@
         </is>
       </c>
     </row>
-    <row r="746" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="746" s="27">
       <c r="A746" s="28" t="inlineStr">
         <is>
           <t>0x39a32de89efc25c58d309318fa43b33e2dad2eae</t>
@@ -27023,7 +27027,7 @@
         </is>
       </c>
     </row>
-    <row r="747" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="747" s="27">
       <c r="A747" s="28" t="inlineStr">
         <is>
           <t>0xdc8525de959d1cab3b3b5f3de33f55889deac435</t>
@@ -27035,7 +27039,7 @@
         </is>
       </c>
     </row>
-    <row r="748" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="748" s="27">
       <c r="A748" s="28" t="inlineStr">
         <is>
           <t>0xc8aeef2df317afeb1339c5900b976e2f0d941eef</t>
@@ -27047,7 +27051,7 @@
         </is>
       </c>
     </row>
-    <row r="749" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="749" s="27">
       <c r="A749" s="28" t="inlineStr">
         <is>
           <t>0xf6251eedcb2fe2be9e85c4ca49684364ef6beec8</t>
@@ -27059,7 +27063,7 @@
         </is>
       </c>
     </row>
-    <row r="750" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="750" s="27">
       <c r="A750" s="28" t="inlineStr">
         <is>
           <t>0xdfc037089f69bed5d0af7356d4623c518d7d4835</t>
@@ -27071,7 +27075,7 @@
         </is>
       </c>
     </row>
-    <row r="751" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="751" s="27">
       <c r="A751" s="28" t="inlineStr">
         <is>
           <t>0xc4e1a0711226f2165c6281b7ed83bb68074155a7</t>
@@ -27083,7 +27087,7 @@
         </is>
       </c>
     </row>
-    <row r="752" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="752" s="27">
       <c r="A752" s="28" t="inlineStr">
         <is>
           <t>0x5c7438ad9a91911b8f9cf1925ca441f8d93c72bd</t>
@@ -27095,7 +27099,7 @@
         </is>
       </c>
     </row>
-    <row r="753" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="753" s="27">
       <c r="A753" s="28" t="inlineStr">
         <is>
           <t>0x6413807117b2ab8dece44a38c4ed2dfaaeade27e</t>
@@ -27107,7 +27111,7 @@
         </is>
       </c>
     </row>
-    <row r="754" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="754" s="27">
       <c r="A754" s="28" t="inlineStr">
         <is>
           <t>0x6ba2c3835e79bb92bd5bb8e629fbc635fad6ae62</t>
@@ -27119,7 +27123,7 @@
         </is>
       </c>
     </row>
-    <row r="755" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="755" s="27">
       <c r="A755" s="28" t="inlineStr">
         <is>
           <t>0xccc01469de928d35e21e73246d8457a31f4a6e19</t>
@@ -27131,7 +27135,7 @@
         </is>
       </c>
     </row>
-    <row r="756" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="756" s="27">
       <c r="A756" s="28" t="inlineStr">
         <is>
           <t>0x7c67642304888ab819ce34de2b234e2f11763b62</t>
@@ -27143,7 +27147,7 @@
         </is>
       </c>
     </row>
-    <row r="757" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="757" s="27">
       <c r="A757" s="28" t="inlineStr">
         <is>
           <t>0x85cf7b62f9da3efda145257fdbddf1f7fde14301</t>
@@ -27155,7 +27159,7 @@
         </is>
       </c>
     </row>
-    <row r="758" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="758" s="27">
       <c r="A758" s="28" t="inlineStr">
         <is>
           <t>0xe707ced2495bdf1a9ce1e31edb07b97c7ba6426a</t>
@@ -27167,7 +27171,7 @@
         </is>
       </c>
     </row>
-    <row r="759" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="759" s="27">
       <c r="A759" s="28" t="inlineStr">
         <is>
           <t>0x82f94574215be5b15780b8c412da11224e02321e</t>
@@ -27179,7 +27183,7 @@
         </is>
       </c>
     </row>
-    <row r="760" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="760" s="27">
       <c r="A760" s="28" t="inlineStr">
         <is>
           <t>0x842d6911d8f33c2f3bee6d09dbbc0f7179871b22</t>
@@ -27191,7 +27195,7 @@
         </is>
       </c>
     </row>
-    <row r="761" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="761" s="27">
       <c r="A761" s="28" t="inlineStr">
         <is>
           <t>0xa3277d09dc128dc371405914b3b9fbebbdef1e12</t>
@@ -27203,7 +27207,7 @@
         </is>
       </c>
     </row>
-    <row r="762" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="762" s="27">
       <c r="A762" s="28" t="inlineStr">
         <is>
           <t>0xdbe2a62ab69d5edffd50bd8b40152f489231ce50</t>
@@ -27215,7 +27219,7 @@
         </is>
       </c>
     </row>
-    <row r="763" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="763" s="27">
       <c r="A763" s="28" t="inlineStr">
         <is>
           <t>0x76e5e98db7274af07426c62284e4df4d45265ecf</t>
@@ -27227,7 +27231,7 @@
         </is>
       </c>
     </row>
-    <row r="764" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="764" s="27">
       <c r="A764" s="28" t="inlineStr">
         <is>
           <t>0xd2630b2e702e04b8bcf4a9fb4c1c19f67e88a631</t>
@@ -27239,7 +27243,7 @@
         </is>
       </c>
     </row>
-    <row r="765" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="765" s="27">
       <c r="A765" s="28" t="inlineStr">
         <is>
           <t>0xd95e63fd710ab587a73fb743a300076eb84ae11f</t>
@@ -27251,7 +27255,7 @@
         </is>
       </c>
     </row>
-    <row r="766" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="766" s="27">
       <c r="A766" s="28" t="inlineStr">
         <is>
           <t>0xa9ceef25d682fe13933802bb9a099bd3df0bac14</t>
@@ -27263,7 +27267,7 @@
         </is>
       </c>
     </row>
-    <row r="767" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="767" s="27">
       <c r="A767" s="28" t="inlineStr">
         <is>
           <t>0xbcd8f1242b3c6b683682e21cd80b5806be1cedb9</t>
@@ -27275,7 +27279,7 @@
         </is>
       </c>
     </row>
-    <row r="768" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="768" s="27">
       <c r="A768" s="28" t="inlineStr">
         <is>
           <t>0x2caff8472981df668b77f2489c4dd47d7fab560d</t>
@@ -27287,7 +27291,7 @@
         </is>
       </c>
     </row>
-    <row r="769" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="769" s="27">
       <c r="A769" s="28" t="inlineStr">
         <is>
           <t>0xf49256c1dc9ee8d21da25ded938c08febd8f348c</t>
@@ -27299,7 +27303,7 @@
         </is>
       </c>
     </row>
-    <row r="770" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="770" s="27">
       <c r="A770" s="28" t="inlineStr">
         <is>
           <t>0x07ac0ab19bdb590df0f907b28e59dcd73be920af</t>
@@ -27311,7 +27315,7 @@
         </is>
       </c>
     </row>
-    <row r="771" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="771" s="27">
       <c r="A771" s="28" t="inlineStr">
         <is>
           <t>0xd2448166c336b7b5e6421f86854e3002e933c19e</t>
@@ -27323,7 +27327,7 @@
         </is>
       </c>
     </row>
-    <row r="772" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="772" s="27">
       <c r="A772" s="28" t="inlineStr">
         <is>
           <t>0x8d5cc4a9cba0fb3b02ce2343efe90a4d574ecd9b</t>
@@ -27335,7 +27339,7 @@
         </is>
       </c>
     </row>
-    <row r="773" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="773" s="27">
       <c r="A773" s="28" t="inlineStr">
         <is>
           <t>0x13bfafd2569277fd47229ae8b75534caa9da187d</t>
@@ -27347,7 +27351,7 @@
         </is>
       </c>
     </row>
-    <row r="774" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="774" s="27">
       <c r="A774" s="28" t="inlineStr">
         <is>
           <t>0xace2a5ec0e4125c93698daae07f1fa04d8694c54</t>
@@ -27359,7 +27363,7 @@
         </is>
       </c>
     </row>
-    <row r="775" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="775" s="27">
       <c r="A775" s="28" t="inlineStr">
         <is>
           <t>0x7971797012dcef0b9f1a011c23cbcd6ed0d435dd</t>
@@ -27371,7 +27375,7 @@
         </is>
       </c>
     </row>
-    <row r="776" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="776" s="27">
       <c r="A776" s="28" t="inlineStr">
         <is>
           <t>0x9be062239cda2b7f9ae6a4bf7bf191e3b4709226</t>
@@ -27383,7 +27387,7 @@
         </is>
       </c>
     </row>
-    <row r="777" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="777" s="27">
       <c r="A777" s="28" t="inlineStr">
         <is>
           <t>0x520a7f09184cd10cfc2b67c48f931dd4f44bf9ef</t>
@@ -27395,7 +27399,7 @@
         </is>
       </c>
     </row>
-    <row r="778" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="778" s="27">
       <c r="A778" s="28" t="inlineStr">
         <is>
           <t>0x031f5a53a869585b6c9a75c97f09eeb986743472</t>
@@ -27407,7 +27411,7 @@
         </is>
       </c>
     </row>
-    <row r="779" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="779" s="27">
       <c r="A779" s="28" t="inlineStr">
         <is>
           <t>0xc0023efb02b7994c38b467415abc74517d7e496a</t>
@@ -27419,7 +27423,7 @@
         </is>
       </c>
     </row>
-    <row r="780" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="780" s="27">
       <c r="A780" s="28" t="inlineStr">
         <is>
           <t>0xe00c031244bfdba2c17704f2293e8fbd032dfe2b</t>
@@ -27431,7 +27435,7 @@
         </is>
       </c>
     </row>
-    <row r="781" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="781" s="27">
       <c r="A781" s="28" t="inlineStr">
         <is>
           <t>0xf1d77b1d4c982ceacfec4177355dc1d00a084d76</t>
@@ -27443,7 +27447,7 @@
         </is>
       </c>
     </row>
-    <row r="782" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="782" s="27">
       <c r="A782" s="28" t="inlineStr">
         <is>
           <t>0xdde342a504bfabec37f414d600ba6213a9f3e9bd</t>
@@ -27455,7 +27459,7 @@
         </is>
       </c>
     </row>
-    <row r="783" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="783" s="27">
       <c r="A783" s="28" t="inlineStr">
         <is>
           <t>0x7daf7a9441aeca026bab5441b72ba6dbd7140538</t>
@@ -27467,7 +27471,7 @@
         </is>
       </c>
     </row>
-    <row r="784" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="784" s="27">
       <c r="A784" s="28" t="inlineStr">
         <is>
           <t>0x6c093cb6bd75521660b52cc946f59e44d1f3090c</t>
@@ -27479,7 +27483,7 @@
         </is>
       </c>
     </row>
-    <row r="785" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="785" s="27">
       <c r="A785" s="28" t="inlineStr">
         <is>
           <t>0xe6106e9d206e4778bdba2f3fd77b101b23bd2c66</t>
@@ -27491,7 +27495,7 @@
         </is>
       </c>
     </row>
-    <row r="786" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="786" s="27">
       <c r="A786" s="28" t="inlineStr">
         <is>
           <t>0x78d781442a38082abd8c03af139cdd657fac64ee</t>
@@ -27503,7 +27507,7 @@
         </is>
       </c>
     </row>
-    <row r="787" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="787" s="27">
       <c r="A787" s="28" t="inlineStr">
         <is>
           <t>0xe6f2bc76d91b57d4d5be146d5f354b0a0f9e996b</t>
@@ -27515,7 +27519,7 @@
         </is>
       </c>
     </row>
-    <row r="788" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="788" s="27">
       <c r="A788" s="28" t="inlineStr">
         <is>
           <t>0x99ba63bb61e63fd86d2dd76f469f4992c024ad34</t>
@@ -27527,7 +27531,7 @@
         </is>
       </c>
     </row>
-    <row r="789" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="789" s="27">
       <c r="A789" s="28" t="inlineStr">
         <is>
           <t>0xfe0fb0175a90bbb3aab6f5f06bddc36bb84e05a0</t>
@@ -27539,7 +27543,7 @@
         </is>
       </c>
     </row>
-    <row r="790" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="790" s="27">
       <c r="A790" s="28" t="inlineStr">
         <is>
           <t>0xe81a5de0ec3d6d5f456f9b1758f98fcc2a4955d0</t>
@@ -27551,7 +27555,7 @@
         </is>
       </c>
     </row>
-    <row r="791" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="791" s="27">
       <c r="A791" s="28" t="inlineStr">
         <is>
           <t>0x6da77d41d071b001bc956b1ca45ff0c14869f3ef</t>
@@ -27563,7 +27567,7 @@
         </is>
       </c>
     </row>
-    <row r="792" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="792" s="27">
       <c r="A792" s="28" t="inlineStr">
         <is>
           <t>0x084d303216ab15475e11f589bcc0e9d3bd71c40e</t>
@@ -27575,7 +27579,7 @@
         </is>
       </c>
     </row>
-    <row r="793" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="793" s="27">
       <c r="A793" s="28" t="inlineStr">
         <is>
           <t>0x25e0cc954eb32f932ae52cdf34c6d0fab0e039a7</t>
@@ -27587,7 +27591,7 @@
         </is>
       </c>
     </row>
-    <row r="794" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="794" s="27">
       <c r="A794" s="28" t="inlineStr">
         <is>
           <t>0xa4945181c492ba68058265492d135d6a08b80069</t>
@@ -27599,7 +27603,7 @@
         </is>
       </c>
     </row>
-    <row r="795" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="795" s="27">
       <c r="A795" s="28" t="inlineStr">
         <is>
           <t>0xeedf5f444bb2a4ccc084a3cb53abdca1fd29ff30</t>
@@ -27611,7 +27615,7 @@
         </is>
       </c>
     </row>
-    <row r="796" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="796" s="27">
       <c r="A796" s="28" t="inlineStr">
         <is>
           <t>0xc07d89a801cc83c5edded8f66548df58b5634c70</t>
@@ -27623,7 +27627,7 @@
         </is>
       </c>
     </row>
-    <row r="797" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="797" s="27">
       <c r="A797" s="28" t="inlineStr">
         <is>
           <t>0x7d76b08882de142bfc33e2814ccb4987dbb3fe8a</t>
@@ -27635,7 +27639,7 @@
         </is>
       </c>
     </row>
-    <row r="798" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="798" s="27">
       <c r="A798" s="28" t="inlineStr">
         <is>
           <t>0x96d895a8fcb8f5913f197ad5a1c644c707b567a0</t>
@@ -27647,7 +27651,7 @@
         </is>
       </c>
     </row>
-    <row r="799" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="799" s="27">
       <c r="A799" s="28" t="inlineStr">
         <is>
           <t>0x4b4eca8ec2f74c70b00016c32fef68d6ec323a52</t>
@@ -27659,7 +27663,7 @@
         </is>
       </c>
     </row>
-    <row r="800" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="800" s="27">
       <c r="A800" s="28" t="inlineStr">
         <is>
           <t>0x559003e70e749970ec627f34abfef9f3c9a882a6</t>
@@ -27671,7 +27675,7 @@
         </is>
       </c>
     </row>
-    <row r="801" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="801" s="27">
       <c r="A801" s="28" t="inlineStr">
         <is>
           <t>0x7da408e792a0fce691c6a8b87d7104f3d6169873</t>
@@ -27683,7 +27687,7 @@
         </is>
       </c>
     </row>
-    <row r="802" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="802" s="27">
       <c r="A802" s="28" t="inlineStr">
         <is>
           <t>0x86bfc73cfca7b078fc1760a593163c2cb68427c9</t>
@@ -27695,7 +27699,7 @@
         </is>
       </c>
     </row>
-    <row r="803" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="803" s="27">
       <c r="A803" s="28" t="inlineStr">
         <is>
           <t>0x5f4e78148cc8daced6fcce9ddd52c1fa3a9b6384</t>
@@ -27707,7 +27711,7 @@
         </is>
       </c>
     </row>
-    <row r="804" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="804" s="27">
       <c r="A804" s="28" t="inlineStr">
         <is>
           <t>0xe889a918448401e8557a1534aaa160511dafa5f6</t>
@@ -27719,7 +27723,7 @@
         </is>
       </c>
     </row>
-    <row r="805" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="805" s="27">
       <c r="A805" s="28" t="inlineStr">
         <is>
           <t>0x34e23f9bc471a75d45884e46f9ef7d2e4bbffa48</t>
@@ -27731,7 +27735,7 @@
         </is>
       </c>
     </row>
-    <row r="806" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="806" s="27">
       <c r="A806" s="28" t="inlineStr">
         <is>
           <t>0xa0a38deccaea910b4fb0644321c295febcede5d1</t>
@@ -27743,7 +27747,7 @@
         </is>
       </c>
     </row>
-    <row r="807" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="807" s="27">
       <c r="A807" s="28" t="inlineStr">
         <is>
           <t>0xb7d21118e7050d71dcc15e406454edd636eb01ed</t>
@@ -27755,7 +27759,7 @@
         </is>
       </c>
     </row>
-    <row r="808" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="808" s="27">
       <c r="A808" s="28" t="inlineStr">
         <is>
           <t>0xca462d2af1b9455e8861c61a1ea1998d6e6cf781</t>
@@ -27767,7 +27771,7 @@
         </is>
       </c>
     </row>
-    <row r="809" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="809" s="27">
       <c r="A809" s="28" t="inlineStr">
         <is>
           <t>0xddda072cd24913b5e7960194b3867895d4bb62fb</t>
@@ -27779,7 +27783,7 @@
         </is>
       </c>
     </row>
-    <row r="810" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="810" s="27">
       <c r="A810" s="28" t="inlineStr">
         <is>
           <t>0x7d620a701c46e5d8aea599e4280b8a4157ae0d8e</t>
@@ -27791,7 +27795,7 @@
         </is>
       </c>
     </row>
-    <row r="811" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="811" s="27">
       <c r="A811" s="28" t="inlineStr">
         <is>
           <t>0xf99d5e3d00e6ce43db2950e50fbfd1da2e72d91e</t>
@@ -27803,7 +27807,7 @@
         </is>
       </c>
     </row>
-    <row r="812" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="812" s="27">
       <c r="A812" s="28" t="inlineStr">
         <is>
           <t>0x4ba1e4cd260cb3e80f125a9cb610f5e12a41a533</t>
@@ -27815,7 +27819,7 @@
         </is>
       </c>
     </row>
-    <row r="813" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="813" s="27">
       <c r="A813" s="28" t="inlineStr">
         <is>
           <t>0x8ded6630c29ef8af6a8d4507cf71be6f94a912f9</t>
@@ -27827,7 +27831,7 @@
         </is>
       </c>
     </row>
-    <row r="814" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="814" s="27">
       <c r="A814" s="28" t="inlineStr">
         <is>
           <t>0x23a9cc5bcc0d000e1a76ceeda44f3d46c954b5b9</t>
@@ -27839,7 +27843,7 @@
         </is>
       </c>
     </row>
-    <row r="815" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="815" s="27">
       <c r="A815" s="28" t="inlineStr">
         <is>
           <t>0x4720de370e21788341b68a75081ce1cdbaf7d46b</t>
@@ -27851,7 +27855,7 @@
         </is>
       </c>
     </row>
-    <row r="816" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="816" s="27">
       <c r="A816" s="28" t="inlineStr">
         <is>
           <t>0xa23720b954940aafbbd0a2d2d73d86ce232fb9cf</t>
@@ -27863,7 +27867,7 @@
         </is>
       </c>
     </row>
-    <row r="817" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="817" s="27">
       <c r="A817" s="28" t="inlineStr">
         <is>
           <t>0xa6e955be3ea8d4c63724d5291c0b4373a364e1dc</t>
@@ -27875,7 +27879,7 @@
         </is>
       </c>
     </row>
-    <row r="818" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="818" s="27">
       <c r="A818" s="28" t="inlineStr">
         <is>
           <t>0x528932b6f1e32d13239e64af0b87e2ab84320613</t>
@@ -27887,7 +27891,7 @@
         </is>
       </c>
     </row>
-    <row r="819" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="819" s="27">
       <c r="A819" s="28" t="inlineStr">
         <is>
           <t>0x06f1dac893806d84d80de887c76897fea572a22f</t>
@@ -27899,7 +27903,7 @@
         </is>
       </c>
     </row>
-    <row r="820" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="820" s="27">
       <c r="A820" s="28" t="inlineStr">
         <is>
           <t>0xbe9bee21236f113022fe908672c225cfd7971816</t>
@@ -27911,7 +27915,7 @@
         </is>
       </c>
     </row>
-    <row r="821" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="821" s="27">
       <c r="A821" s="28" t="inlineStr">
         <is>
           <t>0x376d527b96b6e1a229b42fdf6f5c6b142db3bcf6</t>
@@ -27923,7 +27927,7 @@
         </is>
       </c>
     </row>
-    <row r="822" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="822" s="27">
       <c r="A822" s="28" t="inlineStr">
         <is>
           <t>0xca04e945a674fd5febc13bffe21f8151e2998091</t>
@@ -27935,7 +27939,7 @@
         </is>
       </c>
     </row>
-    <row r="823" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="823" s="27">
       <c r="A823" s="28" t="inlineStr">
         <is>
           <t>0x6085a3ab98b84cfef7c2e2bb2c9af8a20e429015</t>
@@ -27947,7 +27951,7 @@
         </is>
       </c>
     </row>
-    <row r="824" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="824" s="27">
       <c r="A824" s="28" t="inlineStr">
         <is>
           <t>0xc7b2ef700a6f2966af4f2da4b8c9ecba7b1136be</t>
@@ -27959,7 +27963,7 @@
         </is>
       </c>
     </row>
-    <row r="825" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="825" s="27">
       <c r="A825" s="28" t="inlineStr">
         <is>
           <t>0xec807a3ada37f9644f60ca2a99d297c9d2222473</t>
@@ -27971,7 +27975,7 @@
         </is>
       </c>
     </row>
-    <row r="826" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="826" s="27">
       <c r="A826" s="28" t="inlineStr">
         <is>
           <t>0x5662999247fc14479613811b5f01765f1a3a6040</t>
@@ -27983,7 +27987,7 @@
         </is>
       </c>
     </row>
-    <row r="827" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="827" s="27">
       <c r="A827" s="28" t="inlineStr">
         <is>
           <t>0x65cdbd803cd3a4fc223c01f60826c4c0e19b3994</t>
@@ -27995,7 +27999,7 @@
         </is>
       </c>
     </row>
-    <row r="828" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="828" s="27">
       <c r="A828" s="28" t="inlineStr">
         <is>
           <t>0x0ec7f6e9069ef8f1732f86fe0b388df2ec5b5a4b</t>
@@ -28007,7 +28011,7 @@
         </is>
       </c>
     </row>
-    <row r="829" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="829" s="27">
       <c r="A829" s="28" t="inlineStr">
         <is>
           <t>0x97a9cd9e8fb7ecc80214aa6dc3da21cffefe7943</t>
@@ -28019,7 +28023,7 @@
         </is>
       </c>
     </row>
-    <row r="830" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="830" s="27">
       <c r="A830" s="28" t="inlineStr">
         <is>
           <t>0xd524d42a35a5cdb1445ac3a0b461c86c2014015c</t>
@@ -28031,7 +28035,7 @@
         </is>
       </c>
     </row>
-    <row r="831" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="831" s="27">
       <c r="A831" s="28" t="inlineStr">
         <is>
           <t>0xaa92521b780c13f50b4229935d90ae5267deb3ce</t>
@@ -28043,7 +28047,7 @@
         </is>
       </c>
     </row>
-    <row r="832" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="832" s="27">
       <c r="A832" s="28" t="inlineStr">
         <is>
           <t>0x5adf6343c6a7d362b5a29cb932281f3df714e23a</t>
@@ -28055,7 +28059,7 @@
         </is>
       </c>
     </row>
-    <row r="833" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="833" s="27">
       <c r="A833" s="28" t="inlineStr">
         <is>
           <t>0x437c86f8efedffed1ec1808855779caff25b7003</t>
@@ -28067,7 +28071,7 @@
         </is>
       </c>
     </row>
-    <row r="834" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="834" s="27">
       <c r="A834" s="28" t="inlineStr">
         <is>
           <t>0x30a7125476fbbe7b5331e6ea22c0bbe0367be217</t>
@@ -28079,7 +28083,7 @@
         </is>
       </c>
     </row>
-    <row r="835" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="835" s="27">
       <c r="A835" s="28" t="inlineStr">
         <is>
           <t>0x6411a1ddf722776a1e1474c58f1b5cfb9f0465a7</t>
@@ -28091,7 +28095,7 @@
         </is>
       </c>
     </row>
-    <row r="836" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="836" s="27">
       <c r="A836" s="28" t="inlineStr">
         <is>
           <t>0x270d3e4c87933933190287f4c7b5b6a507db7ac5</t>
@@ -28103,7 +28107,7 @@
         </is>
       </c>
     </row>
-    <row r="837" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="837" s="27">
       <c r="A837" s="28" t="inlineStr">
         <is>
           <t>0x20f79adaf1657b292f79c1518a7f9a2f3f108292</t>
@@ -28115,7 +28119,7 @@
         </is>
       </c>
     </row>
-    <row r="838" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="838" s="27">
       <c r="A838" s="28" t="inlineStr">
         <is>
           <t>0x2d8484f92a5723c55ac3060eaf7947852f89b68e</t>
@@ -28127,7 +28131,7 @@
         </is>
       </c>
     </row>
-    <row r="839" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="839" s="27">
       <c r="A839" s="28" t="inlineStr">
         <is>
           <t>0xe4c2564b69b86a822c2d04a4f86fb7cf82600dcb</t>
@@ -28139,7 +28143,7 @@
         </is>
       </c>
     </row>
-    <row r="840" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="840" s="27">
       <c r="A840" s="28" t="inlineStr">
         <is>
           <t>0x54f7c0fe2a3c112440c3160b3ce96ff61053a198</t>
@@ -28151,7 +28155,7 @@
         </is>
       </c>
     </row>
-    <row r="841" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="841" s="27">
       <c r="A841" s="28" t="inlineStr">
         <is>
           <t>0x99df291d74dc7b60323c108bd4c1c046a71a1547</t>
@@ -28163,7 +28167,7 @@
         </is>
       </c>
     </row>
-    <row r="842" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="842" s="27">
       <c r="A842" s="28" t="inlineStr">
         <is>
           <t>0xd6ed16897f5fb233d464914eb74734f2a47657d7</t>
@@ -28175,7 +28179,7 @@
         </is>
       </c>
     </row>
-    <row r="843" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="843" s="27">
       <c r="A843" s="28" t="inlineStr">
         <is>
           <t>0x2a9fcc647c1bd132f772ebc5bd29f0e3266e6d37</t>
@@ -28187,7 +28191,7 @@
         </is>
       </c>
     </row>
-    <row r="844" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="844" s="27">
       <c r="A844" s="28" t="inlineStr">
         <is>
           <t>0x373fce1d03a3220b3b47eef288633a35cce3de80</t>
@@ -28199,7 +28203,7 @@
         </is>
       </c>
     </row>
-    <row r="845" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="845" s="27">
       <c r="A845" s="28" t="inlineStr">
         <is>
           <t>0x88b0d2b20da2a5e806a0a062cc0cbe28c9a743b0</t>
@@ -28211,7 +28215,7 @@
         </is>
       </c>
     </row>
-    <row r="846" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="846" s="27">
       <c r="A846" s="28" t="inlineStr">
         <is>
           <t>0xd7f1c273dff214810a46f7c914c7043e08b91fb8</t>
@@ -28223,7 +28227,7 @@
         </is>
       </c>
     </row>
-    <row r="847" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="847" s="27">
       <c r="A847" s="28" t="inlineStr">
         <is>
           <t>0xd98cc9e432783a78c6bef95e0e8bcc37aafad8e6</t>
@@ -28235,7 +28239,7 @@
         </is>
       </c>
     </row>
-    <row r="848" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="848" s="27">
       <c r="A848" s="28" t="inlineStr">
         <is>
           <t>0x8d647464e48fec718a1d7932fa66777def95ca05</t>
@@ -28247,7 +28251,7 @@
         </is>
       </c>
     </row>
-    <row r="849" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="849" s="27">
       <c r="A849" s="28" t="inlineStr">
         <is>
           <t>0x67d7d05b8089a2b50054f91b37ae813847bc350b</t>
@@ -28259,7 +28263,7 @@
         </is>
       </c>
     </row>
-    <row r="850" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="850" s="27">
       <c r="A850" s="28" t="inlineStr">
         <is>
           <t>0xd959dad4d1b20ec04d1f299dd37614e5bce439b6</t>
@@ -28271,7 +28275,7 @@
         </is>
       </c>
     </row>
-    <row r="851" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="851" s="27">
       <c r="A851" s="28" t="inlineStr">
         <is>
           <t>0xaf2af89e1750ea47d49a5d1d46f9bd0c7686b973</t>
@@ -28283,7 +28287,7 @@
         </is>
       </c>
     </row>
-    <row r="852" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="852" s="27">
       <c r="A852" s="28" t="inlineStr">
         <is>
           <t>0x0b53252539686e6dfcc7e7cde6bad454a40b408c</t>
@@ -28295,7 +28299,7 @@
         </is>
       </c>
     </row>
-    <row r="853" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="853" s="27">
       <c r="A853" s="28" t="inlineStr">
         <is>
           <t>0x1971668544bce028dbe5dcc85b27b47f07e1e2c8</t>
@@ -28307,7 +28311,7 @@
         </is>
       </c>
     </row>
-    <row r="854" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="854" s="27">
       <c r="A854" s="28" t="inlineStr">
         <is>
           <t>0xa217fbcb15ab13e02d4afa6034e760156b71b495</t>
@@ -28319,7 +28323,7 @@
         </is>
       </c>
     </row>
-    <row r="855" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="855" s="27">
       <c r="A855" s="28" t="inlineStr">
         <is>
           <t>0x5c811e2ecbc06f109933cd11e8195a8933df5b77</t>
@@ -28331,7 +28335,7 @@
         </is>
       </c>
     </row>
-    <row r="856" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="856" s="27">
       <c r="A856" s="28" t="inlineStr">
         <is>
           <t>0x2c525b458c0fd580f27dde3a5b6c543d4eb733b7</t>
@@ -28343,7 +28347,7 @@
         </is>
       </c>
     </row>
-    <row r="857" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="857" s="27">
       <c r="A857" s="28" t="inlineStr">
         <is>
           <t>0x08580f5c9975b366666ad8913efdf955cd77637c</t>
@@ -28355,7 +28359,7 @@
         </is>
       </c>
     </row>
-    <row r="858" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="858" s="27">
       <c r="A858" s="28" t="inlineStr">
         <is>
           <t>0xedf9413819f4e1c49f22f647d9aef1175675c911</t>
@@ -28367,7 +28371,7 @@
         </is>
       </c>
     </row>
-    <row r="859" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="859" s="27">
       <c r="A859" s="28" t="inlineStr">
         <is>
           <t>0x0c174f4599f58d5a541644796162e7e704f48a7d</t>
@@ -28379,7 +28383,7 @@
         </is>
       </c>
     </row>
-    <row r="860" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="860" s="27">
       <c r="A860" s="28" t="inlineStr">
         <is>
           <t>0x453f139a6922fbbaba498935458f6d7161ba28d7</t>
@@ -28391,7 +28395,7 @@
         </is>
       </c>
     </row>
-    <row r="861" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="861" s="27">
       <c r="A861" s="28" t="inlineStr">
         <is>
           <t>0xb629b5cabe15dedbf3ae1965e47d2f49567bb6e5</t>
@@ -28403,7 +28407,7 @@
         </is>
       </c>
     </row>
-    <row r="862" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="862" s="27">
       <c r="A862" s="28" t="inlineStr">
         <is>
           <t>0x2d32ec2efa1aa0b0826e2c3bae6c6f8a409abc81</t>
@@ -28415,7 +28419,7 @@
         </is>
       </c>
     </row>
-    <row r="863" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="863" s="27">
       <c r="A863" s="28" t="inlineStr">
         <is>
           <t>0x2686580247c58e3231ad06285258591f0fd3e5ab</t>
@@ -28427,7 +28431,7 @@
         </is>
       </c>
     </row>
-    <row r="864" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="864" s="27">
       <c r="A864" s="28" t="inlineStr">
         <is>
           <t>0x61dc60bd6686ac7a7aeea10d7ab9ae3d8e0beea8</t>
@@ -28439,7 +28443,7 @@
         </is>
       </c>
     </row>
-    <row r="865" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="865" s="27">
       <c r="A865" s="28" t="inlineStr">
         <is>
           <t>0xa3fc736647deaf56b7871554a780c6d688402240</t>
@@ -28451,7 +28455,7 @@
         </is>
       </c>
     </row>
-    <row r="866" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="866" s="27">
       <c r="A866" s="28" t="inlineStr">
         <is>
           <t>0x299af48a61dd35925bd8ae0ba5359749b74441ab</t>
@@ -28463,7 +28467,7 @@
         </is>
       </c>
     </row>
-    <row r="867" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="867" s="27">
       <c r="A867" s="28" t="inlineStr">
         <is>
           <t>0x8c7d84b3c53fced49d0ba91cae9e4662077fa7b9</t>
@@ -28475,7 +28479,7 @@
         </is>
       </c>
     </row>
-    <row r="868" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="868" s="27">
       <c r="A868" s="28" t="inlineStr">
         <is>
           <t>0xa21e11f58338ab1952f710bb03d47123c6c0c392</t>
@@ -28487,7 +28491,7 @@
         </is>
       </c>
     </row>
-    <row r="869" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="869" s="27">
       <c r="A869" s="28" t="inlineStr">
         <is>
           <t>0x64dedfa03eb26a4f49a037fbb5e9402a3aaf593b</t>
@@ -28499,7 +28503,7 @@
         </is>
       </c>
     </row>
-    <row r="870" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="870" s="27">
       <c r="A870" s="28" t="inlineStr">
         <is>
           <t>0x70682ed1af0f18fedcefc1bd17641d6a16858eda</t>
@@ -28511,7 +28515,7 @@
         </is>
       </c>
     </row>
-    <row r="871" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="871" s="27">
       <c r="A871" s="28" t="inlineStr">
         <is>
           <t>0x4ec5ca865416f03ed8b4f207fbd1a856e9a65684</t>
@@ -28523,7 +28527,7 @@
         </is>
       </c>
     </row>
-    <row r="872" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="872" s="27">
       <c r="A872" s="28" t="inlineStr">
         <is>
           <t>0x45a20ff6bfcfced7c4b4dbcd2cf04ac8dc8cb776</t>
@@ -28535,7 +28539,7 @@
         </is>
       </c>
     </row>
-    <row r="873" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="873" s="27">
       <c r="A873" s="28" t="inlineStr">
         <is>
           <t>0x823fbf6e3ec2204647d4a4d346bf6f060eabfc41</t>
@@ -28547,7 +28551,7 @@
         </is>
       </c>
     </row>
-    <row r="874" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="874" s="27">
       <c r="A874" s="28" t="inlineStr">
         <is>
           <t>0xdbe44e753276fb3718c6b587a7661e6b07aa698e</t>
@@ -28559,7 +28563,7 @@
         </is>
       </c>
     </row>
-    <row r="875" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="875" s="27">
       <c r="A875" s="28" t="inlineStr">
         <is>
           <t>0x8b082173b5bd355736cef917ed2a994e5e2d06a5</t>
@@ -28571,7 +28575,7 @@
         </is>
       </c>
     </row>
-    <row r="876" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="876" s="27">
       <c r="A876" s="28" t="inlineStr">
         <is>
           <t>0x9230dda652f7506fa43f33942d4d0b52dda49b92</t>
@@ -28583,7 +28587,7 @@
         </is>
       </c>
     </row>
-    <row r="877" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="877" s="27">
       <c r="A877" s="28" t="inlineStr">
         <is>
           <t>0xe8730b7ca77403b442f28a7d776f4518b6300db3</t>
@@ -28595,7 +28599,7 @@
         </is>
       </c>
     </row>
-    <row r="878" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="878" s="27">
       <c r="A878" s="28" t="inlineStr">
         <is>
           <t>0xad15bacecffe6b32443b4e2bbd2cedac5fbf35ba</t>
@@ -28607,7 +28611,7 @@
         </is>
       </c>
     </row>
-    <row r="879" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="879" s="27">
       <c r="A879" s="28" t="inlineStr">
         <is>
           <t>0x15d3c221be78c8e8de76af3c48c0939965b5bd5c</t>
@@ -28619,7 +28623,7 @@
         </is>
       </c>
     </row>
-    <row r="880" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="880" s="27">
       <c r="A880" s="28" t="inlineStr">
         <is>
           <t>0xf1d704151888c52c69058a0b971c6f5277132f60</t>
@@ -28631,7 +28635,7 @@
         </is>
       </c>
     </row>
-    <row r="881" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="881" s="27">
       <c r="A881" s="28" t="inlineStr">
         <is>
           <t>0xf86a88f602217c0605f8afd4b92c725f1476bd95</t>
@@ -28643,7 +28647,7 @@
         </is>
       </c>
     </row>
-    <row r="882" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="882" s="27">
       <c r="A882" s="28" t="inlineStr">
         <is>
           <t>0x562ea0e940f731d1b2642852220d6c5d34806299</t>
@@ -28655,7 +28659,7 @@
         </is>
       </c>
     </row>
-    <row r="883" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="883" s="27">
       <c r="A883" s="28" t="inlineStr">
         <is>
           <t>0xa4f035f542cae3ab7e6f5b6684f56ff1725ddd7a</t>
@@ -28667,7 +28671,7 @@
         </is>
       </c>
     </row>
-    <row r="884" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="884" s="27">
       <c r="A884" s="28" t="inlineStr">
         <is>
           <t>0xf0ba6c9b1d4935ad45d6877ded9cf398082a291e</t>
@@ -28679,7 +28683,7 @@
         </is>
       </c>
     </row>
-    <row r="885" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="885" s="27">
       <c r="A885" s="28" t="inlineStr">
         <is>
           <t>0x0d997247423329754ad6d0d4e66e5183338ccb6f</t>
@@ -28691,7 +28695,7 @@
         </is>
       </c>
     </row>
-    <row r="886" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="886" s="27">
       <c r="A886" s="28" t="inlineStr">
         <is>
           <t>0x74a27d1f41d3087bb439815b62c317b9da2763d4</t>
@@ -28703,7 +28707,7 @@
         </is>
       </c>
     </row>
-    <row r="887" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="887" s="27">
       <c r="A887" s="28" t="inlineStr">
         <is>
           <t>0x13f51b7f4a1416a2e0e55fcb245dd34e49677b53</t>
@@ -28715,7 +28719,7 @@
         </is>
       </c>
     </row>
-    <row r="888" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="888" s="27">
       <c r="A888" s="28" t="inlineStr">
         <is>
           <t>0xf0fed466096bd93c139e5179effdd50ca5092432</t>
@@ -28727,7 +28731,7 @@
         </is>
       </c>
     </row>
-    <row r="889" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="889" s="27">
       <c r="A889" s="28" t="inlineStr">
         <is>
           <t>0x7a1c0d8d6ca470c977b9cde20bcdadf37bd013e7</t>
@@ -28739,7 +28743,7 @@
         </is>
       </c>
     </row>
-    <row r="890" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="890" s="27">
       <c r="A890" s="28" t="inlineStr">
         <is>
           <t>0x24385ff8bb892cd498359e4adf70580b64c97c94</t>
@@ -28751,7 +28755,7 @@
         </is>
       </c>
     </row>
-    <row r="891" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="891" s="27">
       <c r="A891" s="28" t="inlineStr">
         <is>
           <t>0x5fd29f7105dce01a72722634378dd3caddb985ec</t>
@@ -28763,7 +28767,7 @@
         </is>
       </c>
     </row>
-    <row r="892" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="892" s="27">
       <c r="A892" s="28" t="inlineStr">
         <is>
           <t>0xd0236f3d5d9d35850117ce7b039111033e011822</t>
@@ -28775,7 +28779,7 @@
         </is>
       </c>
     </row>
-    <row r="893" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="893" s="27">
       <c r="A893" s="28" t="inlineStr">
         <is>
           <t>0x9548987f7d65ef1393de70e7f27cb5dbd997ce4a</t>
@@ -28787,7 +28791,7 @@
         </is>
       </c>
     </row>
-    <row r="894" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="894" s="27">
       <c r="A894" s="28" t="inlineStr">
         <is>
           <t>0x9c6f5b5adb0861cf053fbc582e0a1dbad53925ce</t>
@@ -28799,7 +28803,7 @@
         </is>
       </c>
     </row>
-    <row r="895" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="895" s="27">
       <c r="A895" s="28" t="inlineStr">
         <is>
           <t>0x6bd3a02788ee488f1dd2e2278aa1e36b0250f4b4</t>
@@ -28811,7 +28815,7 @@
         </is>
       </c>
     </row>
-    <row r="896" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="896" s="27">
       <c r="A896" s="28" t="inlineStr">
         <is>
           <t>0xc5faa07b0f112e0d94c8e3f3beb7a44e152818e5</t>
@@ -28823,7 +28827,7 @@
         </is>
       </c>
     </row>
-    <row r="897" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="897" s="27">
       <c r="A897" s="28" t="inlineStr">
         <is>
           <t>0x6b70401a593ea5eb7b5c88dc89c9aeb814b35f86</t>
@@ -28835,7 +28839,7 @@
         </is>
       </c>
     </row>
-    <row r="898" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="898" s="27">
       <c r="A898" s="28" t="inlineStr">
         <is>
           <t>0x990ac966feb6e4ace69e5dfbf8bcb64352edcdbe</t>
@@ -28847,7 +28851,7 @@
         </is>
       </c>
     </row>
-    <row r="899" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="899" s="27">
       <c r="A899" s="28" t="inlineStr">
         <is>
           <t>0xa9cfc35c9d88140fd0bbb1ab7c802eece4bd26f3</t>
@@ -28859,7 +28863,7 @@
         </is>
       </c>
     </row>
-    <row r="900" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="900" s="27">
       <c r="A900" s="28" t="inlineStr">
         <is>
           <t>0x74fb6da5a0f0fd185cbb4bb3cadf41762832c7b7</t>
@@ -28871,7 +28875,7 @@
         </is>
       </c>
     </row>
-    <row r="901" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="901" s="27">
       <c r="A901" s="28" t="inlineStr">
         <is>
           <t>0x210e96c72eff4b7480266eb9781a718daf1a3443</t>
@@ -28883,7 +28887,7 @@
         </is>
       </c>
     </row>
-    <row r="902" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="902" s="27">
       <c r="A902" s="28" t="inlineStr">
         <is>
           <t>0x83a1a653946a9cde62e703eaa0c5f0ca3fff2082</t>
@@ -28895,7 +28899,7 @@
         </is>
       </c>
     </row>
-    <row r="903" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="903" s="27">
       <c r="A903" s="28" t="inlineStr">
         <is>
           <t>0x871d11361c5af4d14ab871ba81e779becea3ceae</t>
@@ -28907,7 +28911,7 @@
         </is>
       </c>
     </row>
-    <row r="904" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="904" s="27">
       <c r="A904" s="28" t="inlineStr">
         <is>
           <t>0x1ead3635c8aed309aaea335bfb6916cd28e6a8c7</t>
@@ -28919,7 +28923,7 @@
         </is>
       </c>
     </row>
-    <row r="905" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="905" s="27">
       <c r="A905" s="28" t="inlineStr">
         <is>
           <t>0xe6a04ba5f27fa45d2d8c35eec568c7b0486e1582</t>
@@ -28931,7 +28935,7 @@
         </is>
       </c>
     </row>
-    <row r="906" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="906" s="27">
       <c r="A906" s="28" t="inlineStr">
         <is>
           <t>0x7e92f2f8ef1278343c6cc611eeefb55ae84278e0</t>
@@ -28943,7 +28947,7 @@
         </is>
       </c>
     </row>
-    <row r="907" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="907" s="27">
       <c r="A907" s="28" t="inlineStr">
         <is>
           <t>0xf816a414ae1fc2b15b4176daf2cce1e5166d694c</t>
@@ -28955,7 +28959,7 @@
         </is>
       </c>
     </row>
-    <row r="908" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="908" s="27">
       <c r="A908" s="28" t="inlineStr">
         <is>
           <t>0x03d315f12d06910552803b0023d0c23f612bfa19</t>
@@ -28967,7 +28971,7 @@
         </is>
       </c>
     </row>
-    <row r="909" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="909" s="27">
       <c r="A909" s="28" t="inlineStr">
         <is>
           <t>0xc5567b0af2def996c59a1d524c5e521313f383a6</t>
@@ -28979,7 +28983,7 @@
         </is>
       </c>
     </row>
-    <row r="910" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="910" s="27">
       <c r="A910" s="28" t="inlineStr">
         <is>
           <t>0xfad6b3427fe89a688092f37274150c6d41f7b36f</t>
@@ -28991,7 +28995,7 @@
         </is>
       </c>
     </row>
-    <row r="911" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="911" s="27">
       <c r="A911" s="28" t="inlineStr">
         <is>
           <t>0x4aa07b0a497d400d6e2de9ec72eb782dfa09e5db</t>
@@ -29003,7 +29007,7 @@
         </is>
       </c>
     </row>
-    <row r="912" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="912" s="27">
       <c r="A912" s="28" t="inlineStr">
         <is>
           <t>0x51d53027af772433e321d80b4682c802e51673a6</t>
@@ -29015,7 +29019,7 @@
         </is>
       </c>
     </row>
-    <row r="913" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="913" s="27">
       <c r="A913" s="28" t="inlineStr">
         <is>
           <t>0xe1d289bed3ef06bdacef4b6a3b0b3f36c52b1e11</t>
@@ -29027,7 +29031,7 @@
         </is>
       </c>
     </row>
-    <row r="914" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="914" s="27">
       <c r="A914" s="28" t="inlineStr">
         <is>
           <t>0xec8f5932b1af3d7ad6589b0f3e462386388b0ed9</t>
@@ -29039,7 +29043,7 @@
         </is>
       </c>
     </row>
-    <row r="915" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="915" s="27">
       <c r="A915" s="28" t="inlineStr">
         <is>
           <t>0xa357c0ff2fce476e0120c26f89a610b5f520a5e6</t>
@@ -29051,7 +29055,7 @@
         </is>
       </c>
     </row>
-    <row r="916" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="916" s="27">
       <c r="A916" s="28" t="inlineStr">
         <is>
           <t>0x6c61a90b6271ec9f81a46a3dcea0b0136173c34e</t>
@@ -29063,7 +29067,7 @@
         </is>
       </c>
     </row>
-    <row r="917" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="917" s="27">
       <c r="A917" s="28" t="inlineStr">
         <is>
           <t>0x492ef6ddcd1a2fba205df432c0e7ec8e3358c2a7</t>
@@ -29075,7 +29079,7 @@
         </is>
       </c>
     </row>
-    <row r="918" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="918" s="27">
       <c r="A918" s="28" t="inlineStr">
         <is>
           <t>0xf25d00967f2e1f0e587c4569a5fb4dcfa5ab6a7e</t>
@@ -29087,7 +29091,7 @@
         </is>
       </c>
     </row>
-    <row r="919" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="919" s="27">
       <c r="A919" s="28" t="inlineStr">
         <is>
           <t>0x6ed9fa6bb55799c6e2d2a116cea655d05926673f</t>
@@ -29099,7 +29103,7 @@
         </is>
       </c>
     </row>
-    <row r="920" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="920" s="27">
       <c r="A920" s="28" t="inlineStr">
         <is>
           <t>0xc2d7258a97fe9a8d234666c65539ea4e6554139d</t>
@@ -29111,7 +29115,7 @@
         </is>
       </c>
     </row>
-    <row r="921" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="921" s="27">
       <c r="A921" s="28" t="inlineStr">
         <is>
           <t>0xc12b4322c69ac115f456c7eccc18fbd6a6c5e20d</t>
@@ -29123,7 +29127,7 @@
         </is>
       </c>
     </row>
-    <row r="922" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="922" s="27">
       <c r="A922" s="28" t="inlineStr">
         <is>
           <t>0xf87a742293997a8ea64ecbca82e2d42a0fb153f1</t>
@@ -29135,7 +29139,7 @@
         </is>
       </c>
     </row>
-    <row r="923" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="923" s="27">
       <c r="A923" s="28" t="inlineStr">
         <is>
           <t>0xe82ca4b99291d50484832f24c19ff30c2864f6d2</t>
@@ -29147,7 +29151,7 @@
         </is>
       </c>
     </row>
-    <row r="924" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="924" s="27">
       <c r="A924" s="28" t="inlineStr">
         <is>
           <t>0x6c1d74dd359fa77d4015666907dd5a5f8619ccb4</t>
@@ -29159,7 +29163,7 @@
         </is>
       </c>
     </row>
-    <row r="925" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="925" s="27">
       <c r="A925" s="28" t="inlineStr">
         <is>
           <t>0xd5f26c7e202c80c3488b338ae6436c0ec59889a3</t>
@@ -29171,7 +29175,7 @@
         </is>
       </c>
     </row>
-    <row r="926" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="926" s="27">
       <c r="A926" s="28" t="inlineStr">
         <is>
           <t>0x67d4416794d1286ff513032a3fb7e24315b3e67d</t>
@@ -29183,7 +29187,7 @@
         </is>
       </c>
     </row>
-    <row r="927" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="927" s="27">
       <c r="A927" s="28" t="inlineStr">
         <is>
           <t>0xcb566ca94a44f5384bc307f7dcbd468ad21fe8bf</t>
@@ -29195,7 +29199,7 @@
         </is>
       </c>
     </row>
-    <row r="928" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="928" s="27">
       <c r="A928" s="28" t="inlineStr">
         <is>
           <t>0x1c5277ffd48f27f6ddfabeab87e31cc0156d47bb</t>
@@ -29207,7 +29211,7 @@
         </is>
       </c>
     </row>
-    <row r="929" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="929" s="27">
       <c r="A929" s="28" t="inlineStr">
         <is>
           <t>0x30c94bca78f41d562daaa5989b315f6d16892fa0</t>
@@ -29219,7 +29223,7 @@
         </is>
       </c>
     </row>
-    <row r="930" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="930" s="27">
       <c r="A930" s="28" t="inlineStr">
         <is>
           <t>0x3e81566968f3eb22e2e847132aa3eb950377caaa</t>
@@ -29231,7 +29235,7 @@
         </is>
       </c>
     </row>
-    <row r="931" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="931" s="27">
       <c r="A931" s="28" t="inlineStr">
         <is>
           <t>0xc092200e22d0409b6eb9462e4bb01c0bea7e4ba9</t>
@@ -29243,7 +29247,7 @@
         </is>
       </c>
     </row>
-    <row r="932" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="932" s="27">
       <c r="A932" s="28" t="inlineStr">
         <is>
           <t>0x83eb66c15bcad457e6875757dd69921b2cd0587f</t>
@@ -29255,7 +29259,7 @@
         </is>
       </c>
     </row>
-    <row r="933" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="933" s="27">
       <c r="A933" s="28" t="inlineStr">
         <is>
           <t>0xceaa1a1becc25de3341d55b8c68154b0610bb617</t>
@@ -29267,7 +29271,7 @@
         </is>
       </c>
     </row>
-    <row r="934" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="934" s="27">
       <c r="A934" s="28" t="inlineStr">
         <is>
           <t>0x6f2328e41c6b6cd3f54a361a7d604602ca59293a</t>
@@ -29279,7 +29283,7 @@
         </is>
       </c>
     </row>
-    <row r="935" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="935" s="27">
       <c r="A935" s="28" t="inlineStr">
         <is>
           <t>0x7697c612b341f6e02f1260285fc7e56314443627</t>
@@ -29291,7 +29295,7 @@
         </is>
       </c>
     </row>
-    <row r="936" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="936" s="27">
       <c r="A936" s="28" t="inlineStr">
         <is>
           <t>0x4292d5bf7db7aaf7b0e07e530449de3a07a002f5</t>
@@ -29303,7 +29307,7 @@
         </is>
       </c>
     </row>
-    <row r="937" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="937" s="27">
       <c r="A937" s="28" t="inlineStr">
         <is>
           <t>0x70153b194acd90ef602b924b8a66954c5165b313</t>
@@ -29315,7 +29319,7 @@
         </is>
       </c>
     </row>
-    <row r="938" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="938" s="27">
       <c r="A938" s="28" t="inlineStr">
         <is>
           <t>0x070edb57fa4a826f26f27084030319bd792fa9e6</t>
@@ -29327,7 +29331,7 @@
         </is>
       </c>
     </row>
-    <row r="939" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="939" s="27">
       <c r="A939" s="28" t="inlineStr">
         <is>
           <t>0xdfed25d8c7f958b2e388bbb8fb7d78c5e903fe57</t>
@@ -29339,7 +29343,7 @@
         </is>
       </c>
     </row>
-    <row r="940" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="940" s="27">
       <c r="A940" s="28" t="inlineStr">
         <is>
           <t>0x4b1b09b088183a755df5be197a290f1cf1975ace</t>
@@ -29351,7 +29355,7 @@
         </is>
       </c>
     </row>
-    <row r="941" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="941" s="27">
       <c r="A941" s="28" t="inlineStr">
         <is>
           <t>0x381b4cd3c0c555a09a1079d79c105f81d14136bf</t>
@@ -29363,7 +29367,7 @@
         </is>
       </c>
     </row>
-    <row r="942" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="942" s="27">
       <c r="A942" s="28" t="inlineStr">
         <is>
           <t>0x847a36f0edc197c9685a8b910dce8b805b2f8f58</t>
@@ -29375,7 +29379,7 @@
         </is>
       </c>
     </row>
-    <row r="943" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="943" s="27">
       <c r="A943" s="28" t="inlineStr">
         <is>
           <t>0xa6d610ceb21372d01e9fa7599050568ec275a692</t>
@@ -29387,7 +29391,7 @@
         </is>
       </c>
     </row>
-    <row r="944" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="944" s="27">
       <c r="A944" s="28" t="inlineStr">
         <is>
           <t>0x64948e8fc10b49a0e296ac91a49206272857ae42</t>
@@ -29399,7 +29403,7 @@
         </is>
       </c>
     </row>
-    <row r="945" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="945" s="27">
       <c r="A945" s="28" t="inlineStr">
         <is>
           <t>0x770192c2897cd54d13de7e08b993f779c3fbd087</t>
@@ -29411,7 +29415,7 @@
         </is>
       </c>
     </row>
-    <row r="946" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="946" s="27">
       <c r="A946" s="28" t="inlineStr">
         <is>
           <t>0xaeccbb6128776c37d1bd483567aa8aca9cee2f86</t>
@@ -29423,7 +29427,7 @@
         </is>
       </c>
     </row>
-    <row r="947" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="947" s="27">
       <c r="A947" s="28" t="inlineStr">
         <is>
           <t>0x1c7776b8f22b83a7c2ca7d3bf74781c9704f0cdc</t>
@@ -29435,7 +29439,7 @@
         </is>
       </c>
     </row>
-    <row r="948" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="948" s="27">
       <c r="A948" s="28" t="inlineStr">
         <is>
           <t>0xbe7f5d14f4f392789aa0c8ae623f513d19990601</t>
@@ -29447,7 +29451,7 @@
         </is>
       </c>
     </row>
-    <row r="949" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="949" s="27">
       <c r="A949" s="28" t="inlineStr">
         <is>
           <t>0x3d0ea068aea27dd4b729823491a2646ef7520769</t>
@@ -29459,7 +29463,7 @@
         </is>
       </c>
     </row>
-    <row r="950" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="950" s="27">
       <c r="A950" s="28" t="inlineStr">
         <is>
           <t>0x1bce53fd671c45a9edfd97e476a3149e92da0370</t>
@@ -29471,7 +29475,7 @@
         </is>
       </c>
     </row>
-    <row r="951" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="951" s="27">
       <c r="A951" s="28" t="inlineStr">
         <is>
           <t>0x7ecd230afb0bfe3df85b024e00e7e76929939fda</t>
@@ -29483,7 +29487,7 @@
         </is>
       </c>
     </row>
-    <row r="952" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="952" s="27">
       <c r="A952" s="28" t="inlineStr">
         <is>
           <t>0x63e032cc62ffb5f64aa100ac1be697d5c0b0d3ec</t>
@@ -29495,7 +29499,7 @@
         </is>
       </c>
     </row>
-    <row r="953" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="953" s="27">
       <c r="A953" s="28" t="inlineStr">
         <is>
           <t>0xdcfff25f9e13938dace92a7d40b7ba7b846a800d</t>
@@ -29507,7 +29511,7 @@
         </is>
       </c>
     </row>
-    <row r="954" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="954" s="27">
       <c r="A954" s="28" t="inlineStr">
         <is>
           <t>0x70099e6538b4745f193e52ea5be2c1546d30e792</t>
@@ -29519,7 +29523,7 @@
         </is>
       </c>
     </row>
-    <row r="955" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="955" s="27">
       <c r="A955" s="28" t="inlineStr">
         <is>
           <t>0x613c508325a362fc45a23a0af0555fa9f32bd8a9</t>
@@ -29531,7 +29535,7 @@
         </is>
       </c>
     </row>
-    <row r="956" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="956" s="27">
       <c r="A956" s="28" t="inlineStr">
         <is>
           <t>0x6e77ad8e33671350208e8e250497d022fad49736</t>
@@ -29543,7 +29547,7 @@
         </is>
       </c>
     </row>
-    <row r="957" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="957" s="27">
       <c r="A957" s="28" t="inlineStr">
         <is>
           <t>0x440b26149c8df2f82da022a794bd65492e68b2f5</t>
@@ -29555,7 +29559,7 @@
         </is>
       </c>
     </row>
-    <row r="958" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="958" s="27">
       <c r="A958" s="28" t="inlineStr">
         <is>
           <t>0xf0f58e65ab2078f4578e1963b36ae561cea2ac2b</t>
@@ -29567,7 +29571,7 @@
         </is>
       </c>
     </row>
-    <row r="959" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="959" s="27">
       <c r="A959" s="28" t="inlineStr">
         <is>
           <t>0x6fe4a1bc444fb2facab416db48afe4641800400e</t>
@@ -29579,7 +29583,7 @@
         </is>
       </c>
     </row>
-    <row r="960" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="960" s="27">
       <c r="A960" s="28" t="inlineStr">
         <is>
           <t>0xf1aa43cba9ef2dfaf1d6e4c9f63ed39d80c5e4a0</t>
@@ -29591,7 +29595,7 @@
         </is>
       </c>
     </row>
-    <row r="961" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="961" s="27">
       <c r="A961" s="28" t="inlineStr">
         <is>
           <t>0x6ca4e2d237f13abc9b93ac4a1f39b60354c13b83</t>
@@ -29603,7 +29607,7 @@
         </is>
       </c>
     </row>
-    <row r="962" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="962" s="27">
       <c r="A962" s="28" t="inlineStr">
         <is>
           <t>0xdd9349530cf0837f1cc274665350fad0c5957da5</t>
@@ -29615,7 +29619,7 @@
         </is>
       </c>
     </row>
-    <row r="963" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="963" s="27">
       <c r="A963" s="28" t="inlineStr">
         <is>
           <t>0xd2d0c87163b3345abf1b39cca40bb3e830bd3a91</t>
@@ -29627,7 +29631,7 @@
         </is>
       </c>
     </row>
-    <row r="964" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="964" s="27">
       <c r="A964" s="28" t="inlineStr">
         <is>
           <t>0xf9e62064ee3251b997fccd71bf6a998125e2b6df</t>
@@ -29639,7 +29643,7 @@
         </is>
       </c>
     </row>
-    <row r="965" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="965" s="27">
       <c r="A965" s="28" t="inlineStr">
         <is>
           <t>0xc03c497dd7f2d12347c7cb62fda05cc4773a4c75</t>
@@ -29651,7 +29655,7 @@
         </is>
       </c>
     </row>
-    <row r="966" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="966" s="27">
       <c r="A966" s="28" t="inlineStr">
         <is>
           <t>0x7cb5567052a706d6f3416409e326c77be48c0f95</t>
@@ -29663,7 +29667,7 @@
         </is>
       </c>
     </row>
-    <row r="967" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="967" s="27">
       <c r="A967" s="28" t="inlineStr">
         <is>
           <t>0x9bfb8c71b8032f8259b6d9bde00f978f18d6d094</t>
@@ -29675,7 +29679,7 @@
         </is>
       </c>
     </row>
-    <row r="968" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="968" s="27">
       <c r="A968" s="28" t="inlineStr">
         <is>
           <t>0x039ee1a3edcd72e00ba02c820683f182cfa783a5</t>
@@ -29687,7 +29691,7 @@
         </is>
       </c>
     </row>
-    <row r="969" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="969" s="27">
       <c r="A969" s="28" t="inlineStr">
         <is>
           <t>0xfd10d92a6095a9c26e9235e016eb96fada8f8595</t>
@@ -29699,7 +29703,7 @@
         </is>
       </c>
     </row>
-    <row r="970" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="970" s="27">
       <c r="A970" s="28" t="inlineStr">
         <is>
           <t>0x19e0f6eb53c4e35ccc61dedbf2c5fa12b74f5cb3</t>
@@ -29711,7 +29715,7 @@
         </is>
       </c>
     </row>
-    <row r="971" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="971" s="27">
       <c r="A971" s="28" t="inlineStr">
         <is>
           <t>0x4d7f046ae3544e54fd4edd4a5f948fc7599074d4</t>
@@ -29723,7 +29727,7 @@
         </is>
       </c>
     </row>
-    <row r="972" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="972" s="27">
       <c r="A972" s="28" t="inlineStr">
         <is>
           <t>0x3757c0d0770ac3f2722d2365a25d94970b8fd295</t>
@@ -29735,7 +29739,7 @@
         </is>
       </c>
     </row>
-    <row r="973" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="973" s="27">
       <c r="A973" s="28" t="inlineStr">
         <is>
           <t>0xbfe983223221a9700264390d7a945ef67e90c6aa</t>
@@ -29747,7 +29751,7 @@
         </is>
       </c>
     </row>
-    <row r="974" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="974" s="27">
       <c r="A974" s="28" t="inlineStr">
         <is>
           <t>0xeb1f09db74cfbf3d03acbdbe4fae4247c5272e62</t>
@@ -29759,7 +29763,7 @@
         </is>
       </c>
     </row>
-    <row r="975" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="975" s="27">
       <c r="A975" s="28" t="inlineStr">
         <is>
           <t>0xaff9d85d98a1d45cdfa32b95affa568e51121cb4</t>
@@ -29771,7 +29775,7 @@
         </is>
       </c>
     </row>
-    <row r="976" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="976" s="27">
       <c r="A976" s="28" t="inlineStr">
         <is>
           <t>0x180cfc9bf2258db73b4e664e3c8a45d88edfc9b8</t>
@@ -29783,7 +29787,7 @@
         </is>
       </c>
     </row>
-    <row r="977" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="977" s="27">
       <c r="A977" s="28" t="inlineStr">
         <is>
           <t>0xbd4fbb3210828ebcfc082641205ac18972d4f93d</t>
@@ -29795,7 +29799,7 @@
         </is>
       </c>
     </row>
-    <row r="978" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="978" s="27">
       <c r="A978" s="28" t="inlineStr">
         <is>
           <t>0x1c2bf28c571839d1aa71c6326be1e31e3618c002</t>
@@ -29807,7 +29811,7 @@
         </is>
       </c>
     </row>
-    <row r="979" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="979" s="27">
       <c r="A979" s="28" t="inlineStr">
         <is>
           <t>0x3c76efe83d1f448b66c02243fbc5cd6aea277474</t>
@@ -29819,7 +29823,7 @@
         </is>
       </c>
     </row>
-    <row r="980" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="980" s="27">
       <c r="A980" s="28" t="inlineStr">
         <is>
           <t>0x97894e73922af9edd6a3862bd9ba1bc5ce6f044c</t>
@@ -29831,7 +29835,7 @@
         </is>
       </c>
     </row>
-    <row r="981" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="981" s="27">
       <c r="A981" s="28" t="inlineStr">
         <is>
           <t>0x9fda5b5ca637dfea0f82e47fb7247a691cd8dc43</t>
@@ -29843,7 +29847,7 @@
         </is>
       </c>
     </row>
-    <row r="982" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="982" s="27">
       <c r="A982" s="28" t="inlineStr">
         <is>
           <t>0x9f1157362697554e7ec40bfe9376d18a40b82894</t>
@@ -29855,7 +29859,7 @@
         </is>
       </c>
     </row>
-    <row r="983" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="983" s="27">
       <c r="A983" s="28" t="inlineStr">
         <is>
           <t>0xe376dc9c113f0942bd56655e0ee085e0cd725552</t>
@@ -29867,7 +29871,7 @@
         </is>
       </c>
     </row>
-    <row r="984" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="984" s="27">
       <c r="A984" s="28" t="inlineStr">
         <is>
           <t>0xac022e125c54e3b4b1b0da4127a1efac5e1576bf</t>
@@ -29879,7 +29883,7 @@
         </is>
       </c>
     </row>
-    <row r="985" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="985" s="27">
       <c r="A985" s="28" t="inlineStr">
         <is>
           <t>0xb5979eb605637595c1fd77cc4367c25363bdaf92</t>
@@ -29891,7 +29895,7 @@
         </is>
       </c>
     </row>
-    <row r="986" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="986" s="27">
       <c r="A986" s="28" t="inlineStr">
         <is>
           <t>0xe840d3c7466c83eb1b1cea975583b2cb8c9d4b11</t>
@@ -29903,7 +29907,7 @@
         </is>
       </c>
     </row>
-    <row r="987" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="987" s="27">
       <c r="A987" s="28" t="inlineStr">
         <is>
           <t>0xe615a41642ca028e19331224b1e0ff4e7ad52ba6</t>
@@ -29915,7 +29919,7 @@
         </is>
       </c>
     </row>
-    <row r="988" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="988" s="27">
       <c r="A988" s="28" t="inlineStr">
         <is>
           <t>0x788985c72dfa5ec94c810a1473ae8de64b0c784b</t>
@@ -29927,7 +29931,7 @@
         </is>
       </c>
     </row>
-    <row r="989" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="989" s="27">
       <c r="A989" s="28" t="inlineStr">
         <is>
           <t>0xf61d82ab4694fc7b83782b9d1b909a2778925990</t>
@@ -29939,7 +29943,7 @@
         </is>
       </c>
     </row>
-    <row r="990" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="990" s="27">
       <c r="A990" s="28" t="inlineStr">
         <is>
           <t>0xc4b113ecb3739aa1c9f39eba638d7e305ce9b26c</t>
@@ -29951,7 +29955,7 @@
         </is>
       </c>
     </row>
-    <row r="991" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="991" s="27">
       <c r="A991" s="28" t="inlineStr">
         <is>
           <t>0x5dc718c12fda553ecd727b889e48b72b099e6157</t>
@@ -29963,7 +29967,7 @@
         </is>
       </c>
     </row>
-    <row r="992" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="992" s="27">
       <c r="A992" s="28" t="inlineStr">
         <is>
           <t>0xee304d6aaefddc7906757d43b049c3fc943e5535</t>
@@ -29975,7 +29979,7 @@
         </is>
       </c>
     </row>
-    <row r="993" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="993" s="27">
       <c r="A993" s="28" t="inlineStr">
         <is>
           <t>0x9e95681168af65e00821c48e8a2a2f2dc0562a22</t>
@@ -29987,7 +29991,7 @@
         </is>
       </c>
     </row>
-    <row r="994" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="994" s="27">
       <c r="A994" s="28" t="inlineStr">
         <is>
           <t>0x51273dda250d54157514d4a68d7c6d39c0b80017</t>
@@ -29999,7 +30003,7 @@
         </is>
       </c>
     </row>
-    <row r="995" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="995" s="27">
       <c r="A995" s="28" t="inlineStr">
         <is>
           <t>0xc09615f360718f29d6fb1dd4c4221b250d3faf04</t>
@@ -30011,7 +30015,7 @@
         </is>
       </c>
     </row>
-    <row r="996" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="996" s="27">
       <c r="A996" s="28" t="inlineStr">
         <is>
           <t>0x1b879655200b2384fd8f5e034f0d6f1cf71df12a</t>
@@ -30023,7 +30027,7 @@
         </is>
       </c>
     </row>
-    <row r="997" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="997" s="27">
       <c r="A997" s="28" t="inlineStr">
         <is>
           <t>0xae4341cb6fa0b5000cf243bca5c804a3a29018e1</t>
@@ -30035,7 +30039,7 @@
         </is>
       </c>
     </row>
-    <row r="998" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="998" s="27">
       <c r="A998" s="28" t="inlineStr">
         <is>
           <t>0xf657f6fc4b6bd29aef11a43ad4a9a0eccbe82646</t>
@@ -30047,7 +30051,7 @@
         </is>
       </c>
     </row>
-    <row r="999" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="999" s="27">
       <c r="A999" s="28" t="inlineStr">
         <is>
           <t>0x67cd0727de829601a4bcede7a0031478399d22f3</t>
@@ -30059,7 +30063,7 @@
         </is>
       </c>
     </row>
-    <row r="1000" ht="18.75" customHeight="1" s="27">
+    <row customHeight="1" ht="18.75" r="1000" s="27">
       <c r="A1000" s="28" t="inlineStr">
         <is>
           <t>0xaaf0bb8c38a09c7004b1c572c48e7a16473123dd</t>
@@ -30078,8 +30082,8 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="Q1:U1"/>
   </mergeCells>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
 </worksheet>
 </file>